--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E00307-21B3-6847-AADE-89D6518F6238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96748D7E-ADCE-E446-9475-7F1536B4C111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="0" yWindow="4400" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>study_id</t>
   </si>
@@ -54,12 +54,6 @@
     <t xml:space="preserve">count </t>
   </si>
   <si>
-    <t>min_time</t>
-  </si>
-  <si>
-    <t>max_time</t>
-  </si>
-  <si>
     <t>resp_def</t>
   </si>
   <si>
@@ -114,20 +108,65 @@
     <t xml:space="preserve">time_point </t>
   </si>
   <si>
-    <t xml:space="preserve">bartheld </t>
+    <t>maximal swimming speed</t>
+  </si>
+  <si>
+    <t>BL * s^-1</t>
+  </si>
+  <si>
+    <t>temp_exposed</t>
+  </si>
+  <si>
+    <t>period_flux</t>
+  </si>
+  <si>
+    <t>Calyptocephalella</t>
+  </si>
+  <si>
+    <t>gayi</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>figure 1</t>
+  </si>
+  <si>
+    <t>bartheld2017</t>
+  </si>
+  <si>
+    <t>table 1</t>
+  </si>
+  <si>
+    <t>blanchard2006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -482,90 +523,990 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
+      <c r="O2" s="1">
+        <v>1.1297709899999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>8.0152669999999995E-2</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>29</v>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.29770992</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.17557252000000001</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.19847328</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>18</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.17938931</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.4961832099999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>18</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.22900762999999999</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2.7938931299999998</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.15648855</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.6106870200000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.17557252000000001</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.93129770999999995</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6.1068699999999997E-2</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.6259541999999998</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>25</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.11832061000000001</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.3893129800000001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.12977099</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.2061068700000002</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>25</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.13740458</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.53435115</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>25</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.15267175999999999</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.6793893099999999</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>25</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.11450382000000001</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96748D7E-ADCE-E446-9475-7F1536B4C111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC42994-87BA-004C-A2A0-CCCFE48217A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4400" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="50">
   <si>
     <t>study_id</t>
   </si>
@@ -33,9 +33,6 @@
     <t>org_level</t>
   </si>
   <si>
-    <t>flux_type</t>
-  </si>
-  <si>
     <t>flux_pattern</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>BL * s^-1</t>
   </si>
   <si>
-    <t>temp_exposed</t>
-  </si>
-  <si>
     <t>period_flux</t>
   </si>
   <si>
@@ -138,10 +132,49 @@
     <t>bartheld2017</t>
   </si>
   <si>
-    <t>table 1</t>
-  </si>
-  <si>
     <t>blanchard2006</t>
+  </si>
+  <si>
+    <t>flux_treatment</t>
+  </si>
+  <si>
+    <t>temp_measured</t>
+  </si>
+  <si>
+    <t>20-14</t>
+  </si>
+  <si>
+    <t>23-17</t>
+  </si>
+  <si>
+    <t>26-14</t>
+  </si>
+  <si>
+    <t>26-20</t>
+  </si>
+  <si>
+    <t>29-17</t>
+  </si>
+  <si>
+    <t>29-23</t>
+  </si>
+  <si>
+    <t>visible inflorescence percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent </t>
+  </si>
+  <si>
+    <t>Phalaenopsis</t>
+  </si>
+  <si>
+    <t>Brother Goldsmith ‘720’</t>
+  </si>
+  <si>
+    <t>20 weeks</t>
+  </si>
+  <si>
+    <t>Miva Smartissimo x Canberra ‘450’</t>
   </si>
 </sst>
 </file>
@@ -507,107 +540,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
       <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -615,19 +649,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -648,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
       <c r="O2" s="1">
         <v>1.1297709899999999</v>
@@ -669,10 +700,10 @@
         <v>8.0152669999999995E-2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V2" s="2">
         <v>1</v>
@@ -689,19 +720,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -722,10 +750,10 @@
         <v>12</v>
       </c>
       <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
       </c>
       <c r="O3" s="1">
         <v>3.29770992</v>
@@ -743,10 +771,10 @@
         <v>0.17557252000000001</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V3" s="2">
         <v>1</v>
@@ -763,19 +791,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -796,10 +821,10 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
       </c>
       <c r="O4" s="1">
         <v>4.19847328</v>
@@ -817,10 +842,10 @@
         <v>0.17938931</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V4" s="2">
         <v>1</v>
@@ -837,19 +862,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -870,10 +892,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
       </c>
       <c r="O5" s="1">
         <v>3.4961832099999999</v>
@@ -891,10 +913,10 @@
         <v>0.22900762999999999</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V5" s="2">
         <v>1</v>
@@ -911,19 +933,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -944,10 +963,10 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
         <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
       </c>
       <c r="O6" s="1">
         <v>2.7938931299999998</v>
@@ -965,10 +984,10 @@
         <v>0.15648855</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V6" s="2">
         <v>1</v>
@@ -985,19 +1004,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -1018,10 +1034,10 @@
         <v>35</v>
       </c>
       <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
         <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
       </c>
       <c r="O7" s="1">
         <v>1.6106870200000001</v>
@@ -1039,10 +1055,10 @@
         <v>0.17557252000000001</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V7" s="2">
         <v>1</v>
@@ -1059,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1080,10 +1096,10 @@
         <v>20</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="K8">
         <v>24</v>
@@ -1092,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
         <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
       </c>
       <c r="O8" s="1">
         <v>0.93129770999999995</v>
@@ -1113,10 +1129,10 @@
         <v>6.1068699999999997E-2</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V8" s="2">
         <v>1</v>
@@ -1133,16 +1149,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1154,10 +1170,10 @@
         <v>20</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="K9">
         <v>24</v>
@@ -1166,10 +1182,10 @@
         <v>12</v>
       </c>
       <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
         <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
       </c>
       <c r="O9" s="1">
         <v>2.6259541999999998</v>
@@ -1187,10 +1203,10 @@
         <v>0.11832061000000001</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V9" s="2">
         <v>1</v>
@@ -1207,16 +1223,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1228,10 +1244,10 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="K10">
         <v>24</v>
@@ -1240,10 +1256,10 @@
         <v>20</v>
       </c>
       <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
         <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
       </c>
       <c r="O10" s="1">
         <v>3.3893129800000001</v>
@@ -1261,10 +1277,10 @@
         <v>0.12977099</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
@@ -1281,16 +1297,16 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1302,10 +1318,10 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="K11">
         <v>24</v>
@@ -1314,10 +1330,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
         <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
       </c>
       <c r="O11" s="1">
         <v>3.2061068700000002</v>
@@ -1335,10 +1351,10 @@
         <v>0.13740458</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V11" s="2">
         <v>1</v>
@@ -1355,16 +1371,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1376,10 +1392,10 @@
         <v>20</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="K12">
         <v>24</v>
@@ -1388,10 +1404,10 @@
         <v>30</v>
       </c>
       <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
         <v>27</v>
-      </c>
-      <c r="N12" t="s">
-        <v>28</v>
       </c>
       <c r="O12" s="1">
         <v>2.53435115</v>
@@ -1409,10 +1425,10 @@
         <v>0.15267175999999999</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
@@ -1429,16 +1445,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1450,10 +1466,10 @@
         <v>20</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="K13">
         <v>24</v>
@@ -1462,10 +1478,10 @@
         <v>35</v>
       </c>
       <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
         <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
       </c>
       <c r="O13" s="1">
         <v>1.6793893099999999</v>
@@ -1483,10 +1499,10 @@
         <v>0.11450382000000001</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
@@ -1503,13 +1519,1655 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14">
+        <v>94.982490801278004</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>10</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>2</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15">
+        <v>94.957189268920303</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>2</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16">
+        <v>84.793240722547097</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>10</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <v>89.906572745942995</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>2</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>26</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>10</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>29</v>
+      </c>
+      <c r="J19">
+        <v>29</v>
+      </c>
+      <c r="L19">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>10</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>2</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(I20:J20)</f>
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>37</v>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <v>94.8312199376075</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>10</v>
+      </c>
+      <c r="T20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>2</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H25" si="0">AVERAGE(I21:J21)</f>
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>79.806147195701897</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>10</v>
+      </c>
+      <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>2</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>26</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>10</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+      <c r="U22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>2</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>10</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>2</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>29</v>
+      </c>
+      <c r="K24">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>10</v>
+      </c>
+      <c r="T24" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>2</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>29</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>10</v>
+      </c>
+      <c r="T25" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>2</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26">
+        <v>99.991410583503097</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>10</v>
+      </c>
+      <c r="T26" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" t="s">
+        <v>49</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>2</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27">
+        <v>99.978929087656297</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>10</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>2</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28">
+        <v>99.966447591809398</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>10</v>
+      </c>
+      <c r="T28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>2</v>
+      </c>
+      <c r="X28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29">
+        <v>99.953697676697004</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>10</v>
+      </c>
+      <c r="T29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>2</v>
+      </c>
+      <c r="X29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>26</v>
+      </c>
+      <c r="I30">
+        <v>26</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30">
+        <v>9.9132603143457594</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>10</v>
+      </c>
+      <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>2</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>29</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>10</v>
+      </c>
+      <c r="T31" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>2</v>
+      </c>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(I32:J32)</f>
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32">
+        <v>99.916118979523603</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>10</v>
+      </c>
+      <c r="T32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>2</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H37" si="1">AVERAGE(I33:J33)</f>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>23</v>
+      </c>
+      <c r="K33">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33">
+        <v>99.903503274043899</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>10</v>
+      </c>
+      <c r="T33" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" t="s">
+        <v>49</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>2</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>29</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34">
+        <v>54.738472399117903</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>10</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>49</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>2</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>26</v>
+      </c>
+      <c r="K35">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35">
+        <v>74.947356271548998</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>10</v>
+      </c>
+      <c r="T35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" t="s">
+        <v>49</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>2</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>29</v>
+      </c>
+      <c r="K36">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>10</v>
+      </c>
+      <c r="T36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s">
+        <v>49</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>2</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>29</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>23</v>
+      </c>
+      <c r="J37">
+        <v>29</v>
+      </c>
+      <c r="K37">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>10</v>
+      </c>
+      <c r="T37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s">
+        <v>49</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>2</v>
+      </c>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H20:H25" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC42994-87BA-004C-A2A0-CCCFE48217A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD9028-148A-2C4E-AAD4-997E4468E8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="63">
   <si>
     <t>study_id</t>
   </si>
@@ -176,12 +176,51 @@
   <si>
     <t>Miva Smartissimo x Canberra ‘450’</t>
   </si>
+  <si>
+    <t>du2009</t>
+  </si>
+  <si>
+    <t>figure 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carapace width </t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>body mass</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>carapace height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinemys </t>
+  </si>
+  <si>
+    <t>reevesii</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>figure 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +239,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,10 +268,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3164,6 +3211,3984 @@
         <v>48</v>
       </c>
     </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>28</v>
+      </c>
+      <c r="I38">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38">
+        <v>5.6285077951002203</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>24</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0.12828507795099986</v>
+      </c>
+      <c r="T38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <v>31</v>
+      </c>
+      <c r="K39">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39">
+        <v>5.2489977728285</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0.16035634743875038</v>
+      </c>
+      <c r="T39" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40">
+        <v>22</v>
+      </c>
+      <c r="J40">
+        <v>34</v>
+      </c>
+      <c r="K40">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40">
+        <v>5.3238307349665899</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>25</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0.27795100222717473</v>
+      </c>
+      <c r="T40" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>28</v>
+      </c>
+      <c r="I41">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41">
+        <v>5.6285077951002203</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>9.8886414253899879E-2</v>
+      </c>
+      <c r="T41" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>28</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>31</v>
+      </c>
+      <c r="K42">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42">
+        <v>5.2489977728285</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>9.8886414253894994E-2</v>
+      </c>
+      <c r="T42" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>28</v>
+      </c>
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>34</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43">
+        <v>5.2596881959910897</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>9.6213808463255113E-2</v>
+      </c>
+      <c r="T43" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>28</v>
+      </c>
+      <c r="I44">
+        <v>28</v>
+      </c>
+      <c r="J44">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44">
+        <v>28.113333333333301</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>24</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="T44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>28</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>31</v>
+      </c>
+      <c r="K45">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45">
+        <v>27.26</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>25</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0.30666666666670039</v>
+      </c>
+      <c r="T45" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" t="s">
+        <v>58</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>22</v>
+      </c>
+      <c r="J46">
+        <v>34</v>
+      </c>
+      <c r="K46">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46">
+        <v>27.3666666666666</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>25</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0.52666666666664952</v>
+      </c>
+      <c r="T46" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" t="s">
+        <v>58</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>28</v>
+      </c>
+      <c r="I47">
+        <v>28</v>
+      </c>
+      <c r="J47">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47">
+        <v>28.108888888888799</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>14</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0.18666666666665144</v>
+      </c>
+      <c r="T47" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" t="s">
+        <v>58</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>28</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>31</v>
+      </c>
+      <c r="K48">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" t="s">
+        <v>53</v>
+      </c>
+      <c r="O48">
+        <v>27.704444444444398</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>9</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0.18444444444445018</v>
+      </c>
+      <c r="T48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" t="s">
+        <v>58</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>28</v>
+      </c>
+      <c r="I49">
+        <v>22</v>
+      </c>
+      <c r="J49">
+        <v>34</v>
+      </c>
+      <c r="K49">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49">
+        <v>27.8466666666666</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0.17777777777779846</v>
+      </c>
+      <c r="T49" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" t="s">
+        <v>58</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>28</v>
+      </c>
+      <c r="I50">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>52</v>
+      </c>
+      <c r="N50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O50">
+        <v>22.706467391304301</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>24</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0.29461956521740085</v>
+      </c>
+      <c r="T50" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" t="s">
+        <v>58</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>31</v>
+      </c>
+      <c r="K51">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" t="s">
+        <v>53</v>
+      </c>
+      <c r="O51">
+        <v>21.534604037266998</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>25</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0.37834821428569931</v>
+      </c>
+      <c r="T51" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" t="s">
+        <v>58</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>28</v>
+      </c>
+      <c r="I52">
+        <v>22</v>
+      </c>
+      <c r="J52">
+        <v>34</v>
+      </c>
+      <c r="K52">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>52</v>
+      </c>
+      <c r="N52" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52">
+        <v>21.983253105589998</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>25</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0.64955357142860137</v>
+      </c>
+      <c r="T52" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52" t="s">
+        <v>58</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>28</v>
+      </c>
+      <c r="I53">
+        <v>28</v>
+      </c>
+      <c r="J53">
+        <v>28</v>
+      </c>
+      <c r="M53" t="s">
+        <v>52</v>
+      </c>
+      <c r="N53" t="s">
+        <v>53</v>
+      </c>
+      <c r="O53">
+        <v>22.639503105589998</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>14</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0.22095885093165002</v>
+      </c>
+      <c r="T53" t="s">
+        <v>57</v>
+      </c>
+      <c r="U53" t="s">
+        <v>58</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>28</v>
+      </c>
+      <c r="I54">
+        <v>25</v>
+      </c>
+      <c r="J54">
+        <v>31</v>
+      </c>
+      <c r="K54">
+        <v>24</v>
+      </c>
+      <c r="M54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O54">
+        <v>21.789068322981301</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>9</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0.23102678571425095</v>
+      </c>
+      <c r="T54" t="s">
+        <v>57</v>
+      </c>
+      <c r="U54" t="s">
+        <v>58</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>28</v>
+      </c>
+      <c r="I55">
+        <v>22</v>
+      </c>
+      <c r="J55">
+        <v>34</v>
+      </c>
+      <c r="K55">
+        <v>24</v>
+      </c>
+      <c r="M55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" t="s">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>22.2109316770186</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0.234375</v>
+      </c>
+      <c r="T55" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>28</v>
+      </c>
+      <c r="I56">
+        <v>28</v>
+      </c>
+      <c r="J56">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56">
+        <v>270.77363896848101</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>23</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>15.042979942693492</v>
+      </c>
+      <c r="T56" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" t="s">
+        <v>58</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE56">
+        <v>455.83529832288798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>28</v>
+      </c>
+      <c r="I57">
+        <v>28</v>
+      </c>
+      <c r="J57">
+        <v>28</v>
+      </c>
+      <c r="M57" t="s">
+        <v>54</v>
+      </c>
+      <c r="N57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>238.681948424068</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>23</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>13.538681948423999</v>
+      </c>
+      <c r="T57" t="s">
+        <v>57</v>
+      </c>
+      <c r="U57" t="s">
+        <v>58</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE57">
+        <v>389.52915198929901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>28</v>
+      </c>
+      <c r="I58">
+        <v>28</v>
+      </c>
+      <c r="J58">
+        <v>28</v>
+      </c>
+      <c r="M58" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58">
+        <v>153.438395415472</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>23</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>5.5157593123209949</v>
+      </c>
+      <c r="T58" t="s">
+        <v>57</v>
+      </c>
+      <c r="U58" t="s">
+        <v>58</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE58">
+        <v>270.055865277625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>28</v>
+      </c>
+      <c r="I59">
+        <v>28</v>
+      </c>
+      <c r="J59">
+        <v>28</v>
+      </c>
+      <c r="M59" t="s">
+        <v>54</v>
+      </c>
+      <c r="N59" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59">
+        <v>68.194842406876703</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>23</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>3.7607449856733055</v>
+      </c>
+      <c r="T59" t="s">
+        <v>57</v>
+      </c>
+      <c r="U59" t="s">
+        <v>58</v>
+      </c>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE59">
+        <v>179.75762886776201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>28</v>
+      </c>
+      <c r="I60">
+        <v>28</v>
+      </c>
+      <c r="J60">
+        <v>28</v>
+      </c>
+      <c r="M60" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60" t="s">
+        <v>55</v>
+      </c>
+      <c r="O60">
+        <v>34.097421203438302</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>23</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>3.7607449856733517</v>
+      </c>
+      <c r="T60" t="s">
+        <v>57</v>
+      </c>
+      <c r="U60" t="s">
+        <v>58</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
+      <c r="W60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE60">
+        <v>89.312378569410697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>28</v>
+      </c>
+      <c r="I61">
+        <v>28</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="M61" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61">
+        <v>6.0171919770773403</v>
+      </c>
+      <c r="P61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>23</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>57</v>
+      </c>
+      <c r="U61" t="s">
+        <v>58</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>28</v>
+      </c>
+      <c r="I62">
+        <v>25</v>
+      </c>
+      <c r="J62">
+        <v>31</v>
+      </c>
+      <c r="K62">
+        <v>24</v>
+      </c>
+      <c r="M62" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62">
+        <v>309.88538681948398</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>24</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>21.060171919771022</v>
+      </c>
+      <c r="T62" t="s">
+        <v>57</v>
+      </c>
+      <c r="U62" t="s">
+        <v>58</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1</v>
+      </c>
+      <c r="W62" s="2">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE62">
+        <v>455.72287593757301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>25</v>
+      </c>
+      <c r="J63">
+        <v>31</v>
+      </c>
+      <c r="K63">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63">
+        <v>252.722063037249</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>24</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>13.037249283667506</v>
+      </c>
+      <c r="T63" t="s">
+        <v>57</v>
+      </c>
+      <c r="U63" t="s">
+        <v>58</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE63">
+        <v>389.48879523559702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>28</v>
+      </c>
+      <c r="I64">
+        <v>25</v>
+      </c>
+      <c r="J64">
+        <v>31</v>
+      </c>
+      <c r="K64">
+        <v>24</v>
+      </c>
+      <c r="M64" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64">
+        <v>153.438395415472</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>24</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>5.5157593123209949</v>
+      </c>
+      <c r="T64" t="s">
+        <v>57</v>
+      </c>
+      <c r="U64" t="s">
+        <v>58</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2">
+        <v>1</v>
+      </c>
+      <c r="X64" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE64">
+        <v>269.04982906032097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>31</v>
+      </c>
+      <c r="K65">
+        <v>24</v>
+      </c>
+      <c r="M65" t="s">
+        <v>54</v>
+      </c>
+      <c r="N65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65">
+        <v>71.203438395415404</v>
+      </c>
+      <c r="P65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>24</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>5.0143266475644026</v>
+      </c>
+      <c r="T65" t="s">
+        <v>57</v>
+      </c>
+      <c r="U65" t="s">
+        <v>58</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
+      <c r="W65" s="2">
+        <v>1</v>
+      </c>
+      <c r="X65" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE65">
+        <v>178.74294477466501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>28</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>31</v>
+      </c>
+      <c r="K66">
+        <v>24</v>
+      </c>
+      <c r="M66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66">
+        <v>34.097421203438302</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>24</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>5.0143266475644488</v>
+      </c>
+      <c r="T66" t="s">
+        <v>57</v>
+      </c>
+      <c r="U66" t="s">
+        <v>58</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
+      <c r="W66" s="2">
+        <v>1</v>
+      </c>
+      <c r="X66" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE66">
+        <v>89.312378569410697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>28</v>
+      </c>
+      <c r="I67">
+        <v>25</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>24</v>
+      </c>
+      <c r="M67" t="s">
+        <v>54</v>
+      </c>
+      <c r="N67" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67">
+        <v>6.0171919770773403</v>
+      </c>
+      <c r="P67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>24</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>57</v>
+      </c>
+      <c r="U67" t="s">
+        <v>58</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
+      <c r="W67" s="2">
+        <v>1</v>
+      </c>
+      <c r="X67" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>28</v>
+      </c>
+      <c r="I68">
+        <v>22</v>
+      </c>
+      <c r="J68">
+        <v>34</v>
+      </c>
+      <c r="K68">
+        <v>24</v>
+      </c>
+      <c r="M68" t="s">
+        <v>54</v>
+      </c>
+      <c r="N68" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68">
+        <v>300.85959885386802</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>24</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>16.045845272206492</v>
+      </c>
+      <c r="T68" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68" t="s">
+        <v>58</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
+      <c r="W68" s="2">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE68">
+        <v>455.74881956495398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>28</v>
+      </c>
+      <c r="I69">
+        <v>22</v>
+      </c>
+      <c r="J69">
+        <v>34</v>
+      </c>
+      <c r="K69">
+        <v>24</v>
+      </c>
+      <c r="M69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69">
+        <v>263.25214899713399</v>
+      </c>
+      <c r="P69" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>24</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>13.287965616045511</v>
+      </c>
+      <c r="T69" t="s">
+        <v>57</v>
+      </c>
+      <c r="U69" t="s">
+        <v>58</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
+      <c r="W69" s="2">
+        <v>1</v>
+      </c>
+      <c r="X69" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE69">
+        <v>389.45852767032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>28</v>
+      </c>
+      <c r="I70">
+        <v>22</v>
+      </c>
+      <c r="J70">
+        <v>34</v>
+      </c>
+      <c r="K70">
+        <v>24</v>
+      </c>
+      <c r="M70" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70">
+        <v>165.47277936962701</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>24</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>6.5186246418334974</v>
+      </c>
+      <c r="T70" t="s">
+        <v>57</v>
+      </c>
+      <c r="U70" t="s">
+        <v>58</v>
+      </c>
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2">
+        <v>1</v>
+      </c>
+      <c r="X70" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE70">
+        <v>269.015237557148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>28</v>
+      </c>
+      <c r="I71">
+        <v>22</v>
+      </c>
+      <c r="J71">
+        <v>34</v>
+      </c>
+      <c r="K71">
+        <v>24</v>
+      </c>
+      <c r="M71" t="s">
+        <v>54</v>
+      </c>
+      <c r="N71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71">
+        <v>80.229226361031394</v>
+      </c>
+      <c r="P71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>24</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>5.5157593123209452</v>
+      </c>
+      <c r="T71" t="s">
+        <v>57</v>
+      </c>
+      <c r="U71" t="s">
+        <v>58</v>
+      </c>
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
+      <c r="W71" s="2">
+        <v>1</v>
+      </c>
+      <c r="X71" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE71">
+        <v>179.72303736458801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>28</v>
+      </c>
+      <c r="I72">
+        <v>22</v>
+      </c>
+      <c r="J72">
+        <v>34</v>
+      </c>
+      <c r="K72">
+        <v>24</v>
+      </c>
+      <c r="M72" t="s">
+        <v>54</v>
+      </c>
+      <c r="N72" t="s">
+        <v>55</v>
+      </c>
+      <c r="O72">
+        <v>40.114613180515597</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>24</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>3.0085959885386977</v>
+      </c>
+      <c r="T72" t="s">
+        <v>57</v>
+      </c>
+      <c r="U72" t="s">
+        <v>58</v>
+      </c>
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
+      <c r="W72" s="2">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE72">
+        <v>89.295082817823896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>28</v>
+      </c>
+      <c r="I73">
+        <v>22</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>24</v>
+      </c>
+      <c r="M73" t="s">
+        <v>54</v>
+      </c>
+      <c r="N73" t="s">
+        <v>55</v>
+      </c>
+      <c r="O73">
+        <v>5.0143266475644701</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>24</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>57</v>
+      </c>
+      <c r="U73" t="s">
+        <v>58</v>
+      </c>
+      <c r="V73" s="2">
+        <v>1</v>
+      </c>
+      <c r="W73" s="2">
+        <v>1</v>
+      </c>
+      <c r="X73" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>28</v>
+      </c>
+      <c r="I74">
+        <v>28</v>
+      </c>
+      <c r="J74">
+        <v>28</v>
+      </c>
+      <c r="M74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N74" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74">
+        <v>129.36962750716299</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>14</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>25.071633237822496</v>
+      </c>
+      <c r="T74" t="s">
+        <v>57</v>
+      </c>
+      <c r="U74" t="s">
+        <v>58</v>
+      </c>
+      <c r="V74" s="2">
+        <v>1</v>
+      </c>
+      <c r="W74" s="2">
+        <v>1</v>
+      </c>
+      <c r="X74" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE74">
+        <v>455.23571226787601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>28</v>
+      </c>
+      <c r="I75">
+        <v>28</v>
+      </c>
+      <c r="J75">
+        <v>28</v>
+      </c>
+      <c r="M75" t="s">
+        <v>54</v>
+      </c>
+      <c r="N75" t="s">
+        <v>55</v>
+      </c>
+      <c r="O75">
+        <v>111.31805157593099</v>
+      </c>
+      <c r="P75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>14</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>38.108882521489946</v>
+      </c>
+      <c r="T75" t="s">
+        <v>57</v>
+      </c>
+      <c r="U75" t="s">
+        <v>58</v>
+      </c>
+      <c r="V75" s="2">
+        <v>1</v>
+      </c>
+      <c r="W75" s="2">
+        <v>1</v>
+      </c>
+      <c r="X75" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE75">
+        <v>388.88920918058398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>28</v>
+      </c>
+      <c r="I76">
+        <v>28</v>
+      </c>
+      <c r="J76">
+        <v>28</v>
+      </c>
+      <c r="M76" t="s">
+        <v>54</v>
+      </c>
+      <c r="N76" t="s">
+        <v>55</v>
+      </c>
+      <c r="O76">
+        <v>103.295128939828</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>14</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>18.051575931232101</v>
+      </c>
+      <c r="T76" t="s">
+        <v>57</v>
+      </c>
+      <c r="U76" t="s">
+        <v>58</v>
+      </c>
+      <c r="V76" s="2">
+        <v>1</v>
+      </c>
+      <c r="W76" s="2">
+        <v>1</v>
+      </c>
+      <c r="X76" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE76">
+        <v>270.19999654084899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>28</v>
+      </c>
+      <c r="I77">
+        <v>28</v>
+      </c>
+      <c r="J77">
+        <v>28</v>
+      </c>
+      <c r="M77" t="s">
+        <v>54</v>
+      </c>
+      <c r="N77" t="s">
+        <v>55</v>
+      </c>
+      <c r="O77">
+        <v>63.1805157593123</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>14</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>7.0200573065902532</v>
+      </c>
+      <c r="T77" t="s">
+        <v>57</v>
+      </c>
+      <c r="U77" t="s">
+        <v>58</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE77">
+        <v>179.77204199408399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>28</v>
+      </c>
+      <c r="I78">
+        <v>28</v>
+      </c>
+      <c r="J78">
+        <v>28</v>
+      </c>
+      <c r="M78" t="s">
+        <v>54</v>
+      </c>
+      <c r="N78" t="s">
+        <v>55</v>
+      </c>
+      <c r="O78">
+        <v>38.108882521489903</v>
+      </c>
+      <c r="P78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>14</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>8.5243553008596002</v>
+      </c>
+      <c r="T78" t="s">
+        <v>57</v>
+      </c>
+      <c r="U78" t="s">
+        <v>58</v>
+      </c>
+      <c r="V78" s="2">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE78">
+        <v>89.300848068352806</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>28</v>
+      </c>
+      <c r="I79">
+        <v>28</v>
+      </c>
+      <c r="J79">
+        <v>28</v>
+      </c>
+      <c r="M79" t="s">
+        <v>54</v>
+      </c>
+      <c r="N79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79">
+        <v>6.0171919770773403</v>
+      </c>
+      <c r="P79" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>14</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>57</v>
+      </c>
+      <c r="U79" t="s">
+        <v>58</v>
+      </c>
+      <c r="V79" s="2">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2">
+        <v>1</v>
+      </c>
+      <c r="X79" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>28</v>
+      </c>
+      <c r="I80">
+        <v>25</v>
+      </c>
+      <c r="J80">
+        <v>31</v>
+      </c>
+      <c r="K80">
+        <v>24</v>
+      </c>
+      <c r="M80" t="s">
+        <v>54</v>
+      </c>
+      <c r="N80" t="s">
+        <v>55</v>
+      </c>
+      <c r="O80">
+        <v>108.30945558739199</v>
+      </c>
+      <c r="P80" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>9</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>23.567335243552897</v>
+      </c>
+      <c r="T80" t="s">
+        <v>57</v>
+      </c>
+      <c r="U80" t="s">
+        <v>58</v>
+      </c>
+      <c r="V80" s="2">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2">
+        <v>1</v>
+      </c>
+      <c r="X80" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE80">
+        <v>457.30831983303801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>28</v>
+      </c>
+      <c r="I81">
+        <v>25</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <v>24</v>
+      </c>
+      <c r="M81" t="s">
+        <v>54</v>
+      </c>
+      <c r="N81" t="s">
+        <v>55</v>
+      </c>
+      <c r="O81">
+        <v>97.277936962750601</v>
+      </c>
+      <c r="P81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>22.564469914039947</v>
+      </c>
+      <c r="T81" t="s">
+        <v>57</v>
+      </c>
+      <c r="U81" t="s">
+        <v>58</v>
+      </c>
+      <c r="V81" s="2">
+        <v>1</v>
+      </c>
+      <c r="W81" s="2">
+        <v>1</v>
+      </c>
+      <c r="X81" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE81">
+        <v>389.93560215159101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>28</v>
+      </c>
+      <c r="I82">
+        <v>25</v>
+      </c>
+      <c r="J82">
+        <v>31</v>
+      </c>
+      <c r="K82">
+        <v>24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>54</v>
+      </c>
+      <c r="N82" t="s">
+        <v>55</v>
+      </c>
+      <c r="O82">
+        <v>95.272206303724801</v>
+      </c>
+      <c r="P82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>9</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>12.034383954154549</v>
+      </c>
+      <c r="T82" t="s">
+        <v>57</v>
+      </c>
+      <c r="U82" t="s">
+        <v>58</v>
+      </c>
+      <c r="V82" s="2">
+        <v>1</v>
+      </c>
+      <c r="W82" s="2">
+        <v>1</v>
+      </c>
+      <c r="X82" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE82">
+        <v>269.21702132566099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>28</v>
+      </c>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83">
+        <v>31</v>
+      </c>
+      <c r="K83">
+        <v>24</v>
+      </c>
+      <c r="M83" t="s">
+        <v>54</v>
+      </c>
+      <c r="N83" t="s">
+        <v>55</v>
+      </c>
+      <c r="O83">
+        <v>60.171919770773599</v>
+      </c>
+      <c r="P83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>9</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>6.5186246418337497</v>
+      </c>
+      <c r="T83" t="s">
+        <v>57</v>
+      </c>
+      <c r="U83" t="s">
+        <v>58</v>
+      </c>
+      <c r="V83" s="2">
+        <v>1</v>
+      </c>
+      <c r="W83" s="2">
+        <v>1</v>
+      </c>
+      <c r="X83" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE83">
+        <v>178.77465365257399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>28</v>
+      </c>
+      <c r="I84">
+        <v>25</v>
+      </c>
+      <c r="J84">
+        <v>31</v>
+      </c>
+      <c r="K84">
+        <v>24</v>
+      </c>
+      <c r="M84" t="s">
+        <v>54</v>
+      </c>
+      <c r="N84" t="s">
+        <v>55</v>
+      </c>
+      <c r="O84">
+        <v>29.083094555873799</v>
+      </c>
+      <c r="P84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>9</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>4.5128939828080004</v>
+      </c>
+      <c r="T84" t="s">
+        <v>57</v>
+      </c>
+      <c r="U84" t="s">
+        <v>58</v>
+      </c>
+      <c r="V84" s="2">
+        <v>1</v>
+      </c>
+      <c r="W84" s="2">
+        <v>1</v>
+      </c>
+      <c r="X84" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE84">
+        <v>89.326791695733107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>28</v>
+      </c>
+      <c r="I85">
+        <v>25</v>
+      </c>
+      <c r="J85">
+        <v>31</v>
+      </c>
+      <c r="K85">
+        <v>24</v>
+      </c>
+      <c r="M85" t="s">
+        <v>54</v>
+      </c>
+      <c r="N85" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85">
+        <v>6.0171919770773403</v>
+      </c>
+      <c r="P85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>9</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>57</v>
+      </c>
+      <c r="U85" t="s">
+        <v>58</v>
+      </c>
+      <c r="V85" s="2">
+        <v>1</v>
+      </c>
+      <c r="W85" s="2">
+        <v>1</v>
+      </c>
+      <c r="X85" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>28</v>
+      </c>
+      <c r="I86">
+        <v>22</v>
+      </c>
+      <c r="J86">
+        <v>34</v>
+      </c>
+      <c r="K86">
+        <v>24</v>
+      </c>
+      <c r="M86" t="s">
+        <v>54</v>
+      </c>
+      <c r="N86" t="s">
+        <v>55</v>
+      </c>
+      <c r="O86">
+        <v>108.30945558739199</v>
+      </c>
+      <c r="P86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>24.570200573065897</v>
+      </c>
+      <c r="T86" t="s">
+        <v>57</v>
+      </c>
+      <c r="U86" t="s">
+        <v>58</v>
+      </c>
+      <c r="V86" s="2">
+        <v>1</v>
+      </c>
+      <c r="W86" s="2">
+        <v>1</v>
+      </c>
+      <c r="X86" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE86">
+        <v>457.30831983303801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>28</v>
+      </c>
+      <c r="I87">
+        <v>22</v>
+      </c>
+      <c r="J87">
+        <v>34</v>
+      </c>
+      <c r="K87">
+        <v>24</v>
+      </c>
+      <c r="M87" t="s">
+        <v>54</v>
+      </c>
+      <c r="N87" t="s">
+        <v>55</v>
+      </c>
+      <c r="O87">
+        <v>112.32091690544399</v>
+      </c>
+      <c r="P87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>17.800859598853748</v>
+      </c>
+      <c r="T87" t="s">
+        <v>57</v>
+      </c>
+      <c r="U87" t="s">
+        <v>58</v>
+      </c>
+      <c r="V87" s="2">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2">
+        <v>1</v>
+      </c>
+      <c r="X87" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE87">
+        <v>389.89236277262398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>28</v>
+      </c>
+      <c r="I88">
+        <v>22</v>
+      </c>
+      <c r="J88">
+        <v>34</v>
+      </c>
+      <c r="K88">
+        <v>24</v>
+      </c>
+      <c r="M88" t="s">
+        <v>54</v>
+      </c>
+      <c r="N88" t="s">
+        <v>55</v>
+      </c>
+      <c r="O88">
+        <v>103.295128939828</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>18.553008595988551</v>
+      </c>
+      <c r="T88" t="s">
+        <v>57</v>
+      </c>
+      <c r="U88" t="s">
+        <v>58</v>
+      </c>
+      <c r="V88" s="2">
+        <v>1</v>
+      </c>
+      <c r="W88" s="2">
+        <v>1</v>
+      </c>
+      <c r="X88" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE88">
+        <v>269.19396032354501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <v>22</v>
+      </c>
+      <c r="J89">
+        <v>34</v>
+      </c>
+      <c r="K89">
+        <v>24</v>
+      </c>
+      <c r="M89" t="s">
+        <v>54</v>
+      </c>
+      <c r="N89" t="s">
+        <v>55</v>
+      </c>
+      <c r="O89">
+        <v>61.174785100286499</v>
+      </c>
+      <c r="P89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>10.028653295128951</v>
+      </c>
+      <c r="T89" t="s">
+        <v>57</v>
+      </c>
+      <c r="U89" t="s">
+        <v>58</v>
+      </c>
+      <c r="V89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2">
+        <v>1</v>
+      </c>
+      <c r="X89" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE89">
+        <v>180.783843461917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>28</v>
+      </c>
+      <c r="I90">
+        <v>22</v>
+      </c>
+      <c r="J90">
+        <v>34</v>
+      </c>
+      <c r="K90">
+        <v>24</v>
+      </c>
+      <c r="M90" t="s">
+        <v>54</v>
+      </c>
+      <c r="N90" t="s">
+        <v>55</v>
+      </c>
+      <c r="O90">
+        <v>39.111747851002796</v>
+      </c>
+      <c r="P90" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>11.03151862464185</v>
+      </c>
+      <c r="T90" t="s">
+        <v>57</v>
+      </c>
+      <c r="U90" t="s">
+        <v>58</v>
+      </c>
+      <c r="V90" s="2">
+        <v>1</v>
+      </c>
+      <c r="W90" s="2">
+        <v>1</v>
+      </c>
+      <c r="X90" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE90">
+        <v>89.297965443088302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>28</v>
+      </c>
+      <c r="I91">
+        <v>22</v>
+      </c>
+      <c r="J91">
+        <v>34</v>
+      </c>
+      <c r="K91">
+        <v>24</v>
+      </c>
+      <c r="M91" t="s">
+        <v>54</v>
+      </c>
+      <c r="N91" t="s">
+        <v>55</v>
+      </c>
+      <c r="O91">
+        <v>6.0171919770773403</v>
+      </c>
+      <c r="P91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="T91" t="s">
+        <v>57</v>
+      </c>
+      <c r="U91" t="s">
+        <v>58</v>
+      </c>
+      <c r="V91" s="2">
+        <v>1</v>
+      </c>
+      <c r="W91" s="2">
+        <v>1</v>
+      </c>
+      <c r="X91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE4BEC-6A09-3646-A3E1-9AA92A7AE8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3846A1-7E6B-9648-AFB5-62EA32E1426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="52">
   <si>
     <t>study_id</t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>figure 4</t>
+  </si>
+  <si>
+    <t>garcaruiz2011</t>
+  </si>
+  <si>
+    <t>table 1</t>
+  </si>
+  <si>
+    <t>developmental time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylotrechus </t>
+  </si>
+  <si>
+    <t>arvicola</t>
+  </si>
+  <si>
+    <t>glass2019</t>
+  </si>
+  <si>
+    <t>figure 2</t>
   </si>
 </sst>
 </file>
@@ -523,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AE55"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4605,6 +4629,1262 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56">
+        <v>15</v>
+      </c>
+      <c r="J56">
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <v>24</v>
+      </c>
+      <c r="M56" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56">
+        <v>29.48</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>101</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U56" t="s">
+        <v>49</v>
+      </c>
+      <c r="V56" s="1">
+        <v>1</v>
+      </c>
+      <c r="W56" s="1">
+        <v>1</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>18</v>
+      </c>
+      <c r="J57">
+        <v>18</v>
+      </c>
+      <c r="K57">
+        <v>24</v>
+      </c>
+      <c r="M57" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57">
+        <v>17.52</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>114</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0.05</v>
+      </c>
+      <c r="T57" t="s">
+        <v>48</v>
+      </c>
+      <c r="U57" t="s">
+        <v>49</v>
+      </c>
+      <c r="V57" s="1">
+        <v>1</v>
+      </c>
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="H58">
+        <v>21</v>
+      </c>
+      <c r="I58">
+        <v>21</v>
+      </c>
+      <c r="J58">
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N58" t="s">
+        <v>47</v>
+      </c>
+      <c r="O58">
+        <v>10.3</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>107</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T58" t="s">
+        <v>48</v>
+      </c>
+      <c r="U58" t="s">
+        <v>49</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59">
+        <v>24</v>
+      </c>
+      <c r="J59">
+        <v>24</v>
+      </c>
+      <c r="K59">
+        <v>24</v>
+      </c>
+      <c r="M59" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59">
+        <v>8.02</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>115</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0.02</v>
+      </c>
+      <c r="T59" t="s">
+        <v>48</v>
+      </c>
+      <c r="U59" t="s">
+        <v>49</v>
+      </c>
+      <c r="V59" s="1">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60">
+        <v>27</v>
+      </c>
+      <c r="I60">
+        <v>27</v>
+      </c>
+      <c r="J60">
+        <v>27</v>
+      </c>
+      <c r="K60">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>48</v>
+      </c>
+      <c r="U60" t="s">
+        <v>49</v>
+      </c>
+      <c r="V60" s="1">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1">
+        <v>1</v>
+      </c>
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>24</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>30</v>
+      </c>
+      <c r="J61">
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <v>24</v>
+      </c>
+      <c r="M61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61">
+        <v>6.95</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>106</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0.03</v>
+      </c>
+      <c r="T61" t="s">
+        <v>48</v>
+      </c>
+      <c r="U61" t="s">
+        <v>49</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="H62">
+        <v>32</v>
+      </c>
+      <c r="I62">
+        <v>32</v>
+      </c>
+      <c r="J62">
+        <v>32</v>
+      </c>
+      <c r="K62">
+        <v>24</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62">
+        <v>6.03</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>68</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0.09</v>
+      </c>
+      <c r="T62" t="s">
+        <v>48</v>
+      </c>
+      <c r="U62" t="s">
+        <v>49</v>
+      </c>
+      <c r="V62" s="1">
+        <v>1</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>24</v>
+      </c>
+      <c r="H63">
+        <v>34</v>
+      </c>
+      <c r="I63">
+        <v>34</v>
+      </c>
+      <c r="J63">
+        <v>34</v>
+      </c>
+      <c r="K63">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63">
+        <v>6.41</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>144</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0.09</v>
+      </c>
+      <c r="T63" t="s">
+        <v>48</v>
+      </c>
+      <c r="U63" t="s">
+        <v>49</v>
+      </c>
+      <c r="V63" s="1">
+        <v>1</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="X63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>24</v>
+      </c>
+      <c r="H64">
+        <v>35</v>
+      </c>
+      <c r="I64">
+        <v>35</v>
+      </c>
+      <c r="J64">
+        <v>35</v>
+      </c>
+      <c r="K64">
+        <v>24</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" t="s">
+        <v>47</v>
+      </c>
+      <c r="O64">
+        <v>7.48</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>178</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0.12</v>
+      </c>
+      <c r="T64" t="s">
+        <v>48</v>
+      </c>
+      <c r="U64" t="s">
+        <v>49</v>
+      </c>
+      <c r="V64" s="1">
+        <v>1</v>
+      </c>
+      <c r="W64" s="1">
+        <v>1</v>
+      </c>
+      <c r="X64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>24</v>
+      </c>
+      <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>12</v>
+      </c>
+      <c r="J65">
+        <v>18.5</v>
+      </c>
+      <c r="K65">
+        <v>24</v>
+      </c>
+      <c r="M65" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65">
+        <v>29.6</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>113</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0.32</v>
+      </c>
+      <c r="T65" t="s">
+        <v>48</v>
+      </c>
+      <c r="U65" t="s">
+        <v>49</v>
+      </c>
+      <c r="V65" s="1">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>24</v>
+      </c>
+      <c r="H66">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>24.5</v>
+      </c>
+      <c r="K66">
+        <v>24</v>
+      </c>
+      <c r="M66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66">
+        <v>16.04</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>155</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0.04</v>
+      </c>
+      <c r="T66" t="s">
+        <v>48</v>
+      </c>
+      <c r="U66" t="s">
+        <v>49</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1</v>
+      </c>
+      <c r="W66" s="1">
+        <v>1</v>
+      </c>
+      <c r="X66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <v>21</v>
+      </c>
+      <c r="I67">
+        <v>14.5</v>
+      </c>
+      <c r="J67">
+        <v>27.5</v>
+      </c>
+      <c r="K67">
+        <v>24</v>
+      </c>
+      <c r="M67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" t="s">
+        <v>47</v>
+      </c>
+      <c r="O67">
+        <v>11.48</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>148</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0.08</v>
+      </c>
+      <c r="T67" t="s">
+        <v>48</v>
+      </c>
+      <c r="U67" t="s">
+        <v>49</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1">
+        <v>1</v>
+      </c>
+      <c r="X67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>24</v>
+      </c>
+      <c r="H68">
+        <v>24</v>
+      </c>
+      <c r="I68">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>24</v>
+      </c>
+      <c r="M68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68">
+        <v>10.61</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>184</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0.04</v>
+      </c>
+      <c r="T68" t="s">
+        <v>48</v>
+      </c>
+      <c r="U68" t="s">
+        <v>49</v>
+      </c>
+      <c r="V68" s="1">
+        <v>1</v>
+      </c>
+      <c r="W68" s="1">
+        <v>1</v>
+      </c>
+      <c r="X68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>24</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>17.5</v>
+      </c>
+      <c r="J69">
+        <v>30.5</v>
+      </c>
+      <c r="K69">
+        <v>24</v>
+      </c>
+      <c r="M69" t="s">
+        <v>46</v>
+      </c>
+      <c r="N69" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69">
+        <v>7.56</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>186</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0.04</v>
+      </c>
+      <c r="T69" t="s">
+        <v>48</v>
+      </c>
+      <c r="U69" t="s">
+        <v>49</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1</v>
+      </c>
+      <c r="W69" s="1">
+        <v>1</v>
+      </c>
+      <c r="X69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="I70">
+        <v>23.5</v>
+      </c>
+      <c r="J70">
+        <v>36.5</v>
+      </c>
+      <c r="K70">
+        <v>24</v>
+      </c>
+      <c r="M70" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70">
+        <v>7.32</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>150</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T70" t="s">
+        <v>48</v>
+      </c>
+      <c r="U70" t="s">
+        <v>49</v>
+      </c>
+      <c r="V70" s="1">
+        <v>1</v>
+      </c>
+      <c r="W70" s="1">
+        <v>1</v>
+      </c>
+      <c r="X70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>24</v>
+      </c>
+      <c r="H71">
+        <v>32</v>
+      </c>
+      <c r="I71">
+        <v>26.5</v>
+      </c>
+      <c r="J71">
+        <v>36.5</v>
+      </c>
+      <c r="K71">
+        <v>24</v>
+      </c>
+      <c r="M71" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" t="s">
+        <v>47</v>
+      </c>
+      <c r="O71">
+        <v>7.25</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>96</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0.09</v>
+      </c>
+      <c r="T71" t="s">
+        <v>48</v>
+      </c>
+      <c r="U71" t="s">
+        <v>49</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1</v>
+      </c>
+      <c r="W71" s="1">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>24</v>
+      </c>
+      <c r="H72">
+        <v>34</v>
+      </c>
+      <c r="I72">
+        <v>30.5</v>
+      </c>
+      <c r="J72">
+        <v>36.5</v>
+      </c>
+      <c r="K72">
+        <v>24</v>
+      </c>
+      <c r="M72" t="s">
+        <v>46</v>
+      </c>
+      <c r="N72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72">
+        <v>7.31</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>128</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0.15</v>
+      </c>
+      <c r="T72" t="s">
+        <v>48</v>
+      </c>
+      <c r="U72" t="s">
+        <v>49</v>
+      </c>
+      <c r="V72" s="1">
+        <v>1</v>
+      </c>
+      <c r="W72" s="1">
+        <v>1</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>24</v>
+      </c>
+      <c r="H73">
+        <v>35</v>
+      </c>
+      <c r="I73">
+        <v>32</v>
+      </c>
+      <c r="J73">
+        <v>36.5</v>
+      </c>
+      <c r="K73">
+        <v>24</v>
+      </c>
+      <c r="M73" t="s">
+        <v>46</v>
+      </c>
+      <c r="N73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73">
+        <v>8</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>103</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>48</v>
+      </c>
+      <c r="U73" t="s">
+        <v>49</v>
+      </c>
+      <c r="V73" s="1">
+        <v>1</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1</v>
+      </c>
+      <c r="X73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3846A1-7E6B-9648-AFB5-62EA32E1426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF2C25-70AB-BC4A-AB87-12B438C1D548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="460" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="65">
   <si>
     <t>study_id</t>
   </si>
@@ -117,9 +117,6 @@
     <t>flux_treatment</t>
   </si>
   <si>
-    <t>temp_measured</t>
-  </si>
-  <si>
     <t>du2009</t>
   </si>
   <si>
@@ -180,7 +177,49 @@
     <t>glass2019</t>
   </si>
   <si>
-    <t>figure 2</t>
+    <t>ovary mass, dry</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>testes mass, dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gryllus </t>
+  </si>
+  <si>
+    <t>firmus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">low </t>
+  </si>
+  <si>
+    <t xml:space="preserve">high  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra_covariate </t>
+  </si>
+  <si>
+    <t>extra_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morph </t>
+  </si>
+  <si>
+    <t>long winged</t>
+  </si>
+  <si>
+    <t>short winged</t>
+  </si>
+  <si>
+    <t>figure 2a</t>
+  </si>
+  <si>
+    <t>figure 2b</t>
   </si>
 </sst>
 </file>
@@ -547,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -591,76 +630,79 @@
         <v>26</v>
       </c>
       <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -675,59 +717,59 @@
       </c>
       <c r="J2">
         <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2">
+      <c r="N2">
         <v>5.6285077951002203</v>
       </c>
-      <c r="P2" s="1">
-        <v>1</v>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
         <v>0.12828507795099986</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
       </c>
       <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>2</v>
       </c>
       <c r="AB2" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -750,58 +792,58 @@
       <c r="K3">
         <v>24</v>
       </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
         <v>5.2489977728285</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
       </c>
       <c r="Q3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
         <v>0.16035634743875038</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
       </c>
       <c r="T3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
         <v>39</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2</v>
       </c>
       <c r="AB3" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -824,59 +866,59 @@
       <c r="K4">
         <v>24</v>
       </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4">
+      <c r="N4">
         <v>5.3238307349665899</v>
       </c>
-      <c r="P4" s="1">
-        <v>1</v>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
         <v>0.27795100222717473</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
       </c>
       <c r="T4" t="s">
         <v>38</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
         <v>39</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>2</v>
       </c>
       <c r="AB4" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -891,59 +933,59 @@
       </c>
       <c r="J5">
         <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5">
+      <c r="N5">
         <v>5.6285077951002203</v>
       </c>
-      <c r="P5" s="1">
-        <v>1</v>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
         <v>9.8886414253899879E-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
       </c>
       <c r="T5" t="s">
         <v>38</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>2</v>
-      </c>
       <c r="AB5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -966,58 +1008,58 @@
       <c r="K6">
         <v>24</v>
       </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
         <v>5.2489977728285</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
         <v>9.8886414253894994E-2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>2</v>
-      </c>
       <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1040,59 +1082,59 @@
       <c r="K7">
         <v>24</v>
       </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7">
+      <c r="N7">
         <v>5.2596881959910897</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
         <v>9.6213808463255113E-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
       </c>
       <c r="T7" t="s">
         <v>38</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>2</v>
-      </c>
       <c r="AB7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1108,58 +1150,58 @@
       <c r="J8">
         <v>28</v>
       </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
       <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>28.113333333333301</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="S8" t="s">
         <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8">
-        <v>28.113333333333301</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>24</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.24000000000000021</v>
       </c>
       <c r="T8" t="s">
         <v>38</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
         <v>39</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>2</v>
       </c>
       <c r="AB8" t="s">
         <v>40</v>
       </c>
-      <c r="AC8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1182,58 +1224,58 @@
       <c r="K9">
         <v>24</v>
       </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
       <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>27.26</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.30666666666670039</v>
+      </c>
+      <c r="S9" t="s">
         <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9">
-        <v>27.26</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>25</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.30666666666670039</v>
       </c>
       <c r="T9" t="s">
         <v>38</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
         <v>39</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>2</v>
       </c>
       <c r="AB9" t="s">
         <v>40</v>
       </c>
-      <c r="AC9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1256,59 +1298,59 @@
       <c r="K10">
         <v>24</v>
       </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
       <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <v>27.3666666666666</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.52666666666664952</v>
+      </c>
+      <c r="S10" t="s">
         <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10">
-        <v>27.3666666666666</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>25</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.52666666666664952</v>
       </c>
       <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="s">
         <v>39</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>2</v>
       </c>
       <c r="AB10" t="s">
         <v>40</v>
       </c>
-      <c r="AC10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -1324,58 +1366,58 @@
       <c r="J11">
         <v>28</v>
       </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
       <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11">
+        <v>28.108888888888799</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.18666666666665144</v>
+      </c>
+      <c r="S11" t="s">
         <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11">
-        <v>28.108888888888799</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>14</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0.18666666666665144</v>
       </c>
       <c r="T11" t="s">
         <v>38</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>2</v>
-      </c>
       <c r="AB11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1398,58 +1440,58 @@
       <c r="K12">
         <v>24</v>
       </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
       <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <v>27.704444444444398</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.18444444444445018</v>
+      </c>
+      <c r="S12" t="s">
         <v>37</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12">
-        <v>27.704444444444398</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>9</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0.18444444444445018</v>
       </c>
       <c r="T12" t="s">
         <v>38</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
-        <v>2</v>
-      </c>
       <c r="AB12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1472,126 +1514,126 @@
       <c r="K13">
         <v>24</v>
       </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
       <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13">
+        <v>27.8466666666666</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.17777777777779846</v>
+      </c>
+      <c r="S13" t="s">
         <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13">
-        <v>27.8466666666666</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0.17777777777779846</v>
       </c>
       <c r="T13" t="s">
         <v>38</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
-        <v>2</v>
-      </c>
       <c r="AB13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
         <v>32</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>28</v>
-      </c>
-      <c r="I14">
-        <v>28</v>
-      </c>
-      <c r="J14">
-        <v>28</v>
       </c>
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14">
+      <c r="N14">
         <v>22.706467391304301</v>
       </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>24</v>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
         <v>0.29461956521740085</v>
+      </c>
+      <c r="S14" t="s">
+        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>38</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="s">
         <v>39</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>2</v>
       </c>
       <c r="AB14" t="s">
         <v>40</v>
       </c>
-      <c r="AC14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1614,58 +1656,58 @@
       <c r="K15">
         <v>24</v>
       </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
       <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15">
+      <c r="N15">
         <v>21.534604037266998</v>
       </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
         <v>25</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
         <v>0.37834821428569931</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
       </c>
       <c r="T15" t="s">
         <v>38</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="s">
         <v>39</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>2</v>
       </c>
       <c r="AB15" t="s">
         <v>40</v>
       </c>
-      <c r="AC15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1688,126 +1730,126 @@
       <c r="K16">
         <v>24</v>
       </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
       <c r="M16" t="s">
         <v>33</v>
       </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16">
+      <c r="N16">
         <v>21.983253105589998</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
         <v>25</v>
       </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
         <v>0.64955357142860137</v>
+      </c>
+      <c r="S16" t="s">
+        <v>37</v>
       </c>
       <c r="T16" t="s">
         <v>38</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="s">
         <v>39</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>2</v>
       </c>
       <c r="AB16" t="s">
         <v>40</v>
       </c>
-      <c r="AC16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
         <v>32</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>28</v>
-      </c>
-      <c r="I17">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>28</v>
       </c>
       <c r="M17" t="s">
         <v>33</v>
       </c>
-      <c r="N17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17">
+      <c r="N17">
         <v>22.639503105589998</v>
       </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
         <v>14</v>
       </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
       <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
         <v>0.22095885093165002</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
       </c>
       <c r="T17" t="s">
         <v>38</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>2</v>
-      </c>
       <c r="AB17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1830,58 +1872,58 @@
       <c r="K18">
         <v>24</v>
       </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
       <c r="M18" t="s">
         <v>33</v>
       </c>
-      <c r="N18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18">
+      <c r="N18">
         <v>21.789068322981301</v>
       </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
         <v>9</v>
       </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
       <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
         <v>0.23102678571425095</v>
+      </c>
+      <c r="S18" t="s">
+        <v>37</v>
       </c>
       <c r="T18" t="s">
         <v>38</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>2</v>
-      </c>
       <c r="AB18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1904,58 +1946,58 @@
       <c r="K19">
         <v>24</v>
       </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
       <c r="M19" t="s">
         <v>33</v>
       </c>
-      <c r="N19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19">
+      <c r="N19">
         <v>22.2109316770186</v>
       </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
         <v>3</v>
       </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
       <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
         <v>0.234375</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
       </c>
       <c r="T19" t="s">
         <v>38</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="1">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>2</v>
-      </c>
       <c r="AB19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1971,62 +2013,62 @@
       </c>
       <c r="J20">
         <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
       </c>
       <c r="M20" t="s">
         <v>35</v>
       </c>
-      <c r="N20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20">
+      <c r="N20">
         <v>270.77363896848101</v>
       </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
         <v>23</v>
       </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
         <v>15.042979942693492</v>
+      </c>
+      <c r="S20" t="s">
+        <v>37</v>
       </c>
       <c r="T20" t="s">
         <v>38</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1">
-        <v>2</v>
-      </c>
       <c r="AB20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE20">
+        <v>41</v>
+      </c>
+      <c r="AF20">
         <v>455.83529832288798</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2042,62 +2084,62 @@
       </c>
       <c r="J21">
         <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
       </c>
       <c r="M21" t="s">
         <v>35</v>
       </c>
-      <c r="N21" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21">
+      <c r="N21">
         <v>238.681948424068</v>
       </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
         <v>23</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
         <v>13.538681948423999</v>
+      </c>
+      <c r="S21" t="s">
+        <v>37</v>
       </c>
       <c r="T21" t="s">
         <v>38</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1">
-        <v>2</v>
-      </c>
       <c r="AB21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE21">
+        <v>41</v>
+      </c>
+      <c r="AF21">
         <v>389.52915198929901</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2113,62 +2155,62 @@
       </c>
       <c r="J22">
         <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
       </c>
       <c r="M22" t="s">
         <v>35</v>
       </c>
-      <c r="N22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22">
+      <c r="N22">
         <v>153.438395415472</v>
       </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
         <v>23</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
         <v>5.5157593123209949</v>
+      </c>
+      <c r="S22" t="s">
+        <v>37</v>
       </c>
       <c r="T22" t="s">
         <v>38</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="1">
-        <v>1</v>
-      </c>
-      <c r="W22" s="1">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1">
-        <v>2</v>
-      </c>
       <c r="AB22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE22">
+        <v>41</v>
+      </c>
+      <c r="AF22">
         <v>270.055865277625</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2184,62 +2226,62 @@
       </c>
       <c r="J23">
         <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
       </c>
       <c r="M23" t="s">
         <v>35</v>
       </c>
-      <c r="N23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23">
+      <c r="N23">
         <v>68.194842406876703</v>
       </c>
-      <c r="P23" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2">
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
         <v>23</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
       <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
         <v>3.7607449856733055</v>
+      </c>
+      <c r="S23" t="s">
+        <v>37</v>
       </c>
       <c r="T23" t="s">
         <v>38</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
-        <v>2</v>
-      </c>
       <c r="AB23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE23">
+        <v>41</v>
+      </c>
+      <c r="AF23">
         <v>179.75762886776201</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2255,62 +2297,62 @@
       </c>
       <c r="J24">
         <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24">
+      <c r="N24">
         <v>34.097421203438302</v>
       </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="2">
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
         <v>23</v>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
       <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
         <v>3.7607449856733517</v>
+      </c>
+      <c r="S24" t="s">
+        <v>37</v>
       </c>
       <c r="T24" t="s">
         <v>38</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="1">
-        <v>1</v>
-      </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
-        <v>2</v>
-      </c>
       <c r="AB24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE24">
+        <v>41</v>
+      </c>
+      <c r="AF24">
         <v>89.312378569410697</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2326,59 +2368,59 @@
       </c>
       <c r="J25">
         <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
-      <c r="N25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25">
+      <c r="N25">
         <v>6.0171919770773403</v>
       </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
         <v>23</v>
       </c>
-      <c r="R25">
-        <v>0</v>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>37</v>
       </c>
       <c r="T25" t="s">
         <v>38</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1">
-        <v>2</v>
-      </c>
       <c r="AB25" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2401,61 +2443,61 @@
       <c r="K26">
         <v>24</v>
       </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
       <c r="M26" t="s">
         <v>35</v>
       </c>
-      <c r="N26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26">
+      <c r="N26">
         <v>309.88538681948398</v>
       </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>24</v>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
         <v>21.060171919771022</v>
+      </c>
+      <c r="S26" t="s">
+        <v>37</v>
       </c>
       <c r="T26" t="s">
         <v>38</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA26" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="1">
-        <v>1</v>
-      </c>
-      <c r="W26" s="1">
-        <v>1</v>
-      </c>
-      <c r="X26" s="1">
-        <v>2</v>
-      </c>
       <c r="AB26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE26">
+        <v>41</v>
+      </c>
+      <c r="AF26">
         <v>455.72287593757301</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2478,61 +2520,61 @@
       <c r="K27">
         <v>24</v>
       </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
       <c r="M27" t="s">
         <v>35</v>
       </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27">
+      <c r="N27">
         <v>252.722063037249</v>
       </c>
-      <c r="P27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>24</v>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
         <v>13.037249283667506</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
       </c>
       <c r="T27" t="s">
         <v>38</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="1">
-        <v>1</v>
-      </c>
-      <c r="W27" s="1">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1">
-        <v>2</v>
-      </c>
       <c r="AB27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE27">
+        <v>41</v>
+      </c>
+      <c r="AF27">
         <v>389.48879523559702</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2555,61 +2597,61 @@
       <c r="K28">
         <v>24</v>
       </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
       <c r="M28" t="s">
         <v>35</v>
       </c>
-      <c r="N28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28">
+      <c r="N28">
         <v>153.438395415472</v>
       </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>24</v>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
         <v>5.5157593123209949</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
       </c>
       <c r="T28" t="s">
         <v>38</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="1">
-        <v>1</v>
-      </c>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>2</v>
-      </c>
       <c r="AB28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE28">
+        <v>41</v>
+      </c>
+      <c r="AF28">
         <v>269.04982906032097</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2632,61 +2674,61 @@
       <c r="K29">
         <v>24</v>
       </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
       <c r="M29" t="s">
         <v>35</v>
       </c>
-      <c r="N29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29">
+      <c r="N29">
         <v>71.203438395415404</v>
       </c>
-      <c r="P29" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>24</v>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
         <v>5.0143266475644026</v>
+      </c>
+      <c r="S29" t="s">
+        <v>37</v>
       </c>
       <c r="T29" t="s">
         <v>38</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="1">
-        <v>1</v>
-      </c>
-      <c r="W29" s="1">
-        <v>1</v>
-      </c>
-      <c r="X29" s="1">
-        <v>2</v>
-      </c>
       <c r="AB29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE29">
+        <v>41</v>
+      </c>
+      <c r="AF29">
         <v>178.74294477466501</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2709,61 +2751,61 @@
       <c r="K30">
         <v>24</v>
       </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
       <c r="M30" t="s">
         <v>35</v>
       </c>
-      <c r="N30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30">
+      <c r="N30">
         <v>34.097421203438302</v>
       </c>
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>24</v>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
         <v>5.0143266475644488</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
       </c>
       <c r="T30" t="s">
         <v>38</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="1">
-        <v>1</v>
-      </c>
-      <c r="W30" s="1">
-        <v>1</v>
-      </c>
-      <c r="X30" s="1">
-        <v>2</v>
-      </c>
       <c r="AB30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE30">
+        <v>41</v>
+      </c>
+      <c r="AF30">
         <v>89.312378569410697</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2786,58 +2828,58 @@
       <c r="K31">
         <v>24</v>
       </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
       <c r="M31" t="s">
         <v>35</v>
       </c>
-      <c r="N31" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31">
+      <c r="N31">
         <v>6.0171919770773403</v>
       </c>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>24</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
       </c>
       <c r="T31" t="s">
         <v>38</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="s">
         <v>39</v>
       </c>
-      <c r="V31" s="1">
-        <v>1</v>
-      </c>
-      <c r="W31" s="1">
-        <v>1</v>
-      </c>
-      <c r="X31" s="1">
-        <v>2</v>
-      </c>
       <c r="AB31" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2860,61 +2902,61 @@
       <c r="K32">
         <v>24</v>
       </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
       <c r="M32" t="s">
         <v>35</v>
       </c>
-      <c r="N32" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32">
+      <c r="N32">
         <v>300.85959885386802</v>
       </c>
-      <c r="P32" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>24</v>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
         <v>16.045845272206492</v>
+      </c>
+      <c r="S32" t="s">
+        <v>37</v>
       </c>
       <c r="T32" t="s">
         <v>38</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA32" t="s">
         <v>39</v>
       </c>
-      <c r="V32" s="1">
-        <v>1</v>
-      </c>
-      <c r="W32" s="1">
-        <v>1</v>
-      </c>
-      <c r="X32" s="1">
-        <v>2</v>
-      </c>
       <c r="AB32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE32">
+        <v>41</v>
+      </c>
+      <c r="AF32">
         <v>455.74881956495398</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2937,61 +2979,61 @@
       <c r="K33">
         <v>24</v>
       </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
       <c r="M33" t="s">
         <v>35</v>
       </c>
-      <c r="N33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33">
+      <c r="N33">
         <v>263.25214899713399</v>
       </c>
-      <c r="P33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>24</v>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
         <v>13.287965616045511</v>
+      </c>
+      <c r="S33" t="s">
+        <v>37</v>
       </c>
       <c r="T33" t="s">
         <v>38</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="s">
         <v>39</v>
       </c>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1">
-        <v>1</v>
-      </c>
-      <c r="X33" s="1">
-        <v>2</v>
-      </c>
       <c r="AB33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE33">
+        <v>41</v>
+      </c>
+      <c r="AF33">
         <v>389.45852767032</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3014,61 +3056,61 @@
       <c r="K34">
         <v>24</v>
       </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
       <c r="M34" t="s">
         <v>35</v>
       </c>
-      <c r="N34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O34">
+      <c r="N34">
         <v>165.47277936962701</v>
       </c>
-      <c r="P34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>24</v>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
         <v>6.5186246418334974</v>
+      </c>
+      <c r="S34" t="s">
+        <v>37</v>
       </c>
       <c r="T34" t="s">
         <v>38</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA34" t="s">
         <v>39</v>
       </c>
-      <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1">
-        <v>1</v>
-      </c>
-      <c r="X34" s="1">
-        <v>2</v>
-      </c>
       <c r="AB34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE34">
+        <v>41</v>
+      </c>
+      <c r="AF34">
         <v>269.015237557148</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3091,61 +3133,61 @@
       <c r="K35">
         <v>24</v>
       </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
       <c r="M35" t="s">
         <v>35</v>
       </c>
-      <c r="N35" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35">
+      <c r="N35">
         <v>80.229226361031394</v>
       </c>
-      <c r="P35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>24</v>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
         <v>5.5157593123209452</v>
+      </c>
+      <c r="S35" t="s">
+        <v>37</v>
       </c>
       <c r="T35" t="s">
         <v>38</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA35" t="s">
         <v>39</v>
       </c>
-      <c r="V35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="1">
-        <v>1</v>
-      </c>
-      <c r="X35" s="1">
-        <v>2</v>
-      </c>
       <c r="AB35" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE35">
+        <v>41</v>
+      </c>
+      <c r="AF35">
         <v>179.72303736458801</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3168,61 +3210,61 @@
       <c r="K36">
         <v>24</v>
       </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
       <c r="M36" t="s">
         <v>35</v>
       </c>
-      <c r="N36" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36">
+      <c r="N36">
         <v>40.114613180515597</v>
       </c>
-      <c r="P36" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>24</v>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
         <v>3.0085959885386977</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
       </c>
       <c r="T36" t="s">
         <v>38</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="s">
         <v>39</v>
       </c>
-      <c r="V36" s="1">
-        <v>1</v>
-      </c>
-      <c r="W36" s="1">
-        <v>1</v>
-      </c>
-      <c r="X36" s="1">
-        <v>2</v>
-      </c>
       <c r="AB36" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE36">
+        <v>41</v>
+      </c>
+      <c r="AF36">
         <v>89.295082817823896</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3245,58 +3287,58 @@
       <c r="K37">
         <v>24</v>
       </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
       <c r="M37" t="s">
         <v>35</v>
       </c>
-      <c r="N37" t="s">
-        <v>36</v>
-      </c>
-      <c r="O37">
+      <c r="N37">
         <v>5.0143266475644701</v>
       </c>
-      <c r="P37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>24</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
       </c>
       <c r="T37" t="s">
         <v>38</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="s">
         <v>39</v>
       </c>
-      <c r="V37" s="1">
-        <v>1</v>
-      </c>
-      <c r="W37" s="1">
-        <v>1</v>
-      </c>
-      <c r="X37" s="1">
-        <v>2</v>
-      </c>
       <c r="AB37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3312,62 +3354,62 @@
       </c>
       <c r="J38">
         <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
       </c>
       <c r="M38" t="s">
         <v>35</v>
       </c>
-      <c r="N38" t="s">
-        <v>36</v>
-      </c>
-      <c r="O38">
+      <c r="N38">
         <v>129.36962750716299</v>
       </c>
-      <c r="P38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
         <v>14</v>
       </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
       <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
         <v>25.071633237822496</v>
+      </c>
+      <c r="S38" t="s">
+        <v>37</v>
       </c>
       <c r="T38" t="s">
         <v>38</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA38" t="s">
         <v>39</v>
-      </c>
-      <c r="V38" s="1">
-        <v>1</v>
-      </c>
-      <c r="W38" s="1">
-        <v>1</v>
-      </c>
-      <c r="X38" s="1">
-        <v>2</v>
       </c>
       <c r="AB38" t="s">
         <v>40</v>
       </c>
-      <c r="AC38" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>455.23571226787601</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3383,62 +3425,62 @@
       </c>
       <c r="J39">
         <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
       </c>
       <c r="M39" t="s">
         <v>35</v>
       </c>
-      <c r="N39" t="s">
-        <v>36</v>
-      </c>
-      <c r="O39">
+      <c r="N39">
         <v>111.31805157593099</v>
       </c>
-      <c r="P39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="2">
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
         <v>14</v>
       </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
       <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
         <v>38.108882521489946</v>
+      </c>
+      <c r="S39" t="s">
+        <v>37</v>
       </c>
       <c r="T39" t="s">
         <v>38</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="s">
         <v>39</v>
-      </c>
-      <c r="V39" s="1">
-        <v>1</v>
-      </c>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1">
-        <v>2</v>
       </c>
       <c r="AB39" t="s">
         <v>40</v>
       </c>
-      <c r="AC39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>388.88920918058398</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3454,62 +3496,62 @@
       </c>
       <c r="J40">
         <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
       </c>
       <c r="M40" t="s">
         <v>35</v>
       </c>
-      <c r="N40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O40">
+      <c r="N40">
         <v>103.295128939828</v>
       </c>
-      <c r="P40" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
         <v>14</v>
       </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
       <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
         <v>18.051575931232101</v>
+      </c>
+      <c r="S40" t="s">
+        <v>37</v>
       </c>
       <c r="T40" t="s">
         <v>38</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA40" t="s">
         <v>39</v>
-      </c>
-      <c r="V40" s="1">
-        <v>1</v>
-      </c>
-      <c r="W40" s="1">
-        <v>1</v>
-      </c>
-      <c r="X40" s="1">
-        <v>2</v>
       </c>
       <c r="AB40" t="s">
         <v>40</v>
       </c>
-      <c r="AC40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>270.19999654084899</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3525,62 +3567,62 @@
       </c>
       <c r="J41">
         <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
       </c>
       <c r="M41" t="s">
         <v>35</v>
       </c>
-      <c r="N41" t="s">
-        <v>36</v>
-      </c>
-      <c r="O41">
+      <c r="N41">
         <v>63.1805157593123</v>
       </c>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2">
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
         <v>14</v>
       </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
       <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
         <v>7.0200573065902532</v>
+      </c>
+      <c r="S41" t="s">
+        <v>37</v>
       </c>
       <c r="T41" t="s">
         <v>38</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA41" t="s">
         <v>39</v>
-      </c>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
-      <c r="W41" s="1">
-        <v>1</v>
-      </c>
-      <c r="X41" s="1">
-        <v>2</v>
       </c>
       <c r="AB41" t="s">
         <v>40</v>
       </c>
-      <c r="AC41" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>179.77204199408399</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3596,62 +3638,62 @@
       </c>
       <c r="J42">
         <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
       </c>
       <c r="M42" t="s">
         <v>35</v>
       </c>
-      <c r="N42" t="s">
-        <v>36</v>
-      </c>
-      <c r="O42">
+      <c r="N42">
         <v>38.108882521489903</v>
       </c>
-      <c r="P42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2">
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
         <v>14</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
       <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
         <v>8.5243553008596002</v>
+      </c>
+      <c r="S42" t="s">
+        <v>37</v>
       </c>
       <c r="T42" t="s">
         <v>38</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA42" t="s">
         <v>39</v>
-      </c>
-      <c r="V42" s="1">
-        <v>1</v>
-      </c>
-      <c r="W42" s="1">
-        <v>1</v>
-      </c>
-      <c r="X42" s="1">
-        <v>2</v>
       </c>
       <c r="AB42" t="s">
         <v>40</v>
       </c>
-      <c r="AC42" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>89.300848068352806</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3667,59 +3709,59 @@
       </c>
       <c r="J43">
         <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
       </c>
       <c r="M43" t="s">
         <v>35</v>
       </c>
-      <c r="N43" t="s">
-        <v>36</v>
-      </c>
-      <c r="O43">
+      <c r="N43">
         <v>6.0171919770773403</v>
       </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="2">
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
         <v>14</v>
       </c>
-      <c r="R43">
-        <v>0</v>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>37</v>
       </c>
       <c r="T43" t="s">
         <v>38</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA43" t="s">
         <v>39</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
-      <c r="W43" s="1">
-        <v>1</v>
-      </c>
-      <c r="X43" s="1">
-        <v>2</v>
       </c>
       <c r="AB43" t="s">
         <v>40</v>
       </c>
-      <c r="AC43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3742,61 +3784,61 @@
       <c r="K44">
         <v>24</v>
       </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
       <c r="M44" t="s">
         <v>35</v>
       </c>
-      <c r="N44" t="s">
-        <v>36</v>
-      </c>
-      <c r="O44">
+      <c r="N44">
         <v>108.30945558739199</v>
       </c>
-      <c r="P44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2">
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
         <v>9</v>
       </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
       <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
         <v>23.567335243552897</v>
+      </c>
+      <c r="S44" t="s">
+        <v>37</v>
       </c>
       <c r="T44" t="s">
         <v>38</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA44" t="s">
         <v>39</v>
-      </c>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
-      <c r="W44" s="1">
-        <v>1</v>
-      </c>
-      <c r="X44" s="1">
-        <v>2</v>
       </c>
       <c r="AB44" t="s">
         <v>40</v>
       </c>
-      <c r="AC44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>457.30831983303801</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3819,61 +3861,61 @@
       <c r="K45">
         <v>24</v>
       </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
       <c r="M45" t="s">
         <v>35</v>
       </c>
-      <c r="N45" t="s">
-        <v>36</v>
-      </c>
-      <c r="O45">
+      <c r="N45">
         <v>97.277936962750601</v>
       </c>
-      <c r="P45" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2">
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
         <v>9</v>
       </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
       <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
         <v>22.564469914039947</v>
+      </c>
+      <c r="S45" t="s">
+        <v>37</v>
       </c>
       <c r="T45" t="s">
         <v>38</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="1">
+        <v>1</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="s">
         <v>39</v>
-      </c>
-      <c r="V45" s="1">
-        <v>1</v>
-      </c>
-      <c r="W45" s="1">
-        <v>1</v>
-      </c>
-      <c r="X45" s="1">
-        <v>2</v>
       </c>
       <c r="AB45" t="s">
         <v>40</v>
       </c>
-      <c r="AC45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>389.93560215159101</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3896,61 +3938,61 @@
       <c r="K46">
         <v>24</v>
       </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
       <c r="M46" t="s">
         <v>35</v>
       </c>
-      <c r="N46" t="s">
-        <v>36</v>
-      </c>
-      <c r="O46">
+      <c r="N46">
         <v>95.272206303724801</v>
       </c>
-      <c r="P46" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="2">
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
         <v>9</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
         <v>12.034383954154549</v>
+      </c>
+      <c r="S46" t="s">
+        <v>37</v>
       </c>
       <c r="T46" t="s">
         <v>38</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="1">
+        <v>1</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA46" t="s">
         <v>39</v>
-      </c>
-      <c r="V46" s="1">
-        <v>1</v>
-      </c>
-      <c r="W46" s="1">
-        <v>1</v>
-      </c>
-      <c r="X46" s="1">
-        <v>2</v>
       </c>
       <c r="AB46" t="s">
         <v>40</v>
       </c>
-      <c r="AC46" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>269.21702132566099</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3973,61 +4015,61 @@
       <c r="K47">
         <v>24</v>
       </c>
+      <c r="L47" t="s">
+        <v>34</v>
+      </c>
       <c r="M47" t="s">
         <v>35</v>
       </c>
-      <c r="N47" t="s">
-        <v>36</v>
-      </c>
-      <c r="O47">
+      <c r="N47">
         <v>60.171919770773599</v>
       </c>
-      <c r="P47" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="2">
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
         <v>9</v>
       </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
       <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
         <v>6.5186246418337497</v>
+      </c>
+      <c r="S47" t="s">
+        <v>37</v>
       </c>
       <c r="T47" t="s">
         <v>38</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA47" t="s">
         <v>39</v>
-      </c>
-      <c r="V47" s="1">
-        <v>1</v>
-      </c>
-      <c r="W47" s="1">
-        <v>1</v>
-      </c>
-      <c r="X47" s="1">
-        <v>2</v>
       </c>
       <c r="AB47" t="s">
         <v>40</v>
       </c>
-      <c r="AC47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>178.77465365257399</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4050,61 +4092,61 @@
       <c r="K48">
         <v>24</v>
       </c>
+      <c r="L48" t="s">
+        <v>34</v>
+      </c>
       <c r="M48" t="s">
         <v>35</v>
       </c>
-      <c r="N48" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48">
+      <c r="N48">
         <v>29.083094555873799</v>
       </c>
-      <c r="P48" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="2">
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
         <v>9</v>
       </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
       <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
         <v>4.5128939828080004</v>
+      </c>
+      <c r="S48" t="s">
+        <v>37</v>
       </c>
       <c r="T48" t="s">
         <v>38</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA48" t="s">
         <v>39</v>
-      </c>
-      <c r="V48" s="1">
-        <v>1</v>
-      </c>
-      <c r="W48" s="1">
-        <v>1</v>
-      </c>
-      <c r="X48" s="1">
-        <v>2</v>
       </c>
       <c r="AB48" t="s">
         <v>40</v>
       </c>
-      <c r="AC48" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>89.326791695733107</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4127,58 +4169,58 @@
       <c r="K49">
         <v>24</v>
       </c>
+      <c r="L49" t="s">
+        <v>34</v>
+      </c>
       <c r="M49" t="s">
         <v>35</v>
       </c>
-      <c r="N49" t="s">
-        <v>36</v>
-      </c>
-      <c r="O49">
+      <c r="N49">
         <v>6.0171919770773403</v>
       </c>
-      <c r="P49" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="2">
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
         <v>9</v>
       </c>
-      <c r="R49">
-        <v>0</v>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>37</v>
       </c>
       <c r="T49" t="s">
         <v>38</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA49" t="s">
         <v>39</v>
-      </c>
-      <c r="V49" s="1">
-        <v>1</v>
-      </c>
-      <c r="W49" s="1">
-        <v>1</v>
-      </c>
-      <c r="X49" s="1">
-        <v>2</v>
       </c>
       <c r="AB49" t="s">
         <v>40</v>
       </c>
-      <c r="AC49" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4201,61 +4243,61 @@
       <c r="K50">
         <v>24</v>
       </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
       <c r="M50" t="s">
         <v>35</v>
       </c>
-      <c r="N50" t="s">
-        <v>36</v>
-      </c>
-      <c r="O50">
+      <c r="N50">
         <v>108.30945558739199</v>
       </c>
-      <c r="P50" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2">
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
         <v>3</v>
       </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
       <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
         <v>24.570200573065897</v>
+      </c>
+      <c r="S50" t="s">
+        <v>37</v>
       </c>
       <c r="T50" t="s">
         <v>38</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA50" t="s">
         <v>39</v>
-      </c>
-      <c r="V50" s="1">
-        <v>1</v>
-      </c>
-      <c r="W50" s="1">
-        <v>1</v>
-      </c>
-      <c r="X50" s="1">
-        <v>2</v>
       </c>
       <c r="AB50" t="s">
         <v>40</v>
       </c>
-      <c r="AC50" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>457.30831983303801</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4278,61 +4320,61 @@
       <c r="K51">
         <v>24</v>
       </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
       <c r="M51" t="s">
         <v>35</v>
       </c>
-      <c r="N51" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51">
+      <c r="N51">
         <v>112.32091690544399</v>
       </c>
-      <c r="P51" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="2">
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
         <v>3</v>
       </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
       <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
         <v>17.800859598853748</v>
+      </c>
+      <c r="S51" t="s">
+        <v>37</v>
       </c>
       <c r="T51" t="s">
         <v>38</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U51" s="1">
+        <v>1</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA51" t="s">
         <v>39</v>
-      </c>
-      <c r="V51" s="1">
-        <v>1</v>
-      </c>
-      <c r="W51" s="1">
-        <v>1</v>
-      </c>
-      <c r="X51" s="1">
-        <v>2</v>
       </c>
       <c r="AB51" t="s">
         <v>40</v>
       </c>
-      <c r="AC51" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>389.89236277262398</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4355,61 +4397,61 @@
       <c r="K52">
         <v>24</v>
       </c>
+      <c r="L52" t="s">
+        <v>34</v>
+      </c>
       <c r="M52" t="s">
         <v>35</v>
       </c>
-      <c r="N52" t="s">
-        <v>36</v>
-      </c>
-      <c r="O52">
+      <c r="N52">
         <v>103.295128939828</v>
       </c>
-      <c r="P52" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="2">
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
         <v>3</v>
       </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
       <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
         <v>18.553008595988551</v>
+      </c>
+      <c r="S52" t="s">
+        <v>37</v>
       </c>
       <c r="T52" t="s">
         <v>38</v>
       </c>
-      <c r="U52" t="s">
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA52" t="s">
         <v>39</v>
-      </c>
-      <c r="V52" s="1">
-        <v>1</v>
-      </c>
-      <c r="W52" s="1">
-        <v>1</v>
-      </c>
-      <c r="X52" s="1">
-        <v>2</v>
       </c>
       <c r="AB52" t="s">
         <v>40</v>
       </c>
-      <c r="AC52" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>269.19396032354501</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4432,61 +4474,61 @@
       <c r="K53">
         <v>24</v>
       </c>
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
       <c r="M53" t="s">
         <v>35</v>
       </c>
-      <c r="N53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O53">
+      <c r="N53">
         <v>61.174785100286499</v>
       </c>
-      <c r="P53" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2">
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
         <v>3</v>
       </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
       <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
         <v>10.028653295128951</v>
+      </c>
+      <c r="S53" t="s">
+        <v>37</v>
       </c>
       <c r="T53" t="s">
         <v>38</v>
       </c>
-      <c r="U53" t="s">
+      <c r="U53" s="1">
+        <v>1</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="s">
         <v>39</v>
-      </c>
-      <c r="V53" s="1">
-        <v>1</v>
-      </c>
-      <c r="W53" s="1">
-        <v>1</v>
-      </c>
-      <c r="X53" s="1">
-        <v>2</v>
       </c>
       <c r="AB53" t="s">
         <v>40</v>
       </c>
-      <c r="AC53" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>180.783843461917</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4509,61 +4551,61 @@
       <c r="K54">
         <v>24</v>
       </c>
+      <c r="L54" t="s">
+        <v>34</v>
+      </c>
       <c r="M54" t="s">
         <v>35</v>
       </c>
-      <c r="N54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54">
+      <c r="N54">
         <v>39.111747851002796</v>
       </c>
-      <c r="P54" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="2">
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
         <v>3</v>
       </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
       <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
         <v>11.03151862464185</v>
+      </c>
+      <c r="S54" t="s">
+        <v>37</v>
       </c>
       <c r="T54" t="s">
         <v>38</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U54" s="1">
+        <v>1</v>
+      </c>
+      <c r="V54" s="1">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="s">
         <v>39</v>
-      </c>
-      <c r="V54" s="1">
-        <v>1</v>
-      </c>
-      <c r="W54" s="1">
-        <v>1</v>
-      </c>
-      <c r="X54" s="1">
-        <v>2</v>
       </c>
       <c r="AB54" t="s">
         <v>40</v>
       </c>
-      <c r="AC54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>89.297965443088302</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -4586,58 +4628,58 @@
       <c r="K55">
         <v>24</v>
       </c>
+      <c r="L55" t="s">
+        <v>34</v>
+      </c>
       <c r="M55" t="s">
         <v>35</v>
       </c>
-      <c r="N55" t="s">
-        <v>36</v>
-      </c>
-      <c r="O55">
+      <c r="N55">
         <v>6.0171919770773403</v>
       </c>
-      <c r="P55" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="2">
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2">
         <v>3</v>
       </c>
-      <c r="R55">
-        <v>0</v>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>37</v>
       </c>
       <c r="T55" t="s">
         <v>38</v>
       </c>
-      <c r="U55" t="s">
+      <c r="U55" s="1">
+        <v>1</v>
+      </c>
+      <c r="V55" s="1">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA55" t="s">
         <v>39</v>
-      </c>
-      <c r="V55" s="1">
-        <v>1</v>
-      </c>
-      <c r="W55" s="1">
-        <v>1</v>
-      </c>
-      <c r="X55" s="1">
-        <v>2</v>
       </c>
       <c r="AB55" t="s">
         <v>40</v>
       </c>
-      <c r="AC55" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
         <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>45</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4660,32 +4702,35 @@
       <c r="K56">
         <v>24</v>
       </c>
+      <c r="L56" t="s">
+        <v>45</v>
+      </c>
       <c r="M56" t="s">
         <v>46</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56">
+        <v>29.48</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>101</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S56" t="s">
         <v>47</v>
-      </c>
-      <c r="O56">
-        <v>29.48</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>101</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T56" t="s">
         <v>48</v>
       </c>
-      <c r="U56" t="s">
-        <v>49</v>
+      <c r="U56" s="1">
+        <v>1</v>
       </c>
       <c r="V56" s="1">
         <v>1</v>
@@ -4693,19 +4738,16 @@
       <c r="W56" s="1">
         <v>1</v>
       </c>
-      <c r="X56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
         <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>45</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4728,32 +4770,35 @@
       <c r="K57">
         <v>24</v>
       </c>
+      <c r="L57" t="s">
+        <v>45</v>
+      </c>
       <c r="M57" t="s">
         <v>46</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57">
+        <v>17.52</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>114</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0.05</v>
+      </c>
+      <c r="S57" t="s">
         <v>47</v>
-      </c>
-      <c r="O57">
-        <v>17.52</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>114</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0.05</v>
       </c>
       <c r="T57" t="s">
         <v>48</v>
       </c>
-      <c r="U57" t="s">
-        <v>49</v>
+      <c r="U57" s="1">
+        <v>1</v>
       </c>
       <c r="V57" s="1">
         <v>1</v>
@@ -4761,19 +4806,16 @@
       <c r="W57" s="1">
         <v>1</v>
       </c>
-      <c r="X57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
         <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>45</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4796,32 +4838,35 @@
       <c r="K58">
         <v>24</v>
       </c>
+      <c r="L58" t="s">
+        <v>45</v>
+      </c>
       <c r="M58" t="s">
         <v>46</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58">
+        <v>10.3</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>107</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S58" t="s">
         <v>47</v>
-      </c>
-      <c r="O58">
-        <v>10.3</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>107</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T58" t="s">
         <v>48</v>
       </c>
-      <c r="U58" t="s">
-        <v>49</v>
+      <c r="U58" s="1">
+        <v>1</v>
       </c>
       <c r="V58" s="1">
         <v>1</v>
@@ -4829,67 +4874,67 @@
       <c r="W58" s="1">
         <v>1</v>
       </c>
-      <c r="X58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10</v>
       </c>
       <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
         <v>44</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59">
+        <v>24</v>
+      </c>
+      <c r="J59">
+        <v>24</v>
+      </c>
+      <c r="K59">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
         <v>45</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>24</v>
-      </c>
-      <c r="H59">
-        <v>24</v>
-      </c>
-      <c r="I59">
-        <v>24</v>
-      </c>
-      <c r="J59">
-        <v>24</v>
-      </c>
-      <c r="K59">
-        <v>24</v>
       </c>
       <c r="M59" t="s">
         <v>46</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59">
+        <v>8.02</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0.02</v>
+      </c>
+      <c r="S59" t="s">
         <v>47</v>
-      </c>
-      <c r="O59">
-        <v>8.02</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>115</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0.02</v>
       </c>
       <c r="T59" t="s">
         <v>48</v>
       </c>
-      <c r="U59" t="s">
-        <v>49</v>
+      <c r="U59" s="1">
+        <v>1</v>
       </c>
       <c r="V59" s="1">
         <v>1</v>
@@ -4897,19 +4942,16 @@
       <c r="W59" s="1">
         <v>1</v>
       </c>
-      <c r="X59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
       <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
         <v>44</v>
-      </c>
-      <c r="C60" t="s">
-        <v>45</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4932,32 +4974,35 @@
       <c r="K60">
         <v>24</v>
       </c>
+      <c r="L60" t="s">
+        <v>45</v>
+      </c>
       <c r="M60" t="s">
         <v>46</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60">
+        <v>7</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
         <v>47</v>
-      </c>
-      <c r="O60">
-        <v>7</v>
-      </c>
-      <c r="P60" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
       </c>
       <c r="T60" t="s">
         <v>48</v>
       </c>
-      <c r="U60" t="s">
-        <v>49</v>
+      <c r="U60" s="1">
+        <v>1</v>
       </c>
       <c r="V60" s="1">
         <v>1</v>
@@ -4965,19 +5010,16 @@
       <c r="W60" s="1">
         <v>1</v>
       </c>
-      <c r="X60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
       <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
         <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>45</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5000,32 +5042,35 @@
       <c r="K61">
         <v>24</v>
       </c>
+      <c r="L61" t="s">
+        <v>45</v>
+      </c>
       <c r="M61" t="s">
         <v>46</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61">
+        <v>6.95</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>106</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0.03</v>
+      </c>
+      <c r="S61" t="s">
         <v>47</v>
-      </c>
-      <c r="O61">
-        <v>6.95</v>
-      </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>106</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0.03</v>
       </c>
       <c r="T61" t="s">
         <v>48</v>
       </c>
-      <c r="U61" t="s">
-        <v>49</v>
+      <c r="U61" s="1">
+        <v>1</v>
       </c>
       <c r="V61" s="1">
         <v>1</v>
@@ -5033,19 +5078,16 @@
       <c r="W61" s="1">
         <v>1</v>
       </c>
-      <c r="X61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10</v>
       </c>
       <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
         <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>45</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5068,32 +5110,35 @@
       <c r="K62">
         <v>24</v>
       </c>
+      <c r="L62" t="s">
+        <v>45</v>
+      </c>
       <c r="M62" t="s">
         <v>46</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62">
+        <v>6.03</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0.09</v>
+      </c>
+      <c r="S62" t="s">
         <v>47</v>
-      </c>
-      <c r="O62">
-        <v>6.03</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>68</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0.09</v>
       </c>
       <c r="T62" t="s">
         <v>48</v>
       </c>
-      <c r="U62" t="s">
-        <v>49</v>
+      <c r="U62" s="1">
+        <v>1</v>
       </c>
       <c r="V62" s="1">
         <v>1</v>
@@ -5101,19 +5146,16 @@
       <c r="W62" s="1">
         <v>1</v>
       </c>
-      <c r="X62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10</v>
       </c>
       <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
         <v>44</v>
-      </c>
-      <c r="C63" t="s">
-        <v>45</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5136,32 +5178,35 @@
       <c r="K63">
         <v>24</v>
       </c>
+      <c r="L63" t="s">
+        <v>45</v>
+      </c>
       <c r="M63" t="s">
         <v>46</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63">
+        <v>6.41</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>144</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0.09</v>
+      </c>
+      <c r="S63" t="s">
         <v>47</v>
-      </c>
-      <c r="O63">
-        <v>6.41</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>144</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0.09</v>
       </c>
       <c r="T63" t="s">
         <v>48</v>
       </c>
-      <c r="U63" t="s">
-        <v>49</v>
+      <c r="U63" s="1">
+        <v>1</v>
       </c>
       <c r="V63" s="1">
         <v>1</v>
@@ -5169,19 +5214,16 @@
       <c r="W63" s="1">
         <v>1</v>
       </c>
-      <c r="X63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10</v>
       </c>
       <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
         <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>45</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5204,32 +5246,35 @@
       <c r="K64">
         <v>24</v>
       </c>
+      <c r="L64" t="s">
+        <v>45</v>
+      </c>
       <c r="M64" t="s">
         <v>46</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64">
+        <v>7.48</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>178</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0.12</v>
+      </c>
+      <c r="S64" t="s">
         <v>47</v>
-      </c>
-      <c r="O64">
-        <v>7.48</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>178</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0.12</v>
       </c>
       <c r="T64" t="s">
         <v>48</v>
       </c>
-      <c r="U64" t="s">
-        <v>49</v>
+      <c r="U64" s="1">
+        <v>1</v>
       </c>
       <c r="V64" s="1">
         <v>1</v>
@@ -5237,19 +5282,16 @@
       <c r="W64" s="1">
         <v>1</v>
       </c>
-      <c r="X64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11</v>
       </c>
       <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
         <v>44</v>
-      </c>
-      <c r="C65" t="s">
-        <v>45</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5275,32 +5317,35 @@
       <c r="K65">
         <v>24</v>
       </c>
+      <c r="L65" t="s">
+        <v>45</v>
+      </c>
       <c r="M65" t="s">
         <v>46</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65">
+        <v>29.6</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>113</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0.32</v>
+      </c>
+      <c r="S65" t="s">
         <v>47</v>
-      </c>
-      <c r="O65">
-        <v>29.6</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>113</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0.32</v>
       </c>
       <c r="T65" t="s">
         <v>48</v>
       </c>
-      <c r="U65" t="s">
-        <v>49</v>
+      <c r="U65" s="1">
+        <v>1</v>
       </c>
       <c r="V65" s="1">
         <v>1</v>
@@ -5308,19 +5353,16 @@
       <c r="W65" s="1">
         <v>1</v>
       </c>
-      <c r="X65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11</v>
       </c>
       <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
         <v>44</v>
-      </c>
-      <c r="C66" t="s">
-        <v>45</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5346,32 +5388,35 @@
       <c r="K66">
         <v>24</v>
       </c>
+      <c r="L66" t="s">
+        <v>45</v>
+      </c>
       <c r="M66" t="s">
         <v>46</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66">
+        <v>16.04</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0.04</v>
+      </c>
+      <c r="S66" t="s">
         <v>47</v>
-      </c>
-      <c r="O66">
-        <v>16.04</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>155</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0.04</v>
       </c>
       <c r="T66" t="s">
         <v>48</v>
       </c>
-      <c r="U66" t="s">
-        <v>49</v>
+      <c r="U66" s="1">
+        <v>1</v>
       </c>
       <c r="V66" s="1">
         <v>1</v>
@@ -5379,19 +5424,16 @@
       <c r="W66" s="1">
         <v>1</v>
       </c>
-      <c r="X66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
         <v>44</v>
-      </c>
-      <c r="C67" t="s">
-        <v>45</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5417,32 +5459,35 @@
       <c r="K67">
         <v>24</v>
       </c>
+      <c r="L67" t="s">
+        <v>45</v>
+      </c>
       <c r="M67" t="s">
         <v>46</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67">
+        <v>11.48</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>148</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0.08</v>
+      </c>
+      <c r="S67" t="s">
         <v>47</v>
-      </c>
-      <c r="O67">
-        <v>11.48</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>148</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0.08</v>
       </c>
       <c r="T67" t="s">
         <v>48</v>
       </c>
-      <c r="U67" t="s">
-        <v>49</v>
+      <c r="U67" s="1">
+        <v>1</v>
       </c>
       <c r="V67" s="1">
         <v>1</v>
@@ -5450,19 +5495,16 @@
       <c r="W67" s="1">
         <v>1</v>
       </c>
-      <c r="X67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>11</v>
       </c>
       <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
         <v>44</v>
-      </c>
-      <c r="C68" t="s">
-        <v>45</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5488,32 +5530,35 @@
       <c r="K68">
         <v>24</v>
       </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
       <c r="M68" t="s">
         <v>46</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68">
+        <v>10.61</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>184</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0.04</v>
+      </c>
+      <c r="S68" t="s">
         <v>47</v>
-      </c>
-      <c r="O68">
-        <v>10.61</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>184</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0.04</v>
       </c>
       <c r="T68" t="s">
         <v>48</v>
       </c>
-      <c r="U68" t="s">
-        <v>49</v>
+      <c r="U68" s="1">
+        <v>1</v>
       </c>
       <c r="V68" s="1">
         <v>1</v>
@@ -5521,19 +5566,16 @@
       <c r="W68" s="1">
         <v>1</v>
       </c>
-      <c r="X68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>11</v>
       </c>
       <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
         <v>44</v>
-      </c>
-      <c r="C69" t="s">
-        <v>45</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5559,32 +5601,35 @@
       <c r="K69">
         <v>24</v>
       </c>
+      <c r="L69" t="s">
+        <v>45</v>
+      </c>
       <c r="M69" t="s">
         <v>46</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69">
+        <v>7.56</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>186</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0.04</v>
+      </c>
+      <c r="S69" t="s">
         <v>47</v>
-      </c>
-      <c r="O69">
-        <v>7.56</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>186</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0.04</v>
       </c>
       <c r="T69" t="s">
         <v>48</v>
       </c>
-      <c r="U69" t="s">
-        <v>49</v>
+      <c r="U69" s="1">
+        <v>1</v>
       </c>
       <c r="V69" s="1">
         <v>1</v>
@@ -5592,19 +5637,16 @@
       <c r="W69" s="1">
         <v>1</v>
       </c>
-      <c r="X69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>11</v>
       </c>
       <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
         <v>44</v>
-      </c>
-      <c r="C70" t="s">
-        <v>45</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5630,32 +5672,35 @@
       <c r="K70">
         <v>24</v>
       </c>
+      <c r="L70" t="s">
+        <v>45</v>
+      </c>
       <c r="M70" t="s">
         <v>46</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70">
+        <v>7.32</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S70" t="s">
         <v>47</v>
-      </c>
-      <c r="O70">
-        <v>7.32</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>150</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T70" t="s">
         <v>48</v>
       </c>
-      <c r="U70" t="s">
-        <v>49</v>
+      <c r="U70" s="1">
+        <v>1</v>
       </c>
       <c r="V70" s="1">
         <v>1</v>
@@ -5663,19 +5708,16 @@
       <c r="W70" s="1">
         <v>1</v>
       </c>
-      <c r="X70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>11</v>
       </c>
       <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
         <v>44</v>
-      </c>
-      <c r="C71" t="s">
-        <v>45</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5701,32 +5743,35 @@
       <c r="K71">
         <v>24</v>
       </c>
+      <c r="L71" t="s">
+        <v>45</v>
+      </c>
       <c r="M71" t="s">
         <v>46</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71">
+        <v>7.25</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <v>96</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0.09</v>
+      </c>
+      <c r="S71" t="s">
         <v>47</v>
-      </c>
-      <c r="O71">
-        <v>7.25</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>96</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0.09</v>
       </c>
       <c r="T71" t="s">
         <v>48</v>
       </c>
-      <c r="U71" t="s">
-        <v>49</v>
+      <c r="U71" s="1">
+        <v>1</v>
       </c>
       <c r="V71" s="1">
         <v>1</v>
@@ -5734,19 +5779,16 @@
       <c r="W71" s="1">
         <v>1</v>
       </c>
-      <c r="X71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>11</v>
       </c>
       <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
         <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5772,32 +5814,35 @@
       <c r="K72">
         <v>24</v>
       </c>
+      <c r="L72" t="s">
+        <v>45</v>
+      </c>
       <c r="M72" t="s">
         <v>46</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72">
+        <v>7.31</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <v>128</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0.15</v>
+      </c>
+      <c r="S72" t="s">
         <v>47</v>
-      </c>
-      <c r="O72">
-        <v>7.31</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>128</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0.15</v>
       </c>
       <c r="T72" t="s">
         <v>48</v>
       </c>
-      <c r="U72" t="s">
-        <v>49</v>
+      <c r="U72" s="1">
+        <v>1</v>
       </c>
       <c r="V72" s="1">
         <v>1</v>
@@ -5805,19 +5850,16 @@
       <c r="W72" s="1">
         <v>1</v>
       </c>
-      <c r="X72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11</v>
       </c>
       <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
         <v>44</v>
-      </c>
-      <c r="C73" t="s">
-        <v>45</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -5843,46 +5885,1246 @@
       <c r="K73">
         <v>24</v>
       </c>
+      <c r="L73" t="s">
+        <v>45</v>
+      </c>
       <c r="M73" t="s">
         <v>46</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73">
+        <v>8</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
         <v>47</v>
-      </c>
-      <c r="O73">
-        <v>8</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>103</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
       </c>
       <c r="T73" t="s">
         <v>48</v>
       </c>
-      <c r="U73" t="s">
+      <c r="U73" s="1">
+        <v>1</v>
+      </c>
+      <c r="V73" s="1">
+        <v>1</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
         <v>49</v>
       </c>
-      <c r="V73" s="1">
-        <v>1</v>
-      </c>
-      <c r="W73" s="1">
-        <v>1</v>
-      </c>
-      <c r="X73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>28</v>
+      </c>
+      <c r="I74">
+        <v>23</v>
+      </c>
+      <c r="J74">
+        <v>33</v>
+      </c>
+      <c r="K74">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
         <v>50</v>
       </c>
-      <c r="C74" t="s">
+      <c r="M74" t="s">
         <v>51</v>
+      </c>
+      <c r="N74">
+        <v>7.9668049792531201</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1.12033195020748</v>
+      </c>
+      <c r="S74" t="s">
+        <v>53</v>
+      </c>
+      <c r="T74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U74" s="1">
+        <v>1</v>
+      </c>
+      <c r="V74" s="1">
+        <v>1</v>
+      </c>
+      <c r="W74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>28</v>
+      </c>
+      <c r="I75">
+        <v>23</v>
+      </c>
+      <c r="J75">
+        <v>33</v>
+      </c>
+      <c r="K75">
+        <v>24</v>
+      </c>
+      <c r="L75" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N75">
+        <v>14.6887966804979</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>5.9751037344398306</v>
+      </c>
+      <c r="S75" t="s">
+        <v>53</v>
+      </c>
+      <c r="T75" t="s">
+        <v>54</v>
+      </c>
+      <c r="U75" s="1">
+        <v>1</v>
+      </c>
+      <c r="V75" s="1">
+        <v>1</v>
+      </c>
+      <c r="W75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>28</v>
+      </c>
+      <c r="I76">
+        <v>28</v>
+      </c>
+      <c r="J76">
+        <v>28</v>
+      </c>
+      <c r="K76">
+        <v>28</v>
+      </c>
+      <c r="L76" t="s">
+        <v>50</v>
+      </c>
+      <c r="M76" t="s">
+        <v>51</v>
+      </c>
+      <c r="N76">
+        <v>7.7178423236514604</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>2.116182572614115</v>
+      </c>
+      <c r="S76" t="s">
+        <v>53</v>
+      </c>
+      <c r="T76" t="s">
+        <v>54</v>
+      </c>
+      <c r="U76" s="1">
+        <v>1</v>
+      </c>
+      <c r="V76" s="1">
+        <v>1</v>
+      </c>
+      <c r="W76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>28</v>
+      </c>
+      <c r="I77">
+        <v>28</v>
+      </c>
+      <c r="J77">
+        <v>28</v>
+      </c>
+      <c r="K77">
+        <v>28</v>
+      </c>
+      <c r="L77" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77">
+        <v>17.427385892116099</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>5.6016597510373494</v>
+      </c>
+      <c r="S77" t="s">
+        <v>53</v>
+      </c>
+      <c r="T77" t="s">
+        <v>54</v>
+      </c>
+      <c r="U77" s="1">
+        <v>1</v>
+      </c>
+      <c r="V77" s="1">
+        <v>1</v>
+      </c>
+      <c r="W77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>28</v>
+      </c>
+      <c r="I78">
+        <v>23</v>
+      </c>
+      <c r="J78">
+        <v>33</v>
+      </c>
+      <c r="K78">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" t="s">
+        <v>51</v>
+      </c>
+      <c r="N78">
+        <v>28.630705394190802</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>4.3568464730290497</v>
+      </c>
+      <c r="S78" t="s">
+        <v>53</v>
+      </c>
+      <c r="T78" t="s">
+        <v>54</v>
+      </c>
+      <c r="U78" s="1">
+        <v>1</v>
+      </c>
+      <c r="V78" s="1">
+        <v>1</v>
+      </c>
+      <c r="W78" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>28</v>
+      </c>
+      <c r="I79">
+        <v>23</v>
+      </c>
+      <c r="J79">
+        <v>33</v>
+      </c>
+      <c r="K79">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>50</v>
+      </c>
+      <c r="M79" t="s">
+        <v>51</v>
+      </c>
+      <c r="N79">
+        <v>41.825726141078803</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>8.0912863070539522</v>
+      </c>
+      <c r="S79" t="s">
+        <v>53</v>
+      </c>
+      <c r="T79" t="s">
+        <v>54</v>
+      </c>
+      <c r="U79" s="1">
+        <v>1</v>
+      </c>
+      <c r="V79" s="1">
+        <v>1</v>
+      </c>
+      <c r="W79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>28</v>
+      </c>
+      <c r="I80">
+        <v>28</v>
+      </c>
+      <c r="J80">
+        <v>28</v>
+      </c>
+      <c r="K80">
+        <v>28</v>
+      </c>
+      <c r="L80" t="s">
+        <v>50</v>
+      </c>
+      <c r="M80" t="s">
+        <v>51</v>
+      </c>
+      <c r="N80">
+        <v>28.630705394190802</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>3.983402489626549</v>
+      </c>
+      <c r="S80" t="s">
+        <v>53</v>
+      </c>
+      <c r="T80" t="s">
+        <v>54</v>
+      </c>
+      <c r="U80" s="1">
+        <v>1</v>
+      </c>
+      <c r="V80" s="1">
+        <v>1</v>
+      </c>
+      <c r="W80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>28</v>
+      </c>
+      <c r="I81">
+        <v>28</v>
+      </c>
+      <c r="J81">
+        <v>28</v>
+      </c>
+      <c r="K81">
+        <v>28</v>
+      </c>
+      <c r="L81" t="s">
+        <v>50</v>
+      </c>
+      <c r="M81" t="s">
+        <v>51</v>
+      </c>
+      <c r="N81">
+        <v>35.601659751037303</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>6.2240663900414983</v>
+      </c>
+      <c r="S81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T81" t="s">
+        <v>54</v>
+      </c>
+      <c r="U81" s="1">
+        <v>1</v>
+      </c>
+      <c r="V81" s="1">
+        <v>1</v>
+      </c>
+      <c r="W81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>28</v>
+      </c>
+      <c r="I82">
+        <v>23</v>
+      </c>
+      <c r="J82">
+        <v>33</v>
+      </c>
+      <c r="K82">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" t="s">
+        <v>51</v>
+      </c>
+      <c r="N82">
+        <v>8.7136929460580905</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0.57261410788381983</v>
+      </c>
+      <c r="S82" t="s">
+        <v>53</v>
+      </c>
+      <c r="T82" t="s">
+        <v>54</v>
+      </c>
+      <c r="U82" s="1">
+        <v>1</v>
+      </c>
+      <c r="V82" s="1">
+        <v>1</v>
+      </c>
+      <c r="W82" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>28</v>
+      </c>
+      <c r="I83">
+        <v>23</v>
+      </c>
+      <c r="J83">
+        <v>33</v>
+      </c>
+      <c r="K83">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
+        <v>52</v>
+      </c>
+      <c r="M83" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83">
+        <v>9.6099585062240607</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0.74688796680495972</v>
+      </c>
+      <c r="S83" t="s">
+        <v>53</v>
+      </c>
+      <c r="T83" t="s">
+        <v>54</v>
+      </c>
+      <c r="U83" s="1">
+        <v>1</v>
+      </c>
+      <c r="V83" s="1">
+        <v>1</v>
+      </c>
+      <c r="W83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>28</v>
+      </c>
+      <c r="I84">
+        <v>28</v>
+      </c>
+      <c r="J84">
+        <v>28</v>
+      </c>
+      <c r="K84">
+        <v>28</v>
+      </c>
+      <c r="L84" t="s">
+        <v>52</v>
+      </c>
+      <c r="M84" t="s">
+        <v>51</v>
+      </c>
+      <c r="N84">
+        <v>8.1659751037344392</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0.72199170124481471</v>
+      </c>
+      <c r="S84" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" t="s">
+        <v>54</v>
+      </c>
+      <c r="U84" s="1">
+        <v>1</v>
+      </c>
+      <c r="V84" s="1">
+        <v>1</v>
+      </c>
+      <c r="W84" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>28</v>
+      </c>
+      <c r="I85">
+        <v>28</v>
+      </c>
+      <c r="J85">
+        <v>28</v>
+      </c>
+      <c r="K85">
+        <v>28</v>
+      </c>
+      <c r="L85" t="s">
+        <v>52</v>
+      </c>
+      <c r="M85" t="s">
+        <v>51</v>
+      </c>
+      <c r="N85">
+        <v>7.3692946058091202</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0.62240663900415027</v>
+      </c>
+      <c r="S85" t="s">
+        <v>53</v>
+      </c>
+      <c r="T85" t="s">
+        <v>54</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1</v>
+      </c>
+      <c r="V85" s="1">
+        <v>1</v>
+      </c>
+      <c r="W85" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>28</v>
+      </c>
+      <c r="I86">
+        <v>23</v>
+      </c>
+      <c r="J86">
+        <v>33</v>
+      </c>
+      <c r="K86">
+        <v>24</v>
+      </c>
+      <c r="L86" t="s">
+        <v>52</v>
+      </c>
+      <c r="M86" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86">
+        <v>8.9128630705394194</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0.72199170124481071</v>
+      </c>
+      <c r="S86" t="s">
+        <v>53</v>
+      </c>
+      <c r="T86" t="s">
+        <v>54</v>
+      </c>
+      <c r="U86" s="1">
+        <v>1</v>
+      </c>
+      <c r="V86" s="1">
+        <v>1</v>
+      </c>
+      <c r="W86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>28</v>
+      </c>
+      <c r="I87">
+        <v>23</v>
+      </c>
+      <c r="J87">
+        <v>33</v>
+      </c>
+      <c r="K87">
+        <v>24</v>
+      </c>
+      <c r="L87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M87" t="s">
+        <v>51</v>
+      </c>
+      <c r="N87">
+        <v>8.1659751037344392</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0.67219917012448471</v>
+      </c>
+      <c r="S87" t="s">
+        <v>53</v>
+      </c>
+      <c r="T87" t="s">
+        <v>54</v>
+      </c>
+      <c r="U87" s="1">
+        <v>1</v>
+      </c>
+      <c r="V87" s="1">
+        <v>1</v>
+      </c>
+      <c r="W87" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>28</v>
+      </c>
+      <c r="I88">
+        <v>28</v>
+      </c>
+      <c r="J88">
+        <v>28</v>
+      </c>
+      <c r="K88">
+        <v>28</v>
+      </c>
+      <c r="L88" t="s">
+        <v>52</v>
+      </c>
+      <c r="M88" t="s">
+        <v>51</v>
+      </c>
+      <c r="N88">
+        <v>9.9585062240663902</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0.42323651452278455</v>
+      </c>
+      <c r="S88" t="s">
+        <v>53</v>
+      </c>
+      <c r="T88" t="s">
+        <v>54</v>
+      </c>
+      <c r="U88" s="1">
+        <v>1</v>
+      </c>
+      <c r="V88" s="1">
+        <v>1</v>
+      </c>
+      <c r="W88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <v>28</v>
+      </c>
+      <c r="J89">
+        <v>28</v>
+      </c>
+      <c r="K89">
+        <v>28</v>
+      </c>
+      <c r="L89" t="s">
+        <v>52</v>
+      </c>
+      <c r="M89" t="s">
+        <v>51</v>
+      </c>
+      <c r="N89">
+        <v>8.3153526970954292</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0.74688796680497971</v>
+      </c>
+      <c r="S89" t="s">
+        <v>53</v>
+      </c>
+      <c r="T89" t="s">
+        <v>54</v>
+      </c>
+      <c r="U89" s="1">
+        <v>1</v>
+      </c>
+      <c r="V89" s="1">
+        <v>1</v>
+      </c>
+      <c r="W89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF2C25-70AB-BC4A-AB87-12B438C1D548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC228BDB-9828-2D48-8D95-645420FB026F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="440" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="75">
   <si>
     <t>study_id</t>
   </si>
@@ -220,6 +220,36 @@
   </si>
   <si>
     <t>figure 2b</t>
+  </si>
+  <si>
+    <t>kern_2015phys</t>
+  </si>
+  <si>
+    <t>development to stages 35-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g </t>
+  </si>
+  <si>
+    <t>body length</t>
+  </si>
+  <si>
+    <t>tail length</t>
+  </si>
+  <si>
+    <t>Limnodynastes</t>
+  </si>
+  <si>
+    <t>peronii</t>
+  </si>
+  <si>
+    <t>tasmaniensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platyplectrum </t>
+  </si>
+  <si>
+    <t>ornatum</t>
   </si>
 </sst>
 </file>
@@ -586,11 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A107:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4699,9 +4729,6 @@
       <c r="J56">
         <v>15</v>
       </c>
-      <c r="K56">
-        <v>24</v>
-      </c>
       <c r="L56" t="s">
         <v>45</v>
       </c>
@@ -4767,9 +4794,6 @@
       <c r="J57">
         <v>18</v>
       </c>
-      <c r="K57">
-        <v>24</v>
-      </c>
       <c r="L57" t="s">
         <v>45</v>
       </c>
@@ -4835,9 +4859,6 @@
       <c r="J58">
         <v>21</v>
       </c>
-      <c r="K58">
-        <v>24</v>
-      </c>
       <c r="L58" t="s">
         <v>45</v>
       </c>
@@ -4903,9 +4924,6 @@
       <c r="J59">
         <v>24</v>
       </c>
-      <c r="K59">
-        <v>24</v>
-      </c>
       <c r="L59" t="s">
         <v>45</v>
       </c>
@@ -4971,9 +4989,6 @@
       <c r="J60">
         <v>27</v>
       </c>
-      <c r="K60">
-        <v>24</v>
-      </c>
       <c r="L60" t="s">
         <v>45</v>
       </c>
@@ -5039,9 +5054,6 @@
       <c r="J61">
         <v>30</v>
       </c>
-      <c r="K61">
-        <v>24</v>
-      </c>
       <c r="L61" t="s">
         <v>45</v>
       </c>
@@ -5107,9 +5119,6 @@
       <c r="J62">
         <v>32</v>
       </c>
-      <c r="K62">
-        <v>24</v>
-      </c>
       <c r="L62" t="s">
         <v>45</v>
       </c>
@@ -5175,9 +5184,6 @@
       <c r="J63">
         <v>34</v>
       </c>
-      <c r="K63">
-        <v>24</v>
-      </c>
       <c r="L63" t="s">
         <v>45</v>
       </c>
@@ -6098,9 +6104,6 @@
       <c r="J76">
         <v>28</v>
       </c>
-      <c r="K76">
-        <v>28</v>
-      </c>
       <c r="L76" t="s">
         <v>50</v>
       </c>
@@ -6172,9 +6175,6 @@
       <c r="J77">
         <v>28</v>
       </c>
-      <c r="K77">
-        <v>28</v>
-      </c>
       <c r="L77" t="s">
         <v>50</v>
       </c>
@@ -6400,9 +6400,6 @@
       <c r="J80">
         <v>28</v>
       </c>
-      <c r="K80">
-        <v>28</v>
-      </c>
       <c r="L80" t="s">
         <v>50</v>
       </c>
@@ -6474,9 +6471,6 @@
       <c r="J81">
         <v>28</v>
       </c>
-      <c r="K81">
-        <v>28</v>
-      </c>
       <c r="L81" t="s">
         <v>50</v>
       </c>
@@ -6702,9 +6696,6 @@
       <c r="J84">
         <v>28</v>
       </c>
-      <c r="K84">
-        <v>28</v>
-      </c>
       <c r="L84" t="s">
         <v>52</v>
       </c>
@@ -6776,9 +6767,6 @@
       <c r="J85">
         <v>28</v>
       </c>
-      <c r="K85">
-        <v>28</v>
-      </c>
       <c r="L85" t="s">
         <v>52</v>
       </c>
@@ -7004,9 +6992,6 @@
       <c r="J88">
         <v>28</v>
       </c>
-      <c r="K88">
-        <v>28</v>
-      </c>
       <c r="L88" t="s">
         <v>52</v>
       </c>
@@ -7078,9 +7063,6 @@
       <c r="J89">
         <v>28</v>
       </c>
-      <c r="K89">
-        <v>28</v>
-      </c>
       <c r="L89" t="s">
         <v>52</v>
       </c>
@@ -7125,6 +7107,1754 @@
       </c>
       <c r="AD89" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>24</v>
+      </c>
+      <c r="I90">
+        <v>24</v>
+      </c>
+      <c r="J90">
+        <v>24</v>
+      </c>
+      <c r="L90" t="s">
+        <v>66</v>
+      </c>
+      <c r="M90" t="s">
+        <v>46</v>
+      </c>
+      <c r="N90">
+        <v>90.79</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0.72</v>
+      </c>
+      <c r="S90" t="s">
+        <v>70</v>
+      </c>
+      <c r="T90" t="s">
+        <v>71</v>
+      </c>
+      <c r="U90" s="1">
+        <v>1</v>
+      </c>
+      <c r="V90" s="1">
+        <v>1</v>
+      </c>
+      <c r="W90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>25</v>
+      </c>
+      <c r="I91">
+        <v>20</v>
+      </c>
+      <c r="J91">
+        <v>30</v>
+      </c>
+      <c r="K91">
+        <v>24</v>
+      </c>
+      <c r="L91" t="s">
+        <v>66</v>
+      </c>
+      <c r="M91" t="s">
+        <v>46</v>
+      </c>
+      <c r="N91">
+        <v>115.55</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0.86</v>
+      </c>
+      <c r="S91" t="s">
+        <v>70</v>
+      </c>
+      <c r="T91" t="s">
+        <v>71</v>
+      </c>
+      <c r="U91" s="1">
+        <v>1</v>
+      </c>
+      <c r="V91" s="1">
+        <v>1</v>
+      </c>
+      <c r="W91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>24</v>
+      </c>
+      <c r="I92">
+        <v>24</v>
+      </c>
+      <c r="J92">
+        <v>24</v>
+      </c>
+      <c r="L92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
+        <v>67</v>
+      </c>
+      <c r="N92">
+        <v>338.24</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>7.41</v>
+      </c>
+      <c r="S92" t="s">
+        <v>70</v>
+      </c>
+      <c r="T92" t="s">
+        <v>71</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1</v>
+      </c>
+      <c r="V92" s="1">
+        <v>1</v>
+      </c>
+      <c r="W92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>25</v>
+      </c>
+      <c r="I93">
+        <v>20</v>
+      </c>
+      <c r="J93">
+        <v>30</v>
+      </c>
+      <c r="K93">
+        <v>24</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>67</v>
+      </c>
+      <c r="N93">
+        <v>320.95</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>5.4</v>
+      </c>
+      <c r="S93" t="s">
+        <v>70</v>
+      </c>
+      <c r="T93" t="s">
+        <v>71</v>
+      </c>
+      <c r="U93" s="1">
+        <v>1</v>
+      </c>
+      <c r="V93" s="1">
+        <v>1</v>
+      </c>
+      <c r="W93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>24</v>
+      </c>
+      <c r="I94">
+        <v>24</v>
+      </c>
+      <c r="J94">
+        <v>24</v>
+      </c>
+      <c r="L94" t="s">
+        <v>68</v>
+      </c>
+      <c r="M94" t="s">
+        <v>33</v>
+      </c>
+      <c r="N94">
+        <v>12.44</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0.1</v>
+      </c>
+      <c r="S94" t="s">
+        <v>70</v>
+      </c>
+      <c r="T94" t="s">
+        <v>71</v>
+      </c>
+      <c r="U94" s="1">
+        <v>1</v>
+      </c>
+      <c r="V94" s="1">
+        <v>1</v>
+      </c>
+      <c r="W94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>25</v>
+      </c>
+      <c r="I95">
+        <v>20</v>
+      </c>
+      <c r="J95">
+        <v>30</v>
+      </c>
+      <c r="K95">
+        <v>24</v>
+      </c>
+      <c r="L95" t="s">
+        <v>68</v>
+      </c>
+      <c r="M95" t="s">
+        <v>33</v>
+      </c>
+      <c r="N95">
+        <v>12.46</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0.1</v>
+      </c>
+      <c r="S95" t="s">
+        <v>70</v>
+      </c>
+      <c r="T95" t="s">
+        <v>71</v>
+      </c>
+      <c r="U95" s="1">
+        <v>1</v>
+      </c>
+      <c r="V95" s="1">
+        <v>1</v>
+      </c>
+      <c r="W95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>24</v>
+      </c>
+      <c r="I96">
+        <v>24</v>
+      </c>
+      <c r="J96">
+        <v>24</v>
+      </c>
+      <c r="L96" t="s">
+        <v>69</v>
+      </c>
+      <c r="M96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N96">
+        <v>26.2</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0.3</v>
+      </c>
+      <c r="S96" t="s">
+        <v>70</v>
+      </c>
+      <c r="T96" t="s">
+        <v>71</v>
+      </c>
+      <c r="U96" s="1">
+        <v>1</v>
+      </c>
+      <c r="V96" s="1">
+        <v>1</v>
+      </c>
+      <c r="W96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>25</v>
+      </c>
+      <c r="I97">
+        <v>20</v>
+      </c>
+      <c r="J97">
+        <v>30</v>
+      </c>
+      <c r="K97">
+        <v>24</v>
+      </c>
+      <c r="L97" t="s">
+        <v>69</v>
+      </c>
+      <c r="M97" t="s">
+        <v>33</v>
+      </c>
+      <c r="N97">
+        <v>25.12</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0.25</v>
+      </c>
+      <c r="S97" t="s">
+        <v>70</v>
+      </c>
+      <c r="T97" t="s">
+        <v>71</v>
+      </c>
+      <c r="U97" s="1">
+        <v>1</v>
+      </c>
+      <c r="V97" s="1">
+        <v>1</v>
+      </c>
+      <c r="W97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>24</v>
+      </c>
+      <c r="I98">
+        <v>24</v>
+      </c>
+      <c r="J98">
+        <v>24</v>
+      </c>
+      <c r="L98" t="s">
+        <v>66</v>
+      </c>
+      <c r="M98" t="s">
+        <v>46</v>
+      </c>
+      <c r="N98">
+        <v>156.43</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S98" t="s">
+        <v>70</v>
+      </c>
+      <c r="T98" t="s">
+        <v>72</v>
+      </c>
+      <c r="U98" s="1">
+        <v>1</v>
+      </c>
+      <c r="V98" s="1">
+        <v>1</v>
+      </c>
+      <c r="W98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>25</v>
+      </c>
+      <c r="I99">
+        <v>20</v>
+      </c>
+      <c r="J99">
+        <v>30</v>
+      </c>
+      <c r="K99">
+        <v>24</v>
+      </c>
+      <c r="L99" t="s">
+        <v>66</v>
+      </c>
+      <c r="M99" t="s">
+        <v>46</v>
+      </c>
+      <c r="N99">
+        <v>200.93</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0.65</v>
+      </c>
+      <c r="S99" t="s">
+        <v>70</v>
+      </c>
+      <c r="T99" t="s">
+        <v>72</v>
+      </c>
+      <c r="U99" s="1">
+        <v>1</v>
+      </c>
+      <c r="V99" s="1">
+        <v>1</v>
+      </c>
+      <c r="W99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <v>24</v>
+      </c>
+      <c r="J100">
+        <v>24</v>
+      </c>
+      <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
+        <v>67</v>
+      </c>
+      <c r="N100">
+        <v>463.13</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>8.92</v>
+      </c>
+      <c r="S100" t="s">
+        <v>70</v>
+      </c>
+      <c r="T100" t="s">
+        <v>72</v>
+      </c>
+      <c r="U100" s="1">
+        <v>1</v>
+      </c>
+      <c r="V100" s="1">
+        <v>1</v>
+      </c>
+      <c r="W100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>25</v>
+      </c>
+      <c r="I101">
+        <v>20</v>
+      </c>
+      <c r="J101">
+        <v>30</v>
+      </c>
+      <c r="K101">
+        <v>24</v>
+      </c>
+      <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
+        <v>67</v>
+      </c>
+      <c r="N101">
+        <v>370.12</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>9.24</v>
+      </c>
+      <c r="S101" t="s">
+        <v>70</v>
+      </c>
+      <c r="T101" t="s">
+        <v>72</v>
+      </c>
+      <c r="U101" s="1">
+        <v>1</v>
+      </c>
+      <c r="V101" s="1">
+        <v>1</v>
+      </c>
+      <c r="W101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>24</v>
+      </c>
+      <c r="I102">
+        <v>24</v>
+      </c>
+      <c r="J102">
+        <v>24</v>
+      </c>
+      <c r="L102" t="s">
+        <v>68</v>
+      </c>
+      <c r="M102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102">
+        <v>14.16</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0.12</v>
+      </c>
+      <c r="S102" t="s">
+        <v>70</v>
+      </c>
+      <c r="T102" t="s">
+        <v>72</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1</v>
+      </c>
+      <c r="V102" s="1">
+        <v>1</v>
+      </c>
+      <c r="W102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>25</v>
+      </c>
+      <c r="I103">
+        <v>20</v>
+      </c>
+      <c r="J103">
+        <v>30</v>
+      </c>
+      <c r="K103">
+        <v>24</v>
+      </c>
+      <c r="L103" t="s">
+        <v>68</v>
+      </c>
+      <c r="M103" t="s">
+        <v>33</v>
+      </c>
+      <c r="N103">
+        <v>13.46</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0.13</v>
+      </c>
+      <c r="S103" t="s">
+        <v>70</v>
+      </c>
+      <c r="T103" t="s">
+        <v>72</v>
+      </c>
+      <c r="U103" s="1">
+        <v>1</v>
+      </c>
+      <c r="V103" s="1">
+        <v>1</v>
+      </c>
+      <c r="W103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>24</v>
+      </c>
+      <c r="I104">
+        <v>24</v>
+      </c>
+      <c r="J104">
+        <v>24</v>
+      </c>
+      <c r="L104" t="s">
+        <v>69</v>
+      </c>
+      <c r="M104" t="s">
+        <v>33</v>
+      </c>
+      <c r="N104">
+        <v>28.03</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0.24</v>
+      </c>
+      <c r="S104" t="s">
+        <v>70</v>
+      </c>
+      <c r="T104" t="s">
+        <v>72</v>
+      </c>
+      <c r="U104" s="1">
+        <v>1</v>
+      </c>
+      <c r="V104" s="1">
+        <v>1</v>
+      </c>
+      <c r="W104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>25</v>
+      </c>
+      <c r="I105">
+        <v>20</v>
+      </c>
+      <c r="J105">
+        <v>30</v>
+      </c>
+      <c r="K105">
+        <v>24</v>
+      </c>
+      <c r="L105" t="s">
+        <v>69</v>
+      </c>
+      <c r="M105" t="s">
+        <v>33</v>
+      </c>
+      <c r="N105">
+        <v>24.1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0.25</v>
+      </c>
+      <c r="S105" t="s">
+        <v>70</v>
+      </c>
+      <c r="T105" t="s">
+        <v>72</v>
+      </c>
+      <c r="U105" s="1">
+        <v>1</v>
+      </c>
+      <c r="V105" s="1">
+        <v>1</v>
+      </c>
+      <c r="W105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>24</v>
+      </c>
+      <c r="I106">
+        <v>24</v>
+      </c>
+      <c r="J106">
+        <v>24</v>
+      </c>
+      <c r="L106" t="s">
+        <v>66</v>
+      </c>
+      <c r="M106" t="s">
+        <v>46</v>
+      </c>
+      <c r="N106">
+        <v>29.75</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0.38</v>
+      </c>
+      <c r="S106" t="s">
+        <v>73</v>
+      </c>
+      <c r="T106" t="s">
+        <v>74</v>
+      </c>
+      <c r="U106" s="1">
+        <v>1</v>
+      </c>
+      <c r="V106" s="1">
+        <v>1</v>
+      </c>
+      <c r="W106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>25</v>
+      </c>
+      <c r="I107">
+        <v>20</v>
+      </c>
+      <c r="J107">
+        <v>30</v>
+      </c>
+      <c r="K107">
+        <v>24</v>
+      </c>
+      <c r="L107" t="s">
+        <v>66</v>
+      </c>
+      <c r="M107" t="s">
+        <v>46</v>
+      </c>
+      <c r="N107">
+        <v>25.6</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0.33</v>
+      </c>
+      <c r="S107" t="s">
+        <v>73</v>
+      </c>
+      <c r="T107" t="s">
+        <v>74</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1</v>
+      </c>
+      <c r="W107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>28</v>
+      </c>
+      <c r="I108">
+        <v>18</v>
+      </c>
+      <c r="J108">
+        <v>38</v>
+      </c>
+      <c r="K108">
+        <v>24</v>
+      </c>
+      <c r="L108" t="s">
+        <v>66</v>
+      </c>
+      <c r="M108" t="s">
+        <v>46</v>
+      </c>
+      <c r="N108">
+        <v>25.74</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0.46</v>
+      </c>
+      <c r="S108" t="s">
+        <v>73</v>
+      </c>
+      <c r="T108" t="s">
+        <v>74</v>
+      </c>
+      <c r="U108" s="1">
+        <v>1</v>
+      </c>
+      <c r="V108" s="1">
+        <v>1</v>
+      </c>
+      <c r="W108" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>24</v>
+      </c>
+      <c r="J109">
+        <v>24</v>
+      </c>
+      <c r="L109" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" t="s">
+        <v>67</v>
+      </c>
+      <c r="N109">
+        <v>243.26</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>6.16</v>
+      </c>
+      <c r="S109" t="s">
+        <v>73</v>
+      </c>
+      <c r="T109" t="s">
+        <v>74</v>
+      </c>
+      <c r="U109" s="1">
+        <v>1</v>
+      </c>
+      <c r="V109" s="1">
+        <v>1</v>
+      </c>
+      <c r="W109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>25</v>
+      </c>
+      <c r="I110">
+        <v>20</v>
+      </c>
+      <c r="J110">
+        <v>30</v>
+      </c>
+      <c r="K110">
+        <v>24</v>
+      </c>
+      <c r="L110" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" t="s">
+        <v>67</v>
+      </c>
+      <c r="N110">
+        <v>182.66</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>4.62</v>
+      </c>
+      <c r="S110" t="s">
+        <v>73</v>
+      </c>
+      <c r="T110" t="s">
+        <v>74</v>
+      </c>
+      <c r="U110" s="1">
+        <v>1</v>
+      </c>
+      <c r="V110" s="1">
+        <v>1</v>
+      </c>
+      <c r="W110" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>28</v>
+      </c>
+      <c r="I111">
+        <v>18</v>
+      </c>
+      <c r="J111">
+        <v>38</v>
+      </c>
+      <c r="K111">
+        <v>24</v>
+      </c>
+      <c r="L111" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" t="s">
+        <v>67</v>
+      </c>
+      <c r="N111">
+        <v>140.44999999999999</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>3.6</v>
+      </c>
+      <c r="S111" t="s">
+        <v>73</v>
+      </c>
+      <c r="T111" t="s">
+        <v>74</v>
+      </c>
+      <c r="U111" s="1">
+        <v>1</v>
+      </c>
+      <c r="V111" s="1">
+        <v>1</v>
+      </c>
+      <c r="W111" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>24</v>
+      </c>
+      <c r="I112">
+        <v>24</v>
+      </c>
+      <c r="J112">
+        <v>24</v>
+      </c>
+      <c r="L112" t="s">
+        <v>68</v>
+      </c>
+      <c r="M112" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112">
+        <v>11.48</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0.12</v>
+      </c>
+      <c r="S112" t="s">
+        <v>73</v>
+      </c>
+      <c r="T112" t="s">
+        <v>74</v>
+      </c>
+      <c r="U112" s="1">
+        <v>1</v>
+      </c>
+      <c r="V112" s="1">
+        <v>1</v>
+      </c>
+      <c r="W112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>25</v>
+      </c>
+      <c r="I113">
+        <v>20</v>
+      </c>
+      <c r="J113">
+        <v>30</v>
+      </c>
+      <c r="K113">
+        <v>24</v>
+      </c>
+      <c r="L113" t="s">
+        <v>68</v>
+      </c>
+      <c r="M113" t="s">
+        <v>33</v>
+      </c>
+      <c r="N113">
+        <v>10.46</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0.11</v>
+      </c>
+      <c r="S113" t="s">
+        <v>73</v>
+      </c>
+      <c r="T113" t="s">
+        <v>74</v>
+      </c>
+      <c r="U113" s="1">
+        <v>1</v>
+      </c>
+      <c r="V113" s="1">
+        <v>1</v>
+      </c>
+      <c r="W113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>28</v>
+      </c>
+      <c r="I114">
+        <v>18</v>
+      </c>
+      <c r="J114">
+        <v>38</v>
+      </c>
+      <c r="K114">
+        <v>24</v>
+      </c>
+      <c r="L114" t="s">
+        <v>68</v>
+      </c>
+      <c r="M114" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114">
+        <v>9.67</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0.09</v>
+      </c>
+      <c r="S114" t="s">
+        <v>73</v>
+      </c>
+      <c r="T114" t="s">
+        <v>74</v>
+      </c>
+      <c r="U114" s="1">
+        <v>1</v>
+      </c>
+      <c r="V114" s="1">
+        <v>1</v>
+      </c>
+      <c r="W114" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>24</v>
+      </c>
+      <c r="I115">
+        <v>24</v>
+      </c>
+      <c r="J115">
+        <v>24</v>
+      </c>
+      <c r="L115" t="s">
+        <v>69</v>
+      </c>
+      <c r="M115" t="s">
+        <v>33</v>
+      </c>
+      <c r="N115">
+        <v>19.77</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0.21</v>
+      </c>
+      <c r="S115" t="s">
+        <v>73</v>
+      </c>
+      <c r="T115" t="s">
+        <v>74</v>
+      </c>
+      <c r="U115" s="1">
+        <v>1</v>
+      </c>
+      <c r="V115" s="1">
+        <v>1</v>
+      </c>
+      <c r="W115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>25</v>
+      </c>
+      <c r="I116">
+        <v>20</v>
+      </c>
+      <c r="J116">
+        <v>30</v>
+      </c>
+      <c r="K116">
+        <v>24</v>
+      </c>
+      <c r="L116" t="s">
+        <v>69</v>
+      </c>
+      <c r="M116" t="s">
+        <v>33</v>
+      </c>
+      <c r="N116">
+        <v>17.78</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0.22</v>
+      </c>
+      <c r="S116" t="s">
+        <v>73</v>
+      </c>
+      <c r="T116" t="s">
+        <v>74</v>
+      </c>
+      <c r="U116" s="1">
+        <v>1</v>
+      </c>
+      <c r="V116" s="1">
+        <v>1</v>
+      </c>
+      <c r="W116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>28</v>
+      </c>
+      <c r="I117">
+        <v>18</v>
+      </c>
+      <c r="J117">
+        <v>38</v>
+      </c>
+      <c r="K117">
+        <v>24</v>
+      </c>
+      <c r="L117" t="s">
+        <v>69</v>
+      </c>
+      <c r="M117" t="s">
+        <v>33</v>
+      </c>
+      <c r="N117">
+        <v>17.02</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0.2</v>
+      </c>
+      <c r="S117" t="s">
+        <v>73</v>
+      </c>
+      <c r="T117" t="s">
+        <v>74</v>
+      </c>
+      <c r="U117" s="1">
+        <v>1</v>
+      </c>
+      <c r="V117" s="1">
+        <v>1</v>
+      </c>
+      <c r="W117" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC228BDB-9828-2D48-8D95-645420FB026F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D1E85C-DFAC-D649-A3A3-E65714189BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="85">
   <si>
     <t>study_id</t>
   </si>
@@ -114,6 +114,9 @@
     <t>origin</t>
   </si>
   <si>
+    <t>figure 1</t>
+  </si>
+  <si>
     <t>flux_treatment</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
   </si>
   <si>
     <t>glass2019</t>
+  </si>
+  <si>
+    <t>figure 2</t>
   </si>
   <si>
     <t>ovary mass, dry</t>
@@ -250,6 +256,30 @@
   </si>
   <si>
     <t>ornatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kern_2015plasticity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival </t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>UV exposure</t>
+  </si>
+  <si>
+    <t>UV absence</t>
+  </si>
+  <si>
+    <t>UV presence</t>
+  </si>
+  <si>
+    <t>CT max</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -616,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AF117"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A107:A117"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -711,10 +741,10 @@
         <v>23</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -728,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -749,10 +779,10 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2">
         <v>5.6285077951002203</v>
@@ -770,10 +800,10 @@
         <v>0.12828507795099986</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -785,10 +815,10 @@
         <v>2</v>
       </c>
       <c r="AA2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -796,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -823,10 +853,10 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3">
         <v>5.2489977728285</v>
@@ -844,10 +874,10 @@
         <v>0.16035634743875038</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" s="1">
         <v>1</v>
@@ -859,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -870,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -897,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>5.3238307349665899</v>
@@ -918,10 +948,10 @@
         <v>0.27795100222717473</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
@@ -933,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="AA4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -944,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -965,10 +995,10 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5">
         <v>5.6285077951002203</v>
@@ -986,10 +1016,10 @@
         <v>9.8886414253899879E-2</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
@@ -1001,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -1012,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1039,10 +1069,10 @@
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>5.2489977728285</v>
@@ -1060,10 +1090,10 @@
         <v>9.8886414253894994E-2</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U6" s="1">
         <v>1</v>
@@ -1075,10 +1105,10 @@
         <v>2</v>
       </c>
       <c r="AA6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -1086,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1113,10 +1143,10 @@
         <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>5.2596881959910897</v>
@@ -1134,10 +1164,10 @@
         <v>9.6213808463255113E-2</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
@@ -1149,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -1160,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1181,10 +1211,10 @@
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>28.113333333333301</v>
@@ -1202,10 +1232,10 @@
         <v>0.24000000000000021</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
@@ -1217,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="AA8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -1228,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1255,10 +1285,10 @@
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>27.26</v>
@@ -1276,10 +1306,10 @@
         <v>0.30666666666670039</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
@@ -1291,10 +1321,10 @@
         <v>2</v>
       </c>
       <c r="AA9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -1302,10 +1332,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1329,10 +1359,10 @@
         <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>27.3666666666666</v>
@@ -1350,10 +1380,10 @@
         <v>0.52666666666664952</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
@@ -1365,10 +1395,10 @@
         <v>2</v>
       </c>
       <c r="AA10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -1376,10 +1406,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1397,10 +1427,10 @@
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>28.108888888888799</v>
@@ -1418,10 +1448,10 @@
         <v>0.18666666666665144</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
@@ -1433,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="AA11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -1444,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1471,10 +1501,10 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>27.704444444444398</v>
@@ -1492,10 +1522,10 @@
         <v>0.18444444444445018</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
@@ -1507,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="AA12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -1518,10 +1548,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1545,10 +1575,10 @@
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>27.8466666666666</v>
@@ -1566,10 +1596,10 @@
         <v>0.17777777777779846</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U13" s="1">
         <v>1</v>
@@ -1581,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="AA13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -1592,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1613,10 +1643,10 @@
         <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>22.706467391304301</v>
@@ -1634,10 +1664,10 @@
         <v>0.29461956521740085</v>
       </c>
       <c r="S14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -1649,10 +1679,10 @@
         <v>2</v>
       </c>
       <c r="AA14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -1660,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1687,10 +1717,10 @@
         <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>21.534604037266998</v>
@@ -1708,10 +1738,10 @@
         <v>0.37834821428569931</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
@@ -1723,10 +1753,10 @@
         <v>2</v>
       </c>
       <c r="AA15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -1734,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1761,10 +1791,10 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>21.983253105589998</v>
@@ -1782,10 +1812,10 @@
         <v>0.64955357142860137</v>
       </c>
       <c r="S16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
@@ -1797,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
@@ -1808,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1829,10 +1859,10 @@
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>22.639503105589998</v>
@@ -1850,10 +1880,10 @@
         <v>0.22095885093165002</v>
       </c>
       <c r="S17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -1865,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="AA17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -1876,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1903,10 +1933,10 @@
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>21.789068322981301</v>
@@ -1924,10 +1954,10 @@
         <v>0.23102678571425095</v>
       </c>
       <c r="S18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
@@ -1939,10 +1969,10 @@
         <v>2</v>
       </c>
       <c r="AA18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
@@ -1950,10 +1980,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1977,10 +2007,10 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>22.2109316770186</v>
@@ -1998,10 +2028,10 @@
         <v>0.234375</v>
       </c>
       <c r="S19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U19" s="1">
         <v>1</v>
@@ -2013,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="AA19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
@@ -2024,10 +2054,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2045,10 +2075,10 @@
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>270.77363896848101</v>
@@ -2066,10 +2096,10 @@
         <v>15.042979942693492</v>
       </c>
       <c r="S20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U20" s="1">
         <v>1</v>
@@ -2081,10 +2111,10 @@
         <v>2</v>
       </c>
       <c r="AA20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF20">
         <v>455.83529832288798</v>
@@ -2095,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2116,10 +2146,10 @@
         <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>238.681948424068</v>
@@ -2137,10 +2167,10 @@
         <v>13.538681948423999</v>
       </c>
       <c r="S21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U21" s="1">
         <v>1</v>
@@ -2152,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="AA21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF21">
         <v>389.52915198929901</v>
@@ -2166,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2187,10 +2217,10 @@
         <v>28</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>153.438395415472</v>
@@ -2208,10 +2238,10 @@
         <v>5.5157593123209949</v>
       </c>
       <c r="S22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U22" s="1">
         <v>1</v>
@@ -2223,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="AA22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF22">
         <v>270.055865277625</v>
@@ -2237,10 +2267,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2258,10 +2288,10 @@
         <v>28</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>68.194842406876703</v>
@@ -2279,10 +2309,10 @@
         <v>3.7607449856733055</v>
       </c>
       <c r="S23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U23" s="1">
         <v>1</v>
@@ -2294,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="AA23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF23">
         <v>179.75762886776201</v>
@@ -2308,10 +2338,10 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2329,10 +2359,10 @@
         <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>34.097421203438302</v>
@@ -2350,10 +2380,10 @@
         <v>3.7607449856733517</v>
       </c>
       <c r="S24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U24" s="1">
         <v>1</v>
@@ -2365,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="AA24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF24">
         <v>89.312378569410697</v>
@@ -2379,10 +2409,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2400,10 +2430,10 @@
         <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>6.0171919770773403</v>
@@ -2418,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U25" s="1">
         <v>1</v>
@@ -2433,10 +2463,10 @@
         <v>2</v>
       </c>
       <c r="AA25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2447,10 +2477,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2474,10 +2504,10 @@
         <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>309.88538681948398</v>
@@ -2495,10 +2525,10 @@
         <v>21.060171919771022</v>
       </c>
       <c r="S26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U26" s="1">
         <v>1</v>
@@ -2510,10 +2540,10 @@
         <v>2</v>
       </c>
       <c r="AA26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF26">
         <v>455.72287593757301</v>
@@ -2524,10 +2554,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2551,10 +2581,10 @@
         <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>252.722063037249</v>
@@ -2572,10 +2602,10 @@
         <v>13.037249283667506</v>
       </c>
       <c r="S27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U27" s="1">
         <v>1</v>
@@ -2587,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="AA27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF27">
         <v>389.48879523559702</v>
@@ -2601,10 +2631,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2628,10 +2658,10 @@
         <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>153.438395415472</v>
@@ -2649,10 +2679,10 @@
         <v>5.5157593123209949</v>
       </c>
       <c r="S28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U28" s="1">
         <v>1</v>
@@ -2664,10 +2694,10 @@
         <v>2</v>
       </c>
       <c r="AA28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF28">
         <v>269.04982906032097</v>
@@ -2678,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2705,10 +2735,10 @@
         <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>71.203438395415404</v>
@@ -2726,10 +2756,10 @@
         <v>5.0143266475644026</v>
       </c>
       <c r="S29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U29" s="1">
         <v>1</v>
@@ -2741,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="AA29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF29">
         <v>178.74294477466501</v>
@@ -2755,10 +2785,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2782,10 +2812,10 @@
         <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>34.097421203438302</v>
@@ -2803,10 +2833,10 @@
         <v>5.0143266475644488</v>
       </c>
       <c r="S30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U30" s="1">
         <v>1</v>
@@ -2818,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="AA30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF30">
         <v>89.312378569410697</v>
@@ -2832,10 +2862,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2859,10 +2889,10 @@
         <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>6.0171919770773403</v>
@@ -2877,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U31" s="1">
         <v>1</v>
@@ -2892,10 +2922,10 @@
         <v>2</v>
       </c>
       <c r="AA31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -2906,10 +2936,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2933,10 +2963,10 @@
         <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>300.85959885386802</v>
@@ -2954,10 +2984,10 @@
         <v>16.045845272206492</v>
       </c>
       <c r="S32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U32" s="1">
         <v>1</v>
@@ -2969,10 +2999,10 @@
         <v>2</v>
       </c>
       <c r="AA32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF32">
         <v>455.74881956495398</v>
@@ -2983,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3010,10 +3040,10 @@
         <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>263.25214899713399</v>
@@ -3031,10 +3061,10 @@
         <v>13.287965616045511</v>
       </c>
       <c r="S33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U33" s="1">
         <v>1</v>
@@ -3046,10 +3076,10 @@
         <v>2</v>
       </c>
       <c r="AA33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF33">
         <v>389.45852767032</v>
@@ -3060,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3087,10 +3117,10 @@
         <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>165.47277936962701</v>
@@ -3108,10 +3138,10 @@
         <v>6.5186246418334974</v>
       </c>
       <c r="S34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U34" s="1">
         <v>1</v>
@@ -3123,10 +3153,10 @@
         <v>2</v>
       </c>
       <c r="AA34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF34">
         <v>269.015237557148</v>
@@ -3137,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3164,10 +3194,10 @@
         <v>24</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>80.229226361031394</v>
@@ -3185,10 +3215,10 @@
         <v>5.5157593123209452</v>
       </c>
       <c r="S35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U35" s="1">
         <v>1</v>
@@ -3200,10 +3230,10 @@
         <v>2</v>
       </c>
       <c r="AA35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF35">
         <v>179.72303736458801</v>
@@ -3214,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3241,10 +3271,10 @@
         <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>40.114613180515597</v>
@@ -3262,10 +3292,10 @@
         <v>3.0085959885386977</v>
       </c>
       <c r="S36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U36" s="1">
         <v>1</v>
@@ -3277,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="AA36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF36">
         <v>89.295082817823896</v>
@@ -3291,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3318,10 +3348,10 @@
         <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>5.0143266475644701</v>
@@ -3336,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U37" s="1">
         <v>1</v>
@@ -3351,10 +3381,10 @@
         <v>2</v>
       </c>
       <c r="AA37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3365,10 +3395,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3386,10 +3416,10 @@
         <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>129.36962750716299</v>
@@ -3407,10 +3437,10 @@
         <v>25.071633237822496</v>
       </c>
       <c r="S38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U38" s="1">
         <v>1</v>
@@ -3422,10 +3452,10 @@
         <v>2</v>
       </c>
       <c r="AA38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF38">
         <v>455.23571226787601</v>
@@ -3436,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3457,10 +3487,10 @@
         <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>111.31805157593099</v>
@@ -3478,10 +3508,10 @@
         <v>38.108882521489946</v>
       </c>
       <c r="S39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U39" s="1">
         <v>1</v>
@@ -3493,10 +3523,10 @@
         <v>2</v>
       </c>
       <c r="AA39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF39">
         <v>388.88920918058398</v>
@@ -3507,10 +3537,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3528,10 +3558,10 @@
         <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>103.295128939828</v>
@@ -3549,10 +3579,10 @@
         <v>18.051575931232101</v>
       </c>
       <c r="S40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U40" s="1">
         <v>1</v>
@@ -3564,10 +3594,10 @@
         <v>2</v>
       </c>
       <c r="AA40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF40">
         <v>270.19999654084899</v>
@@ -3578,10 +3608,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3599,10 +3629,10 @@
         <v>28</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>63.1805157593123</v>
@@ -3620,10 +3650,10 @@
         <v>7.0200573065902532</v>
       </c>
       <c r="S41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U41" s="1">
         <v>1</v>
@@ -3635,10 +3665,10 @@
         <v>2</v>
       </c>
       <c r="AA41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF41">
         <v>179.77204199408399</v>
@@ -3649,10 +3679,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3670,10 +3700,10 @@
         <v>28</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>38.108882521489903</v>
@@ -3691,10 +3721,10 @@
         <v>8.5243553008596002</v>
       </c>
       <c r="S42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U42" s="1">
         <v>1</v>
@@ -3706,10 +3736,10 @@
         <v>2</v>
       </c>
       <c r="AA42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF42">
         <v>89.300848068352806</v>
@@ -3720,10 +3750,10 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3741,10 +3771,10 @@
         <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>6.0171919770773403</v>
@@ -3759,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U43" s="1">
         <v>1</v>
@@ -3774,10 +3804,10 @@
         <v>2</v>
       </c>
       <c r="AA43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -3788,10 +3818,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3815,10 +3845,10 @@
         <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>108.30945558739199</v>
@@ -3836,10 +3866,10 @@
         <v>23.567335243552897</v>
       </c>
       <c r="S44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U44" s="1">
         <v>1</v>
@@ -3851,10 +3881,10 @@
         <v>2</v>
       </c>
       <c r="AA44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF44">
         <v>457.30831983303801</v>
@@ -3865,10 +3895,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3892,10 +3922,10 @@
         <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>97.277936962750601</v>
@@ -3913,10 +3943,10 @@
         <v>22.564469914039947</v>
       </c>
       <c r="S45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U45" s="1">
         <v>1</v>
@@ -3928,10 +3958,10 @@
         <v>2</v>
       </c>
       <c r="AA45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF45">
         <v>389.93560215159101</v>
@@ -3942,10 +3972,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3969,10 +3999,10 @@
         <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>95.272206303724801</v>
@@ -3990,10 +4020,10 @@
         <v>12.034383954154549</v>
       </c>
       <c r="S46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U46" s="1">
         <v>1</v>
@@ -4005,10 +4035,10 @@
         <v>2</v>
       </c>
       <c r="AA46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF46">
         <v>269.21702132566099</v>
@@ -4019,10 +4049,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4046,10 +4076,10 @@
         <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>60.171919770773599</v>
@@ -4067,10 +4097,10 @@
         <v>6.5186246418337497</v>
       </c>
       <c r="S47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U47" s="1">
         <v>1</v>
@@ -4082,10 +4112,10 @@
         <v>2</v>
       </c>
       <c r="AA47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF47">
         <v>178.77465365257399</v>
@@ -4096,10 +4126,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4123,10 +4153,10 @@
         <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N48">
         <v>29.083094555873799</v>
@@ -4144,10 +4174,10 @@
         <v>4.5128939828080004</v>
       </c>
       <c r="S48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U48" s="1">
         <v>1</v>
@@ -4159,10 +4189,10 @@
         <v>2</v>
       </c>
       <c r="AA48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF48">
         <v>89.326791695733107</v>
@@ -4173,10 +4203,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4200,10 +4230,10 @@
         <v>24</v>
       </c>
       <c r="L49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>6.0171919770773403</v>
@@ -4218,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U49" s="1">
         <v>1</v>
@@ -4233,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="AA49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4247,10 +4277,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4274,10 +4304,10 @@
         <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N50">
         <v>108.30945558739199</v>
@@ -4295,10 +4325,10 @@
         <v>24.570200573065897</v>
       </c>
       <c r="S50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U50" s="1">
         <v>1</v>
@@ -4310,10 +4340,10 @@
         <v>2</v>
       </c>
       <c r="AA50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF50">
         <v>457.30831983303801</v>
@@ -4324,10 +4354,10 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4351,10 +4381,10 @@
         <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>112.32091690544399</v>
@@ -4372,10 +4402,10 @@
         <v>17.800859598853748</v>
       </c>
       <c r="S51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U51" s="1">
         <v>1</v>
@@ -4387,10 +4417,10 @@
         <v>2</v>
       </c>
       <c r="AA51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF51">
         <v>389.89236277262398</v>
@@ -4401,10 +4431,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4428,10 +4458,10 @@
         <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N52">
         <v>103.295128939828</v>
@@ -4449,10 +4479,10 @@
         <v>18.553008595988551</v>
       </c>
       <c r="S52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U52" s="1">
         <v>1</v>
@@ -4464,10 +4494,10 @@
         <v>2</v>
       </c>
       <c r="AA52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF52">
         <v>269.19396032354501</v>
@@ -4478,10 +4508,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4505,10 +4535,10 @@
         <v>24</v>
       </c>
       <c r="L53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N53">
         <v>61.174785100286499</v>
@@ -4526,10 +4556,10 @@
         <v>10.028653295128951</v>
       </c>
       <c r="S53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U53" s="1">
         <v>1</v>
@@ -4541,10 +4571,10 @@
         <v>2</v>
       </c>
       <c r="AA53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF53">
         <v>180.783843461917</v>
@@ -4555,10 +4585,10 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4582,10 +4612,10 @@
         <v>24</v>
       </c>
       <c r="L54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N54">
         <v>39.111747851002796</v>
@@ -4603,10 +4633,10 @@
         <v>11.03151862464185</v>
       </c>
       <c r="S54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U54" s="1">
         <v>1</v>
@@ -4618,10 +4648,10 @@
         <v>2</v>
       </c>
       <c r="AA54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF54">
         <v>89.297965443088302</v>
@@ -4632,10 +4662,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -4659,10 +4689,10 @@
         <v>24</v>
       </c>
       <c r="L55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N55">
         <v>6.0171919770773403</v>
@@ -4677,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U55" s="1">
         <v>1</v>
@@ -4692,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="AA55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -4706,10 +4736,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4730,10 +4760,10 @@
         <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N56">
         <v>29.48</v>
@@ -4751,10 +4781,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U56" s="1">
         <v>1</v>
@@ -4771,10 +4801,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4795,10 +4825,10 @@
         <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N57">
         <v>17.52</v>
@@ -4816,10 +4846,10 @@
         <v>0.05</v>
       </c>
       <c r="S57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U57" s="1">
         <v>1</v>
@@ -4836,10 +4866,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4860,10 +4890,10 @@
         <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N58">
         <v>10.3</v>
@@ -4881,10 +4911,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U58" s="1">
         <v>1</v>
@@ -4901,10 +4931,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4925,10 +4955,10 @@
         <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N59">
         <v>8.02</v>
@@ -4946,10 +4976,10 @@
         <v>0.02</v>
       </c>
       <c r="S59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U59" s="1">
         <v>1</v>
@@ -4966,10 +4996,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4990,10 +5020,10 @@
         <v>27</v>
       </c>
       <c r="L60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N60">
         <v>7</v>
@@ -5011,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U60" s="1">
         <v>1</v>
@@ -5031,10 +5061,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5055,10 +5085,10 @@
         <v>30</v>
       </c>
       <c r="L61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N61">
         <v>6.95</v>
@@ -5076,10 +5106,10 @@
         <v>0.03</v>
       </c>
       <c r="S61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U61" s="1">
         <v>1</v>
@@ -5096,10 +5126,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5120,10 +5150,10 @@
         <v>32</v>
       </c>
       <c r="L62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N62">
         <v>6.03</v>
@@ -5141,10 +5171,10 @@
         <v>0.09</v>
       </c>
       <c r="S62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U62" s="1">
         <v>1</v>
@@ -5161,10 +5191,10 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5185,10 +5215,10 @@
         <v>34</v>
       </c>
       <c r="L63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N63">
         <v>6.41</v>
@@ -5206,10 +5236,10 @@
         <v>0.09</v>
       </c>
       <c r="S63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U63" s="1">
         <v>1</v>
@@ -5226,10 +5256,10 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5253,10 +5283,10 @@
         <v>24</v>
       </c>
       <c r="L64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N64">
         <v>7.48</v>
@@ -5274,10 +5304,10 @@
         <v>0.12</v>
       </c>
       <c r="S64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U64" s="1">
         <v>1</v>
@@ -5294,10 +5324,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5324,10 +5354,10 @@
         <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N65">
         <v>29.6</v>
@@ -5345,10 +5375,10 @@
         <v>0.32</v>
       </c>
       <c r="S65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U65" s="1">
         <v>1</v>
@@ -5365,10 +5395,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5395,10 +5425,10 @@
         <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N66">
         <v>16.04</v>
@@ -5416,10 +5446,10 @@
         <v>0.04</v>
       </c>
       <c r="S66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U66" s="1">
         <v>1</v>
@@ -5436,10 +5466,10 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5466,10 +5496,10 @@
         <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N67">
         <v>11.48</v>
@@ -5487,10 +5517,10 @@
         <v>0.08</v>
       </c>
       <c r="S67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U67" s="1">
         <v>1</v>
@@ -5507,10 +5537,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5537,10 +5567,10 @@
         <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N68">
         <v>10.61</v>
@@ -5558,10 +5588,10 @@
         <v>0.04</v>
       </c>
       <c r="S68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U68" s="1">
         <v>1</v>
@@ -5578,10 +5608,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5608,10 +5638,10 @@
         <v>24</v>
       </c>
       <c r="L69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N69">
         <v>7.56</v>
@@ -5629,10 +5659,10 @@
         <v>0.04</v>
       </c>
       <c r="S69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U69" s="1">
         <v>1</v>
@@ -5649,10 +5679,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5679,10 +5709,10 @@
         <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N70">
         <v>7.32</v>
@@ -5700,10 +5730,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U70" s="1">
         <v>1</v>
@@ -5720,10 +5750,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5750,10 +5780,10 @@
         <v>24</v>
       </c>
       <c r="L71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N71">
         <v>7.25</v>
@@ -5771,10 +5801,10 @@
         <v>0.09</v>
       </c>
       <c r="S71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U71" s="1">
         <v>1</v>
@@ -5791,10 +5821,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5821,10 +5851,10 @@
         <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N72">
         <v>7.31</v>
@@ -5842,10 +5872,10 @@
         <v>0.15</v>
       </c>
       <c r="S72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U72" s="1">
         <v>1</v>
@@ -5862,10 +5892,10 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -5892,10 +5922,10 @@
         <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N73">
         <v>8</v>
@@ -5910,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U73" s="1">
         <v>1</v>
@@ -5930,10 +5960,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -5957,10 +5987,10 @@
         <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N74">
         <v>7.9668049792531201</v>
@@ -5975,10 +6005,10 @@
         <v>1.12033195020748</v>
       </c>
       <c r="S74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U74" s="1">
         <v>1</v>
@@ -5990,16 +6020,16 @@
         <v>1</v>
       </c>
       <c r="AA74" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
@@ -6007,10 +6037,10 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6034,10 +6064,10 @@
         <v>24</v>
       </c>
       <c r="L75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N75">
         <v>14.6887966804979</v>
@@ -6052,10 +6082,10 @@
         <v>5.9751037344398306</v>
       </c>
       <c r="S75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U75" s="1">
         <v>1</v>
@@ -6067,16 +6097,16 @@
         <v>1</v>
       </c>
       <c r="AA75" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
@@ -6084,10 +6114,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6105,10 +6135,10 @@
         <v>28</v>
       </c>
       <c r="L76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N76">
         <v>7.7178423236514604</v>
@@ -6123,10 +6153,10 @@
         <v>2.116182572614115</v>
       </c>
       <c r="S76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U76" s="1">
         <v>1</v>
@@ -6138,16 +6168,16 @@
         <v>1</v>
       </c>
       <c r="AA76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
@@ -6155,10 +6185,10 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6176,10 +6206,10 @@
         <v>28</v>
       </c>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N77">
         <v>17.427385892116099</v>
@@ -6194,10 +6224,10 @@
         <v>5.6016597510373494</v>
       </c>
       <c r="S77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U77" s="1">
         <v>1</v>
@@ -6209,16 +6239,16 @@
         <v>1</v>
       </c>
       <c r="AA77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
@@ -6226,10 +6256,10 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6253,10 +6283,10 @@
         <v>24</v>
       </c>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N78">
         <v>28.630705394190802</v>
@@ -6271,10 +6301,10 @@
         <v>4.3568464730290497</v>
       </c>
       <c r="S78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T78" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U78" s="1">
         <v>1</v>
@@ -6286,16 +6316,16 @@
         <v>1</v>
       </c>
       <c r="AA78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
@@ -6303,10 +6333,10 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -6330,10 +6360,10 @@
         <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N79">
         <v>41.825726141078803</v>
@@ -6348,10 +6378,10 @@
         <v>8.0912863070539522</v>
       </c>
       <c r="S79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U79" s="1">
         <v>1</v>
@@ -6363,16 +6393,16 @@
         <v>1</v>
       </c>
       <c r="AA79" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.2">
@@ -6380,10 +6410,10 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -6401,10 +6431,10 @@
         <v>28</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N80">
         <v>28.630705394190802</v>
@@ -6419,10 +6449,10 @@
         <v>3.983402489626549</v>
       </c>
       <c r="S80" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U80" s="1">
         <v>1</v>
@@ -6434,16 +6464,16 @@
         <v>1</v>
       </c>
       <c r="AA80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD80" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
@@ -6451,10 +6481,10 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6472,10 +6502,10 @@
         <v>28</v>
       </c>
       <c r="L81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N81">
         <v>35.601659751037303</v>
@@ -6490,10 +6520,10 @@
         <v>6.2240663900414983</v>
       </c>
       <c r="S81" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U81" s="1">
         <v>1</v>
@@ -6505,16 +6535,16 @@
         <v>1</v>
       </c>
       <c r="AA81" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
@@ -6522,10 +6552,10 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -6549,10 +6579,10 @@
         <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N82">
         <v>8.7136929460580905</v>
@@ -6567,10 +6597,10 @@
         <v>0.57261410788381983</v>
       </c>
       <c r="S82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U82" s="1">
         <v>1</v>
@@ -6582,16 +6612,16 @@
         <v>1</v>
       </c>
       <c r="AA82" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
@@ -6599,10 +6629,10 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -6626,10 +6656,10 @@
         <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N83">
         <v>9.6099585062240607</v>
@@ -6644,10 +6674,10 @@
         <v>0.74688796680495972</v>
       </c>
       <c r="S83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T83" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U83" s="1">
         <v>1</v>
@@ -6659,16 +6689,16 @@
         <v>1</v>
       </c>
       <c r="AA83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
@@ -6676,10 +6706,10 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -6697,10 +6727,10 @@
         <v>28</v>
       </c>
       <c r="L84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N84">
         <v>8.1659751037344392</v>
@@ -6715,10 +6745,10 @@
         <v>0.72199170124481471</v>
       </c>
       <c r="S84" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U84" s="1">
         <v>1</v>
@@ -6730,16 +6760,16 @@
         <v>1</v>
       </c>
       <c r="AA84" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
@@ -6747,10 +6777,10 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6768,10 +6798,10 @@
         <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N85">
         <v>7.3692946058091202</v>
@@ -6786,10 +6816,10 @@
         <v>0.62240663900415027</v>
       </c>
       <c r="S85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U85" s="1">
         <v>1</v>
@@ -6801,16 +6831,16 @@
         <v>1</v>
       </c>
       <c r="AA85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
@@ -6818,10 +6848,10 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6845,10 +6875,10 @@
         <v>24</v>
       </c>
       <c r="L86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N86">
         <v>8.9128630705394194</v>
@@ -6863,10 +6893,10 @@
         <v>0.72199170124481071</v>
       </c>
       <c r="S86" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U86" s="1">
         <v>1</v>
@@ -6878,16 +6908,16 @@
         <v>1</v>
       </c>
       <c r="AA86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB86" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
@@ -6895,10 +6925,10 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6922,10 +6952,10 @@
         <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N87">
         <v>8.1659751037344392</v>
@@ -6940,10 +6970,10 @@
         <v>0.67219917012448471</v>
       </c>
       <c r="S87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T87" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U87" s="1">
         <v>1</v>
@@ -6955,16 +6985,16 @@
         <v>1</v>
       </c>
       <c r="AA87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
@@ -6972,10 +7002,10 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -6993,10 +7023,10 @@
         <v>28</v>
       </c>
       <c r="L88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N88">
         <v>9.9585062240663902</v>
@@ -7011,10 +7041,10 @@
         <v>0.42323651452278455</v>
       </c>
       <c r="S88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T88" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U88" s="1">
         <v>1</v>
@@ -7026,16 +7056,16 @@
         <v>1</v>
       </c>
       <c r="AA88" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB88" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
@@ -7043,10 +7073,10 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -7064,10 +7094,10 @@
         <v>28</v>
       </c>
       <c r="L89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N89">
         <v>8.3153526970954292</v>
@@ -7082,10 +7112,10 @@
         <v>0.74688796680497971</v>
       </c>
       <c r="S89" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U89" s="1">
         <v>1</v>
@@ -7097,16 +7127,16 @@
         <v>1</v>
       </c>
       <c r="AA89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
@@ -7114,10 +7144,10 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -7135,10 +7165,10 @@
         <v>24</v>
       </c>
       <c r="L90" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N90">
         <v>90.79</v>
@@ -7153,10 +7183,10 @@
         <v>0.72</v>
       </c>
       <c r="S90" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T90" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U90" s="1">
         <v>1</v>
@@ -7173,10 +7203,10 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -7200,10 +7230,10 @@
         <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N91">
         <v>115.55</v>
@@ -7218,10 +7248,10 @@
         <v>0.86</v>
       </c>
       <c r="S91" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T91" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U91" s="1">
         <v>1</v>
@@ -7238,10 +7268,10 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -7259,10 +7289,10 @@
         <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N92">
         <v>338.24</v>
@@ -7277,10 +7307,10 @@
         <v>7.41</v>
       </c>
       <c r="S92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U92" s="1">
         <v>1</v>
@@ -7297,10 +7327,10 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -7324,10 +7354,10 @@
         <v>24</v>
       </c>
       <c r="L93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M93" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N93">
         <v>320.95</v>
@@ -7342,10 +7372,10 @@
         <v>5.4</v>
       </c>
       <c r="S93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T93" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U93" s="1">
         <v>1</v>
@@ -7362,10 +7392,10 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -7383,10 +7413,10 @@
         <v>24</v>
       </c>
       <c r="L94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N94">
         <v>12.44</v>
@@ -7401,10 +7431,10 @@
         <v>0.1</v>
       </c>
       <c r="S94" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T94" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U94" s="1">
         <v>1</v>
@@ -7421,10 +7451,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -7448,10 +7478,10 @@
         <v>24</v>
       </c>
       <c r="L95" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N95">
         <v>12.46</v>
@@ -7466,10 +7496,10 @@
         <v>0.1</v>
       </c>
       <c r="S95" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T95" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U95" s="1">
         <v>1</v>
@@ -7486,10 +7516,10 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -7507,10 +7537,10 @@
         <v>24</v>
       </c>
       <c r="L96" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N96">
         <v>26.2</v>
@@ -7525,10 +7555,10 @@
         <v>0.3</v>
       </c>
       <c r="S96" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T96" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U96" s="1">
         <v>1</v>
@@ -7545,10 +7575,10 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7572,10 +7602,10 @@
         <v>24</v>
       </c>
       <c r="L97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N97">
         <v>25.12</v>
@@ -7590,10 +7620,10 @@
         <v>0.25</v>
       </c>
       <c r="S97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U97" s="1">
         <v>1</v>
@@ -7610,10 +7640,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7631,10 +7661,10 @@
         <v>24</v>
       </c>
       <c r="L98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N98">
         <v>156.43</v>
@@ -7649,10 +7679,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S98" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U98" s="1">
         <v>1</v>
@@ -7669,10 +7699,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -7696,10 +7726,10 @@
         <v>24</v>
       </c>
       <c r="L99" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N99">
         <v>200.93</v>
@@ -7714,10 +7744,10 @@
         <v>0.65</v>
       </c>
       <c r="S99" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U99" s="1">
         <v>1</v>
@@ -7734,10 +7764,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -7755,10 +7785,10 @@
         <v>24</v>
       </c>
       <c r="L100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M100" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N100">
         <v>463.13</v>
@@ -7773,10 +7803,10 @@
         <v>8.92</v>
       </c>
       <c r="S100" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T100" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U100" s="1">
         <v>1</v>
@@ -7793,10 +7823,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -7820,10 +7850,10 @@
         <v>24</v>
       </c>
       <c r="L101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N101">
         <v>370.12</v>
@@ -7838,10 +7868,10 @@
         <v>9.24</v>
       </c>
       <c r="S101" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T101" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U101" s="1">
         <v>1</v>
@@ -7858,10 +7888,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -7879,10 +7909,10 @@
         <v>24</v>
       </c>
       <c r="L102" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N102">
         <v>14.16</v>
@@ -7897,10 +7927,10 @@
         <v>0.12</v>
       </c>
       <c r="S102" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T102" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U102" s="1">
         <v>1</v>
@@ -7917,10 +7947,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -7944,10 +7974,10 @@
         <v>24</v>
       </c>
       <c r="L103" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N103">
         <v>13.46</v>
@@ -7962,10 +7992,10 @@
         <v>0.13</v>
       </c>
       <c r="S103" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T103" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U103" s="1">
         <v>1</v>
@@ -7982,10 +8012,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -8003,10 +8033,10 @@
         <v>24</v>
       </c>
       <c r="L104" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N104">
         <v>28.03</v>
@@ -8021,10 +8051,10 @@
         <v>0.24</v>
       </c>
       <c r="S104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T104" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U104" s="1">
         <v>1</v>
@@ -8041,10 +8071,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -8068,10 +8098,10 @@
         <v>24</v>
       </c>
       <c r="L105" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N105">
         <v>24.1</v>
@@ -8086,10 +8116,10 @@
         <v>0.25</v>
       </c>
       <c r="S105" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T105" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U105" s="1">
         <v>1</v>
@@ -8106,10 +8136,10 @@
         <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -8127,10 +8157,10 @@
         <v>24</v>
       </c>
       <c r="L106" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N106">
         <v>29.75</v>
@@ -8145,10 +8175,10 @@
         <v>0.38</v>
       </c>
       <c r="S106" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T106" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U106" s="1">
         <v>1</v>
@@ -8165,10 +8195,10 @@
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8192,10 +8222,10 @@
         <v>24</v>
       </c>
       <c r="L107" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N107">
         <v>25.6</v>
@@ -8210,10 +8240,10 @@
         <v>0.33</v>
       </c>
       <c r="S107" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T107" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U107" s="1">
         <v>1</v>
@@ -8230,10 +8260,10 @@
         <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -8257,10 +8287,10 @@
         <v>24</v>
       </c>
       <c r="L108" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N108">
         <v>25.74</v>
@@ -8275,10 +8305,10 @@
         <v>0.46</v>
       </c>
       <c r="S108" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T108" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U108" s="1">
         <v>1</v>
@@ -8295,10 +8325,10 @@
         <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -8316,10 +8346,10 @@
         <v>24</v>
       </c>
       <c r="L109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N109">
         <v>243.26</v>
@@ -8334,10 +8364,10 @@
         <v>6.16</v>
       </c>
       <c r="S109" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T109" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U109" s="1">
         <v>1</v>
@@ -8354,10 +8384,10 @@
         <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -8381,10 +8411,10 @@
         <v>24</v>
       </c>
       <c r="L110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M110" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N110">
         <v>182.66</v>
@@ -8399,10 +8429,10 @@
         <v>4.62</v>
       </c>
       <c r="S110" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T110" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U110" s="1">
         <v>1</v>
@@ -8419,10 +8449,10 @@
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8446,10 +8476,10 @@
         <v>24</v>
       </c>
       <c r="L111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N111">
         <v>140.44999999999999</v>
@@ -8464,10 +8494,10 @@
         <v>3.6</v>
       </c>
       <c r="S111" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T111" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U111" s="1">
         <v>1</v>
@@ -8484,10 +8514,10 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -8505,10 +8535,10 @@
         <v>24</v>
       </c>
       <c r="L112" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N112">
         <v>11.48</v>
@@ -8523,10 +8553,10 @@
         <v>0.12</v>
       </c>
       <c r="S112" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T112" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U112" s="1">
         <v>1</v>
@@ -8538,15 +8568,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -8570,10 +8600,10 @@
         <v>24</v>
       </c>
       <c r="L113" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N113">
         <v>10.46</v>
@@ -8588,10 +8618,10 @@
         <v>0.11</v>
       </c>
       <c r="S113" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T113" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U113" s="1">
         <v>1</v>
@@ -8603,15 +8633,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -8635,10 +8665,10 @@
         <v>24</v>
       </c>
       <c r="L114" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N114">
         <v>9.67</v>
@@ -8653,10 +8683,10 @@
         <v>0.09</v>
       </c>
       <c r="S114" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T114" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U114" s="1">
         <v>1</v>
@@ -8668,15 +8698,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -8694,10 +8724,10 @@
         <v>24</v>
       </c>
       <c r="L115" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N115">
         <v>19.77</v>
@@ -8712,10 +8742,10 @@
         <v>0.21</v>
       </c>
       <c r="S115" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T115" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U115" s="1">
         <v>1</v>
@@ -8727,15 +8757,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -8759,10 +8789,10 @@
         <v>24</v>
       </c>
       <c r="L116" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N116">
         <v>17.78</v>
@@ -8777,10 +8807,10 @@
         <v>0.22</v>
       </c>
       <c r="S116" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T116" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U116" s="1">
         <v>1</v>
@@ -8792,15 +8822,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -8824,10 +8854,10 @@
         <v>24</v>
       </c>
       <c r="L117" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N117">
         <v>17.02</v>
@@ -8842,19 +8872,859 @@
         <v>0.2</v>
       </c>
       <c r="S117" t="s">
+        <v>75</v>
+      </c>
+      <c r="T117" t="s">
+        <v>76</v>
+      </c>
+      <c r="U117" s="1">
+        <v>1</v>
+      </c>
+      <c r="V117" s="1">
+        <v>1</v>
+      </c>
+      <c r="W117" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>18</v>
+      </c>
+      <c r="I118">
+        <v>18</v>
+      </c>
+      <c r="J118">
+        <v>18</v>
+      </c>
+      <c r="L118" t="s">
+        <v>78</v>
+      </c>
+      <c r="M118" t="s">
+        <v>79</v>
+      </c>
+      <c r="N118">
+        <v>92.111959287531803</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>12</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>2.162849872773549</v>
+      </c>
+      <c r="S118" t="s">
+        <v>72</v>
+      </c>
+      <c r="T118" t="s">
         <v>73</v>
       </c>
-      <c r="T117" t="s">
-        <v>74</v>
-      </c>
-      <c r="U117" s="1">
-        <v>1</v>
-      </c>
-      <c r="V117" s="1">
-        <v>1</v>
-      </c>
-      <c r="W117" s="1">
-        <v>2</v>
+      <c r="U118" s="1">
+        <v>1</v>
+      </c>
+      <c r="V118" s="1">
+        <v>1</v>
+      </c>
+      <c r="W118" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>18</v>
+      </c>
+      <c r="I119">
+        <v>18</v>
+      </c>
+      <c r="J119">
+        <v>18</v>
+      </c>
+      <c r="L119" t="s">
+        <v>78</v>
+      </c>
+      <c r="M119" t="s">
+        <v>79</v>
+      </c>
+      <c r="N119">
+        <v>89.312977099236605</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>12</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>5.9796437659033046</v>
+      </c>
+      <c r="S119" t="s">
+        <v>72</v>
+      </c>
+      <c r="T119" t="s">
+        <v>73</v>
+      </c>
+      <c r="U119" s="1">
+        <v>1</v>
+      </c>
+      <c r="V119" s="1">
+        <v>1</v>
+      </c>
+      <c r="W119" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>23</v>
+      </c>
+      <c r="I120">
+        <v>18</v>
+      </c>
+      <c r="J120">
+        <v>28</v>
+      </c>
+      <c r="K120">
+        <v>24</v>
+      </c>
+      <c r="L120" t="s">
+        <v>78</v>
+      </c>
+      <c r="M120" t="s">
+        <v>79</v>
+      </c>
+      <c r="N120">
+        <v>83.460559796437593</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>12</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>6.3613231552163043</v>
+      </c>
+      <c r="S120" t="s">
+        <v>72</v>
+      </c>
+      <c r="T120" t="s">
+        <v>73</v>
+      </c>
+      <c r="U120" s="1">
+        <v>1</v>
+      </c>
+      <c r="V120" s="1">
+        <v>1</v>
+      </c>
+      <c r="W120" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>23</v>
+      </c>
+      <c r="I121">
+        <v>18</v>
+      </c>
+      <c r="J121">
+        <v>28</v>
+      </c>
+      <c r="K121">
+        <v>24</v>
+      </c>
+      <c r="L121" t="s">
+        <v>78</v>
+      </c>
+      <c r="M121" t="s">
+        <v>79</v>
+      </c>
+      <c r="N121">
+        <v>80.916030534351094</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>12</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>6.9974554707379042</v>
+      </c>
+      <c r="S121" t="s">
+        <v>72</v>
+      </c>
+      <c r="T121" t="s">
+        <v>73</v>
+      </c>
+      <c r="U121" s="1">
+        <v>1</v>
+      </c>
+      <c r="V121" s="1">
+        <v>1</v>
+      </c>
+      <c r="W121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>28</v>
+      </c>
+      <c r="I122">
+        <v>28</v>
+      </c>
+      <c r="J122">
+        <v>28</v>
+      </c>
+      <c r="L122" t="s">
+        <v>78</v>
+      </c>
+      <c r="M122" t="s">
+        <v>79</v>
+      </c>
+      <c r="N122">
+        <v>80.916030534351094</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>12</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>4.0712468193384055</v>
+      </c>
+      <c r="S122" t="s">
+        <v>72</v>
+      </c>
+      <c r="T122" t="s">
+        <v>73</v>
+      </c>
+      <c r="U122" s="1">
+        <v>1</v>
+      </c>
+      <c r="V122" s="1">
+        <v>1</v>
+      </c>
+      <c r="W122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>28</v>
+      </c>
+      <c r="I123">
+        <v>28</v>
+      </c>
+      <c r="J123">
+        <v>28</v>
+      </c>
+      <c r="L123" t="s">
+        <v>78</v>
+      </c>
+      <c r="M123" t="s">
+        <v>79</v>
+      </c>
+      <c r="N123">
+        <v>67.6844783715012</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>12</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>6.9974554707378971</v>
+      </c>
+      <c r="S123" t="s">
+        <v>72</v>
+      </c>
+      <c r="T123" t="s">
+        <v>73</v>
+      </c>
+      <c r="U123" s="1">
+        <v>1</v>
+      </c>
+      <c r="V123" s="1">
+        <v>1</v>
+      </c>
+      <c r="W123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>22</v>
+      </c>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>18</v>
+      </c>
+      <c r="I124">
+        <v>18</v>
+      </c>
+      <c r="J124">
+        <v>18</v>
+      </c>
+      <c r="L124" t="s">
+        <v>83</v>
+      </c>
+      <c r="M124" t="s">
+        <v>84</v>
+      </c>
+      <c r="N124">
+        <v>38.477183484849803</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>12</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0.12356979405034707</v>
+      </c>
+      <c r="S124" t="s">
+        <v>72</v>
+      </c>
+      <c r="T124" t="s">
+        <v>73</v>
+      </c>
+      <c r="U124" s="1">
+        <v>1</v>
+      </c>
+      <c r="V124" s="1">
+        <v>1</v>
+      </c>
+      <c r="W124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>22</v>
+      </c>
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>18</v>
+      </c>
+      <c r="I125">
+        <v>18</v>
+      </c>
+      <c r="J125">
+        <v>18</v>
+      </c>
+      <c r="L125" t="s">
+        <v>83</v>
+      </c>
+      <c r="M125" t="s">
+        <v>84</v>
+      </c>
+      <c r="N125">
+        <v>38.899696373398299</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>12</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0.16933638443935095</v>
+      </c>
+      <c r="S125" t="s">
+        <v>72</v>
+      </c>
+      <c r="T125" t="s">
+        <v>73</v>
+      </c>
+      <c r="U125" s="1">
+        <v>1</v>
+      </c>
+      <c r="V125" s="1">
+        <v>1</v>
+      </c>
+      <c r="W125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>23</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>23</v>
+      </c>
+      <c r="I126">
+        <v>18</v>
+      </c>
+      <c r="J126">
+        <v>28</v>
+      </c>
+      <c r="K126">
+        <v>24</v>
+      </c>
+      <c r="L126" t="s">
+        <v>83</v>
+      </c>
+      <c r="M126" t="s">
+        <v>84</v>
+      </c>
+      <c r="N126">
+        <v>40.2934226108326</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>12</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>6.864988558355023E-2</v>
+      </c>
+      <c r="S126" t="s">
+        <v>72</v>
+      </c>
+      <c r="T126" t="s">
+        <v>73</v>
+      </c>
+      <c r="U126" s="1">
+        <v>1</v>
+      </c>
+      <c r="V126" s="1">
+        <v>1</v>
+      </c>
+      <c r="W126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>23</v>
+      </c>
+      <c r="I127">
+        <v>18</v>
+      </c>
+      <c r="J127">
+        <v>28</v>
+      </c>
+      <c r="K127">
+        <v>24</v>
+      </c>
+      <c r="L127" t="s">
+        <v>83</v>
+      </c>
+      <c r="M127" t="s">
+        <v>84</v>
+      </c>
+      <c r="N127">
+        <v>40.432164830957397</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>12</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0.11442537997845292</v>
+      </c>
+      <c r="S127" t="s">
+        <v>72</v>
+      </c>
+      <c r="T127" t="s">
+        <v>73</v>
+      </c>
+      <c r="U127" s="1">
+        <v>1</v>
+      </c>
+      <c r="V127" s="1">
+        <v>1</v>
+      </c>
+      <c r="W127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>24</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>28</v>
+      </c>
+      <c r="I128">
+        <v>28</v>
+      </c>
+      <c r="J128">
+        <v>28</v>
+      </c>
+      <c r="L128" t="s">
+        <v>83</v>
+      </c>
+      <c r="M128" t="s">
+        <v>84</v>
+      </c>
+      <c r="N128">
+        <v>41.285845301801203</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>12</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0.14645308924485079</v>
+      </c>
+      <c r="S128" t="s">
+        <v>72</v>
+      </c>
+      <c r="T128" t="s">
+        <v>73</v>
+      </c>
+      <c r="U128" s="1">
+        <v>1</v>
+      </c>
+      <c r="V128" s="1">
+        <v>1</v>
+      </c>
+      <c r="W128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>51</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>28</v>
+      </c>
+      <c r="I129">
+        <v>28</v>
+      </c>
+      <c r="J129">
+        <v>28</v>
+      </c>
+      <c r="L129" t="s">
+        <v>83</v>
+      </c>
+      <c r="M129" t="s">
+        <v>84</v>
+      </c>
+      <c r="N129">
+        <v>40.994399380281102</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>12</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>9.1533180778050394E-2</v>
+      </c>
+      <c r="S129" t="s">
+        <v>72</v>
+      </c>
+      <c r="T129" t="s">
+        <v>73</v>
+      </c>
+      <c r="U129" s="1">
+        <v>1</v>
+      </c>
+      <c r="V129" s="1">
+        <v>1</v>
+      </c>
+      <c r="W129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D1E85C-DFAC-D649-A3A3-E65714189BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7839CC7-8502-CA4E-A20F-B872231CC0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="101">
   <si>
     <t>study_id</t>
   </si>
@@ -280,6 +280,54 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>maneti2014</t>
+  </si>
+  <si>
+    <t>figure 2c</t>
+  </si>
+  <si>
+    <t>figure 2e</t>
+  </si>
+  <si>
+    <t>figure 2f</t>
+  </si>
+  <si>
+    <t>figure 2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 2h </t>
+  </si>
+  <si>
+    <t>offspring/female</t>
+  </si>
+  <si>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg to adult viability </t>
+  </si>
+  <si>
+    <t>body (centroid) size</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>time to  death (hour)</t>
+  </si>
+  <si>
+    <t>dessication tolerance</t>
+  </si>
+  <si>
+    <t>startvation tolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drosophila </t>
+  </si>
+  <si>
+    <t>simulans</t>
   </si>
 </sst>
 </file>
@@ -646,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AF147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125:C129"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G131" sqref="G131:G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9727,6 +9775,1248 @@
         <v>82</v>
       </c>
     </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>23</v>
+      </c>
+      <c r="H130">
+        <v>23</v>
+      </c>
+      <c r="I130">
+        <v>23</v>
+      </c>
+      <c r="J130">
+        <v>23</v>
+      </c>
+      <c r="L130" t="s">
+        <v>92</v>
+      </c>
+      <c r="M130" t="s">
+        <v>91</v>
+      </c>
+      <c r="N130">
+        <v>78.12</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>20</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>2.1600000000000037</v>
+      </c>
+      <c r="S130" t="s">
+        <v>99</v>
+      </c>
+      <c r="T130" t="s">
+        <v>100</v>
+      </c>
+      <c r="U130" s="1">
+        <v>1</v>
+      </c>
+      <c r="V130" s="1">
+        <v>1</v>
+      </c>
+      <c r="W130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>23</v>
+      </c>
+      <c r="H131">
+        <v>23</v>
+      </c>
+      <c r="I131">
+        <v>13</v>
+      </c>
+      <c r="J131">
+        <v>28</v>
+      </c>
+      <c r="K131">
+        <v>24</v>
+      </c>
+      <c r="L131" t="s">
+        <v>92</v>
+      </c>
+      <c r="M131" t="s">
+        <v>91</v>
+      </c>
+      <c r="N131">
+        <v>70.56</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>20</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="S131" t="s">
+        <v>99</v>
+      </c>
+      <c r="T131" t="s">
+        <v>100</v>
+      </c>
+      <c r="U131" s="1">
+        <v>1</v>
+      </c>
+      <c r="V131" s="1">
+        <v>1</v>
+      </c>
+      <c r="W131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>23</v>
+      </c>
+      <c r="H132">
+        <v>23</v>
+      </c>
+      <c r="I132">
+        <v>13</v>
+      </c>
+      <c r="J132">
+        <v>28</v>
+      </c>
+      <c r="K132">
+        <v>24</v>
+      </c>
+      <c r="L132" t="s">
+        <v>92</v>
+      </c>
+      <c r="M132" t="s">
+        <v>91</v>
+      </c>
+      <c r="N132">
+        <v>72.84</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>20</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="S132" t="s">
+        <v>99</v>
+      </c>
+      <c r="T132" t="s">
+        <v>100</v>
+      </c>
+      <c r="U132" s="1">
+        <v>1</v>
+      </c>
+      <c r="V132" s="1">
+        <v>1</v>
+      </c>
+      <c r="W132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>23</v>
+      </c>
+      <c r="H133">
+        <v>23</v>
+      </c>
+      <c r="I133">
+        <v>23</v>
+      </c>
+      <c r="J133">
+        <v>23</v>
+      </c>
+      <c r="L133" t="s">
+        <v>93</v>
+      </c>
+      <c r="M133" t="s">
+        <v>79</v>
+      </c>
+      <c r="N133">
+        <v>70.906874731397906</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>20</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>2.3895582329317477</v>
+      </c>
+      <c r="S133" t="s">
+        <v>99</v>
+      </c>
+      <c r="T133" t="s">
+        <v>100</v>
+      </c>
+      <c r="U133" s="1">
+        <v>1</v>
+      </c>
+      <c r="V133" s="1">
+        <v>1</v>
+      </c>
+      <c r="W133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>23</v>
+      </c>
+      <c r="H134">
+        <v>23</v>
+      </c>
+      <c r="I134">
+        <v>13</v>
+      </c>
+      <c r="J134">
+        <v>28</v>
+      </c>
+      <c r="K134">
+        <v>24</v>
+      </c>
+      <c r="L134" t="s">
+        <v>93</v>
+      </c>
+      <c r="M134" t="s">
+        <v>79</v>
+      </c>
+      <c r="N134">
+        <v>71.961350938810497</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>20</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>3.092369477911646</v>
+      </c>
+      <c r="S134" t="s">
+        <v>99</v>
+      </c>
+      <c r="T134" t="s">
+        <v>100</v>
+      </c>
+      <c r="U134" s="1">
+        <v>1</v>
+      </c>
+      <c r="V134" s="1">
+        <v>1</v>
+      </c>
+      <c r="W134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>23</v>
+      </c>
+      <c r="H135">
+        <v>23</v>
+      </c>
+      <c r="I135">
+        <v>13</v>
+      </c>
+      <c r="J135">
+        <v>28</v>
+      </c>
+      <c r="K135">
+        <v>24</v>
+      </c>
+      <c r="L135" t="s">
+        <v>93</v>
+      </c>
+      <c r="M135" t="s">
+        <v>79</v>
+      </c>
+      <c r="N135">
+        <v>82.011811081966201</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>20</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>3.0923694779116531</v>
+      </c>
+      <c r="S135" t="s">
+        <v>99</v>
+      </c>
+      <c r="T135" t="s">
+        <v>100</v>
+      </c>
+      <c r="U135" s="1">
+        <v>1</v>
+      </c>
+      <c r="V135" s="1">
+        <v>1</v>
+      </c>
+      <c r="W135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" t="s">
+        <v>87</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>23</v>
+      </c>
+      <c r="H136">
+        <v>23</v>
+      </c>
+      <c r="I136">
+        <v>23</v>
+      </c>
+      <c r="J136">
+        <v>23</v>
+      </c>
+      <c r="L136" t="s">
+        <v>46</v>
+      </c>
+      <c r="M136" t="s">
+        <v>47</v>
+      </c>
+      <c r="N136">
+        <v>10.2313253012048</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>20</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.4457831325300319E-2</v>
+      </c>
+      <c r="S136" t="s">
+        <v>99</v>
+      </c>
+      <c r="T136" t="s">
+        <v>100</v>
+      </c>
+      <c r="U136" s="1">
+        <v>1</v>
+      </c>
+      <c r="V136" s="1">
+        <v>1</v>
+      </c>
+      <c r="W136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>23</v>
+      </c>
+      <c r="H137">
+        <v>23</v>
+      </c>
+      <c r="I137">
+        <v>13</v>
+      </c>
+      <c r="J137">
+        <v>28</v>
+      </c>
+      <c r="K137">
+        <v>24</v>
+      </c>
+      <c r="L137" t="s">
+        <v>46</v>
+      </c>
+      <c r="M137" t="s">
+        <v>47</v>
+      </c>
+      <c r="N137">
+        <v>11.0939759036144</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>20</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.6867469879500163E-2</v>
+      </c>
+      <c r="S137" t="s">
+        <v>99</v>
+      </c>
+      <c r="T137" t="s">
+        <v>100</v>
+      </c>
+      <c r="U137" s="1">
+        <v>1</v>
+      </c>
+      <c r="V137" s="1">
+        <v>1</v>
+      </c>
+      <c r="W137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>23</v>
+      </c>
+      <c r="H138">
+        <v>23</v>
+      </c>
+      <c r="I138">
+        <v>13</v>
+      </c>
+      <c r="J138">
+        <v>28</v>
+      </c>
+      <c r="K138">
+        <v>24</v>
+      </c>
+      <c r="L138" t="s">
+        <v>46</v>
+      </c>
+      <c r="M138" t="s">
+        <v>47</v>
+      </c>
+      <c r="N138">
+        <v>10.048192771084301</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>20</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.9277108433749746E-2</v>
+      </c>
+      <c r="S138" t="s">
+        <v>99</v>
+      </c>
+      <c r="T138" t="s">
+        <v>100</v>
+      </c>
+      <c r="U138" s="1">
+        <v>1</v>
+      </c>
+      <c r="V138" s="1">
+        <v>1</v>
+      </c>
+      <c r="W138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>23</v>
+      </c>
+      <c r="H139">
+        <v>23</v>
+      </c>
+      <c r="I139">
+        <v>23</v>
+      </c>
+      <c r="J139">
+        <v>23</v>
+      </c>
+      <c r="L139" t="s">
+        <v>97</v>
+      </c>
+      <c r="M139" t="s">
+        <v>96</v>
+      </c>
+      <c r="N139">
+        <v>15.530718915646601</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>20</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0.35141081105024963</v>
+      </c>
+      <c r="S139" t="s">
+        <v>99</v>
+      </c>
+      <c r="T139" t="s">
+        <v>100</v>
+      </c>
+      <c r="U139" s="1">
+        <v>1</v>
+      </c>
+      <c r="V139" s="1">
+        <v>1</v>
+      </c>
+      <c r="W139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" t="s">
+        <v>88</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>23</v>
+      </c>
+      <c r="H140">
+        <v>23</v>
+      </c>
+      <c r="I140">
+        <v>13</v>
+      </c>
+      <c r="J140">
+        <v>28</v>
+      </c>
+      <c r="K140">
+        <v>24</v>
+      </c>
+      <c r="L140" t="s">
+        <v>97</v>
+      </c>
+      <c r="M140" t="s">
+        <v>96</v>
+      </c>
+      <c r="N140">
+        <v>14.576963397168001</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>20</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0.32128988438879968</v>
+      </c>
+      <c r="S140" t="s">
+        <v>99</v>
+      </c>
+      <c r="T140" t="s">
+        <v>100</v>
+      </c>
+      <c r="U140" s="1">
+        <v>1</v>
+      </c>
+      <c r="V140" s="1">
+        <v>1</v>
+      </c>
+      <c r="W140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" t="s">
+        <v>88</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>23</v>
+      </c>
+      <c r="H141">
+        <v>23</v>
+      </c>
+      <c r="I141">
+        <v>13</v>
+      </c>
+      <c r="J141">
+        <v>28</v>
+      </c>
+      <c r="K141">
+        <v>24</v>
+      </c>
+      <c r="L141" t="s">
+        <v>97</v>
+      </c>
+      <c r="M141" t="s">
+        <v>96</v>
+      </c>
+      <c r="N141">
+        <v>13.844020848406</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>20</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0.30120926661444969</v>
+      </c>
+      <c r="S141" t="s">
+        <v>99</v>
+      </c>
+      <c r="T141" t="s">
+        <v>100</v>
+      </c>
+      <c r="U141" s="1">
+        <v>1</v>
+      </c>
+      <c r="V141" s="1">
+        <v>1</v>
+      </c>
+      <c r="W141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>29</v>
+      </c>
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" t="s">
+        <v>89</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>23</v>
+      </c>
+      <c r="H142">
+        <v>23</v>
+      </c>
+      <c r="I142">
+        <v>23</v>
+      </c>
+      <c r="J142">
+        <v>23</v>
+      </c>
+      <c r="L142" t="s">
+        <v>94</v>
+      </c>
+      <c r="M142" t="s">
+        <v>95</v>
+      </c>
+      <c r="N142">
+        <v>1460.33382352941</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>20</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="S142" t="s">
+        <v>99</v>
+      </c>
+      <c r="T142" t="s">
+        <v>100</v>
+      </c>
+      <c r="U142" s="1">
+        <v>1</v>
+      </c>
+      <c r="V142" s="1">
+        <v>1</v>
+      </c>
+      <c r="W142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>23</v>
+      </c>
+      <c r="H143">
+        <v>23</v>
+      </c>
+      <c r="I143">
+        <v>13</v>
+      </c>
+      <c r="J143">
+        <v>28</v>
+      </c>
+      <c r="K143">
+        <v>24</v>
+      </c>
+      <c r="L143" t="s">
+        <v>94</v>
+      </c>
+      <c r="M143" t="s">
+        <v>95</v>
+      </c>
+      <c r="N143">
+        <v>1416.9338235294099</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>20</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="S143" t="s">
+        <v>99</v>
+      </c>
+      <c r="T143" t="s">
+        <v>100</v>
+      </c>
+      <c r="U143" s="1">
+        <v>1</v>
+      </c>
+      <c r="V143" s="1">
+        <v>1</v>
+      </c>
+      <c r="W143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>29</v>
+      </c>
+      <c r="B144" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>23</v>
+      </c>
+      <c r="H144">
+        <v>23</v>
+      </c>
+      <c r="I144">
+        <v>13</v>
+      </c>
+      <c r="J144">
+        <v>28</v>
+      </c>
+      <c r="K144">
+        <v>24</v>
+      </c>
+      <c r="L144" t="s">
+        <v>94</v>
+      </c>
+      <c r="M144" t="s">
+        <v>95</v>
+      </c>
+      <c r="N144">
+        <v>1437.9338235294099</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>20</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="S144" t="s">
+        <v>99</v>
+      </c>
+      <c r="T144" t="s">
+        <v>100</v>
+      </c>
+      <c r="U144" s="1">
+        <v>1</v>
+      </c>
+      <c r="V144" s="1">
+        <v>1</v>
+      </c>
+      <c r="W144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" t="s">
+        <v>90</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>23</v>
+      </c>
+      <c r="H145">
+        <v>23</v>
+      </c>
+      <c r="I145">
+        <v>23</v>
+      </c>
+      <c r="J145">
+        <v>23</v>
+      </c>
+      <c r="L145" t="s">
+        <v>98</v>
+      </c>
+      <c r="M145" t="s">
+        <v>96</v>
+      </c>
+      <c r="N145">
+        <v>4.00120561738209</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>20</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>5.9459459459459962E-2</v>
+      </c>
+      <c r="S145" t="s">
+        <v>99</v>
+      </c>
+      <c r="T145" t="s">
+        <v>100</v>
+      </c>
+      <c r="U145" s="1">
+        <v>1</v>
+      </c>
+      <c r="V145" s="1">
+        <v>1</v>
+      </c>
+      <c r="W145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>30</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>90</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>23</v>
+      </c>
+      <c r="H146">
+        <v>23</v>
+      </c>
+      <c r="I146">
+        <v>13</v>
+      </c>
+      <c r="J146">
+        <v>28</v>
+      </c>
+      <c r="K146">
+        <v>24</v>
+      </c>
+      <c r="L146" t="s">
+        <v>98</v>
+      </c>
+      <c r="M146" t="s">
+        <v>96</v>
+      </c>
+      <c r="N146">
+        <v>4.0174218335983003</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>20</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>5.7657657657659955E-2</v>
+      </c>
+      <c r="S146" t="s">
+        <v>99</v>
+      </c>
+      <c r="T146" t="s">
+        <v>100</v>
+      </c>
+      <c r="U146" s="1">
+        <v>1</v>
+      </c>
+      <c r="V146" s="1">
+        <v>1</v>
+      </c>
+      <c r="W146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>23</v>
+      </c>
+      <c r="H147">
+        <v>23</v>
+      </c>
+      <c r="I147">
+        <v>13</v>
+      </c>
+      <c r="J147">
+        <v>28</v>
+      </c>
+      <c r="K147">
+        <v>24</v>
+      </c>
+      <c r="L147" t="s">
+        <v>98</v>
+      </c>
+      <c r="M147" t="s">
+        <v>96</v>
+      </c>
+      <c r="N147">
+        <v>3.8102278749337501</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>20</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>5.5862480127184977E-2</v>
+      </c>
+      <c r="S147" t="s">
+        <v>99</v>
+      </c>
+      <c r="T147" t="s">
+        <v>100</v>
+      </c>
+      <c r="U147" s="1">
+        <v>1</v>
+      </c>
+      <c r="V147" s="1">
+        <v>1</v>
+      </c>
+      <c r="W147" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7839CC7-8502-CA4E-A20F-B872231CC0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E813B6-33CB-2049-9CE8-8E702D7DB675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="600" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="112">
   <si>
     <t>study_id</t>
   </si>
@@ -328,6 +328,39 @@
   </si>
   <si>
     <t>simulans</t>
+  </si>
+  <si>
+    <t>rolandi2018</t>
+  </si>
+  <si>
+    <t>average number of eggs laid per female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eggs laid </t>
+  </si>
+  <si>
+    <t>Rhodnius</t>
+  </si>
+  <si>
+    <t>prolixus</t>
+  </si>
+  <si>
+    <t>time_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days after feeding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sexual maturity </t>
+  </si>
+  <si>
+    <t>mated females</t>
+  </si>
+  <si>
+    <t>virgin females</t>
+  </si>
+  <si>
+    <t>average cumulative number of eggs laid per female</t>
   </si>
 </sst>
 </file>
@@ -694,16 +727,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AF147"/>
+  <dimension ref="A1:AG259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131:G147"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247:A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +833,11 @@
       <c r="AF1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -869,7 +905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -943,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1017,7 +1053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1085,7 +1121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1159,7 +1195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1233,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1301,7 +1337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1375,7 +1411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1449,7 +1485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1517,7 +1553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1591,7 +1627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1665,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1733,7 +1769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1807,7 +1843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8970,7 +9006,7 @@
         <v>92.111959287531803</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>12</v>
@@ -9038,7 +9074,7 @@
         <v>89.312977099236605</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119">
         <v>12</v>
@@ -9112,7 +9148,7 @@
         <v>83.460559796437593</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120">
         <v>12</v>
@@ -9186,7 +9222,7 @@
         <v>80.916030534351094</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121">
         <v>12</v>
@@ -9254,7 +9290,7 @@
         <v>80.916030534351094</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122">
         <v>12</v>
@@ -9322,7 +9358,7 @@
         <v>67.6844783715012</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123">
         <v>12</v>
@@ -9390,7 +9426,7 @@
         <v>38.477183484849803</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P124">
         <v>12</v>
@@ -9458,7 +9494,7 @@
         <v>38.899696373398299</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125">
         <v>12</v>
@@ -9532,7 +9568,7 @@
         <v>40.2934226108326</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126">
         <v>12</v>
@@ -9606,7 +9642,7 @@
         <v>40.432164830957397</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>12</v>
@@ -9674,7 +9710,7 @@
         <v>41.285845301801203</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128">
         <v>12</v>
@@ -9742,7 +9778,7 @@
         <v>40.994399380281102</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129">
         <v>12</v>
@@ -9813,7 +9849,7 @@
         <v>78.12</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130">
         <v>20</v>
@@ -9884,7 +9920,7 @@
         <v>70.56</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131">
         <v>20</v>
@@ -9955,7 +9991,7 @@
         <v>72.84</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132">
         <v>20</v>
@@ -10020,7 +10056,7 @@
         <v>70.906874731397906</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133">
         <v>20</v>
@@ -10091,7 +10127,7 @@
         <v>71.961350938810497</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134">
         <v>20</v>
@@ -10162,7 +10198,7 @@
         <v>82.011811081966201</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135">
         <v>20</v>
@@ -10227,7 +10263,7 @@
         <v>10.2313253012048</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136">
         <v>20</v>
@@ -10298,7 +10334,7 @@
         <v>11.0939759036144</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137">
         <v>20</v>
@@ -10369,7 +10405,7 @@
         <v>10.048192771084301</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P138">
         <v>20</v>
@@ -10434,7 +10470,7 @@
         <v>15.530718915646601</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
         <v>20</v>
@@ -10505,7 +10541,7 @@
         <v>14.576963397168001</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140">
         <v>20</v>
@@ -10576,7 +10612,7 @@
         <v>13.844020848406</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141">
         <v>20</v>
@@ -10641,7 +10677,7 @@
         <v>1460.33382352941</v>
       </c>
       <c r="O142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142">
         <v>20</v>
@@ -10712,7 +10748,7 @@
         <v>1416.9338235294099</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P143">
         <v>20</v>
@@ -10783,7 +10819,7 @@
         <v>1437.9338235294099</v>
       </c>
       <c r="O144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144">
         <v>20</v>
@@ -10810,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>30</v>
       </c>
@@ -10848,7 +10884,7 @@
         <v>4.00120561738209</v>
       </c>
       <c r="O145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P145">
         <v>20</v>
@@ -10875,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>30</v>
       </c>
@@ -10919,7 +10955,7 @@
         <v>4.0174218335983003</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146">
         <v>20</v>
@@ -10946,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>30</v>
       </c>
@@ -10990,7 +11026,7 @@
         <v>3.8102278749337501</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147">
         <v>20</v>
@@ -11015,6 +11051,8039 @@
       </c>
       <c r="W147" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>24</v>
+      </c>
+      <c r="I148">
+        <v>24</v>
+      </c>
+      <c r="J148">
+        <v>24</v>
+      </c>
+      <c r="L148" t="s">
+        <v>102</v>
+      </c>
+      <c r="M148" t="s">
+        <v>103</v>
+      </c>
+      <c r="N148">
+        <v>8.6286594761171204E-2</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="S148" t="s">
+        <v>104</v>
+      </c>
+      <c r="T148" t="s">
+        <v>105</v>
+      </c>
+      <c r="U148" s="1">
+        <v>1</v>
+      </c>
+      <c r="V148" s="1">
+        <v>2</v>
+      </c>
+      <c r="W148" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF148">
+        <v>1.97309417040358</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>24</v>
+      </c>
+      <c r="I149">
+        <v>24</v>
+      </c>
+      <c r="J149">
+        <v>24</v>
+      </c>
+      <c r="L149" t="s">
+        <v>102</v>
+      </c>
+      <c r="M149" t="s">
+        <v>103</v>
+      </c>
+      <c r="N149">
+        <v>0.46841294298921399</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0.24653312788906101</v>
+      </c>
+      <c r="S149" t="s">
+        <v>104</v>
+      </c>
+      <c r="T149" t="s">
+        <v>105</v>
+      </c>
+      <c r="U149" s="1">
+        <v>1</v>
+      </c>
+      <c r="V149" s="1">
+        <v>2</v>
+      </c>
+      <c r="W149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF149">
+        <v>4.9626307922272002</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>31</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>24</v>
+      </c>
+      <c r="I150">
+        <v>24</v>
+      </c>
+      <c r="J150">
+        <v>24</v>
+      </c>
+      <c r="L150" t="s">
+        <v>102</v>
+      </c>
+      <c r="M150" t="s">
+        <v>103</v>
+      </c>
+      <c r="N150">
+        <v>1.08474576271186</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0.47457627118643653</v>
+      </c>
+      <c r="S150" t="s">
+        <v>104</v>
+      </c>
+      <c r="T150" t="s">
+        <v>105</v>
+      </c>
+      <c r="U150" s="1">
+        <v>1</v>
+      </c>
+      <c r="V150" s="1">
+        <v>2</v>
+      </c>
+      <c r="W150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF150">
+        <v>6.9805680119581401</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>31</v>
+      </c>
+      <c r="B151" t="s">
+        <v>101</v>
+      </c>
+      <c r="C151" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>24</v>
+      </c>
+      <c r="I151">
+        <v>24</v>
+      </c>
+      <c r="J151">
+        <v>24</v>
+      </c>
+      <c r="L151" t="s">
+        <v>102</v>
+      </c>
+      <c r="M151" t="s">
+        <v>103</v>
+      </c>
+      <c r="N151">
+        <v>1.9722650231124801</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0.67796610169491489</v>
+      </c>
+      <c r="S151" t="s">
+        <v>104</v>
+      </c>
+      <c r="T151" t="s">
+        <v>105</v>
+      </c>
+      <c r="U151" s="1">
+        <v>1</v>
+      </c>
+      <c r="V151" s="1">
+        <v>2</v>
+      </c>
+      <c r="W151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF151">
+        <v>8.9237668161435</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>31</v>
+      </c>
+      <c r="B152" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>24</v>
+      </c>
+      <c r="I152">
+        <v>24</v>
+      </c>
+      <c r="J152">
+        <v>24</v>
+      </c>
+      <c r="L152" t="s">
+        <v>102</v>
+      </c>
+      <c r="M152" t="s">
+        <v>103</v>
+      </c>
+      <c r="N152">
+        <v>7.0508474576271096</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>1.2511556240369801</v>
+      </c>
+      <c r="S152" t="s">
+        <v>104</v>
+      </c>
+      <c r="T152" t="s">
+        <v>105</v>
+      </c>
+      <c r="U152" s="1">
+        <v>1</v>
+      </c>
+      <c r="V152" s="1">
+        <v>2</v>
+      </c>
+      <c r="W152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF152">
+        <v>11.9506726457399</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>31</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>24</v>
+      </c>
+      <c r="I153">
+        <v>24</v>
+      </c>
+      <c r="J153">
+        <v>24</v>
+      </c>
+      <c r="L153" t="s">
+        <v>102</v>
+      </c>
+      <c r="M153" t="s">
+        <v>103</v>
+      </c>
+      <c r="N153">
+        <v>7.1987673343605501</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0.98613251155624049</v>
+      </c>
+      <c r="S153" t="s">
+        <v>104</v>
+      </c>
+      <c r="T153" t="s">
+        <v>105</v>
+      </c>
+      <c r="U153" s="1">
+        <v>1</v>
+      </c>
+      <c r="V153" s="1">
+        <v>2</v>
+      </c>
+      <c r="W153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF153">
+        <v>13.9686098654708</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>24</v>
+      </c>
+      <c r="I154">
+        <v>24</v>
+      </c>
+      <c r="J154">
+        <v>24</v>
+      </c>
+      <c r="L154" t="s">
+        <v>102</v>
+      </c>
+      <c r="M154" t="s">
+        <v>103</v>
+      </c>
+      <c r="N154">
+        <v>4.1910631741140199</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0.7889060092449951</v>
+      </c>
+      <c r="S154" t="s">
+        <v>104</v>
+      </c>
+      <c r="T154" t="s">
+        <v>105</v>
+      </c>
+      <c r="U154" s="1">
+        <v>1</v>
+      </c>
+      <c r="V154" s="1">
+        <v>2</v>
+      </c>
+      <c r="W154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF154">
+        <v>15.949177877428999</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>31</v>
+      </c>
+      <c r="B155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>24</v>
+      </c>
+      <c r="I155">
+        <v>24</v>
+      </c>
+      <c r="J155">
+        <v>24</v>
+      </c>
+      <c r="L155" t="s">
+        <v>102</v>
+      </c>
+      <c r="M155" t="s">
+        <v>103</v>
+      </c>
+      <c r="N155">
+        <v>5.0292758089368199</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>0.66563944530046015</v>
+      </c>
+      <c r="S155" t="s">
+        <v>104</v>
+      </c>
+      <c r="T155" t="s">
+        <v>105</v>
+      </c>
+      <c r="U155" s="1">
+        <v>1</v>
+      </c>
+      <c r="V155" s="1">
+        <v>2</v>
+      </c>
+      <c r="W155" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF155">
+        <v>18.976083707025399</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>31</v>
+      </c>
+      <c r="B156" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>24</v>
+      </c>
+      <c r="I156">
+        <v>24</v>
+      </c>
+      <c r="J156">
+        <v>24</v>
+      </c>
+      <c r="L156" t="s">
+        <v>102</v>
+      </c>
+      <c r="M156" t="s">
+        <v>103</v>
+      </c>
+      <c r="N156">
+        <v>2.8597842835130902</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>0.52388289676424993</v>
+      </c>
+      <c r="S156" t="s">
+        <v>104</v>
+      </c>
+      <c r="T156" t="s">
+        <v>105</v>
+      </c>
+      <c r="U156" s="1">
+        <v>1</v>
+      </c>
+      <c r="V156" s="1">
+        <v>2</v>
+      </c>
+      <c r="W156" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF156">
+        <v>20.956651718983501</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>31</v>
+      </c>
+      <c r="B157" t="s">
+        <v>101</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>24</v>
+      </c>
+      <c r="I157">
+        <v>24</v>
+      </c>
+      <c r="J157">
+        <v>24</v>
+      </c>
+      <c r="L157" t="s">
+        <v>102</v>
+      </c>
+      <c r="M157" t="s">
+        <v>103</v>
+      </c>
+      <c r="N157">
+        <v>0.83821263482280395</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0.21571648690292605</v>
+      </c>
+      <c r="S157" t="s">
+        <v>104</v>
+      </c>
+      <c r="T157" t="s">
+        <v>105</v>
+      </c>
+      <c r="U157" s="1">
+        <v>1</v>
+      </c>
+      <c r="V157" s="1">
+        <v>2</v>
+      </c>
+      <c r="W157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF157">
+        <v>22.974588938714401</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>31</v>
+      </c>
+      <c r="B158" t="s">
+        <v>101</v>
+      </c>
+      <c r="C158" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>24</v>
+      </c>
+      <c r="I158">
+        <v>24</v>
+      </c>
+      <c r="J158">
+        <v>24</v>
+      </c>
+      <c r="L158" t="s">
+        <v>102</v>
+      </c>
+      <c r="M158" t="s">
+        <v>103</v>
+      </c>
+      <c r="N158">
+        <v>0.83821263482280195</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0.24036979969183148</v>
+      </c>
+      <c r="S158" t="s">
+        <v>104</v>
+      </c>
+      <c r="T158" t="s">
+        <v>105</v>
+      </c>
+      <c r="U158" s="1">
+        <v>1</v>
+      </c>
+      <c r="V158" s="1">
+        <v>2</v>
+      </c>
+      <c r="W158" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF158">
+        <v>25.964125560538101</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>31</v>
+      </c>
+      <c r="B159" t="s">
+        <v>101</v>
+      </c>
+      <c r="C159" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
+      </c>
+      <c r="I159">
+        <v>24</v>
+      </c>
+      <c r="J159">
+        <v>24</v>
+      </c>
+      <c r="L159" t="s">
+        <v>102</v>
+      </c>
+      <c r="M159" t="s">
+        <v>103</v>
+      </c>
+      <c r="N159">
+        <v>0.46841294298921399</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0.19722650231124703</v>
+      </c>
+      <c r="S159" t="s">
+        <v>104</v>
+      </c>
+      <c r="T159" t="s">
+        <v>105</v>
+      </c>
+      <c r="U159" s="1">
+        <v>1</v>
+      </c>
+      <c r="V159" s="1">
+        <v>2</v>
+      </c>
+      <c r="W159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF159">
+        <v>27.982062780269001</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>31</v>
+      </c>
+      <c r="B160" t="s">
+        <v>101</v>
+      </c>
+      <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>24</v>
+      </c>
+      <c r="I160">
+        <v>24</v>
+      </c>
+      <c r="J160">
+        <v>24</v>
+      </c>
+      <c r="L160" t="s">
+        <v>102</v>
+      </c>
+      <c r="M160" t="s">
+        <v>103</v>
+      </c>
+      <c r="N160">
+        <v>0.23420647149460699</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="S160" t="s">
+        <v>104</v>
+      </c>
+      <c r="T160" t="s">
+        <v>105</v>
+      </c>
+      <c r="U160" s="1">
+        <v>1</v>
+      </c>
+      <c r="V160" s="1">
+        <v>2</v>
+      </c>
+      <c r="W160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF160">
+        <v>30.9715994020926</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>24</v>
+      </c>
+      <c r="I161">
+        <v>24</v>
+      </c>
+      <c r="J161">
+        <v>24</v>
+      </c>
+      <c r="L161" t="s">
+        <v>102</v>
+      </c>
+      <c r="M161" t="s">
+        <v>103</v>
+      </c>
+      <c r="N161">
+        <v>0.17257318952233999</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="S161" t="s">
+        <v>104</v>
+      </c>
+      <c r="T161" t="s">
+        <v>105</v>
+      </c>
+      <c r="U161" s="1">
+        <v>1</v>
+      </c>
+      <c r="V161" s="1">
+        <v>2</v>
+      </c>
+      <c r="W161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF161">
+        <v>32.989536621823603</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>32</v>
+      </c>
+      <c r="B162" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>24</v>
+      </c>
+      <c r="I162">
+        <v>17</v>
+      </c>
+      <c r="J162">
+        <v>32</v>
+      </c>
+      <c r="K162">
+        <v>24</v>
+      </c>
+      <c r="L162" t="s">
+        <v>102</v>
+      </c>
+      <c r="M162" t="s">
+        <v>103</v>
+      </c>
+      <c r="N162">
+        <v>0.29583975346687102</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>1.97309417040358</v>
+      </c>
+      <c r="S162" t="s">
+        <v>104</v>
+      </c>
+      <c r="T162" t="s">
+        <v>105</v>
+      </c>
+      <c r="U162" s="1">
+        <v>1</v>
+      </c>
+      <c r="V162" s="1">
+        <v>2</v>
+      </c>
+      <c r="W162" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF162">
+        <v>1.97309417040358</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>32</v>
+      </c>
+      <c r="B163" t="s">
+        <v>101</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>24</v>
+      </c>
+      <c r="I163">
+        <v>17</v>
+      </c>
+      <c r="J163">
+        <v>32</v>
+      </c>
+      <c r="K163">
+        <v>24</v>
+      </c>
+      <c r="L163" t="s">
+        <v>102</v>
+      </c>
+      <c r="M163" t="s">
+        <v>103</v>
+      </c>
+      <c r="N163">
+        <v>2.4653312788906499E-2</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>4.9626307922272002</v>
+      </c>
+      <c r="S163" t="s">
+        <v>104</v>
+      </c>
+      <c r="T163" t="s">
+        <v>105</v>
+      </c>
+      <c r="U163" s="1">
+        <v>1</v>
+      </c>
+      <c r="V163" s="1">
+        <v>2</v>
+      </c>
+      <c r="W163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF163">
+        <v>4.9626307922272002</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>32</v>
+      </c>
+      <c r="B164" t="s">
+        <v>101</v>
+      </c>
+      <c r="C164" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>24</v>
+      </c>
+      <c r="I164">
+        <v>17</v>
+      </c>
+      <c r="J164">
+        <v>32</v>
+      </c>
+      <c r="K164">
+        <v>24</v>
+      </c>
+      <c r="L164" t="s">
+        <v>102</v>
+      </c>
+      <c r="M164" t="s">
+        <v>103</v>
+      </c>
+      <c r="N164">
+        <v>0.29583975346687102</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>6.9805680119581401</v>
+      </c>
+      <c r="S164" t="s">
+        <v>104</v>
+      </c>
+      <c r="T164" t="s">
+        <v>105</v>
+      </c>
+      <c r="U164" s="1">
+        <v>1</v>
+      </c>
+      <c r="V164" s="1">
+        <v>2</v>
+      </c>
+      <c r="W164" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF164">
+        <v>6.9805680119581401</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>32</v>
+      </c>
+      <c r="B165" t="s">
+        <v>101</v>
+      </c>
+      <c r="C165" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>24</v>
+      </c>
+      <c r="I165">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>32</v>
+      </c>
+      <c r="K165">
+        <v>24</v>
+      </c>
+      <c r="L165" t="s">
+        <v>102</v>
+      </c>
+      <c r="M165" t="s">
+        <v>103</v>
+      </c>
+      <c r="N165">
+        <v>1.20801232665639</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>8.9611360239162892</v>
+      </c>
+      <c r="S165" t="s">
+        <v>104</v>
+      </c>
+      <c r="T165" t="s">
+        <v>105</v>
+      </c>
+      <c r="U165" s="1">
+        <v>1</v>
+      </c>
+      <c r="V165" s="1">
+        <v>2</v>
+      </c>
+      <c r="W165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF165">
+        <v>8.9611360239162892</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>32</v>
+      </c>
+      <c r="B166" t="s">
+        <v>101</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>24</v>
+      </c>
+      <c r="I166">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>32</v>
+      </c>
+      <c r="K166">
+        <v>24</v>
+      </c>
+      <c r="L166" t="s">
+        <v>102</v>
+      </c>
+      <c r="M166" t="s">
+        <v>103</v>
+      </c>
+      <c r="N166">
+        <v>5.1771956856702603</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>11.9880418535127</v>
+      </c>
+      <c r="S166" t="s">
+        <v>104</v>
+      </c>
+      <c r="T166" t="s">
+        <v>105</v>
+      </c>
+      <c r="U166" s="1">
+        <v>1</v>
+      </c>
+      <c r="V166" s="1">
+        <v>2</v>
+      </c>
+      <c r="W166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF166">
+        <v>11.9880418535127</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>32</v>
+      </c>
+      <c r="B167" t="s">
+        <v>101</v>
+      </c>
+      <c r="C167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>24</v>
+      </c>
+      <c r="I167">
+        <v>17</v>
+      </c>
+      <c r="J167">
+        <v>32</v>
+      </c>
+      <c r="K167">
+        <v>24</v>
+      </c>
+      <c r="L167" t="s">
+        <v>102</v>
+      </c>
+      <c r="M167" t="s">
+        <v>103</v>
+      </c>
+      <c r="N167">
+        <v>4.7334360554699497</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>13.931240657698</v>
+      </c>
+      <c r="S167" t="s">
+        <v>104</v>
+      </c>
+      <c r="T167" t="s">
+        <v>105</v>
+      </c>
+      <c r="U167" s="1">
+        <v>1</v>
+      </c>
+      <c r="V167" s="1">
+        <v>2</v>
+      </c>
+      <c r="W167" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF167">
+        <v>13.931240657698</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>32</v>
+      </c>
+      <c r="B168" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" t="s">
+        <v>65</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>24</v>
+      </c>
+      <c r="I168">
+        <v>17</v>
+      </c>
+      <c r="J168">
+        <v>32</v>
+      </c>
+      <c r="K168">
+        <v>24</v>
+      </c>
+      <c r="L168" t="s">
+        <v>102</v>
+      </c>
+      <c r="M168" t="s">
+        <v>103</v>
+      </c>
+      <c r="N168">
+        <v>2.5885978428351302</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>15.949177877428999</v>
+      </c>
+      <c r="S168" t="s">
+        <v>104</v>
+      </c>
+      <c r="T168" t="s">
+        <v>105</v>
+      </c>
+      <c r="U168" s="1">
+        <v>1</v>
+      </c>
+      <c r="V168" s="1">
+        <v>2</v>
+      </c>
+      <c r="W168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF168">
+        <v>15.949177877428999</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>32</v>
+      </c>
+      <c r="B169" t="s">
+        <v>101</v>
+      </c>
+      <c r="C169" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>24</v>
+      </c>
+      <c r="I169">
+        <v>17</v>
+      </c>
+      <c r="J169">
+        <v>32</v>
+      </c>
+      <c r="K169">
+        <v>24</v>
+      </c>
+      <c r="L169" t="s">
+        <v>102</v>
+      </c>
+      <c r="M169" t="s">
+        <v>103</v>
+      </c>
+      <c r="N169">
+        <v>2.5885978428351302</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>18.938714499252601</v>
+      </c>
+      <c r="S169" t="s">
+        <v>104</v>
+      </c>
+      <c r="T169" t="s">
+        <v>105</v>
+      </c>
+      <c r="U169" s="1">
+        <v>1</v>
+      </c>
+      <c r="V169" s="1">
+        <v>2</v>
+      </c>
+      <c r="W169" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF169">
+        <v>18.938714499252601</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>32</v>
+      </c>
+      <c r="B170" t="s">
+        <v>101</v>
+      </c>
+      <c r="C170" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>24</v>
+      </c>
+      <c r="I170">
+        <v>17</v>
+      </c>
+      <c r="J170">
+        <v>32</v>
+      </c>
+      <c r="K170">
+        <v>24</v>
+      </c>
+      <c r="L170" t="s">
+        <v>102</v>
+      </c>
+      <c r="M170" t="s">
+        <v>103</v>
+      </c>
+      <c r="N170">
+        <v>2.14483821263482</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>20.956651718983501</v>
+      </c>
+      <c r="S170" t="s">
+        <v>104</v>
+      </c>
+      <c r="T170" t="s">
+        <v>105</v>
+      </c>
+      <c r="U170" s="1">
+        <v>1</v>
+      </c>
+      <c r="V170" s="1">
+        <v>2</v>
+      </c>
+      <c r="W170" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF170">
+        <v>20.956651718983501</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>32</v>
+      </c>
+      <c r="B171" t="s">
+        <v>101</v>
+      </c>
+      <c r="C171" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>24</v>
+      </c>
+      <c r="I171">
+        <v>17</v>
+      </c>
+      <c r="J171">
+        <v>32</v>
+      </c>
+      <c r="K171">
+        <v>24</v>
+      </c>
+      <c r="L171" t="s">
+        <v>102</v>
+      </c>
+      <c r="M171" t="s">
+        <v>103</v>
+      </c>
+      <c r="N171">
+        <v>0.714946070878275</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>22.974588938714401</v>
+      </c>
+      <c r="S171" t="s">
+        <v>104</v>
+      </c>
+      <c r="T171" t="s">
+        <v>105</v>
+      </c>
+      <c r="U171" s="1">
+        <v>1</v>
+      </c>
+      <c r="V171" s="1">
+        <v>2</v>
+      </c>
+      <c r="W171" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF171">
+        <v>22.974588938714401</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>32</v>
+      </c>
+      <c r="B172" t="s">
+        <v>101</v>
+      </c>
+      <c r="C172" t="s">
+        <v>65</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>24</v>
+      </c>
+      <c r="I172">
+        <v>17</v>
+      </c>
+      <c r="J172">
+        <v>32</v>
+      </c>
+      <c r="K172">
+        <v>24</v>
+      </c>
+      <c r="L172" t="s">
+        <v>102</v>
+      </c>
+      <c r="M172" t="s">
+        <v>103</v>
+      </c>
+      <c r="N172">
+        <v>0.320493066255778</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>25.964125560538101</v>
+      </c>
+      <c r="S172" t="s">
+        <v>104</v>
+      </c>
+      <c r="T172" t="s">
+        <v>105</v>
+      </c>
+      <c r="U172" s="1">
+        <v>1</v>
+      </c>
+      <c r="V172" s="1">
+        <v>2</v>
+      </c>
+      <c r="W172" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF172">
+        <v>25.964125560538101</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>32</v>
+      </c>
+      <c r="B173" t="s">
+        <v>101</v>
+      </c>
+      <c r="C173" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>24</v>
+      </c>
+      <c r="I173">
+        <v>17</v>
+      </c>
+      <c r="J173">
+        <v>32</v>
+      </c>
+      <c r="K173">
+        <v>24</v>
+      </c>
+      <c r="L173" t="s">
+        <v>102</v>
+      </c>
+      <c r="M173" t="s">
+        <v>103</v>
+      </c>
+      <c r="N173">
+        <v>9.8613251155624498E-2</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>27.982062780269001</v>
+      </c>
+      <c r="S173" t="s">
+        <v>104</v>
+      </c>
+      <c r="T173" t="s">
+        <v>105</v>
+      </c>
+      <c r="U173" s="1">
+        <v>1</v>
+      </c>
+      <c r="V173" s="1">
+        <v>2</v>
+      </c>
+      <c r="W173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF173">
+        <v>27.982062780269001</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>32</v>
+      </c>
+      <c r="B174" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" t="s">
+        <v>65</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>24</v>
+      </c>
+      <c r="I174">
+        <v>17</v>
+      </c>
+      <c r="J174">
+        <v>32</v>
+      </c>
+      <c r="K174">
+        <v>24</v>
+      </c>
+      <c r="L174" t="s">
+        <v>102</v>
+      </c>
+      <c r="M174" t="s">
+        <v>103</v>
+      </c>
+      <c r="N174">
+        <v>2.4653312788906499E-2</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>30.9715994020926</v>
+      </c>
+      <c r="S174" t="s">
+        <v>104</v>
+      </c>
+      <c r="T174" t="s">
+        <v>105</v>
+      </c>
+      <c r="U174" s="1">
+        <v>1</v>
+      </c>
+      <c r="V174" s="1">
+        <v>2</v>
+      </c>
+      <c r="W174" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF174">
+        <v>30.9715994020926</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>32</v>
+      </c>
+      <c r="B175" t="s">
+        <v>101</v>
+      </c>
+      <c r="C175" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>24</v>
+      </c>
+      <c r="I175">
+        <v>17</v>
+      </c>
+      <c r="J175">
+        <v>32</v>
+      </c>
+      <c r="K175">
+        <v>24</v>
+      </c>
+      <c r="L175" t="s">
+        <v>102</v>
+      </c>
+      <c r="M175" t="s">
+        <v>103</v>
+      </c>
+      <c r="N175">
+        <v>7.3959938366717895E-2</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>32.914798206278</v>
+      </c>
+      <c r="S175" t="s">
+        <v>104</v>
+      </c>
+      <c r="T175" t="s">
+        <v>105</v>
+      </c>
+      <c r="U175" s="1">
+        <v>1</v>
+      </c>
+      <c r="V175" s="1">
+        <v>2</v>
+      </c>
+      <c r="W175" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF175">
+        <v>32.914798206278</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>33</v>
+      </c>
+      <c r="B176" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>24</v>
+      </c>
+      <c r="I176">
+        <v>24</v>
+      </c>
+      <c r="J176">
+        <v>24</v>
+      </c>
+      <c r="L176" t="s">
+        <v>102</v>
+      </c>
+      <c r="M176" t="s">
+        <v>103</v>
+      </c>
+      <c r="N176" s="2">
+        <v>0.17257318999999999</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="S176" t="s">
+        <v>104</v>
+      </c>
+      <c r="T176" t="s">
+        <v>105</v>
+      </c>
+      <c r="U176" s="1">
+        <v>1</v>
+      </c>
+      <c r="V176" s="1">
+        <v>2</v>
+      </c>
+      <c r="W176" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF176">
+        <v>1.97309417040358</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>33</v>
+      </c>
+      <c r="B177" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" t="s">
+        <v>65</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>24</v>
+      </c>
+      <c r="I177">
+        <v>24</v>
+      </c>
+      <c r="J177">
+        <v>24</v>
+      </c>
+      <c r="L177" t="s">
+        <v>102</v>
+      </c>
+      <c r="M177" t="s">
+        <v>103</v>
+      </c>
+      <c r="N177" s="2">
+        <v>7.3959940000000002E-2</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="S177" t="s">
+        <v>104</v>
+      </c>
+      <c r="T177" t="s">
+        <v>105</v>
+      </c>
+      <c r="U177" s="1">
+        <v>1</v>
+      </c>
+      <c r="V177" s="1">
+        <v>2</v>
+      </c>
+      <c r="W177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF177">
+        <v>4.9626307922272002</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>33</v>
+      </c>
+      <c r="B178" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" t="s">
+        <v>65</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>24</v>
+      </c>
+      <c r="I178">
+        <v>24</v>
+      </c>
+      <c r="J178">
+        <v>24</v>
+      </c>
+      <c r="L178" t="s">
+        <v>102</v>
+      </c>
+      <c r="M178" t="s">
+        <v>103</v>
+      </c>
+      <c r="N178" s="2">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="S178" t="s">
+        <v>104</v>
+      </c>
+      <c r="T178" t="s">
+        <v>105</v>
+      </c>
+      <c r="U178" s="1">
+        <v>1</v>
+      </c>
+      <c r="V178" s="1">
+        <v>2</v>
+      </c>
+      <c r="W178" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF178">
+        <v>6.9805680119581401</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>33</v>
+      </c>
+      <c r="B179" t="s">
+        <v>101</v>
+      </c>
+      <c r="C179" t="s">
+        <v>65</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>24</v>
+      </c>
+      <c r="I179">
+        <v>24</v>
+      </c>
+      <c r="J179">
+        <v>24</v>
+      </c>
+      <c r="L179" t="s">
+        <v>102</v>
+      </c>
+      <c r="M179" t="s">
+        <v>103</v>
+      </c>
+      <c r="N179" s="2">
+        <v>2.4653310000000001E-2</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="S179" t="s">
+        <v>104</v>
+      </c>
+      <c r="T179" t="s">
+        <v>105</v>
+      </c>
+      <c r="U179" s="1">
+        <v>1</v>
+      </c>
+      <c r="V179" s="1">
+        <v>2</v>
+      </c>
+      <c r="W179" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF179">
+        <v>8.9237668161435</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>33</v>
+      </c>
+      <c r="B180" t="s">
+        <v>101</v>
+      </c>
+      <c r="C180" t="s">
+        <v>65</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>24</v>
+      </c>
+      <c r="I180">
+        <v>24</v>
+      </c>
+      <c r="J180">
+        <v>24</v>
+      </c>
+      <c r="L180" t="s">
+        <v>102</v>
+      </c>
+      <c r="M180" t="s">
+        <v>103</v>
+      </c>
+      <c r="N180" s="2">
+        <v>0.12326656</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0.12326656394452901</v>
+      </c>
+      <c r="S180" t="s">
+        <v>104</v>
+      </c>
+      <c r="T180" t="s">
+        <v>105</v>
+      </c>
+      <c r="U180" s="1">
+        <v>1</v>
+      </c>
+      <c r="V180" s="1">
+        <v>2</v>
+      </c>
+      <c r="W180" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF180">
+        <v>11.9133034379671</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>33</v>
+      </c>
+      <c r="B181" t="s">
+        <v>101</v>
+      </c>
+      <c r="C181" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>24</v>
+      </c>
+      <c r="I181">
+        <v>24</v>
+      </c>
+      <c r="J181">
+        <v>24</v>
+      </c>
+      <c r="L181" t="s">
+        <v>102</v>
+      </c>
+      <c r="M181" t="s">
+        <v>103</v>
+      </c>
+      <c r="N181" s="2">
+        <v>7.3959940000000002E-2</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>8.6286594761169996E-2</v>
+      </c>
+      <c r="S181" t="s">
+        <v>104</v>
+      </c>
+      <c r="T181" t="s">
+        <v>105</v>
+      </c>
+      <c r="U181" s="1">
+        <v>1</v>
+      </c>
+      <c r="V181" s="1">
+        <v>2</v>
+      </c>
+      <c r="W181" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF181">
+        <v>13.9686098654708</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>33</v>
+      </c>
+      <c r="B182" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>24</v>
+      </c>
+      <c r="I182">
+        <v>24</v>
+      </c>
+      <c r="J182">
+        <v>24</v>
+      </c>
+      <c r="L182" t="s">
+        <v>102</v>
+      </c>
+      <c r="M182" t="s">
+        <v>103</v>
+      </c>
+      <c r="N182" s="2">
+        <v>0.12326656</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>7.3959938366718797E-2</v>
+      </c>
+      <c r="S182" t="s">
+        <v>104</v>
+      </c>
+      <c r="T182" t="s">
+        <v>105</v>
+      </c>
+      <c r="U182" s="1">
+        <v>1</v>
+      </c>
+      <c r="V182" s="1">
+        <v>2</v>
+      </c>
+      <c r="W182" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF182">
+        <v>15.949177877428999</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>33</v>
+      </c>
+      <c r="B183" t="s">
+        <v>101</v>
+      </c>
+      <c r="C183" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>24</v>
+      </c>
+      <c r="I183">
+        <v>24</v>
+      </c>
+      <c r="J183">
+        <v>24</v>
+      </c>
+      <c r="L183" t="s">
+        <v>102</v>
+      </c>
+      <c r="M183" t="s">
+        <v>103</v>
+      </c>
+      <c r="N183" s="2">
+        <v>0.17257318999999999</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0.11093990755007779</v>
+      </c>
+      <c r="S183" t="s">
+        <v>104</v>
+      </c>
+      <c r="T183" t="s">
+        <v>105</v>
+      </c>
+      <c r="U183" s="1">
+        <v>1</v>
+      </c>
+      <c r="V183" s="1">
+        <v>2</v>
+      </c>
+      <c r="W183" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF183">
+        <v>18.938714499252601</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>33</v>
+      </c>
+      <c r="B184" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184" t="s">
+        <v>65</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>24</v>
+      </c>
+      <c r="I184">
+        <v>24</v>
+      </c>
+      <c r="J184">
+        <v>24</v>
+      </c>
+      <c r="L184" t="s">
+        <v>102</v>
+      </c>
+      <c r="M184" t="s">
+        <v>103</v>
+      </c>
+      <c r="N184" s="2">
+        <v>1.0107858199999999</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0.40677966101694851</v>
+      </c>
+      <c r="S184" t="s">
+        <v>104</v>
+      </c>
+      <c r="T184" t="s">
+        <v>105</v>
+      </c>
+      <c r="U184" s="1">
+        <v>1</v>
+      </c>
+      <c r="V184" s="1">
+        <v>2</v>
+      </c>
+      <c r="W184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF184">
+        <v>20.956651718983501</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>33</v>
+      </c>
+      <c r="B185" t="s">
+        <v>101</v>
+      </c>
+      <c r="C185" t="s">
+        <v>65</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>24</v>
+      </c>
+      <c r="I185">
+        <v>24</v>
+      </c>
+      <c r="J185">
+        <v>24</v>
+      </c>
+      <c r="L185" t="s">
+        <v>102</v>
+      </c>
+      <c r="M185" t="s">
+        <v>103</v>
+      </c>
+      <c r="N185" s="2">
+        <v>2.1694915300000002</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0.75808936825885986</v>
+      </c>
+      <c r="S185" t="s">
+        <v>104</v>
+      </c>
+      <c r="T185" t="s">
+        <v>105</v>
+      </c>
+      <c r="U185" s="1">
+        <v>1</v>
+      </c>
+      <c r="V185" s="1">
+        <v>2</v>
+      </c>
+      <c r="W185" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF185">
+        <v>22.974588938714401</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>33</v>
+      </c>
+      <c r="B186" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" t="s">
+        <v>65</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>24</v>
+      </c>
+      <c r="I186">
+        <v>24</v>
+      </c>
+      <c r="J186">
+        <v>24</v>
+      </c>
+      <c r="L186" t="s">
+        <v>102</v>
+      </c>
+      <c r="M186" t="s">
+        <v>103</v>
+      </c>
+      <c r="N186" s="2">
+        <v>1.65177196</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0.64714946070878498</v>
+      </c>
+      <c r="S186" t="s">
+        <v>104</v>
+      </c>
+      <c r="T186" t="s">
+        <v>105</v>
+      </c>
+      <c r="U186" s="1">
+        <v>1</v>
+      </c>
+      <c r="V186" s="1">
+        <v>2</v>
+      </c>
+      <c r="W186" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF186">
+        <v>25.964125560538101</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>33</v>
+      </c>
+      <c r="B187" t="s">
+        <v>101</v>
+      </c>
+      <c r="C187" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>24</v>
+      </c>
+      <c r="I187">
+        <v>24</v>
+      </c>
+      <c r="J187">
+        <v>24</v>
+      </c>
+      <c r="L187" t="s">
+        <v>102</v>
+      </c>
+      <c r="M187" t="s">
+        <v>103</v>
+      </c>
+      <c r="N187" s="2">
+        <v>1.7257319</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0.45608628659475992</v>
+      </c>
+      <c r="S187" t="s">
+        <v>104</v>
+      </c>
+      <c r="T187" t="s">
+        <v>105</v>
+      </c>
+      <c r="U187" s="1">
+        <v>1</v>
+      </c>
+      <c r="V187" s="1">
+        <v>2</v>
+      </c>
+      <c r="W187" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF187">
+        <v>27.982062780269001</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>33</v>
+      </c>
+      <c r="B188" t="s">
+        <v>101</v>
+      </c>
+      <c r="C188" t="s">
+        <v>65</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>24</v>
+      </c>
+      <c r="I188">
+        <v>24</v>
+      </c>
+      <c r="J188">
+        <v>24</v>
+      </c>
+      <c r="L188" t="s">
+        <v>102</v>
+      </c>
+      <c r="M188" t="s">
+        <v>103</v>
+      </c>
+      <c r="N188" s="2">
+        <v>1.5285053900000001</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0.53004622496147502</v>
+      </c>
+      <c r="S188" t="s">
+        <v>104</v>
+      </c>
+      <c r="T188" t="s">
+        <v>105</v>
+      </c>
+      <c r="U188" s="1">
+        <v>1</v>
+      </c>
+      <c r="V188" s="1">
+        <v>2</v>
+      </c>
+      <c r="W188" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF188">
+        <v>30.9715994020926</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>33</v>
+      </c>
+      <c r="B189" t="s">
+        <v>101</v>
+      </c>
+      <c r="C189" t="s">
+        <v>65</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>24</v>
+      </c>
+      <c r="I189">
+        <v>24</v>
+      </c>
+      <c r="J189">
+        <v>24</v>
+      </c>
+      <c r="L189" t="s">
+        <v>102</v>
+      </c>
+      <c r="M189" t="s">
+        <v>103</v>
+      </c>
+      <c r="N189" s="2">
+        <v>1.2573189499999999</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0.56086286594760748</v>
+      </c>
+      <c r="S189" t="s">
+        <v>104</v>
+      </c>
+      <c r="T189" t="s">
+        <v>105</v>
+      </c>
+      <c r="U189" s="1">
+        <v>1</v>
+      </c>
+      <c r="V189" s="1">
+        <v>2</v>
+      </c>
+      <c r="W189" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF189">
+        <v>32.989536621823603</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>34</v>
+      </c>
+      <c r="B190" t="s">
+        <v>101</v>
+      </c>
+      <c r="C190" t="s">
+        <v>65</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>24</v>
+      </c>
+      <c r="I190">
+        <v>17</v>
+      </c>
+      <c r="J190">
+        <v>32</v>
+      </c>
+      <c r="K190">
+        <v>24</v>
+      </c>
+      <c r="L190" t="s">
+        <v>102</v>
+      </c>
+      <c r="M190" t="s">
+        <v>103</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="S190" t="s">
+        <v>104</v>
+      </c>
+      <c r="T190" t="s">
+        <v>105</v>
+      </c>
+      <c r="U190" s="1">
+        <v>1</v>
+      </c>
+      <c r="V190" s="1">
+        <v>2</v>
+      </c>
+      <c r="W190" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF190">
+        <v>1.97309417040358</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>34</v>
+      </c>
+      <c r="B191" t="s">
+        <v>101</v>
+      </c>
+      <c r="C191" t="s">
+        <v>65</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>24</v>
+      </c>
+      <c r="I191">
+        <v>17</v>
+      </c>
+      <c r="J191">
+        <v>32</v>
+      </c>
+      <c r="K191">
+        <v>24</v>
+      </c>
+      <c r="L191" t="s">
+        <v>102</v>
+      </c>
+      <c r="M191" t="s">
+        <v>103</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="S191" t="s">
+        <v>104</v>
+      </c>
+      <c r="T191" t="s">
+        <v>105</v>
+      </c>
+      <c r="U191" s="1">
+        <v>1</v>
+      </c>
+      <c r="V191" s="1">
+        <v>2</v>
+      </c>
+      <c r="W191" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF191">
+        <v>4.9626307922272002</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>34</v>
+      </c>
+      <c r="B192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192" t="s">
+        <v>65</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>24</v>
+      </c>
+      <c r="I192">
+        <v>17</v>
+      </c>
+      <c r="J192">
+        <v>32</v>
+      </c>
+      <c r="K192">
+        <v>24</v>
+      </c>
+      <c r="L192" t="s">
+        <v>102</v>
+      </c>
+      <c r="M192" t="s">
+        <v>103</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="S192" t="s">
+        <v>104</v>
+      </c>
+      <c r="T192" t="s">
+        <v>105</v>
+      </c>
+      <c r="U192" s="1">
+        <v>1</v>
+      </c>
+      <c r="V192" s="1">
+        <v>2</v>
+      </c>
+      <c r="W192" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF192">
+        <v>6.9805680119581401</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>34</v>
+      </c>
+      <c r="B193" t="s">
+        <v>101</v>
+      </c>
+      <c r="C193" t="s">
+        <v>65</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>24</v>
+      </c>
+      <c r="I193">
+        <v>17</v>
+      </c>
+      <c r="J193">
+        <v>32</v>
+      </c>
+      <c r="K193">
+        <v>24</v>
+      </c>
+      <c r="L193" t="s">
+        <v>102</v>
+      </c>
+      <c r="M193" t="s">
+        <v>103</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="S193" t="s">
+        <v>104</v>
+      </c>
+      <c r="T193" t="s">
+        <v>105</v>
+      </c>
+      <c r="U193" s="1">
+        <v>1</v>
+      </c>
+      <c r="V193" s="1">
+        <v>2</v>
+      </c>
+      <c r="W193" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF193">
+        <v>8.9985052316890801</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>34</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="s">
+        <v>65</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>24</v>
+      </c>
+      <c r="I194">
+        <v>17</v>
+      </c>
+      <c r="J194">
+        <v>32</v>
+      </c>
+      <c r="K194">
+        <v>24</v>
+      </c>
+      <c r="L194" t="s">
+        <v>102</v>
+      </c>
+      <c r="M194" t="s">
+        <v>103</v>
+      </c>
+      <c r="N194">
+        <v>0.12326656394452901</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="S194" t="s">
+        <v>104</v>
+      </c>
+      <c r="T194" t="s">
+        <v>105</v>
+      </c>
+      <c r="U194" s="1">
+        <v>1</v>
+      </c>
+      <c r="V194" s="1">
+        <v>2</v>
+      </c>
+      <c r="W194" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF194">
+        <v>11.9133034379671</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>34</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="s">
+        <v>65</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>24</v>
+      </c>
+      <c r="I195">
+        <v>17</v>
+      </c>
+      <c r="J195">
+        <v>32</v>
+      </c>
+      <c r="K195">
+        <v>24</v>
+      </c>
+      <c r="L195" t="s">
+        <v>102</v>
+      </c>
+      <c r="M195" t="s">
+        <v>103</v>
+      </c>
+      <c r="N195">
+        <v>0.59167950693374305</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0.24653312788906048</v>
+      </c>
+      <c r="S195" t="s">
+        <v>104</v>
+      </c>
+      <c r="T195" t="s">
+        <v>105</v>
+      </c>
+      <c r="U195" s="1">
+        <v>1</v>
+      </c>
+      <c r="V195" s="1">
+        <v>2</v>
+      </c>
+      <c r="W195" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF195">
+        <v>13.931240657698</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>34</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="s">
+        <v>65</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>24</v>
+      </c>
+      <c r="I196">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>32</v>
+      </c>
+      <c r="K196">
+        <v>24</v>
+      </c>
+      <c r="L196" t="s">
+        <v>102</v>
+      </c>
+      <c r="M196" t="s">
+        <v>103</v>
+      </c>
+      <c r="N196">
+        <v>0.96147919876733301</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0.46841294298921049</v>
+      </c>
+      <c r="S196" t="s">
+        <v>104</v>
+      </c>
+      <c r="T196" t="s">
+        <v>105</v>
+      </c>
+      <c r="U196" s="1">
+        <v>1</v>
+      </c>
+      <c r="V196" s="1">
+        <v>2</v>
+      </c>
+      <c r="W196" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF196">
+        <v>15.949177877428999</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>34</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>24</v>
+      </c>
+      <c r="I197">
+        <v>17</v>
+      </c>
+      <c r="J197">
+        <v>32</v>
+      </c>
+      <c r="K197">
+        <v>24</v>
+      </c>
+      <c r="L197" t="s">
+        <v>102</v>
+      </c>
+      <c r="M197" t="s">
+        <v>103</v>
+      </c>
+      <c r="N197">
+        <v>1.06009244992295</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0.45608628659475847</v>
+      </c>
+      <c r="S197" t="s">
+        <v>104</v>
+      </c>
+      <c r="T197" t="s">
+        <v>105</v>
+      </c>
+      <c r="U197" s="1">
+        <v>1</v>
+      </c>
+      <c r="V197" s="1">
+        <v>2</v>
+      </c>
+      <c r="W197" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF197">
+        <v>18.938714499252601</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>34</v>
+      </c>
+      <c r="B198" t="s">
+        <v>101</v>
+      </c>
+      <c r="C198" t="s">
+        <v>65</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>24</v>
+      </c>
+      <c r="I198">
+        <v>17</v>
+      </c>
+      <c r="J198">
+        <v>32</v>
+      </c>
+      <c r="K198">
+        <v>24</v>
+      </c>
+      <c r="L198" t="s">
+        <v>102</v>
+      </c>
+      <c r="M198" t="s">
+        <v>103</v>
+      </c>
+      <c r="N198">
+        <v>1.6024653312788799</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>0.55469953775038505</v>
+      </c>
+      <c r="S198" t="s">
+        <v>104</v>
+      </c>
+      <c r="T198" t="s">
+        <v>105</v>
+      </c>
+      <c r="U198" s="1">
+        <v>1</v>
+      </c>
+      <c r="V198" s="1">
+        <v>2</v>
+      </c>
+      <c r="W198" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF198">
+        <v>20.956651718983501</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>34</v>
+      </c>
+      <c r="B199" t="s">
+        <v>101</v>
+      </c>
+      <c r="C199" t="s">
+        <v>65</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>24</v>
+      </c>
+      <c r="I199">
+        <v>17</v>
+      </c>
+      <c r="J199">
+        <v>32</v>
+      </c>
+      <c r="K199">
+        <v>24</v>
+      </c>
+      <c r="L199" t="s">
+        <v>102</v>
+      </c>
+      <c r="M199" t="s">
+        <v>103</v>
+      </c>
+      <c r="N199">
+        <v>2.1201848998459099</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0.56702619414483513</v>
+      </c>
+      <c r="S199" t="s">
+        <v>104</v>
+      </c>
+      <c r="T199" t="s">
+        <v>105</v>
+      </c>
+      <c r="U199" s="1">
+        <v>1</v>
+      </c>
+      <c r="V199" s="1">
+        <v>2</v>
+      </c>
+      <c r="W199" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF199">
+        <v>22.974588938714401</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>34</v>
+      </c>
+      <c r="B200" t="s">
+        <v>101</v>
+      </c>
+      <c r="C200" t="s">
+        <v>65</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>24</v>
+      </c>
+      <c r="I200">
+        <v>17</v>
+      </c>
+      <c r="J200">
+        <v>32</v>
+      </c>
+      <c r="K200">
+        <v>24</v>
+      </c>
+      <c r="L200" t="s">
+        <v>102</v>
+      </c>
+      <c r="M200" t="s">
+        <v>103</v>
+      </c>
+      <c r="N200">
+        <v>1.72573189522342</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0.45608628659476491</v>
+      </c>
+      <c r="S200" t="s">
+        <v>104</v>
+      </c>
+      <c r="T200" t="s">
+        <v>105</v>
+      </c>
+      <c r="U200" s="1">
+        <v>1</v>
+      </c>
+      <c r="V200" s="1">
+        <v>2</v>
+      </c>
+      <c r="W200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF200">
+        <v>25.964125560538101</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>34</v>
+      </c>
+      <c r="B201" t="s">
+        <v>101</v>
+      </c>
+      <c r="C201" t="s">
+        <v>65</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>24</v>
+      </c>
+      <c r="I201">
+        <v>17</v>
+      </c>
+      <c r="J201">
+        <v>32</v>
+      </c>
+      <c r="K201">
+        <v>24</v>
+      </c>
+      <c r="L201" t="s">
+        <v>102</v>
+      </c>
+      <c r="M201" t="s">
+        <v>103</v>
+      </c>
+      <c r="N201">
+        <v>1.06009244992295</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0.24653312788905951</v>
+      </c>
+      <c r="S201" t="s">
+        <v>104</v>
+      </c>
+      <c r="T201" t="s">
+        <v>105</v>
+      </c>
+      <c r="U201" s="1">
+        <v>1</v>
+      </c>
+      <c r="V201" s="1">
+        <v>2</v>
+      </c>
+      <c r="W201" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF201">
+        <v>27.907324364723401</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>34</v>
+      </c>
+      <c r="B202" t="s">
+        <v>101</v>
+      </c>
+      <c r="C202" t="s">
+        <v>65</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>24</v>
+      </c>
+      <c r="I202">
+        <v>17</v>
+      </c>
+      <c r="J202">
+        <v>32</v>
+      </c>
+      <c r="K202">
+        <v>24</v>
+      </c>
+      <c r="L202" t="s">
+        <v>102</v>
+      </c>
+      <c r="M202" t="s">
+        <v>103</v>
+      </c>
+      <c r="N202">
+        <v>0.41910631741140097</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>0.1972265023112495</v>
+      </c>
+      <c r="S202" t="s">
+        <v>104</v>
+      </c>
+      <c r="T202" t="s">
+        <v>105</v>
+      </c>
+      <c r="U202" s="1">
+        <v>1</v>
+      </c>
+      <c r="V202" s="1">
+        <v>2</v>
+      </c>
+      <c r="W202" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF202">
+        <v>30.9715994020926</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>34</v>
+      </c>
+      <c r="B203" t="s">
+        <v>101</v>
+      </c>
+      <c r="C203" t="s">
+        <v>65</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>24</v>
+      </c>
+      <c r="I203">
+        <v>17</v>
+      </c>
+      <c r="J203">
+        <v>32</v>
+      </c>
+      <c r="K203">
+        <v>24</v>
+      </c>
+      <c r="L203" t="s">
+        <v>102</v>
+      </c>
+      <c r="M203" t="s">
+        <v>103</v>
+      </c>
+      <c r="N203">
+        <v>-1.2326656394453199E-2</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="S203" t="s">
+        <v>104</v>
+      </c>
+      <c r="T203" t="s">
+        <v>105</v>
+      </c>
+      <c r="U203" s="1">
+        <v>1</v>
+      </c>
+      <c r="V203" s="1">
+        <v>2</v>
+      </c>
+      <c r="W203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF203">
+        <v>32.952167414050798</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>35</v>
+      </c>
+      <c r="B204" t="s">
+        <v>101</v>
+      </c>
+      <c r="C204" t="s">
+        <v>66</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>24</v>
+      </c>
+      <c r="I204">
+        <v>24</v>
+      </c>
+      <c r="J204">
+        <v>24</v>
+      </c>
+      <c r="L204" t="s">
+        <v>111</v>
+      </c>
+      <c r="M204" t="s">
+        <v>103</v>
+      </c>
+      <c r="N204">
+        <v>5.4762783711183198E-2</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="S204" t="s">
+        <v>104</v>
+      </c>
+      <c r="T204" t="s">
+        <v>105</v>
+      </c>
+      <c r="U204" s="1">
+        <v>1</v>
+      </c>
+      <c r="V204" s="1">
+        <v>2</v>
+      </c>
+      <c r="W204" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF204">
+        <v>2.0786180735007602</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>35</v>
+      </c>
+      <c r="B205" t="s">
+        <v>101</v>
+      </c>
+      <c r="C205" t="s">
+        <v>66</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>24</v>
+      </c>
+      <c r="I205">
+        <v>24</v>
+      </c>
+      <c r="J205">
+        <v>24</v>
+      </c>
+      <c r="L205" t="s">
+        <v>111</v>
+      </c>
+      <c r="M205" t="s">
+        <v>103</v>
+      </c>
+      <c r="N205">
+        <v>0.622019679977597</v>
+      </c>
+      <c r="O205">
+        <v>1</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="S205" t="s">
+        <v>104</v>
+      </c>
+      <c r="T205" t="s">
+        <v>105</v>
+      </c>
+      <c r="U205" s="1">
+        <v>1</v>
+      </c>
+      <c r="V205" s="1">
+        <v>2</v>
+      </c>
+      <c r="W205" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF205">
+        <v>5.0344972440393496</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>35</v>
+      </c>
+      <c r="B206" t="s">
+        <v>101</v>
+      </c>
+      <c r="C206" t="s">
+        <v>66</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>24</v>
+      </c>
+      <c r="I206">
+        <v>24</v>
+      </c>
+      <c r="J206">
+        <v>24</v>
+      </c>
+      <c r="L206" t="s">
+        <v>111</v>
+      </c>
+      <c r="M206" t="s">
+        <v>103</v>
+      </c>
+      <c r="N206">
+        <v>1.6464732614534601</v>
+      </c>
+      <c r="O206">
+        <v>1</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0.66326361750065654</v>
+      </c>
+      <c r="S206" t="s">
+        <v>104</v>
+      </c>
+      <c r="T206" t="s">
+        <v>105</v>
+      </c>
+      <c r="U206" s="1">
+        <v>1</v>
+      </c>
+      <c r="V206" s="1">
+        <v>2</v>
+      </c>
+      <c r="W206" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF206">
+        <v>7.0167521672161604</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>35</v>
+      </c>
+      <c r="B207" t="s">
+        <v>101</v>
+      </c>
+      <c r="C207" t="s">
+        <v>66</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>24</v>
+      </c>
+      <c r="I207">
+        <v>24</v>
+      </c>
+      <c r="J207">
+        <v>24</v>
+      </c>
+      <c r="L207" t="s">
+        <v>111</v>
+      </c>
+      <c r="M207" t="s">
+        <v>103</v>
+      </c>
+      <c r="N207">
+        <v>3.6914087859770399</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>1.0714258436549249</v>
+      </c>
+      <c r="S207" t="s">
+        <v>104</v>
+      </c>
+      <c r="T207" t="s">
+        <v>105</v>
+      </c>
+      <c r="U207" s="1">
+        <v>1</v>
+      </c>
+      <c r="V207" s="1">
+        <v>2</v>
+      </c>
+      <c r="W207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF207">
+        <v>9.0351591837773793</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>35</v>
+      </c>
+      <c r="B208" t="s">
+        <v>101</v>
+      </c>
+      <c r="C208" t="s">
+        <v>66</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>24</v>
+      </c>
+      <c r="I208">
+        <v>24</v>
+      </c>
+      <c r="J208">
+        <v>24</v>
+      </c>
+      <c r="L208" t="s">
+        <v>111</v>
+      </c>
+      <c r="M208" t="s">
+        <v>103</v>
+      </c>
+      <c r="N208">
+        <v>10.7383174001043</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1.68366918288626</v>
+      </c>
+      <c r="S208" t="s">
+        <v>104</v>
+      </c>
+      <c r="T208" t="s">
+        <v>105</v>
+      </c>
+      <c r="U208" s="1">
+        <v>1</v>
+      </c>
+      <c r="V208" s="1">
+        <v>2</v>
+      </c>
+      <c r="W208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF208">
+        <v>12.0203801061649</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>35</v>
+      </c>
+      <c r="B209" t="s">
+        <v>101</v>
+      </c>
+      <c r="C209" t="s">
+        <v>66</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>24</v>
+      </c>
+      <c r="I209">
+        <v>24</v>
+      </c>
+      <c r="J209">
+        <v>24</v>
+      </c>
+      <c r="L209" t="s">
+        <v>111</v>
+      </c>
+      <c r="M209" t="s">
+        <v>103</v>
+      </c>
+      <c r="N209">
+        <v>17.885280751556099</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>2.0408111307712993</v>
+      </c>
+      <c r="S209" t="s">
+        <v>104</v>
+      </c>
+      <c r="T209" t="s">
+        <v>105</v>
+      </c>
+      <c r="U209" s="1">
+        <v>1</v>
+      </c>
+      <c r="V209" s="1">
+        <v>2</v>
+      </c>
+      <c r="W209" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF209">
+        <v>14.0324223175528</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>35</v>
+      </c>
+      <c r="B210" t="s">
+        <v>101</v>
+      </c>
+      <c r="C210" t="s">
+        <v>66</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>24</v>
+      </c>
+      <c r="I210">
+        <v>24</v>
+      </c>
+      <c r="J210">
+        <v>24</v>
+      </c>
+      <c r="L210" t="s">
+        <v>111</v>
+      </c>
+      <c r="M210" t="s">
+        <v>103</v>
+      </c>
+      <c r="N210">
+        <v>22.0729915857275</v>
+      </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>2.1938719655791008</v>
+      </c>
+      <c r="S210" t="s">
+        <v>104</v>
+      </c>
+      <c r="T210" t="s">
+        <v>105</v>
+      </c>
+      <c r="U210" s="1">
+        <v>1</v>
+      </c>
+      <c r="V210" s="1">
+        <v>2</v>
+      </c>
+      <c r="W210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF210">
+        <v>16.0107310615222</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>35</v>
+      </c>
+      <c r="B211" t="s">
+        <v>101</v>
+      </c>
+      <c r="C211" t="s">
+        <v>66</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>24</v>
+      </c>
+      <c r="I211">
+        <v>24</v>
+      </c>
+      <c r="J211">
+        <v>24</v>
+      </c>
+      <c r="L211" t="s">
+        <v>111</v>
+      </c>
+      <c r="M211" t="s">
+        <v>103</v>
+      </c>
+      <c r="N211">
+        <v>27.181129625622098</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>2.2959125221176997</v>
+      </c>
+      <c r="S211" t="s">
+        <v>104</v>
+      </c>
+      <c r="T211" t="s">
+        <v>105</v>
+      </c>
+      <c r="U211" s="1">
+        <v>1</v>
+      </c>
+      <c r="V211" s="1">
+        <v>2</v>
+      </c>
+      <c r="W211" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF211">
+        <v>18.9983706098756</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s">
+        <v>101</v>
+      </c>
+      <c r="C212" t="s">
+        <v>66</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>24</v>
+      </c>
+      <c r="I212">
+        <v>24</v>
+      </c>
+      <c r="J212">
+        <v>24</v>
+      </c>
+      <c r="L212" t="s">
+        <v>111</v>
+      </c>
+      <c r="M212" t="s">
+        <v>103</v>
+      </c>
+      <c r="N212">
+        <v>30.0423132247921</v>
+      </c>
+      <c r="O212">
+        <v>1</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>2.3979530786562488</v>
+      </c>
+      <c r="S212" t="s">
+        <v>104</v>
+      </c>
+      <c r="T212" t="s">
+        <v>105</v>
+      </c>
+      <c r="U212" s="1">
+        <v>1</v>
+      </c>
+      <c r="V212" s="1">
+        <v>2</v>
+      </c>
+      <c r="W212" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF212">
+        <v>20.978334203189998</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>35</v>
+      </c>
+      <c r="B213" t="s">
+        <v>101</v>
+      </c>
+      <c r="C213" t="s">
+        <v>66</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>24</v>
+      </c>
+      <c r="I213">
+        <v>24</v>
+      </c>
+      <c r="J213">
+        <v>24</v>
+      </c>
+      <c r="L213" t="s">
+        <v>111</v>
+      </c>
+      <c r="M213" t="s">
+        <v>103</v>
+      </c>
+      <c r="N213">
+        <v>30.8626093155288</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>2.3724429395215996</v>
+      </c>
+      <c r="S213" t="s">
+        <v>104</v>
+      </c>
+      <c r="T213" t="s">
+        <v>105</v>
+      </c>
+      <c r="U213" s="1">
+        <v>1</v>
+      </c>
+      <c r="V213" s="1">
+        <v>2</v>
+      </c>
+      <c r="W213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF213">
+        <v>22.9234186641546</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>35</v>
+      </c>
+      <c r="B214" t="s">
+        <v>101</v>
+      </c>
+      <c r="C214" t="s">
+        <v>66</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>24</v>
+      </c>
+      <c r="I214">
+        <v>24</v>
+      </c>
+      <c r="J214">
+        <v>24</v>
+      </c>
+      <c r="L214" t="s">
+        <v>111</v>
+      </c>
+      <c r="M214" t="s">
+        <v>103</v>
+      </c>
+      <c r="N214">
+        <v>31.736140636735101</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>2.321422661252349</v>
+      </c>
+      <c r="S214" t="s">
+        <v>104</v>
+      </c>
+      <c r="T214" t="s">
+        <v>105</v>
+      </c>
+      <c r="U214" s="1">
+        <v>1</v>
+      </c>
+      <c r="V214" s="1">
+        <v>2</v>
+      </c>
+      <c r="W214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF214">
+        <v>25.953766055220999</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>35</v>
+      </c>
+      <c r="B215" t="s">
+        <v>101</v>
+      </c>
+      <c r="C215" t="s">
+        <v>66</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>24</v>
+      </c>
+      <c r="I215">
+        <v>24</v>
+      </c>
+      <c r="J215">
+        <v>24</v>
+      </c>
+      <c r="L215" t="s">
+        <v>111</v>
+      </c>
+      <c r="M215" t="s">
+        <v>103</v>
+      </c>
+      <c r="N215">
+        <v>32.199371157248798</v>
+      </c>
+      <c r="O215">
+        <v>1</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>2.2448922438484011</v>
+      </c>
+      <c r="S215" t="s">
+        <v>104</v>
+      </c>
+      <c r="T215" t="s">
+        <v>105</v>
+      </c>
+      <c r="U215" s="1">
+        <v>1</v>
+      </c>
+      <c r="V215" s="1">
+        <v>2</v>
+      </c>
+      <c r="W215" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF215">
+        <v>27.9367211069669</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>35</v>
+      </c>
+      <c r="B216" t="s">
+        <v>101</v>
+      </c>
+      <c r="C216" t="s">
+        <v>66</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>24</v>
+      </c>
+      <c r="I216">
+        <v>24</v>
+      </c>
+      <c r="J216">
+        <v>24</v>
+      </c>
+      <c r="L216" t="s">
+        <v>111</v>
+      </c>
+      <c r="M216" t="s">
+        <v>103</v>
+      </c>
+      <c r="N216">
+        <v>32.409562483292298</v>
+      </c>
+      <c r="O216">
+        <v>1</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>2.2448922438484011</v>
+      </c>
+      <c r="S216" t="s">
+        <v>104</v>
+      </c>
+      <c r="T216" t="s">
+        <v>105</v>
+      </c>
+      <c r="U216" s="1">
+        <v>1</v>
+      </c>
+      <c r="V216" s="1">
+        <v>2</v>
+      </c>
+      <c r="W216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF216">
+        <v>30.930470868286701</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>35</v>
+      </c>
+      <c r="B217" t="s">
+        <v>101</v>
+      </c>
+      <c r="C217" t="s">
+        <v>66</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>24</v>
+      </c>
+      <c r="I217">
+        <v>24</v>
+      </c>
+      <c r="J217">
+        <v>24</v>
+      </c>
+      <c r="L217" t="s">
+        <v>111</v>
+      </c>
+      <c r="M217" t="s">
+        <v>103</v>
+      </c>
+      <c r="N217">
+        <v>32.566671334190403</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>2.2194202935447986</v>
+      </c>
+      <c r="S217" t="s">
+        <v>104</v>
+      </c>
+      <c r="T217" t="s">
+        <v>105</v>
+      </c>
+      <c r="U217" s="1">
+        <v>1</v>
+      </c>
+      <c r="V217" s="1">
+        <v>2</v>
+      </c>
+      <c r="W217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF217">
+        <v>32.913807808342902</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>36</v>
+      </c>
+      <c r="B218" t="s">
+        <v>101</v>
+      </c>
+      <c r="C218" t="s">
+        <v>66</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>24</v>
+      </c>
+      <c r="I218">
+        <v>17</v>
+      </c>
+      <c r="J218">
+        <v>32</v>
+      </c>
+      <c r="K218">
+        <v>24</v>
+      </c>
+      <c r="L218" t="s">
+        <v>111</v>
+      </c>
+      <c r="M218" t="s">
+        <v>103</v>
+      </c>
+      <c r="N218">
+        <v>0.105630306656323</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="S218" t="s">
+        <v>104</v>
+      </c>
+      <c r="T218" t="s">
+        <v>105</v>
+      </c>
+      <c r="U218" s="1">
+        <v>1</v>
+      </c>
+      <c r="V218" s="1">
+        <v>2</v>
+      </c>
+      <c r="W218" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF218">
+        <v>2.0037043166108699</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>36</v>
+      </c>
+      <c r="B219" t="s">
+        <v>101</v>
+      </c>
+      <c r="C219" t="s">
+        <v>66</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>24</v>
+      </c>
+      <c r="I219">
+        <v>17</v>
+      </c>
+      <c r="J219">
+        <v>32</v>
+      </c>
+      <c r="K219">
+        <v>24</v>
+      </c>
+      <c r="L219" t="s">
+        <v>111</v>
+      </c>
+      <c r="M219" t="s">
+        <v>103</v>
+      </c>
+      <c r="N219">
+        <v>0.31597438802397398</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="S219" t="s">
+        <v>104</v>
+      </c>
+      <c r="T219" t="s">
+        <v>105</v>
+      </c>
+      <c r="U219" s="1">
+        <v>1</v>
+      </c>
+      <c r="V219" s="1">
+        <v>2</v>
+      </c>
+      <c r="W219" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF219">
+        <v>5.0723041867688403</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>36</v>
+      </c>
+      <c r="B220" t="s">
+        <v>101</v>
+      </c>
+      <c r="C220" t="s">
+        <v>66</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>24</v>
+      </c>
+      <c r="I220">
+        <v>17</v>
+      </c>
+      <c r="J220">
+        <v>32</v>
+      </c>
+      <c r="K220">
+        <v>24</v>
+      </c>
+      <c r="L220" t="s">
+        <v>111</v>
+      </c>
+      <c r="M220" t="s">
+        <v>103</v>
+      </c>
+      <c r="N220">
+        <v>0.62622045139197202</v>
+      </c>
+      <c r="O220">
+        <v>1</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="S220" t="s">
+        <v>104</v>
+      </c>
+      <c r="T220" t="s">
+        <v>105</v>
+      </c>
+      <c r="U220" s="1">
+        <v>1</v>
+      </c>
+      <c r="V220" s="1">
+        <v>2</v>
+      </c>
+      <c r="W220" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF220">
+        <v>7.0928752370889896</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>36</v>
+      </c>
+      <c r="B221" t="s">
+        <v>101</v>
+      </c>
+      <c r="C221" t="s">
+        <v>66</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>24</v>
+      </c>
+      <c r="I221">
+        <v>17</v>
+      </c>
+      <c r="J221">
+        <v>32</v>
+      </c>
+      <c r="K221">
+        <v>24</v>
+      </c>
+      <c r="L221" t="s">
+        <v>111</v>
+      </c>
+      <c r="M221" t="s">
+        <v>103</v>
+      </c>
+      <c r="N221">
+        <v>1.85467876828289</v>
+      </c>
+      <c r="O221">
+        <v>1</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0.51020278269282993</v>
+      </c>
+      <c r="S221" t="s">
+        <v>104</v>
+      </c>
+      <c r="T221" t="s">
+        <v>105</v>
+      </c>
+      <c r="U221" s="1">
+        <v>1</v>
+      </c>
+      <c r="V221" s="1">
+        <v>2</v>
+      </c>
+      <c r="W221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF221">
+        <v>9.0374505136397705</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>36</v>
+      </c>
+      <c r="B222" t="s">
+        <v>101</v>
+      </c>
+      <c r="C222" t="s">
+        <v>66</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>24</v>
+      </c>
+      <c r="I222">
+        <v>17</v>
+      </c>
+      <c r="J222">
+        <v>32</v>
+      </c>
+      <c r="K222">
+        <v>24</v>
+      </c>
+      <c r="L222" t="s">
+        <v>111</v>
+      </c>
+      <c r="M222" t="s">
+        <v>103</v>
+      </c>
+      <c r="N222">
+        <v>7.0139134641088603</v>
+      </c>
+      <c r="O222">
+        <v>1</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>1.3010170958666949</v>
+      </c>
+      <c r="S222" t="s">
+        <v>104</v>
+      </c>
+      <c r="T222" t="s">
+        <v>105</v>
+      </c>
+      <c r="U222" s="1">
+        <v>1</v>
+      </c>
+      <c r="V222" s="1">
+        <v>2</v>
+      </c>
+      <c r="W222" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF222">
+        <v>12.0624514683605</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>36</v>
+      </c>
+      <c r="B223" t="s">
+        <v>101</v>
+      </c>
+      <c r="C223" t="s">
+        <v>66</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>24</v>
+      </c>
+      <c r="I223">
+        <v>17</v>
+      </c>
+      <c r="J223">
+        <v>32</v>
+      </c>
+      <c r="K223">
+        <v>24</v>
+      </c>
+      <c r="L223" t="s">
+        <v>111</v>
+      </c>
+      <c r="M223" t="s">
+        <v>103</v>
+      </c>
+      <c r="N223">
+        <v>11.762847359242301</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>1.6326489046170005</v>
+      </c>
+      <c r="S223" t="s">
+        <v>104</v>
+      </c>
+      <c r="T223" t="s">
+        <v>105</v>
+      </c>
+      <c r="U223" s="1">
+        <v>1</v>
+      </c>
+      <c r="V223" s="1">
+        <v>2</v>
+      </c>
+      <c r="W223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF223">
+        <v>14.0400600837608</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>36</v>
+      </c>
+      <c r="B224" t="s">
+        <v>101</v>
+      </c>
+      <c r="C224" t="s">
+        <v>66</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>24</v>
+      </c>
+      <c r="I224">
+        <v>17</v>
+      </c>
+      <c r="J224">
+        <v>32</v>
+      </c>
+      <c r="K224">
+        <v>24</v>
+      </c>
+      <c r="L224" t="s">
+        <v>111</v>
+      </c>
+      <c r="M224" t="s">
+        <v>103</v>
+      </c>
+      <c r="N224">
+        <v>14.419873467673099</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>1.7857097394248997</v>
+      </c>
+      <c r="S224" t="s">
+        <v>104</v>
+      </c>
+      <c r="T224" t="s">
+        <v>105</v>
+      </c>
+      <c r="U224" s="1">
+        <v>1</v>
+      </c>
+      <c r="V224" s="1">
+        <v>2</v>
+      </c>
+      <c r="W224" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF224">
+        <v>15.982853214863001</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>36</v>
+      </c>
+      <c r="B225" t="s">
+        <v>101</v>
+      </c>
+      <c r="C225" t="s">
+        <v>66</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>24</v>
+      </c>
+      <c r="I225">
+        <v>17</v>
+      </c>
+      <c r="J225">
+        <v>32</v>
+      </c>
+      <c r="K225">
+        <v>24</v>
+      </c>
+      <c r="L225" t="s">
+        <v>111</v>
+      </c>
+      <c r="M225" t="s">
+        <v>103</v>
+      </c>
+      <c r="N225">
+        <v>16.977073971765702</v>
+      </c>
+      <c r="O225">
+        <v>1</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1.9388087630637498</v>
+      </c>
+      <c r="S225" t="s">
+        <v>104</v>
+      </c>
+      <c r="T225" t="s">
+        <v>105</v>
+      </c>
+      <c r="U225" s="1">
+        <v>1</v>
+      </c>
+      <c r="V225" s="1">
+        <v>2</v>
+      </c>
+      <c r="W225" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF225">
+        <v>19.0111002202222</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>36</v>
+      </c>
+      <c r="B226" t="s">
+        <v>101</v>
+      </c>
+      <c r="C226" t="s">
+        <v>66</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>24</v>
+      </c>
+      <c r="I226">
+        <v>17</v>
+      </c>
+      <c r="J226">
+        <v>32</v>
+      </c>
+      <c r="K226">
+        <v>24</v>
+      </c>
+      <c r="L226" t="s">
+        <v>111</v>
+      </c>
+      <c r="M226" t="s">
+        <v>103</v>
+      </c>
+      <c r="N226">
+        <v>19.123973675165701</v>
+      </c>
+      <c r="O226">
+        <v>1</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>2.1683618264444995</v>
+      </c>
+      <c r="S226" t="s">
+        <v>104</v>
+      </c>
+      <c r="T226" t="s">
+        <v>105</v>
+      </c>
+      <c r="U226" s="1">
+        <v>1</v>
+      </c>
+      <c r="V226" s="1">
+        <v>2</v>
+      </c>
+      <c r="W226" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF226">
+        <v>20.991954886260899</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>36</v>
+      </c>
+      <c r="B227" t="s">
+        <v>101</v>
+      </c>
+      <c r="C227" t="s">
+        <v>66</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>24</v>
+      </c>
+      <c r="I227">
+        <v>17</v>
+      </c>
+      <c r="J227">
+        <v>32</v>
+      </c>
+      <c r="K227">
+        <v>24</v>
+      </c>
+      <c r="L227" t="s">
+        <v>111</v>
+      </c>
+      <c r="M227" t="s">
+        <v>103</v>
+      </c>
+      <c r="N227">
+        <v>19.842305587025901</v>
+      </c>
+      <c r="O227">
+        <v>1</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>2.1428134984787999</v>
+      </c>
+      <c r="S227" t="s">
+        <v>104</v>
+      </c>
+      <c r="T227" t="s">
+        <v>105</v>
+      </c>
+      <c r="U227" s="1">
+        <v>1</v>
+      </c>
+      <c r="V227" s="1">
+        <v>2</v>
+      </c>
+      <c r="W227" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF227">
+        <v>22.9745916977481</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>36</v>
+      </c>
+      <c r="B228" t="s">
+        <v>101</v>
+      </c>
+      <c r="C228" t="s">
+        <v>66</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>24</v>
+      </c>
+      <c r="I228">
+        <v>17</v>
+      </c>
+      <c r="J228">
+        <v>32</v>
+      </c>
+      <c r="K228">
+        <v>24</v>
+      </c>
+      <c r="L228" t="s">
+        <v>111</v>
+      </c>
+      <c r="M228" t="s">
+        <v>103</v>
+      </c>
+      <c r="N228">
+        <v>20.154537469608002</v>
+      </c>
+      <c r="O228">
+        <v>1</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>2.1428134984787999</v>
+      </c>
+      <c r="S228" t="s">
+        <v>104</v>
+      </c>
+      <c r="T228" t="s">
+        <v>105</v>
+      </c>
+      <c r="U228" s="1">
+        <v>1</v>
+      </c>
+      <c r="V228" s="1">
+        <v>2</v>
+      </c>
+      <c r="W228" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF228">
+        <v>25.968214162964401</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>36</v>
+      </c>
+      <c r="B229" t="s">
+        <v>101</v>
+      </c>
+      <c r="C229" t="s">
+        <v>66</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>24</v>
+      </c>
+      <c r="I229">
+        <v>17</v>
+      </c>
+      <c r="J229">
+        <v>32</v>
+      </c>
+      <c r="K229">
+        <v>24</v>
+      </c>
+      <c r="L229" t="s">
+        <v>111</v>
+      </c>
+      <c r="M229" t="s">
+        <v>103</v>
+      </c>
+      <c r="N229">
+        <v>20.260626042236801</v>
+      </c>
+      <c r="O229">
+        <v>1</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>2.1683618264444995</v>
+      </c>
+      <c r="S229" t="s">
+        <v>104</v>
+      </c>
+      <c r="T229" t="s">
+        <v>105</v>
+      </c>
+      <c r="U229" s="1">
+        <v>1</v>
+      </c>
+      <c r="V229" s="1">
+        <v>2</v>
+      </c>
+      <c r="W229" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF229">
+        <v>27.951614751072398</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>36</v>
+      </c>
+      <c r="B230" t="s">
+        <v>101</v>
+      </c>
+      <c r="C230" t="s">
+        <v>66</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>24</v>
+      </c>
+      <c r="I230">
+        <v>17</v>
+      </c>
+      <c r="J230">
+        <v>32</v>
+      </c>
+      <c r="K230">
+        <v>24</v>
+      </c>
+      <c r="L230" t="s">
+        <v>111</v>
+      </c>
+      <c r="M230" t="s">
+        <v>103</v>
+      </c>
+      <c r="N230">
+        <v>20.266736255203199</v>
+      </c>
+      <c r="O230">
+        <v>1</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>2.1683618264444995</v>
+      </c>
+      <c r="S230" t="s">
+        <v>104</v>
+      </c>
+      <c r="T230" t="s">
+        <v>105</v>
+      </c>
+      <c r="U230" s="1">
+        <v>1</v>
+      </c>
+      <c r="V230" s="1">
+        <v>2</v>
+      </c>
+      <c r="W230" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF230">
+        <v>30.945619104599199</v>
+      </c>
+      <c r="AG230" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>36</v>
+      </c>
+      <c r="B231" t="s">
+        <v>101</v>
+      </c>
+      <c r="C231" t="s">
+        <v>66</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>24</v>
+      </c>
+      <c r="I231">
+        <v>17</v>
+      </c>
+      <c r="J231">
+        <v>32</v>
+      </c>
+      <c r="K231">
+        <v>24</v>
+      </c>
+      <c r="L231" t="s">
+        <v>111</v>
+      </c>
+      <c r="M231" t="s">
+        <v>103</v>
+      </c>
+      <c r="N231">
+        <v>20.372901205493999</v>
+      </c>
+      <c r="O231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>2.1173415481751992</v>
+      </c>
+      <c r="S231" t="s">
+        <v>104</v>
+      </c>
+      <c r="T231" t="s">
+        <v>105</v>
+      </c>
+      <c r="U231" s="1">
+        <v>1</v>
+      </c>
+      <c r="V231" s="1">
+        <v>2</v>
+      </c>
+      <c r="W231" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF231">
+        <v>32.966444747126197</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>37</v>
+      </c>
+      <c r="B232" t="s">
+        <v>101</v>
+      </c>
+      <c r="C232" t="s">
+        <v>66</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>24</v>
+      </c>
+      <c r="I232">
+        <v>24</v>
+      </c>
+      <c r="J232">
+        <v>24</v>
+      </c>
+      <c r="L232" t="s">
+        <v>111</v>
+      </c>
+      <c r="M232" t="s">
+        <v>103</v>
+      </c>
+      <c r="N232">
+        <v>0.20767086319487699</v>
+      </c>
+      <c r="O232">
+        <v>1</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="S232" t="s">
+        <v>104</v>
+      </c>
+      <c r="T232" t="s">
+        <v>105</v>
+      </c>
+      <c r="U232" s="1">
+        <v>1</v>
+      </c>
+      <c r="V232" s="1">
+        <v>2</v>
+      </c>
+      <c r="W232" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF232">
+        <v>2.0035770205074002</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>37</v>
+      </c>
+      <c r="B233" t="s">
+        <v>101</v>
+      </c>
+      <c r="C233" t="s">
+        <v>66</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>24</v>
+      </c>
+      <c r="I233">
+        <v>24</v>
+      </c>
+      <c r="J233">
+        <v>24</v>
+      </c>
+      <c r="L233" t="s">
+        <v>111</v>
+      </c>
+      <c r="M233" t="s">
+        <v>103</v>
+      </c>
+      <c r="N233">
+        <v>0.21385745382333701</v>
+      </c>
+      <c r="O233">
+        <v>1</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="S233" t="s">
+        <v>104</v>
+      </c>
+      <c r="T233" t="s">
+        <v>105</v>
+      </c>
+      <c r="U233" s="1">
+        <v>1</v>
+      </c>
+      <c r="V233" s="1">
+        <v>2</v>
+      </c>
+      <c r="W233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF233">
+        <v>5.0350064284532197</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>37</v>
+      </c>
+      <c r="B234" t="s">
+        <v>101</v>
+      </c>
+      <c r="C234" t="s">
+        <v>66</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>24</v>
+      </c>
+      <c r="I234">
+        <v>24</v>
+      </c>
+      <c r="J234">
+        <v>24</v>
+      </c>
+      <c r="L234" t="s">
+        <v>111</v>
+      </c>
+      <c r="M234" t="s">
+        <v>103</v>
+      </c>
+      <c r="N234">
+        <v>0.21805822523771201</v>
+      </c>
+      <c r="O234">
+        <v>1</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="S234" t="s">
+        <v>104</v>
+      </c>
+      <c r="T234" t="s">
+        <v>105</v>
+      </c>
+      <c r="U234" s="1">
+        <v>1</v>
+      </c>
+      <c r="V234" s="1">
+        <v>2</v>
+      </c>
+      <c r="W234" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF234">
+        <v>7.0933844215028499</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>37</v>
+      </c>
+      <c r="B235" t="s">
+        <v>101</v>
+      </c>
+      <c r="C235" t="s">
+        <v>66</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>24</v>
+      </c>
+      <c r="I235">
+        <v>24</v>
+      </c>
+      <c r="J235">
+        <v>24</v>
+      </c>
+      <c r="L235" t="s">
+        <v>111</v>
+      </c>
+      <c r="M235" t="s">
+        <v>103</v>
+      </c>
+      <c r="N235">
+        <v>0.222029863665866</v>
+      </c>
+      <c r="O235">
+        <v>1</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="S235" t="s">
+        <v>104</v>
+      </c>
+      <c r="T235" t="s">
+        <v>105</v>
+      </c>
+      <c r="U235" s="1">
+        <v>1</v>
+      </c>
+      <c r="V235" s="1">
+        <v>2</v>
+      </c>
+      <c r="W235" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF235">
+        <v>9.0394872512952293</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>37</v>
+      </c>
+      <c r="B236" t="s">
+        <v>101</v>
+      </c>
+      <c r="C236" t="s">
+        <v>66</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>24</v>
+      </c>
+      <c r="I236">
+        <v>24</v>
+      </c>
+      <c r="J236">
+        <v>24</v>
+      </c>
+      <c r="L236" t="s">
+        <v>111</v>
+      </c>
+      <c r="M236" t="s">
+        <v>103</v>
+      </c>
+      <c r="N236">
+        <v>0.33018063317081198</v>
+      </c>
+      <c r="O236">
+        <v>1</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="S236" t="s">
+        <v>104</v>
+      </c>
+      <c r="T236" t="s">
+        <v>105</v>
+      </c>
+      <c r="U236" s="1">
+        <v>1</v>
+      </c>
+      <c r="V236" s="1">
+        <v>2</v>
+      </c>
+      <c r="W236" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF236">
+        <v>12.0333643087185</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>37</v>
+      </c>
+      <c r="B237" t="s">
+        <v>101</v>
+      </c>
+      <c r="C237" t="s">
+        <v>66</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>24</v>
+      </c>
+      <c r="I237">
+        <v>24</v>
+      </c>
+      <c r="J237">
+        <v>24</v>
+      </c>
+      <c r="L237" t="s">
+        <v>111</v>
+      </c>
+      <c r="M237" t="s">
+        <v>103</v>
+      </c>
+      <c r="N237">
+        <v>0.43634558346167202</v>
+      </c>
+      <c r="O237">
+        <v>1</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0.25510139134641502</v>
+      </c>
+      <c r="S237" t="s">
+        <v>104</v>
+      </c>
+      <c r="T237" t="s">
+        <v>105</v>
+      </c>
+      <c r="U237" s="1">
+        <v>1</v>
+      </c>
+      <c r="V237" s="1">
+        <v>2</v>
+      </c>
+      <c r="W237" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF237">
+        <v>14.054189951245499</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>37</v>
+      </c>
+      <c r="B238" t="s">
+        <v>101</v>
+      </c>
+      <c r="C238" t="s">
+        <v>66</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>24</v>
+      </c>
+      <c r="I238">
+        <v>24</v>
+      </c>
+      <c r="J238">
+        <v>24</v>
+      </c>
+      <c r="L238" t="s">
+        <v>111</v>
+      </c>
+      <c r="M238" t="s">
+        <v>103</v>
+      </c>
+      <c r="N238">
+        <v>0.54235777842839605</v>
+      </c>
+      <c r="O238">
+        <v>1</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0.3571419478849765</v>
+      </c>
+      <c r="S238" t="s">
+        <v>104</v>
+      </c>
+      <c r="T238" t="s">
+        <v>105</v>
+      </c>
+      <c r="U238" s="1">
+        <v>1</v>
+      </c>
+      <c r="V238" s="1">
+        <v>2</v>
+      </c>
+      <c r="W238" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF238">
+        <v>16.000165484934499</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>37</v>
+      </c>
+      <c r="B239" t="s">
+        <v>101</v>
+      </c>
+      <c r="C239" t="s">
+        <v>66</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>24</v>
+      </c>
+      <c r="I239">
+        <v>24</v>
+      </c>
+      <c r="J239">
+        <v>24</v>
+      </c>
+      <c r="L239" t="s">
+        <v>111</v>
+      </c>
+      <c r="M239" t="s">
+        <v>103</v>
+      </c>
+      <c r="N239">
+        <v>0.75254910447191004</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0.30612166961568799</v>
+      </c>
+      <c r="S239" t="s">
+        <v>104</v>
+      </c>
+      <c r="T239" t="s">
+        <v>105</v>
+      </c>
+      <c r="U239" s="1">
+        <v>1</v>
+      </c>
+      <c r="V239" s="1">
+        <v>2</v>
+      </c>
+      <c r="W239" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF239">
+        <v>18.9939152462543</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>37</v>
+      </c>
+      <c r="B240" t="s">
+        <v>101</v>
+      </c>
+      <c r="C240" t="s">
+        <v>66</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>24</v>
+      </c>
+      <c r="I240">
+        <v>24</v>
+      </c>
+      <c r="J240">
+        <v>24</v>
+      </c>
+      <c r="L240" t="s">
+        <v>111</v>
+      </c>
+      <c r="M240" t="s">
+        <v>103</v>
+      </c>
+      <c r="N240">
+        <v>1.7770790636098599</v>
+      </c>
+      <c r="O240">
+        <v>1</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0.66326361750067497</v>
+      </c>
+      <c r="S240" t="s">
+        <v>104</v>
+      </c>
+      <c r="T240" t="s">
+        <v>105</v>
+      </c>
+      <c r="U240" s="1">
+        <v>1</v>
+      </c>
+      <c r="V240" s="1">
+        <v>2</v>
+      </c>
+      <c r="W240" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF240">
+        <v>21.013595223850199</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>37</v>
+      </c>
+      <c r="B241" t="s">
+        <v>101</v>
+      </c>
+      <c r="C241" t="s">
+        <v>66</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>24</v>
+      </c>
+      <c r="I241">
+        <v>24</v>
+      </c>
+      <c r="J241">
+        <v>24</v>
+      </c>
+      <c r="L241" t="s">
+        <v>111</v>
+      </c>
+      <c r="M241" t="s">
+        <v>103</v>
+      </c>
+      <c r="N241">
+        <v>3.92405514467201</v>
+      </c>
+      <c r="O241">
+        <v>1</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>1.3265272350013353</v>
+      </c>
+      <c r="S241" t="s">
+        <v>104</v>
+      </c>
+      <c r="T241" t="s">
+        <v>105</v>
+      </c>
+      <c r="U241" s="1">
+        <v>1</v>
+      </c>
+      <c r="V241" s="1">
+        <v>2</v>
+      </c>
+      <c r="W241" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF241">
+        <v>23.031874944307901</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>37</v>
+      </c>
+      <c r="B242" t="s">
+        <v>101</v>
+      </c>
+      <c r="C242" t="s">
+        <v>66</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>24</v>
+      </c>
+      <c r="I242">
+        <v>24</v>
+      </c>
+      <c r="J242">
+        <v>24</v>
+      </c>
+      <c r="L242" t="s">
+        <v>111</v>
+      </c>
+      <c r="M242" t="s">
+        <v>103</v>
+      </c>
+      <c r="N242">
+        <v>5.6648548187939802</v>
+      </c>
+      <c r="O242">
+        <v>1</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>1.5306083480784647</v>
+      </c>
+      <c r="S242" t="s">
+        <v>104</v>
+      </c>
+      <c r="T242" t="s">
+        <v>105</v>
+      </c>
+      <c r="U242" s="1">
+        <v>1</v>
+      </c>
+      <c r="V242" s="1">
+        <v>2</v>
+      </c>
+      <c r="W242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF242">
+        <v>26.023715264075701</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>37</v>
+      </c>
+      <c r="B243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C243" t="s">
+        <v>66</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>24</v>
+      </c>
+      <c r="I243">
+        <v>24</v>
+      </c>
+      <c r="J243">
+        <v>24</v>
+      </c>
+      <c r="L243" t="s">
+        <v>111</v>
+      </c>
+      <c r="M243" t="s">
+        <v>103</v>
+      </c>
+      <c r="N243">
+        <v>7.3014753618391603</v>
+      </c>
+      <c r="O243">
+        <v>1</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>1.7857097394248749</v>
+      </c>
+      <c r="S243" t="s">
+        <v>104</v>
+      </c>
+      <c r="T243" t="s">
+        <v>105</v>
+      </c>
+      <c r="U243" s="1">
+        <v>1</v>
+      </c>
+      <c r="V243" s="1">
+        <v>2</v>
+      </c>
+      <c r="W243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF243">
+        <v>27.967781356212601</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>37</v>
+      </c>
+      <c r="B244" t="s">
+        <v>101</v>
+      </c>
+      <c r="C244" t="s">
+        <v>66</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>24</v>
+      </c>
+      <c r="I244">
+        <v>24</v>
+      </c>
+      <c r="J244">
+        <v>24</v>
+      </c>
+      <c r="L244" t="s">
+        <v>111</v>
+      </c>
+      <c r="M244" t="s">
+        <v>103</v>
+      </c>
+      <c r="N244">
+        <v>8.7361533663454392</v>
+      </c>
+      <c r="O244">
+        <v>1</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>1.9387705742327048</v>
+      </c>
+      <c r="S244" t="s">
+        <v>104</v>
+      </c>
+      <c r="T244" t="s">
+        <v>105</v>
+      </c>
+      <c r="U244" s="1">
+        <v>1</v>
+      </c>
+      <c r="V244" s="1">
+        <v>2</v>
+      </c>
+      <c r="W244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF244">
+        <v>30.960003564290801</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>37</v>
+      </c>
+      <c r="B245" t="s">
+        <v>101</v>
+      </c>
+      <c r="C245" t="s">
+        <v>66</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>24</v>
+      </c>
+      <c r="I245">
+        <v>24</v>
+      </c>
+      <c r="J245">
+        <v>24</v>
+      </c>
+      <c r="L245" t="s">
+        <v>111</v>
+      </c>
+      <c r="M245" t="s">
+        <v>103</v>
+      </c>
+      <c r="N245">
+        <v>10.066804995099</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>2.0918314090405294</v>
+      </c>
+      <c r="S245" t="s">
+        <v>104</v>
+      </c>
+      <c r="T245" t="s">
+        <v>105</v>
+      </c>
+      <c r="U245" s="1">
+        <v>1</v>
+      </c>
+      <c r="V245" s="1">
+        <v>2</v>
+      </c>
+      <c r="W245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF245">
+        <v>32.9793016535763</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>38</v>
+      </c>
+      <c r="B246" t="s">
+        <v>101</v>
+      </c>
+      <c r="C246" t="s">
+        <v>66</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>24</v>
+      </c>
+      <c r="I246">
+        <v>17</v>
+      </c>
+      <c r="J246">
+        <v>32</v>
+      </c>
+      <c r="K246">
+        <v>24</v>
+      </c>
+      <c r="L246" t="s">
+        <v>111</v>
+      </c>
+      <c r="M246" t="s">
+        <v>103</v>
+      </c>
+      <c r="N246">
+        <v>0.10593581730464</v>
+      </c>
+      <c r="O246">
+        <v>1</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="S246" t="s">
+        <v>104</v>
+      </c>
+      <c r="T246" t="s">
+        <v>105</v>
+      </c>
+      <c r="U246" s="1">
+        <v>1</v>
+      </c>
+      <c r="V246" s="1">
+        <v>2</v>
+      </c>
+      <c r="W246" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF246">
+        <v>2.1534045342871999</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>38</v>
+      </c>
+      <c r="B247" t="s">
+        <v>101</v>
+      </c>
+      <c r="C247" t="s">
+        <v>66</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>24</v>
+      </c>
+      <c r="I247">
+        <v>17</v>
+      </c>
+      <c r="J247">
+        <v>32</v>
+      </c>
+      <c r="K247">
+        <v>24</v>
+      </c>
+      <c r="L247" t="s">
+        <v>111</v>
+      </c>
+      <c r="M247" t="s">
+        <v>103</v>
+      </c>
+      <c r="N247">
+        <v>-4.13203151851462E-2</v>
+      </c>
+      <c r="O247">
+        <v>1</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="S247" t="s">
+        <v>104</v>
+      </c>
+      <c r="T247" t="s">
+        <v>105</v>
+      </c>
+      <c r="U247" s="1">
+        <v>1</v>
+      </c>
+      <c r="V247" s="1">
+        <v>2</v>
+      </c>
+      <c r="W247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF247">
+        <v>4.9978996142928001</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>38</v>
+      </c>
+      <c r="B248" t="s">
+        <v>101</v>
+      </c>
+      <c r="C248" t="s">
+        <v>66</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>24</v>
+      </c>
+      <c r="I248">
+        <v>17</v>
+      </c>
+      <c r="J248">
+        <v>32</v>
+      </c>
+      <c r="K248">
+        <v>24</v>
+      </c>
+      <c r="L248" t="s">
+        <v>111</v>
+      </c>
+      <c r="M248" t="s">
+        <v>103</v>
+      </c>
+      <c r="N248">
+        <v>-3.7119543770756901E-2</v>
+      </c>
+      <c r="O248">
+        <v>1</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="S248" t="s">
+        <v>104</v>
+      </c>
+      <c r="T248" t="s">
+        <v>105</v>
+      </c>
+      <c r="U248" s="1">
+        <v>1</v>
+      </c>
+      <c r="V248" s="1">
+        <v>2</v>
+      </c>
+      <c r="W248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF248">
+        <v>7.0562776073424303</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>38</v>
+      </c>
+      <c r="B249" t="s">
+        <v>101</v>
+      </c>
+      <c r="C249" t="s">
+        <v>66</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>24</v>
+      </c>
+      <c r="I249">
+        <v>17</v>
+      </c>
+      <c r="J249">
+        <v>32</v>
+      </c>
+      <c r="K249">
+        <v>24</v>
+      </c>
+      <c r="L249" t="s">
+        <v>111</v>
+      </c>
+      <c r="M249" t="s">
+        <v>103</v>
+      </c>
+      <c r="N249">
+        <v>1.7948750588743598E-2</v>
+      </c>
+      <c r="O249">
+        <v>1</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="S249" t="s">
+        <v>104</v>
+      </c>
+      <c r="T249" t="s">
+        <v>105</v>
+      </c>
+      <c r="U249" s="1">
+        <v>1</v>
+      </c>
+      <c r="V249" s="1">
+        <v>2</v>
+      </c>
+      <c r="W249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF249">
+        <v>9.0397418435021706</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>38</v>
+      </c>
+      <c r="B250" t="s">
+        <v>101</v>
+      </c>
+      <c r="C250" t="s">
+        <v>66</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>24</v>
+      </c>
+      <c r="I250">
+        <v>17</v>
+      </c>
+      <c r="J250">
+        <v>32</v>
+      </c>
+      <c r="K250">
+        <v>24</v>
+      </c>
+      <c r="L250" t="s">
+        <v>111</v>
+      </c>
+      <c r="M250" t="s">
+        <v>103</v>
+      </c>
+      <c r="N250">
+        <v>0.22814007663224301</v>
+      </c>
+      <c r="O250">
+        <v>1</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="S250" t="s">
+        <v>104</v>
+      </c>
+      <c r="T250" t="s">
+        <v>105</v>
+      </c>
+      <c r="U250" s="1">
+        <v>1</v>
+      </c>
+      <c r="V250" s="1">
+        <v>2</v>
+      </c>
+      <c r="W250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF250">
+        <v>12.033491604821901</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>38</v>
+      </c>
+      <c r="B251" t="s">
+        <v>101</v>
+      </c>
+      <c r="C251" t="s">
+        <v>66</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>24</v>
+      </c>
+      <c r="I251">
+        <v>17</v>
+      </c>
+      <c r="J251">
+        <v>32</v>
+      </c>
+      <c r="K251">
+        <v>24</v>
+      </c>
+      <c r="L251" t="s">
+        <v>111</v>
+      </c>
+      <c r="M251" t="s">
+        <v>103</v>
+      </c>
+      <c r="N251">
+        <v>0.946548366154502</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="S251" t="s">
+        <v>104</v>
+      </c>
+      <c r="T251" t="s">
+        <v>105</v>
+      </c>
+      <c r="U251" s="1">
+        <v>1</v>
+      </c>
+      <c r="V251" s="1">
+        <v>2</v>
+      </c>
+      <c r="W251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF251">
+        <v>14.0535534707282</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>38</v>
+      </c>
+      <c r="B252" t="s">
+        <v>101</v>
+      </c>
+      <c r="C252" t="s">
+        <v>66</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>24</v>
+      </c>
+      <c r="I252">
+        <v>17</v>
+      </c>
+      <c r="J252">
+        <v>32</v>
+      </c>
+      <c r="K252">
+        <v>24</v>
+      </c>
+      <c r="L252" t="s">
+        <v>111</v>
+      </c>
+      <c r="M252" t="s">
+        <v>103</v>
+      </c>
+      <c r="N252">
+        <v>1.71590055628396</v>
+      </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0.68881194546634661</v>
+      </c>
+      <c r="S252" t="s">
+        <v>104</v>
+      </c>
+      <c r="T252" t="s">
+        <v>105</v>
+      </c>
+      <c r="U252" s="1">
+        <v>1</v>
+      </c>
+      <c r="V252" s="1">
+        <v>2</v>
+      </c>
+      <c r="W252" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF252">
+        <v>16.036126634163701</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>38</v>
+      </c>
+      <c r="B253" t="s">
+        <v>101</v>
+      </c>
+      <c r="C253" t="s">
+        <v>66</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>24</v>
+      </c>
+      <c r="I253">
+        <v>17</v>
+      </c>
+      <c r="J253">
+        <v>32</v>
+      </c>
+      <c r="K253">
+        <v>24</v>
+      </c>
+      <c r="L253" t="s">
+        <v>111</v>
+      </c>
+      <c r="M253" t="s">
+        <v>103</v>
+      </c>
+      <c r="N253">
+        <v>2.7933602352431901</v>
+      </c>
+      <c r="O253">
+        <v>1</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>1.0968977939585249</v>
+      </c>
+      <c r="S253" t="s">
+        <v>104</v>
+      </c>
+      <c r="T253" t="s">
+        <v>105</v>
+      </c>
+      <c r="U253" s="1">
+        <v>1</v>
+      </c>
+      <c r="V253" s="1">
+        <v>2</v>
+      </c>
+      <c r="W253" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF253">
+        <v>18.991369324184902</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>38</v>
+      </c>
+      <c r="B254" t="s">
+        <v>101</v>
+      </c>
+      <c r="C254" t="s">
+        <v>66</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>24</v>
+      </c>
+      <c r="I254">
+        <v>17</v>
+      </c>
+      <c r="J254">
+        <v>32</v>
+      </c>
+      <c r="K254">
+        <v>24</v>
+      </c>
+      <c r="L254" t="s">
+        <v>111</v>
+      </c>
+      <c r="M254" t="s">
+        <v>103</v>
+      </c>
+      <c r="N254">
+        <v>4.3280929770739602</v>
+      </c>
+      <c r="O254">
+        <v>1</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>1.377547513270615</v>
+      </c>
+      <c r="S254" t="s">
+        <v>104</v>
+      </c>
+      <c r="T254" t="s">
+        <v>105</v>
+      </c>
+      <c r="U254" s="1">
+        <v>1</v>
+      </c>
+      <c r="V254" s="1">
+        <v>2</v>
+      </c>
+      <c r="W254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF254">
+        <v>21.0104128212635</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>38</v>
+      </c>
+      <c r="B255" t="s">
+        <v>101</v>
+      </c>
+      <c r="C255" t="s">
+        <v>66</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>24</v>
+      </c>
+      <c r="I255">
+        <v>17</v>
+      </c>
+      <c r="J255">
+        <v>32</v>
+      </c>
+      <c r="K255">
+        <v>24</v>
+      </c>
+      <c r="L255" t="s">
+        <v>111</v>
+      </c>
+      <c r="M255" t="s">
+        <v>103</v>
+      </c>
+      <c r="N255">
+        <v>6.4749926804740401</v>
+      </c>
+      <c r="O255">
+        <v>1</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>1.5816286263477402</v>
+      </c>
+      <c r="S255" t="s">
+        <v>104</v>
+      </c>
+      <c r="T255" t="s">
+        <v>105</v>
+      </c>
+      <c r="U255" s="1">
+        <v>1</v>
+      </c>
+      <c r="V255" s="1">
+        <v>2</v>
+      </c>
+      <c r="W255" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF255">
+        <v>22.991267487302199</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>38</v>
+      </c>
+      <c r="B256" t="s">
+        <v>101</v>
+      </c>
+      <c r="C256" t="s">
+        <v>66</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>24</v>
+      </c>
+      <c r="I256">
+        <v>17</v>
+      </c>
+      <c r="J256">
+        <v>32</v>
+      </c>
+      <c r="K256">
+        <v>24</v>
+      </c>
+      <c r="L256" t="s">
+        <v>111</v>
+      </c>
+      <c r="M256" t="s">
+        <v>103</v>
+      </c>
+      <c r="N256">
+        <v>8.1138281757195294</v>
+      </c>
+      <c r="O256">
+        <v>1</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>1.7857097394248846</v>
+      </c>
+      <c r="S256" t="s">
+        <v>104</v>
+      </c>
+      <c r="T256" t="s">
+        <v>105</v>
+      </c>
+      <c r="U256" s="1">
+        <v>1</v>
+      </c>
+      <c r="V256" s="1">
+        <v>2</v>
+      </c>
+      <c r="W256" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF256">
+        <v>26.020660157592499</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>38</v>
+      </c>
+      <c r="B257" t="s">
+        <v>101</v>
+      </c>
+      <c r="C257" t="s">
+        <v>66</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>24</v>
+      </c>
+      <c r="I257">
+        <v>17</v>
+      </c>
+      <c r="J257">
+        <v>32</v>
+      </c>
+      <c r="K257">
+        <v>24</v>
+      </c>
+      <c r="L257" t="s">
+        <v>111</v>
+      </c>
+      <c r="M257" t="s">
+        <v>103</v>
+      </c>
+      <c r="N257">
+        <v>9.2402459360718794</v>
+      </c>
+      <c r="O257">
+        <v>1</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>1.7347276499866</v>
+      </c>
+      <c r="S257" t="s">
+        <v>104</v>
+      </c>
+      <c r="T257" t="s">
+        <v>105</v>
+      </c>
+      <c r="U257" s="1">
+        <v>1</v>
+      </c>
+      <c r="V257" s="1">
+        <v>2</v>
+      </c>
+      <c r="W257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF257">
+        <v>27.965362730246799</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>38</v>
+      </c>
+      <c r="B258" t="s">
+        <v>101</v>
+      </c>
+      <c r="C258" t="s">
+        <v>66</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>24</v>
+      </c>
+      <c r="I258">
+        <v>17</v>
+      </c>
+      <c r="J258">
+        <v>32</v>
+      </c>
+      <c r="K258">
+        <v>24</v>
+      </c>
+      <c r="L258" t="s">
+        <v>111</v>
+      </c>
+      <c r="M258" t="s">
+        <v>103</v>
+      </c>
+      <c r="N258">
+        <v>9.5524778186539692</v>
+      </c>
+      <c r="O258">
+        <v>1</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.78570973942485</v>
+      </c>
+      <c r="S258" t="s">
+        <v>104</v>
+      </c>
+      <c r="T258" t="s">
+        <v>105</v>
+      </c>
+      <c r="U258" s="1">
+        <v>1</v>
+      </c>
+      <c r="V258" s="1">
+        <v>2</v>
+      </c>
+      <c r="W258" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF258">
+        <v>30.9589851954631</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>38</v>
+      </c>
+      <c r="B259" t="s">
+        <v>101</v>
+      </c>
+      <c r="C259" t="s">
+        <v>66</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>24</v>
+      </c>
+      <c r="I259">
+        <v>17</v>
+      </c>
+      <c r="J259">
+        <v>32</v>
+      </c>
+      <c r="K259">
+        <v>24</v>
+      </c>
+      <c r="L259" t="s">
+        <v>111</v>
+      </c>
+      <c r="M259" t="s">
+        <v>103</v>
+      </c>
+      <c r="N259">
+        <v>9.5566022124062702</v>
+      </c>
+      <c r="O259">
+        <v>1</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>1.836730017694145</v>
+      </c>
+      <c r="S259" t="s">
+        <v>104</v>
+      </c>
+      <c r="T259" t="s">
+        <v>105</v>
+      </c>
+      <c r="U259" s="1">
+        <v>1</v>
+      </c>
+      <c r="V259" s="1">
+        <v>2</v>
+      </c>
+      <c r="W259" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF259">
+        <v>32.9799381340937</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E813B6-33CB-2049-9CE8-8E702D7DB675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD30784-6674-FD4E-9465-47052F0DB325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="124">
   <si>
     <t>study_id</t>
   </si>
@@ -361,6 +361,42 @@
   </si>
   <si>
     <t>average cumulative number of eggs laid per female</t>
+  </si>
+  <si>
+    <t>simonici</t>
+  </si>
+  <si>
+    <t>incubation period</t>
+  </si>
+  <si>
+    <t>percent females</t>
+  </si>
+  <si>
+    <t>hatching success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass </t>
+  </si>
+  <si>
+    <t>Caiman</t>
+  </si>
+  <si>
+    <t>latirostris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year of experiment </t>
+  </si>
+  <si>
+    <t>first year</t>
+  </si>
+  <si>
+    <t>second year</t>
   </si>
 </sst>
 </file>
@@ -727,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG259"/>
+  <dimension ref="A1:AG289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247:A259"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K265" sqref="K265:K284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19086,6 +19122,2091 @@
         <v>107</v>
       </c>
     </row>
+    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>39</v>
+      </c>
+      <c r="B260" t="s">
+        <v>112</v>
+      </c>
+      <c r="C260" t="s">
+        <v>45</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>31</v>
+      </c>
+      <c r="I260">
+        <v>31</v>
+      </c>
+      <c r="J260">
+        <v>31</v>
+      </c>
+      <c r="L260" t="s">
+        <v>114</v>
+      </c>
+      <c r="M260" t="s">
+        <v>79</v>
+      </c>
+      <c r="N260">
+        <v>100</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>18</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260" t="s">
+        <v>119</v>
+      </c>
+      <c r="T260" t="s">
+        <v>120</v>
+      </c>
+      <c r="U260" s="1">
+        <v>1</v>
+      </c>
+      <c r="V260" s="1">
+        <v>1</v>
+      </c>
+      <c r="W260" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>39</v>
+      </c>
+      <c r="B261" t="s">
+        <v>112</v>
+      </c>
+      <c r="C261" t="s">
+        <v>45</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>31</v>
+      </c>
+      <c r="I261">
+        <v>31</v>
+      </c>
+      <c r="J261">
+        <v>31</v>
+      </c>
+      <c r="L261" t="s">
+        <v>113</v>
+      </c>
+      <c r="M261" t="s">
+        <v>47</v>
+      </c>
+      <c r="N261">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>18</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>0.3</v>
+      </c>
+      <c r="S261" t="s">
+        <v>119</v>
+      </c>
+      <c r="T261" t="s">
+        <v>120</v>
+      </c>
+      <c r="U261" s="1">
+        <v>1</v>
+      </c>
+      <c r="V261" s="1">
+        <v>1</v>
+      </c>
+      <c r="W261" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>39</v>
+      </c>
+      <c r="B262" t="s">
+        <v>112</v>
+      </c>
+      <c r="C262" t="s">
+        <v>45</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>31</v>
+      </c>
+      <c r="I262">
+        <v>31</v>
+      </c>
+      <c r="J262">
+        <v>31</v>
+      </c>
+      <c r="L262" t="s">
+        <v>115</v>
+      </c>
+      <c r="M262" t="s">
+        <v>79</v>
+      </c>
+      <c r="N262">
+        <v>71</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>18</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>5</v>
+      </c>
+      <c r="S262" t="s">
+        <v>119</v>
+      </c>
+      <c r="T262" t="s">
+        <v>120</v>
+      </c>
+      <c r="U262" s="1">
+        <v>1</v>
+      </c>
+      <c r="V262" s="1">
+        <v>1</v>
+      </c>
+      <c r="W262" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>39</v>
+      </c>
+      <c r="B263" t="s">
+        <v>112</v>
+      </c>
+      <c r="C263" t="s">
+        <v>45</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>31</v>
+      </c>
+      <c r="I263">
+        <v>31</v>
+      </c>
+      <c r="J263">
+        <v>31</v>
+      </c>
+      <c r="L263" t="s">
+        <v>116</v>
+      </c>
+      <c r="M263" t="s">
+        <v>117</v>
+      </c>
+      <c r="N263">
+        <v>24.2</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>18</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>0.2</v>
+      </c>
+      <c r="S263" t="s">
+        <v>119</v>
+      </c>
+      <c r="T263" t="s">
+        <v>120</v>
+      </c>
+      <c r="U263" s="1">
+        <v>1</v>
+      </c>
+      <c r="V263" s="1">
+        <v>1</v>
+      </c>
+      <c r="W263" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>39</v>
+      </c>
+      <c r="B264" t="s">
+        <v>112</v>
+      </c>
+      <c r="C264" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>31</v>
+      </c>
+      <c r="I264">
+        <v>31</v>
+      </c>
+      <c r="J264">
+        <v>31</v>
+      </c>
+      <c r="L264" t="s">
+        <v>118</v>
+      </c>
+      <c r="M264" t="s">
+        <v>69</v>
+      </c>
+      <c r="N264">
+        <v>51.6</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>18</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>1</v>
+      </c>
+      <c r="S264" t="s">
+        <v>119</v>
+      </c>
+      <c r="T264" t="s">
+        <v>120</v>
+      </c>
+      <c r="U264" s="1">
+        <v>1</v>
+      </c>
+      <c r="V264" s="1">
+        <v>1</v>
+      </c>
+      <c r="W264" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>40</v>
+      </c>
+      <c r="B265" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" t="s">
+        <v>45</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>31</v>
+      </c>
+      <c r="I265">
+        <v>29</v>
+      </c>
+      <c r="J265">
+        <v>33</v>
+      </c>
+      <c r="K265">
+        <v>24</v>
+      </c>
+      <c r="L265" t="s">
+        <v>114</v>
+      </c>
+      <c r="M265" t="s">
+        <v>79</v>
+      </c>
+      <c r="N265">
+        <v>89.4</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>27</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>6</v>
+      </c>
+      <c r="S265" t="s">
+        <v>119</v>
+      </c>
+      <c r="T265" t="s">
+        <v>120</v>
+      </c>
+      <c r="U265" s="1">
+        <v>1</v>
+      </c>
+      <c r="V265" s="1">
+        <v>1</v>
+      </c>
+      <c r="W265" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>40</v>
+      </c>
+      <c r="B266" t="s">
+        <v>112</v>
+      </c>
+      <c r="C266" t="s">
+        <v>45</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>31</v>
+      </c>
+      <c r="I266">
+        <v>29</v>
+      </c>
+      <c r="J266">
+        <v>33</v>
+      </c>
+      <c r="K266">
+        <v>24</v>
+      </c>
+      <c r="L266" t="s">
+        <v>113</v>
+      </c>
+      <c r="M266" t="s">
+        <v>47</v>
+      </c>
+      <c r="N266">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>27</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>0.3</v>
+      </c>
+      <c r="S266" t="s">
+        <v>119</v>
+      </c>
+      <c r="T266" t="s">
+        <v>120</v>
+      </c>
+      <c r="U266" s="1">
+        <v>1</v>
+      </c>
+      <c r="V266" s="1">
+        <v>1</v>
+      </c>
+      <c r="W266" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>40</v>
+      </c>
+      <c r="B267" t="s">
+        <v>112</v>
+      </c>
+      <c r="C267" t="s">
+        <v>45</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>31</v>
+      </c>
+      <c r="I267">
+        <v>29</v>
+      </c>
+      <c r="J267">
+        <v>33</v>
+      </c>
+      <c r="K267">
+        <v>24</v>
+      </c>
+      <c r="L267" t="s">
+        <v>115</v>
+      </c>
+      <c r="M267" t="s">
+        <v>79</v>
+      </c>
+      <c r="N267">
+        <v>83</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>27</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>4</v>
+      </c>
+      <c r="S267" t="s">
+        <v>119</v>
+      </c>
+      <c r="T267" t="s">
+        <v>120</v>
+      </c>
+      <c r="U267" s="1">
+        <v>1</v>
+      </c>
+      <c r="V267" s="1">
+        <v>1</v>
+      </c>
+      <c r="W267" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>40</v>
+      </c>
+      <c r="B268" t="s">
+        <v>112</v>
+      </c>
+      <c r="C268" t="s">
+        <v>45</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>31</v>
+      </c>
+      <c r="I268">
+        <v>29</v>
+      </c>
+      <c r="J268">
+        <v>33</v>
+      </c>
+      <c r="K268">
+        <v>24</v>
+      </c>
+      <c r="L268" t="s">
+        <v>116</v>
+      </c>
+      <c r="M268" t="s">
+        <v>117</v>
+      </c>
+      <c r="N268">
+        <v>24.9</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>27</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>0.5</v>
+      </c>
+      <c r="S268" t="s">
+        <v>119</v>
+      </c>
+      <c r="T268" t="s">
+        <v>120</v>
+      </c>
+      <c r="U268" s="1">
+        <v>1</v>
+      </c>
+      <c r="V268" s="1">
+        <v>1</v>
+      </c>
+      <c r="W268" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>40</v>
+      </c>
+      <c r="B269" t="s">
+        <v>112</v>
+      </c>
+      <c r="C269" t="s">
+        <v>45</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>31</v>
+      </c>
+      <c r="I269">
+        <v>29</v>
+      </c>
+      <c r="J269">
+        <v>33</v>
+      </c>
+      <c r="K269">
+        <v>24</v>
+      </c>
+      <c r="L269" t="s">
+        <v>118</v>
+      </c>
+      <c r="M269" t="s">
+        <v>69</v>
+      </c>
+      <c r="N269">
+        <v>51.4</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>27</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>1</v>
+      </c>
+      <c r="S269" t="s">
+        <v>119</v>
+      </c>
+      <c r="T269" t="s">
+        <v>120</v>
+      </c>
+      <c r="U269" s="1">
+        <v>1</v>
+      </c>
+      <c r="V269" s="1">
+        <v>1</v>
+      </c>
+      <c r="W269" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>41</v>
+      </c>
+      <c r="B270" t="s">
+        <v>112</v>
+      </c>
+      <c r="C270" t="s">
+        <v>45</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>32</v>
+      </c>
+      <c r="I270">
+        <v>32</v>
+      </c>
+      <c r="J270">
+        <v>32</v>
+      </c>
+      <c r="L270" t="s">
+        <v>114</v>
+      </c>
+      <c r="M270" t="s">
+        <v>79</v>
+      </c>
+      <c r="N270">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>25</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>10</v>
+      </c>
+      <c r="S270" t="s">
+        <v>119</v>
+      </c>
+      <c r="T270" t="s">
+        <v>120</v>
+      </c>
+      <c r="U270" s="1">
+        <v>1</v>
+      </c>
+      <c r="V270" s="1">
+        <v>1</v>
+      </c>
+      <c r="W270" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>41</v>
+      </c>
+      <c r="B271" t="s">
+        <v>112</v>
+      </c>
+      <c r="C271" t="s">
+        <v>45</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>32</v>
+      </c>
+      <c r="I271">
+        <v>32</v>
+      </c>
+      <c r="J271">
+        <v>32</v>
+      </c>
+      <c r="L271" t="s">
+        <v>113</v>
+      </c>
+      <c r="M271" t="s">
+        <v>47</v>
+      </c>
+      <c r="N271">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>25</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>0.4</v>
+      </c>
+      <c r="S271" t="s">
+        <v>119</v>
+      </c>
+      <c r="T271" t="s">
+        <v>120</v>
+      </c>
+      <c r="U271" s="1">
+        <v>1</v>
+      </c>
+      <c r="V271" s="1">
+        <v>1</v>
+      </c>
+      <c r="W271" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>41</v>
+      </c>
+      <c r="B272" t="s">
+        <v>112</v>
+      </c>
+      <c r="C272" t="s">
+        <v>45</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>32</v>
+      </c>
+      <c r="I272">
+        <v>32</v>
+      </c>
+      <c r="J272">
+        <v>32</v>
+      </c>
+      <c r="L272" t="s">
+        <v>115</v>
+      </c>
+      <c r="M272" t="s">
+        <v>79</v>
+      </c>
+      <c r="N272">
+        <v>85</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>25</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>6</v>
+      </c>
+      <c r="S272" t="s">
+        <v>119</v>
+      </c>
+      <c r="T272" t="s">
+        <v>120</v>
+      </c>
+      <c r="U272" s="1">
+        <v>1</v>
+      </c>
+      <c r="V272" s="1">
+        <v>1</v>
+      </c>
+      <c r="W272" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>41</v>
+      </c>
+      <c r="B273" t="s">
+        <v>112</v>
+      </c>
+      <c r="C273" t="s">
+        <v>45</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>32</v>
+      </c>
+      <c r="I273">
+        <v>32</v>
+      </c>
+      <c r="J273">
+        <v>32</v>
+      </c>
+      <c r="L273" t="s">
+        <v>116</v>
+      </c>
+      <c r="M273" t="s">
+        <v>117</v>
+      </c>
+      <c r="N273">
+        <v>22.2</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>25</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>0.3</v>
+      </c>
+      <c r="S273" t="s">
+        <v>119</v>
+      </c>
+      <c r="T273" t="s">
+        <v>120</v>
+      </c>
+      <c r="U273" s="1">
+        <v>1</v>
+      </c>
+      <c r="V273" s="1">
+        <v>1</v>
+      </c>
+      <c r="W273" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>41</v>
+      </c>
+      <c r="B274" t="s">
+        <v>112</v>
+      </c>
+      <c r="C274" t="s">
+        <v>45</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>32</v>
+      </c>
+      <c r="I274">
+        <v>32</v>
+      </c>
+      <c r="J274">
+        <v>32</v>
+      </c>
+      <c r="L274" t="s">
+        <v>118</v>
+      </c>
+      <c r="M274" t="s">
+        <v>69</v>
+      </c>
+      <c r="N274">
+        <v>44.3</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>25</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>0.7</v>
+      </c>
+      <c r="S274" t="s">
+        <v>119</v>
+      </c>
+      <c r="T274" t="s">
+        <v>120</v>
+      </c>
+      <c r="U274" s="1">
+        <v>1</v>
+      </c>
+      <c r="V274" s="1">
+        <v>1</v>
+      </c>
+      <c r="W274" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>42</v>
+      </c>
+      <c r="B275" t="s">
+        <v>112</v>
+      </c>
+      <c r="C275" t="s">
+        <v>45</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>32</v>
+      </c>
+      <c r="I275">
+        <v>31</v>
+      </c>
+      <c r="J275">
+        <v>33</v>
+      </c>
+      <c r="K275">
+        <v>24</v>
+      </c>
+      <c r="L275" t="s">
+        <v>114</v>
+      </c>
+      <c r="M275" t="s">
+        <v>79</v>
+      </c>
+      <c r="N275">
+        <v>65</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <v>21</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>11</v>
+      </c>
+      <c r="S275" t="s">
+        <v>119</v>
+      </c>
+      <c r="T275" t="s">
+        <v>120</v>
+      </c>
+      <c r="U275" s="1">
+        <v>1</v>
+      </c>
+      <c r="V275" s="1">
+        <v>1</v>
+      </c>
+      <c r="W275" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>42</v>
+      </c>
+      <c r="B276" t="s">
+        <v>112</v>
+      </c>
+      <c r="C276" t="s">
+        <v>45</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>32</v>
+      </c>
+      <c r="I276">
+        <v>31</v>
+      </c>
+      <c r="J276">
+        <v>33</v>
+      </c>
+      <c r="K276">
+        <v>24</v>
+      </c>
+      <c r="L276" t="s">
+        <v>113</v>
+      </c>
+      <c r="M276" t="s">
+        <v>47</v>
+      </c>
+      <c r="N276">
+        <v>71.8</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>21</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>0.4</v>
+      </c>
+      <c r="S276" t="s">
+        <v>119</v>
+      </c>
+      <c r="T276" t="s">
+        <v>120</v>
+      </c>
+      <c r="U276" s="1">
+        <v>1</v>
+      </c>
+      <c r="V276" s="1">
+        <v>1</v>
+      </c>
+      <c r="W276" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>42</v>
+      </c>
+      <c r="B277" t="s">
+        <v>112</v>
+      </c>
+      <c r="C277" t="s">
+        <v>45</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>32</v>
+      </c>
+      <c r="I277">
+        <v>31</v>
+      </c>
+      <c r="J277">
+        <v>33</v>
+      </c>
+      <c r="K277">
+        <v>24</v>
+      </c>
+      <c r="L277" t="s">
+        <v>115</v>
+      </c>
+      <c r="M277" t="s">
+        <v>79</v>
+      </c>
+      <c r="N277">
+        <v>52.5</v>
+      </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <v>21</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>8</v>
+      </c>
+      <c r="S277" t="s">
+        <v>119</v>
+      </c>
+      <c r="T277" t="s">
+        <v>120</v>
+      </c>
+      <c r="U277" s="1">
+        <v>1</v>
+      </c>
+      <c r="V277" s="1">
+        <v>1</v>
+      </c>
+      <c r="W277" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>42</v>
+      </c>
+      <c r="B278" t="s">
+        <v>112</v>
+      </c>
+      <c r="C278" t="s">
+        <v>45</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>32</v>
+      </c>
+      <c r="I278">
+        <v>31</v>
+      </c>
+      <c r="J278">
+        <v>33</v>
+      </c>
+      <c r="K278">
+        <v>24</v>
+      </c>
+      <c r="L278" t="s">
+        <v>116</v>
+      </c>
+      <c r="M278" t="s">
+        <v>117</v>
+      </c>
+      <c r="N278">
+        <v>20.3</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>21</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>0.3</v>
+      </c>
+      <c r="S278" t="s">
+        <v>119</v>
+      </c>
+      <c r="T278" t="s">
+        <v>120</v>
+      </c>
+      <c r="U278" s="1">
+        <v>1</v>
+      </c>
+      <c r="V278" s="1">
+        <v>1</v>
+      </c>
+      <c r="W278" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>42</v>
+      </c>
+      <c r="B279" t="s">
+        <v>112</v>
+      </c>
+      <c r="C279" t="s">
+        <v>45</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>32</v>
+      </c>
+      <c r="I279">
+        <v>31</v>
+      </c>
+      <c r="J279">
+        <v>33</v>
+      </c>
+      <c r="K279">
+        <v>24</v>
+      </c>
+      <c r="L279" t="s">
+        <v>118</v>
+      </c>
+      <c r="M279" t="s">
+        <v>69</v>
+      </c>
+      <c r="N279">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>21</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>0.7</v>
+      </c>
+      <c r="S279" t="s">
+        <v>119</v>
+      </c>
+      <c r="T279" t="s">
+        <v>120</v>
+      </c>
+      <c r="U279" s="1">
+        <v>1</v>
+      </c>
+      <c r="V279" s="1">
+        <v>1</v>
+      </c>
+      <c r="W279" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>43</v>
+      </c>
+      <c r="B280" t="s">
+        <v>112</v>
+      </c>
+      <c r="C280" t="s">
+        <v>45</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>32</v>
+      </c>
+      <c r="I280">
+        <v>30</v>
+      </c>
+      <c r="J280">
+        <v>34</v>
+      </c>
+      <c r="K280">
+        <v>24</v>
+      </c>
+      <c r="L280" t="s">
+        <v>114</v>
+      </c>
+      <c r="M280" t="s">
+        <v>79</v>
+      </c>
+      <c r="N280">
+        <v>84</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>26</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>7</v>
+      </c>
+      <c r="S280" t="s">
+        <v>119</v>
+      </c>
+      <c r="T280" t="s">
+        <v>120</v>
+      </c>
+      <c r="U280" s="1">
+        <v>1</v>
+      </c>
+      <c r="V280" s="1">
+        <v>1</v>
+      </c>
+      <c r="W280" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>43</v>
+      </c>
+      <c r="B281" t="s">
+        <v>112</v>
+      </c>
+      <c r="C281" t="s">
+        <v>45</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>32</v>
+      </c>
+      <c r="I281">
+        <v>30</v>
+      </c>
+      <c r="J281">
+        <v>34</v>
+      </c>
+      <c r="K281">
+        <v>24</v>
+      </c>
+      <c r="L281" t="s">
+        <v>113</v>
+      </c>
+      <c r="M281" t="s">
+        <v>47</v>
+      </c>
+      <c r="N281">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>26</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>0.6</v>
+      </c>
+      <c r="S281" t="s">
+        <v>119</v>
+      </c>
+      <c r="T281" t="s">
+        <v>120</v>
+      </c>
+      <c r="U281" s="1">
+        <v>1</v>
+      </c>
+      <c r="V281" s="1">
+        <v>1</v>
+      </c>
+      <c r="W281" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>43</v>
+      </c>
+      <c r="B282" t="s">
+        <v>112</v>
+      </c>
+      <c r="C282" t="s">
+        <v>45</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>32</v>
+      </c>
+      <c r="I282">
+        <v>30</v>
+      </c>
+      <c r="J282">
+        <v>34</v>
+      </c>
+      <c r="K282">
+        <v>24</v>
+      </c>
+      <c r="L282" t="s">
+        <v>115</v>
+      </c>
+      <c r="M282" t="s">
+        <v>79</v>
+      </c>
+      <c r="N282">
+        <v>62</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <v>26</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>8</v>
+      </c>
+      <c r="S282" t="s">
+        <v>119</v>
+      </c>
+      <c r="T282" t="s">
+        <v>120</v>
+      </c>
+      <c r="U282" s="1">
+        <v>1</v>
+      </c>
+      <c r="V282" s="1">
+        <v>1</v>
+      </c>
+      <c r="W282" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>43</v>
+      </c>
+      <c r="B283" t="s">
+        <v>112</v>
+      </c>
+      <c r="C283" t="s">
+        <v>45</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>32</v>
+      </c>
+      <c r="I283">
+        <v>30</v>
+      </c>
+      <c r="J283">
+        <v>34</v>
+      </c>
+      <c r="K283">
+        <v>24</v>
+      </c>
+      <c r="L283" t="s">
+        <v>116</v>
+      </c>
+      <c r="M283" t="s">
+        <v>117</v>
+      </c>
+      <c r="N283">
+        <v>20.3</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <v>26</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0.3</v>
+      </c>
+      <c r="S283" t="s">
+        <v>119</v>
+      </c>
+      <c r="T283" t="s">
+        <v>120</v>
+      </c>
+      <c r="U283" s="1">
+        <v>1</v>
+      </c>
+      <c r="V283" s="1">
+        <v>1</v>
+      </c>
+      <c r="W283" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>43</v>
+      </c>
+      <c r="B284" t="s">
+        <v>112</v>
+      </c>
+      <c r="C284" t="s">
+        <v>45</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>32</v>
+      </c>
+      <c r="I284">
+        <v>30</v>
+      </c>
+      <c r="J284">
+        <v>34</v>
+      </c>
+      <c r="K284">
+        <v>24</v>
+      </c>
+      <c r="L284" t="s">
+        <v>118</v>
+      </c>
+      <c r="M284" t="s">
+        <v>69</v>
+      </c>
+      <c r="N284">
+        <v>37.9</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <v>26</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>0.8</v>
+      </c>
+      <c r="S284" t="s">
+        <v>119</v>
+      </c>
+      <c r="T284" t="s">
+        <v>120</v>
+      </c>
+      <c r="U284" s="1">
+        <v>1</v>
+      </c>
+      <c r="V284" s="1">
+        <v>1</v>
+      </c>
+      <c r="W284" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>44</v>
+      </c>
+      <c r="B285" t="s">
+        <v>112</v>
+      </c>
+      <c r="C285" t="s">
+        <v>45</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>33</v>
+      </c>
+      <c r="I285">
+        <v>33</v>
+      </c>
+      <c r="J285">
+        <v>33</v>
+      </c>
+      <c r="L285" t="s">
+        <v>114</v>
+      </c>
+      <c r="M285" t="s">
+        <v>79</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>34</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>0</v>
+      </c>
+      <c r="S285" t="s">
+        <v>119</v>
+      </c>
+      <c r="T285" t="s">
+        <v>120</v>
+      </c>
+      <c r="U285" s="1">
+        <v>1</v>
+      </c>
+      <c r="V285" s="1">
+        <v>1</v>
+      </c>
+      <c r="W285" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>44</v>
+      </c>
+      <c r="B286" t="s">
+        <v>112</v>
+      </c>
+      <c r="C286" t="s">
+        <v>45</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>33</v>
+      </c>
+      <c r="I286">
+        <v>33</v>
+      </c>
+      <c r="J286">
+        <v>33</v>
+      </c>
+      <c r="L286" t="s">
+        <v>113</v>
+      </c>
+      <c r="M286" t="s">
+        <v>47</v>
+      </c>
+      <c r="N286">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>34</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>0.3</v>
+      </c>
+      <c r="S286" t="s">
+        <v>119</v>
+      </c>
+      <c r="T286" t="s">
+        <v>120</v>
+      </c>
+      <c r="U286" s="1">
+        <v>1</v>
+      </c>
+      <c r="V286" s="1">
+        <v>1</v>
+      </c>
+      <c r="W286" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>44</v>
+      </c>
+      <c r="B287" t="s">
+        <v>112</v>
+      </c>
+      <c r="C287" t="s">
+        <v>45</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>33</v>
+      </c>
+      <c r="I287">
+        <v>33</v>
+      </c>
+      <c r="J287">
+        <v>33</v>
+      </c>
+      <c r="L287" t="s">
+        <v>115</v>
+      </c>
+      <c r="M287" t="s">
+        <v>79</v>
+      </c>
+      <c r="N287">
+        <v>85.6</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>34</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>6</v>
+      </c>
+      <c r="S287" t="s">
+        <v>119</v>
+      </c>
+      <c r="T287" t="s">
+        <v>120</v>
+      </c>
+      <c r="U287" s="1">
+        <v>1</v>
+      </c>
+      <c r="V287" s="1">
+        <v>1</v>
+      </c>
+      <c r="W287" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>44</v>
+      </c>
+      <c r="B288" t="s">
+        <v>112</v>
+      </c>
+      <c r="C288" t="s">
+        <v>45</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>33</v>
+      </c>
+      <c r="I288">
+        <v>33</v>
+      </c>
+      <c r="J288">
+        <v>33</v>
+      </c>
+      <c r="L288" t="s">
+        <v>116</v>
+      </c>
+      <c r="M288" t="s">
+        <v>117</v>
+      </c>
+      <c r="N288">
+        <v>22</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>34</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0.2</v>
+      </c>
+      <c r="S288" t="s">
+        <v>119</v>
+      </c>
+      <c r="T288" t="s">
+        <v>120</v>
+      </c>
+      <c r="U288" s="1">
+        <v>1</v>
+      </c>
+      <c r="V288" s="1">
+        <v>1</v>
+      </c>
+      <c r="W288" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>44</v>
+      </c>
+      <c r="B289" t="s">
+        <v>112</v>
+      </c>
+      <c r="C289" t="s">
+        <v>45</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>33</v>
+      </c>
+      <c r="I289">
+        <v>33</v>
+      </c>
+      <c r="J289">
+        <v>33</v>
+      </c>
+      <c r="L289" t="s">
+        <v>118</v>
+      </c>
+      <c r="M289" t="s">
+        <v>69</v>
+      </c>
+      <c r="N289">
+        <v>42.2</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <v>34</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>1</v>
+      </c>
+      <c r="S289" t="s">
+        <v>119</v>
+      </c>
+      <c r="T289" t="s">
+        <v>120</v>
+      </c>
+      <c r="U289" s="1">
+        <v>1</v>
+      </c>
+      <c r="V289" s="1">
+        <v>1</v>
+      </c>
+      <c r="W289" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD30784-6674-FD4E-9465-47052F0DB325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F117B680-0350-F441-870B-8A8CFA3A89D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="128">
   <si>
     <t>study_id</t>
   </si>
@@ -363,9 +363,6 @@
     <t>average cumulative number of eggs laid per female</t>
   </si>
   <si>
-    <t>simonici</t>
-  </si>
-  <si>
     <t>incubation period</t>
   </si>
   <si>
@@ -397,6 +394,21 @@
   </si>
   <si>
     <t>second year</t>
+  </si>
+  <si>
+    <t>wang2015</t>
+  </si>
+  <si>
+    <t>simonici2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry weight of mycelium per petri dish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteya </t>
+  </si>
+  <si>
+    <t>vermicola</t>
   </si>
 </sst>
 </file>
@@ -763,11 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG289"/>
+  <dimension ref="A1:AG294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K265" sqref="K265:K284"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W300" sqref="W300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19127,7 +19139,7 @@
         <v>39</v>
       </c>
       <c r="B260" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C260" t="s">
         <v>45</v>
@@ -19145,7 +19157,7 @@
         <v>31</v>
       </c>
       <c r="L260" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M260" t="s">
         <v>79</v>
@@ -19166,10 +19178,10 @@
         <v>0</v>
       </c>
       <c r="S260" t="s">
+        <v>118</v>
+      </c>
+      <c r="T260" t="s">
         <v>119</v>
-      </c>
-      <c r="T260" t="s">
-        <v>120</v>
       </c>
       <c r="U260" s="1">
         <v>1</v>
@@ -19181,10 +19193,10 @@
         <v>3</v>
       </c>
       <c r="AA260" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB260" t="s">
         <v>121</v>
-      </c>
-      <c r="AB260" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.2">
@@ -19192,7 +19204,7 @@
         <v>39</v>
       </c>
       <c r="B261" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C261" t="s">
         <v>45</v>
@@ -19210,7 +19222,7 @@
         <v>31</v>
       </c>
       <c r="L261" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M261" t="s">
         <v>47</v>
@@ -19231,10 +19243,10 @@
         <v>0.3</v>
       </c>
       <c r="S261" t="s">
+        <v>118</v>
+      </c>
+      <c r="T261" t="s">
         <v>119</v>
-      </c>
-      <c r="T261" t="s">
-        <v>120</v>
       </c>
       <c r="U261" s="1">
         <v>1</v>
@@ -19246,10 +19258,10 @@
         <v>3</v>
       </c>
       <c r="AA261" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB261" t="s">
         <v>121</v>
-      </c>
-      <c r="AB261" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.2">
@@ -19257,7 +19269,7 @@
         <v>39</v>
       </c>
       <c r="B262" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C262" t="s">
         <v>45</v>
@@ -19275,7 +19287,7 @@
         <v>31</v>
       </c>
       <c r="L262" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M262" t="s">
         <v>79</v>
@@ -19296,10 +19308,10 @@
         <v>5</v>
       </c>
       <c r="S262" t="s">
+        <v>118</v>
+      </c>
+      <c r="T262" t="s">
         <v>119</v>
-      </c>
-      <c r="T262" t="s">
-        <v>120</v>
       </c>
       <c r="U262" s="1">
         <v>1</v>
@@ -19311,10 +19323,10 @@
         <v>3</v>
       </c>
       <c r="AA262" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB262" t="s">
         <v>121</v>
-      </c>
-      <c r="AB262" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.2">
@@ -19322,7 +19334,7 @@
         <v>39</v>
       </c>
       <c r="B263" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C263" t="s">
         <v>45</v>
@@ -19340,10 +19352,10 @@
         <v>31</v>
       </c>
       <c r="L263" t="s">
+        <v>115</v>
+      </c>
+      <c r="M263" t="s">
         <v>116</v>
-      </c>
-      <c r="M263" t="s">
-        <v>117</v>
       </c>
       <c r="N263">
         <v>24.2</v>
@@ -19361,10 +19373,10 @@
         <v>0.2</v>
       </c>
       <c r="S263" t="s">
+        <v>118</v>
+      </c>
+      <c r="T263" t="s">
         <v>119</v>
-      </c>
-      <c r="T263" t="s">
-        <v>120</v>
       </c>
       <c r="U263" s="1">
         <v>1</v>
@@ -19376,10 +19388,10 @@
         <v>3</v>
       </c>
       <c r="AA263" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB263" t="s">
         <v>121</v>
-      </c>
-      <c r="AB263" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.2">
@@ -19387,7 +19399,7 @@
         <v>39</v>
       </c>
       <c r="B264" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C264" t="s">
         <v>45</v>
@@ -19405,7 +19417,7 @@
         <v>31</v>
       </c>
       <c r="L264" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M264" t="s">
         <v>69</v>
@@ -19426,10 +19438,10 @@
         <v>1</v>
       </c>
       <c r="S264" t="s">
+        <v>118</v>
+      </c>
+      <c r="T264" t="s">
         <v>119</v>
-      </c>
-      <c r="T264" t="s">
-        <v>120</v>
       </c>
       <c r="U264" s="1">
         <v>1</v>
@@ -19441,10 +19453,10 @@
         <v>3</v>
       </c>
       <c r="AA264" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB264" t="s">
         <v>121</v>
-      </c>
-      <c r="AB264" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.2">
@@ -19452,7 +19464,7 @@
         <v>40</v>
       </c>
       <c r="B265" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C265" t="s">
         <v>45</v>
@@ -19479,7 +19491,7 @@
         <v>24</v>
       </c>
       <c r="L265" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M265" t="s">
         <v>79</v>
@@ -19500,10 +19512,10 @@
         <v>6</v>
       </c>
       <c r="S265" t="s">
+        <v>118</v>
+      </c>
+      <c r="T265" t="s">
         <v>119</v>
-      </c>
-      <c r="T265" t="s">
-        <v>120</v>
       </c>
       <c r="U265" s="1">
         <v>1</v>
@@ -19515,10 +19527,10 @@
         <v>3</v>
       </c>
       <c r="AA265" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB265" t="s">
         <v>121</v>
-      </c>
-      <c r="AB265" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.2">
@@ -19526,7 +19538,7 @@
         <v>40</v>
       </c>
       <c r="B266" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C266" t="s">
         <v>45</v>
@@ -19553,7 +19565,7 @@
         <v>24</v>
       </c>
       <c r="L266" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M266" t="s">
         <v>47</v>
@@ -19574,10 +19586,10 @@
         <v>0.3</v>
       </c>
       <c r="S266" t="s">
+        <v>118</v>
+      </c>
+      <c r="T266" t="s">
         <v>119</v>
-      </c>
-      <c r="T266" t="s">
-        <v>120</v>
       </c>
       <c r="U266" s="1">
         <v>1</v>
@@ -19589,10 +19601,10 @@
         <v>3</v>
       </c>
       <c r="AA266" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB266" t="s">
         <v>121</v>
-      </c>
-      <c r="AB266" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.2">
@@ -19600,7 +19612,7 @@
         <v>40</v>
       </c>
       <c r="B267" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C267" t="s">
         <v>45</v>
@@ -19627,7 +19639,7 @@
         <v>24</v>
       </c>
       <c r="L267" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M267" t="s">
         <v>79</v>
@@ -19648,10 +19660,10 @@
         <v>4</v>
       </c>
       <c r="S267" t="s">
+        <v>118</v>
+      </c>
+      <c r="T267" t="s">
         <v>119</v>
-      </c>
-      <c r="T267" t="s">
-        <v>120</v>
       </c>
       <c r="U267" s="1">
         <v>1</v>
@@ -19663,10 +19675,10 @@
         <v>3</v>
       </c>
       <c r="AA267" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB267" t="s">
         <v>121</v>
-      </c>
-      <c r="AB267" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.2">
@@ -19674,7 +19686,7 @@
         <v>40</v>
       </c>
       <c r="B268" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C268" t="s">
         <v>45</v>
@@ -19701,10 +19713,10 @@
         <v>24</v>
       </c>
       <c r="L268" t="s">
+        <v>115</v>
+      </c>
+      <c r="M268" t="s">
         <v>116</v>
-      </c>
-      <c r="M268" t="s">
-        <v>117</v>
       </c>
       <c r="N268">
         <v>24.9</v>
@@ -19722,10 +19734,10 @@
         <v>0.5</v>
       </c>
       <c r="S268" t="s">
+        <v>118</v>
+      </c>
+      <c r="T268" t="s">
         <v>119</v>
-      </c>
-      <c r="T268" t="s">
-        <v>120</v>
       </c>
       <c r="U268" s="1">
         <v>1</v>
@@ -19737,10 +19749,10 @@
         <v>3</v>
       </c>
       <c r="AA268" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB268" t="s">
         <v>121</v>
-      </c>
-      <c r="AB268" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.2">
@@ -19748,7 +19760,7 @@
         <v>40</v>
       </c>
       <c r="B269" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C269" t="s">
         <v>45</v>
@@ -19775,7 +19787,7 @@
         <v>24</v>
       </c>
       <c r="L269" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M269" t="s">
         <v>69</v>
@@ -19796,10 +19808,10 @@
         <v>1</v>
       </c>
       <c r="S269" t="s">
+        <v>118</v>
+      </c>
+      <c r="T269" t="s">
         <v>119</v>
-      </c>
-      <c r="T269" t="s">
-        <v>120</v>
       </c>
       <c r="U269" s="1">
         <v>1</v>
@@ -19811,10 +19823,10 @@
         <v>3</v>
       </c>
       <c r="AA269" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB269" t="s">
         <v>121</v>
-      </c>
-      <c r="AB269" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="270" spans="1:33" x14ac:dyDescent="0.2">
@@ -19822,7 +19834,7 @@
         <v>41</v>
       </c>
       <c r="B270" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C270" t="s">
         <v>45</v>
@@ -19840,7 +19852,7 @@
         <v>32</v>
       </c>
       <c r="L270" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M270" t="s">
         <v>79</v>
@@ -19861,10 +19873,10 @@
         <v>10</v>
       </c>
       <c r="S270" t="s">
+        <v>118</v>
+      </c>
+      <c r="T270" t="s">
         <v>119</v>
-      </c>
-      <c r="T270" t="s">
-        <v>120</v>
       </c>
       <c r="U270" s="1">
         <v>1</v>
@@ -19876,10 +19888,10 @@
         <v>3</v>
       </c>
       <c r="AA270" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB270" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.2">
@@ -19887,7 +19899,7 @@
         <v>41</v>
       </c>
       <c r="B271" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C271" t="s">
         <v>45</v>
@@ -19905,7 +19917,7 @@
         <v>32</v>
       </c>
       <c r="L271" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M271" t="s">
         <v>47</v>
@@ -19926,10 +19938,10 @@
         <v>0.4</v>
       </c>
       <c r="S271" t="s">
+        <v>118</v>
+      </c>
+      <c r="T271" t="s">
         <v>119</v>
-      </c>
-      <c r="T271" t="s">
-        <v>120</v>
       </c>
       <c r="U271" s="1">
         <v>1</v>
@@ -19941,10 +19953,10 @@
         <v>3</v>
       </c>
       <c r="AA271" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB271" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.2">
@@ -19952,7 +19964,7 @@
         <v>41</v>
       </c>
       <c r="B272" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C272" t="s">
         <v>45</v>
@@ -19970,7 +19982,7 @@
         <v>32</v>
       </c>
       <c r="L272" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M272" t="s">
         <v>79</v>
@@ -19991,10 +20003,10 @@
         <v>6</v>
       </c>
       <c r="S272" t="s">
+        <v>118</v>
+      </c>
+      <c r="T272" t="s">
         <v>119</v>
-      </c>
-      <c r="T272" t="s">
-        <v>120</v>
       </c>
       <c r="U272" s="1">
         <v>1</v>
@@ -20006,10 +20018,10 @@
         <v>3</v>
       </c>
       <c r="AA272" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB272" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.2">
@@ -20017,7 +20029,7 @@
         <v>41</v>
       </c>
       <c r="B273" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C273" t="s">
         <v>45</v>
@@ -20035,10 +20047,10 @@
         <v>32</v>
       </c>
       <c r="L273" t="s">
+        <v>115</v>
+      </c>
+      <c r="M273" t="s">
         <v>116</v>
-      </c>
-      <c r="M273" t="s">
-        <v>117</v>
       </c>
       <c r="N273">
         <v>22.2</v>
@@ -20056,10 +20068,10 @@
         <v>0.3</v>
       </c>
       <c r="S273" t="s">
+        <v>118</v>
+      </c>
+      <c r="T273" t="s">
         <v>119</v>
-      </c>
-      <c r="T273" t="s">
-        <v>120</v>
       </c>
       <c r="U273" s="1">
         <v>1</v>
@@ -20071,10 +20083,10 @@
         <v>3</v>
       </c>
       <c r="AA273" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB273" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.2">
@@ -20082,7 +20094,7 @@
         <v>41</v>
       </c>
       <c r="B274" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C274" t="s">
         <v>45</v>
@@ -20100,7 +20112,7 @@
         <v>32</v>
       </c>
       <c r="L274" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M274" t="s">
         <v>69</v>
@@ -20121,10 +20133,10 @@
         <v>0.7</v>
       </c>
       <c r="S274" t="s">
+        <v>118</v>
+      </c>
+      <c r="T274" t="s">
         <v>119</v>
-      </c>
-      <c r="T274" t="s">
-        <v>120</v>
       </c>
       <c r="U274" s="1">
         <v>1</v>
@@ -20136,10 +20148,10 @@
         <v>3</v>
       </c>
       <c r="AA274" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB274" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.2">
@@ -20147,7 +20159,7 @@
         <v>42</v>
       </c>
       <c r="B275" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C275" t="s">
         <v>45</v>
@@ -20174,7 +20186,7 @@
         <v>24</v>
       </c>
       <c r="L275" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M275" t="s">
         <v>79</v>
@@ -20195,10 +20207,10 @@
         <v>11</v>
       </c>
       <c r="S275" t="s">
+        <v>118</v>
+      </c>
+      <c r="T275" t="s">
         <v>119</v>
-      </c>
-      <c r="T275" t="s">
-        <v>120</v>
       </c>
       <c r="U275" s="1">
         <v>1</v>
@@ -20210,10 +20222,10 @@
         <v>3</v>
       </c>
       <c r="AA275" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB275" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.2">
@@ -20221,7 +20233,7 @@
         <v>42</v>
       </c>
       <c r="B276" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C276" t="s">
         <v>45</v>
@@ -20248,7 +20260,7 @@
         <v>24</v>
       </c>
       <c r="L276" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M276" t="s">
         <v>47</v>
@@ -20269,10 +20281,10 @@
         <v>0.4</v>
       </c>
       <c r="S276" t="s">
+        <v>118</v>
+      </c>
+      <c r="T276" t="s">
         <v>119</v>
-      </c>
-      <c r="T276" t="s">
-        <v>120</v>
       </c>
       <c r="U276" s="1">
         <v>1</v>
@@ -20284,10 +20296,10 @@
         <v>3</v>
       </c>
       <c r="AA276" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB276" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.2">
@@ -20295,7 +20307,7 @@
         <v>42</v>
       </c>
       <c r="B277" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C277" t="s">
         <v>45</v>
@@ -20322,7 +20334,7 @@
         <v>24</v>
       </c>
       <c r="L277" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M277" t="s">
         <v>79</v>
@@ -20343,10 +20355,10 @@
         <v>8</v>
       </c>
       <c r="S277" t="s">
+        <v>118</v>
+      </c>
+      <c r="T277" t="s">
         <v>119</v>
-      </c>
-      <c r="T277" t="s">
-        <v>120</v>
       </c>
       <c r="U277" s="1">
         <v>1</v>
@@ -20358,10 +20370,10 @@
         <v>3</v>
       </c>
       <c r="AA277" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB277" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.2">
@@ -20369,7 +20381,7 @@
         <v>42</v>
       </c>
       <c r="B278" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C278" t="s">
         <v>45</v>
@@ -20396,10 +20408,10 @@
         <v>24</v>
       </c>
       <c r="L278" t="s">
+        <v>115</v>
+      </c>
+      <c r="M278" t="s">
         <v>116</v>
-      </c>
-      <c r="M278" t="s">
-        <v>117</v>
       </c>
       <c r="N278">
         <v>20.3</v>
@@ -20417,10 +20429,10 @@
         <v>0.3</v>
       </c>
       <c r="S278" t="s">
+        <v>118</v>
+      </c>
+      <c r="T278" t="s">
         <v>119</v>
-      </c>
-      <c r="T278" t="s">
-        <v>120</v>
       </c>
       <c r="U278" s="1">
         <v>1</v>
@@ -20432,10 +20444,10 @@
         <v>3</v>
       </c>
       <c r="AA278" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB278" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.2">
@@ -20443,7 +20455,7 @@
         <v>42</v>
       </c>
       <c r="B279" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C279" t="s">
         <v>45</v>
@@ -20470,7 +20482,7 @@
         <v>24</v>
       </c>
       <c r="L279" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M279" t="s">
         <v>69</v>
@@ -20491,10 +20503,10 @@
         <v>0.7</v>
       </c>
       <c r="S279" t="s">
+        <v>118</v>
+      </c>
+      <c r="T279" t="s">
         <v>119</v>
-      </c>
-      <c r="T279" t="s">
-        <v>120</v>
       </c>
       <c r="U279" s="1">
         <v>1</v>
@@ -20506,10 +20518,10 @@
         <v>3</v>
       </c>
       <c r="AA279" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB279" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.2">
@@ -20517,7 +20529,7 @@
         <v>43</v>
       </c>
       <c r="B280" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C280" t="s">
         <v>45</v>
@@ -20544,7 +20556,7 @@
         <v>24</v>
       </c>
       <c r="L280" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M280" t="s">
         <v>79</v>
@@ -20565,10 +20577,10 @@
         <v>7</v>
       </c>
       <c r="S280" t="s">
+        <v>118</v>
+      </c>
+      <c r="T280" t="s">
         <v>119</v>
-      </c>
-      <c r="T280" t="s">
-        <v>120</v>
       </c>
       <c r="U280" s="1">
         <v>1</v>
@@ -20580,10 +20592,10 @@
         <v>3</v>
       </c>
       <c r="AA280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB280" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.2">
@@ -20591,7 +20603,7 @@
         <v>43</v>
       </c>
       <c r="B281" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C281" t="s">
         <v>45</v>
@@ -20618,7 +20630,7 @@
         <v>24</v>
       </c>
       <c r="L281" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M281" t="s">
         <v>47</v>
@@ -20639,10 +20651,10 @@
         <v>0.6</v>
       </c>
       <c r="S281" t="s">
+        <v>118</v>
+      </c>
+      <c r="T281" t="s">
         <v>119</v>
-      </c>
-      <c r="T281" t="s">
-        <v>120</v>
       </c>
       <c r="U281" s="1">
         <v>1</v>
@@ -20654,10 +20666,10 @@
         <v>3</v>
       </c>
       <c r="AA281" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB281" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.2">
@@ -20665,7 +20677,7 @@
         <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C282" t="s">
         <v>45</v>
@@ -20692,7 +20704,7 @@
         <v>24</v>
       </c>
       <c r="L282" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M282" t="s">
         <v>79</v>
@@ -20713,10 +20725,10 @@
         <v>8</v>
       </c>
       <c r="S282" t="s">
+        <v>118</v>
+      </c>
+      <c r="T282" t="s">
         <v>119</v>
-      </c>
-      <c r="T282" t="s">
-        <v>120</v>
       </c>
       <c r="U282" s="1">
         <v>1</v>
@@ -20728,10 +20740,10 @@
         <v>3</v>
       </c>
       <c r="AA282" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB282" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.2">
@@ -20739,7 +20751,7 @@
         <v>43</v>
       </c>
       <c r="B283" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C283" t="s">
         <v>45</v>
@@ -20766,10 +20778,10 @@
         <v>24</v>
       </c>
       <c r="L283" t="s">
+        <v>115</v>
+      </c>
+      <c r="M283" t="s">
         <v>116</v>
-      </c>
-      <c r="M283" t="s">
-        <v>117</v>
       </c>
       <c r="N283">
         <v>20.3</v>
@@ -20787,10 +20799,10 @@
         <v>0.3</v>
       </c>
       <c r="S283" t="s">
+        <v>118</v>
+      </c>
+      <c r="T283" t="s">
         <v>119</v>
-      </c>
-      <c r="T283" t="s">
-        <v>120</v>
       </c>
       <c r="U283" s="1">
         <v>1</v>
@@ -20802,10 +20814,10 @@
         <v>3</v>
       </c>
       <c r="AA283" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.2">
@@ -20813,7 +20825,7 @@
         <v>43</v>
       </c>
       <c r="B284" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C284" t="s">
         <v>45</v>
@@ -20840,7 +20852,7 @@
         <v>24</v>
       </c>
       <c r="L284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M284" t="s">
         <v>69</v>
@@ -20861,10 +20873,10 @@
         <v>0.8</v>
       </c>
       <c r="S284" t="s">
+        <v>118</v>
+      </c>
+      <c r="T284" t="s">
         <v>119</v>
-      </c>
-      <c r="T284" t="s">
-        <v>120</v>
       </c>
       <c r="U284" s="1">
         <v>1</v>
@@ -20876,10 +20888,10 @@
         <v>3</v>
       </c>
       <c r="AA284" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB284" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.2">
@@ -20887,7 +20899,7 @@
         <v>44</v>
       </c>
       <c r="B285" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C285" t="s">
         <v>45</v>
@@ -20905,7 +20917,7 @@
         <v>33</v>
       </c>
       <c r="L285" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M285" t="s">
         <v>79</v>
@@ -20926,10 +20938,10 @@
         <v>0</v>
       </c>
       <c r="S285" t="s">
+        <v>118</v>
+      </c>
+      <c r="T285" t="s">
         <v>119</v>
-      </c>
-      <c r="T285" t="s">
-        <v>120</v>
       </c>
       <c r="U285" s="1">
         <v>1</v>
@@ -20941,10 +20953,10 @@
         <v>3</v>
       </c>
       <c r="AA285" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB285" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.2">
@@ -20952,7 +20964,7 @@
         <v>44</v>
       </c>
       <c r="B286" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C286" t="s">
         <v>45</v>
@@ -20970,7 +20982,7 @@
         <v>33</v>
       </c>
       <c r="L286" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M286" t="s">
         <v>47</v>
@@ -20991,10 +21003,10 @@
         <v>0.3</v>
       </c>
       <c r="S286" t="s">
+        <v>118</v>
+      </c>
+      <c r="T286" t="s">
         <v>119</v>
-      </c>
-      <c r="T286" t="s">
-        <v>120</v>
       </c>
       <c r="U286" s="1">
         <v>1</v>
@@ -21006,10 +21018,10 @@
         <v>3</v>
       </c>
       <c r="AA286" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB286" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.2">
@@ -21017,7 +21029,7 @@
         <v>44</v>
       </c>
       <c r="B287" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C287" t="s">
         <v>45</v>
@@ -21035,7 +21047,7 @@
         <v>33</v>
       </c>
       <c r="L287" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M287" t="s">
         <v>79</v>
@@ -21056,10 +21068,10 @@
         <v>6</v>
       </c>
       <c r="S287" t="s">
+        <v>118</v>
+      </c>
+      <c r="T287" t="s">
         <v>119</v>
-      </c>
-      <c r="T287" t="s">
-        <v>120</v>
       </c>
       <c r="U287" s="1">
         <v>1</v>
@@ -21071,10 +21083,10 @@
         <v>3</v>
       </c>
       <c r="AA287" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB287" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.2">
@@ -21082,7 +21094,7 @@
         <v>44</v>
       </c>
       <c r="B288" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C288" t="s">
         <v>45</v>
@@ -21100,10 +21112,10 @@
         <v>33</v>
       </c>
       <c r="L288" t="s">
+        <v>115</v>
+      </c>
+      <c r="M288" t="s">
         <v>116</v>
-      </c>
-      <c r="M288" t="s">
-        <v>117</v>
       </c>
       <c r="N288">
         <v>22</v>
@@ -21121,10 +21133,10 @@
         <v>0.2</v>
       </c>
       <c r="S288" t="s">
+        <v>118</v>
+      </c>
+      <c r="T288" t="s">
         <v>119</v>
-      </c>
-      <c r="T288" t="s">
-        <v>120</v>
       </c>
       <c r="U288" s="1">
         <v>1</v>
@@ -21136,10 +21148,10 @@
         <v>3</v>
       </c>
       <c r="AA288" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB288" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.2">
@@ -21147,7 +21159,7 @@
         <v>44</v>
       </c>
       <c r="B289" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C289" t="s">
         <v>45</v>
@@ -21165,7 +21177,7 @@
         <v>33</v>
       </c>
       <c r="L289" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M289" t="s">
         <v>69</v>
@@ -21186,10 +21198,10 @@
         <v>1</v>
       </c>
       <c r="S289" t="s">
+        <v>118</v>
+      </c>
+      <c r="T289" t="s">
         <v>119</v>
-      </c>
-      <c r="T289" t="s">
-        <v>120</v>
       </c>
       <c r="U289" s="1">
         <v>1</v>
@@ -21201,10 +21213,320 @@
         <v>3</v>
       </c>
       <c r="AA289" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB289" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>45</v>
+      </c>
+      <c r="B290" t="s">
         <v>123</v>
+      </c>
+      <c r="C290" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>26</v>
+      </c>
+      <c r="I290">
+        <v>26</v>
+      </c>
+      <c r="J290">
+        <v>26</v>
+      </c>
+      <c r="L290" t="s">
+        <v>125</v>
+      </c>
+      <c r="M290" t="s">
+        <v>69</v>
+      </c>
+      <c r="N290">
+        <v>9.5596072931276296E-2</v>
+      </c>
+      <c r="O290">
+        <v>1</v>
+      </c>
+      <c r="Q290">
+        <v>1</v>
+      </c>
+      <c r="R290">
+        <v>1.1949509116408699E-2</v>
+      </c>
+      <c r="S290" t="s">
+        <v>126</v>
+      </c>
+      <c r="T290" t="s">
+        <v>127</v>
+      </c>
+      <c r="U290" s="1">
+        <v>3</v>
+      </c>
+      <c r="V290" s="1">
+        <v>0</v>
+      </c>
+      <c r="W290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>45</v>
+      </c>
+      <c r="B291" t="s">
+        <v>123</v>
+      </c>
+      <c r="C291" t="s">
+        <v>29</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>20.5</v>
+      </c>
+      <c r="I291">
+        <v>15</v>
+      </c>
+      <c r="J291">
+        <v>26</v>
+      </c>
+      <c r="K291">
+        <v>24</v>
+      </c>
+      <c r="L291" t="s">
+        <v>125</v>
+      </c>
+      <c r="M291" t="s">
+        <v>69</v>
+      </c>
+      <c r="N291">
+        <v>9.0042075736325305E-2</v>
+      </c>
+      <c r="O291">
+        <v>1</v>
+      </c>
+      <c r="Q291">
+        <v>1</v>
+      </c>
+      <c r="R291">
+        <v>4.544179523141692E-3</v>
+      </c>
+      <c r="S291" t="s">
+        <v>126</v>
+      </c>
+      <c r="T291" t="s">
+        <v>127</v>
+      </c>
+      <c r="U291" s="1">
+        <v>3</v>
+      </c>
+      <c r="V291" s="1">
+        <v>0</v>
+      </c>
+      <c r="W291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>45</v>
+      </c>
+      <c r="B292" t="s">
+        <v>123</v>
+      </c>
+      <c r="C292" t="s">
+        <v>29</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>30.5</v>
+      </c>
+      <c r="I292">
+        <v>26</v>
+      </c>
+      <c r="J292">
+        <v>35</v>
+      </c>
+      <c r="K292">
+        <v>24</v>
+      </c>
+      <c r="L292" t="s">
+        <v>125</v>
+      </c>
+      <c r="N292">
+        <v>7.8934081346423504E-2</v>
+      </c>
+      <c r="O292">
+        <v>1</v>
+      </c>
+      <c r="Q292">
+        <v>1</v>
+      </c>
+      <c r="R292">
+        <v>2.0701262272089793E-2</v>
+      </c>
+      <c r="S292" t="s">
+        <v>126</v>
+      </c>
+      <c r="T292" t="s">
+        <v>127</v>
+      </c>
+      <c r="U292" s="1">
+        <v>3</v>
+      </c>
+      <c r="V292" s="1">
+        <v>0</v>
+      </c>
+      <c r="W292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>123</v>
+      </c>
+      <c r="C293" t="s">
+        <v>29</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>25</v>
+      </c>
+      <c r="I293">
+        <v>20</v>
+      </c>
+      <c r="J293">
+        <v>30</v>
+      </c>
+      <c r="K293">
+        <v>24</v>
+      </c>
+      <c r="L293" t="s">
+        <v>125</v>
+      </c>
+      <c r="M293" t="s">
+        <v>69</v>
+      </c>
+      <c r="N293">
+        <v>0.104347826086956</v>
+      </c>
+      <c r="O293">
+        <v>1</v>
+      </c>
+      <c r="Q293">
+        <v>1</v>
+      </c>
+      <c r="R293">
+        <v>7.4053295932679924E-3</v>
+      </c>
+      <c r="S293" t="s">
+        <v>126</v>
+      </c>
+      <c r="T293" t="s">
+        <v>127</v>
+      </c>
+      <c r="U293" s="1">
+        <v>3</v>
+      </c>
+      <c r="V293" s="1">
+        <v>0</v>
+      </c>
+      <c r="W293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>45</v>
+      </c>
+      <c r="B294" t="s">
+        <v>123</v>
+      </c>
+      <c r="C294" t="s">
+        <v>29</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>25</v>
+      </c>
+      <c r="I294">
+        <v>15</v>
+      </c>
+      <c r="J294">
+        <v>35</v>
+      </c>
+      <c r="K294">
+        <v>24</v>
+      </c>
+      <c r="M294" t="s">
+        <v>69</v>
+      </c>
+      <c r="N294">
+        <v>4.7629733520336601E-2</v>
+      </c>
+      <c r="O294">
+        <v>1</v>
+      </c>
+      <c r="Q294">
+        <v>1</v>
+      </c>
+      <c r="R294">
+        <v>1.2622720897615701E-2</v>
+      </c>
+      <c r="S294" t="s">
+        <v>126</v>
+      </c>
+      <c r="T294" t="s">
+        <v>127</v>
+      </c>
+      <c r="U294" s="1">
+        <v>3</v>
+      </c>
+      <c r="V294" s="1">
+        <v>0</v>
+      </c>
+      <c r="W294" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01081FF6-279F-E045-855C-54093BA74858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C518245-1126-A44D-B2F8-3E3A693AB18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="149">
   <si>
     <t>study_id</t>
   </si>
@@ -435,6 +435,45 @@
   <si>
     <t>melanogaster</t>
   </si>
+  <si>
+    <t>lowenborg2012</t>
+  </si>
+  <si>
+    <t>figure 4a</t>
+  </si>
+  <si>
+    <t>figure 4b</t>
+  </si>
+  <si>
+    <t>figure 4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubation time </t>
+  </si>
+  <si>
+    <t>days to first slough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquatic speed </t>
+  </si>
+  <si>
+    <t>m * s^-1</t>
+  </si>
+  <si>
+    <t>terrestrial speed</t>
+  </si>
+  <si>
+    <t>distance covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natrix </t>
+  </si>
+  <si>
+    <t>natrix</t>
+  </si>
 </sst>
 </file>
 
@@ -800,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG294"/>
+  <dimension ref="A1:AG322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D325" sqref="D325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11139,6 +11178,9 @@
       <c r="D148">
         <v>0</v>
       </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
       <c r="H148">
         <v>24</v>
       </c>
@@ -11204,6 +11246,9 @@
       <c r="D149">
         <v>0</v>
       </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
       <c r="H149">
         <v>24</v>
       </c>
@@ -11272,6 +11317,9 @@
       <c r="D150">
         <v>0</v>
       </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
       <c r="H150">
         <v>24</v>
       </c>
@@ -11340,6 +11388,9 @@
       <c r="D151">
         <v>0</v>
       </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
       <c r="H151">
         <v>24</v>
       </c>
@@ -11408,6 +11459,9 @@
       <c r="D152">
         <v>0</v>
       </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
       <c r="H152">
         <v>24</v>
       </c>
@@ -11476,6 +11530,9 @@
       <c r="D153">
         <v>0</v>
       </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
       <c r="H153">
         <v>24</v>
       </c>
@@ -11544,6 +11601,9 @@
       <c r="D154">
         <v>0</v>
       </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
       <c r="H154">
         <v>24</v>
       </c>
@@ -11612,6 +11672,9 @@
       <c r="D155">
         <v>0</v>
       </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
       <c r="H155">
         <v>24</v>
       </c>
@@ -11680,6 +11743,9 @@
       <c r="D156">
         <v>0</v>
       </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
       <c r="H156">
         <v>24</v>
       </c>
@@ -11748,6 +11814,9 @@
       <c r="D157">
         <v>0</v>
       </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
       <c r="H157">
         <v>24</v>
       </c>
@@ -11816,6 +11885,9 @@
       <c r="D158">
         <v>0</v>
       </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
       <c r="H158">
         <v>24</v>
       </c>
@@ -11884,6 +11956,9 @@
       <c r="D159">
         <v>0</v>
       </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
       <c r="H159">
         <v>24</v>
       </c>
@@ -11952,6 +12027,9 @@
       <c r="D160">
         <v>0</v>
       </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
       <c r="H160">
         <v>24</v>
       </c>
@@ -12017,6 +12095,9 @@
       <c r="D161">
         <v>0</v>
       </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
       <c r="H161">
         <v>24</v>
       </c>
@@ -12080,7 +12161,7 @@
         <v>66</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -12157,7 +12238,7 @@
         <v>66</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -12234,7 +12315,7 @@
         <v>66</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -12311,7 +12392,7 @@
         <v>66</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -12388,7 +12469,7 @@
         <v>66</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -12465,7 +12546,7 @@
         <v>66</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -12542,7 +12623,7 @@
         <v>66</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -12619,7 +12700,7 @@
         <v>66</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -12696,7 +12777,7 @@
         <v>66</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -12773,7 +12854,7 @@
         <v>66</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -12850,7 +12931,7 @@
         <v>66</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -12927,7 +13008,7 @@
         <v>66</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -13004,7 +13085,7 @@
         <v>66</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -13081,7 +13162,7 @@
         <v>66</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -13160,6 +13241,9 @@
       <c r="D176">
         <v>0</v>
       </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
       <c r="H176">
         <v>24</v>
       </c>
@@ -13225,6 +13309,9 @@
       <c r="D177">
         <v>0</v>
       </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
       <c r="H177">
         <v>24</v>
       </c>
@@ -13290,6 +13377,9 @@
       <c r="D178">
         <v>0</v>
       </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
       <c r="H178">
         <v>24</v>
       </c>
@@ -13355,6 +13445,9 @@
       <c r="D179">
         <v>0</v>
       </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
       <c r="H179">
         <v>24</v>
       </c>
@@ -13420,6 +13513,9 @@
       <c r="D180">
         <v>0</v>
       </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
       <c r="H180">
         <v>24</v>
       </c>
@@ -13488,6 +13584,9 @@
       <c r="D181">
         <v>0</v>
       </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
       <c r="H181">
         <v>24</v>
       </c>
@@ -13556,6 +13655,9 @@
       <c r="D182">
         <v>0</v>
       </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <v>24</v>
       </c>
@@ -13624,6 +13726,9 @@
       <c r="D183">
         <v>0</v>
       </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <v>24</v>
       </c>
@@ -13692,6 +13797,9 @@
       <c r="D184">
         <v>0</v>
       </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
       <c r="H184">
         <v>24</v>
       </c>
@@ -13760,6 +13868,9 @@
       <c r="D185">
         <v>0</v>
       </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
       <c r="H185">
         <v>24</v>
       </c>
@@ -13828,6 +13939,9 @@
       <c r="D186">
         <v>0</v>
       </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
       <c r="H186">
         <v>24</v>
       </c>
@@ -13896,6 +14010,9 @@
       <c r="D187">
         <v>0</v>
       </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <v>24</v>
       </c>
@@ -13964,6 +14081,9 @@
       <c r="D188">
         <v>0</v>
       </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <v>24</v>
       </c>
@@ -14032,6 +14152,9 @@
       <c r="D189">
         <v>0</v>
       </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
       <c r="H189">
         <v>24</v>
       </c>
@@ -14098,7 +14221,7 @@
         <v>66</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -14172,7 +14295,7 @@
         <v>66</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -14246,7 +14369,7 @@
         <v>66</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -14320,7 +14443,7 @@
         <v>66</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -14394,7 +14517,7 @@
         <v>66</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -14468,7 +14591,7 @@
         <v>66</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -14545,7 +14668,7 @@
         <v>66</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -14622,7 +14745,7 @@
         <v>66</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -14699,7 +14822,7 @@
         <v>66</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -14776,7 +14899,7 @@
         <v>66</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -14853,7 +14976,7 @@
         <v>66</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -14930,7 +15053,7 @@
         <v>66</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -15007,7 +15130,7 @@
         <v>66</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -15084,7 +15207,7 @@
         <v>66</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -15160,6 +15283,9 @@
       <c r="D204">
         <v>0</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
       <c r="H204">
         <v>24</v>
       </c>
@@ -15225,6 +15351,9 @@
       <c r="D205">
         <v>0</v>
       </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
       <c r="H205">
         <v>24</v>
       </c>
@@ -15290,6 +15419,9 @@
       <c r="D206">
         <v>0</v>
       </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
       <c r="H206">
         <v>24</v>
       </c>
@@ -15358,6 +15490,9 @@
       <c r="D207">
         <v>0</v>
       </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <v>24</v>
       </c>
@@ -15426,6 +15561,9 @@
       <c r="D208">
         <v>0</v>
       </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
       <c r="H208">
         <v>24</v>
       </c>
@@ -15494,6 +15632,9 @@
       <c r="D209">
         <v>0</v>
       </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
       <c r="H209">
         <v>24</v>
       </c>
@@ -15562,6 +15703,9 @@
       <c r="D210">
         <v>0</v>
       </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
       <c r="H210">
         <v>24</v>
       </c>
@@ -15630,6 +15774,9 @@
       <c r="D211">
         <v>0</v>
       </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
       <c r="H211">
         <v>24</v>
       </c>
@@ -15698,6 +15845,9 @@
       <c r="D212">
         <v>0</v>
       </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
       <c r="H212">
         <v>24</v>
       </c>
@@ -15766,6 +15916,9 @@
       <c r="D213">
         <v>0</v>
       </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
       <c r="H213">
         <v>24</v>
       </c>
@@ -15834,6 +15987,9 @@
       <c r="D214">
         <v>0</v>
       </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
       <c r="H214">
         <v>24</v>
       </c>
@@ -15902,6 +16058,9 @@
       <c r="D215">
         <v>0</v>
       </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
       <c r="H215">
         <v>24</v>
       </c>
@@ -15970,6 +16129,9 @@
       <c r="D216">
         <v>0</v>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
       <c r="H216">
         <v>24</v>
       </c>
@@ -16038,6 +16200,9 @@
       <c r="D217">
         <v>0</v>
       </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
       <c r="H217">
         <v>24</v>
       </c>
@@ -16104,7 +16269,7 @@
         <v>67</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -16178,7 +16343,7 @@
         <v>67</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -16252,7 +16417,7 @@
         <v>67</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -16326,7 +16491,7 @@
         <v>67</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -16403,7 +16568,7 @@
         <v>67</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -16480,7 +16645,7 @@
         <v>67</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -16557,7 +16722,7 @@
         <v>67</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -16634,7 +16799,7 @@
         <v>67</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -16711,7 +16876,7 @@
         <v>67</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -16788,7 +16953,7 @@
         <v>67</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -16865,7 +17030,7 @@
         <v>67</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -16942,7 +17107,7 @@
         <v>67</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -17019,7 +17184,7 @@
         <v>67</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -17096,7 +17261,7 @@
         <v>67</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -17175,6 +17340,9 @@
       <c r="D232">
         <v>0</v>
       </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
       <c r="H232">
         <v>24</v>
       </c>
@@ -17240,6 +17408,9 @@
       <c r="D233">
         <v>0</v>
       </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
       <c r="H233">
         <v>24</v>
       </c>
@@ -17305,6 +17476,9 @@
       <c r="D234">
         <v>0</v>
       </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
       <c r="H234">
         <v>24</v>
       </c>
@@ -17370,6 +17544,9 @@
       <c r="D235">
         <v>0</v>
       </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
       <c r="H235">
         <v>24</v>
       </c>
@@ -17435,6 +17612,9 @@
       <c r="D236">
         <v>0</v>
       </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
       <c r="H236">
         <v>24</v>
       </c>
@@ -17500,6 +17680,9 @@
       <c r="D237">
         <v>0</v>
       </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
       <c r="H237">
         <v>24</v>
       </c>
@@ -17568,6 +17751,9 @@
       <c r="D238">
         <v>0</v>
       </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
       <c r="H238">
         <v>24</v>
       </c>
@@ -17636,6 +17822,9 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
       <c r="H239">
         <v>24</v>
       </c>
@@ -17704,6 +17893,9 @@
       <c r="D240">
         <v>0</v>
       </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
       <c r="H240">
         <v>24</v>
       </c>
@@ -17772,6 +17964,9 @@
       <c r="D241">
         <v>0</v>
       </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
       <c r="H241">
         <v>24</v>
       </c>
@@ -17840,6 +18035,9 @@
       <c r="D242">
         <v>0</v>
       </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
       <c r="H242">
         <v>24</v>
       </c>
@@ -17908,6 +18106,9 @@
       <c r="D243">
         <v>0</v>
       </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
       <c r="H243">
         <v>24</v>
       </c>
@@ -17976,6 +18177,9 @@
       <c r="D244">
         <v>0</v>
       </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
       <c r="H244">
         <v>24</v>
       </c>
@@ -18044,6 +18248,9 @@
       <c r="D245">
         <v>0</v>
       </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
       <c r="H245">
         <v>24</v>
       </c>
@@ -18110,7 +18317,7 @@
         <v>67</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -18184,7 +18391,7 @@
         <v>67</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -18258,7 +18465,7 @@
         <v>67</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -18332,7 +18539,7 @@
         <v>67</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -18406,7 +18613,7 @@
         <v>67</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -18480,7 +18687,7 @@
         <v>67</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -18554,7 +18761,7 @@
         <v>67</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -18631,7 +18838,7 @@
         <v>67</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -18708,7 +18915,7 @@
         <v>67</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -18785,7 +18992,7 @@
         <v>67</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -18862,7 +19069,7 @@
         <v>67</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -18939,7 +19146,7 @@
         <v>67</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -19016,7 +19223,7 @@
         <v>67</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -19093,7 +19300,7 @@
         <v>67</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -19172,6 +19379,9 @@
       <c r="D260">
         <v>0</v>
       </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
       <c r="H260">
         <v>31</v>
       </c>
@@ -19237,6 +19447,9 @@
       <c r="D261">
         <v>0</v>
       </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
       <c r="H261">
         <v>31</v>
       </c>
@@ -19302,6 +19515,9 @@
       <c r="D262">
         <v>0</v>
       </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
       <c r="H262">
         <v>31</v>
       </c>
@@ -19367,6 +19583,9 @@
       <c r="D263">
         <v>0</v>
       </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
       <c r="H263">
         <v>31</v>
       </c>
@@ -19432,6 +19651,9 @@
       <c r="D264">
         <v>0</v>
       </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
       <c r="H264">
         <v>31</v>
       </c>
@@ -19495,7 +19717,7 @@
         <v>46</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -19569,7 +19791,7 @@
         <v>46</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -19643,7 +19865,7 @@
         <v>46</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -19717,7 +19939,7 @@
         <v>46</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -19791,7 +20013,7 @@
         <v>46</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -19867,6 +20089,9 @@
       <c r="D270">
         <v>0</v>
       </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
       <c r="H270">
         <v>32</v>
       </c>
@@ -19932,6 +20157,9 @@
       <c r="D271">
         <v>0</v>
       </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
       <c r="H271">
         <v>32</v>
       </c>
@@ -19997,6 +20225,9 @@
       <c r="D272">
         <v>0</v>
       </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
       <c r="H272">
         <v>32</v>
       </c>
@@ -20062,6 +20293,9 @@
       <c r="D273">
         <v>0</v>
       </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
       <c r="H273">
         <v>32</v>
       </c>
@@ -20127,6 +20361,9 @@
       <c r="D274">
         <v>0</v>
       </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
       <c r="H274">
         <v>32</v>
       </c>
@@ -20190,7 +20427,7 @@
         <v>46</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -20264,7 +20501,7 @@
         <v>46</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -20338,7 +20575,7 @@
         <v>46</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -20412,7 +20649,7 @@
         <v>46</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -20486,7 +20723,7 @@
         <v>46</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -20560,7 +20797,7 @@
         <v>46</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -20634,7 +20871,7 @@
         <v>46</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -20708,7 +20945,7 @@
         <v>46</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -20782,7 +21019,7 @@
         <v>46</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -20856,7 +21093,7 @@
         <v>46</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -20932,6 +21169,9 @@
       <c r="D285">
         <v>0</v>
       </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
       <c r="H285">
         <v>33</v>
       </c>
@@ -20997,6 +21237,9 @@
       <c r="D286">
         <v>0</v>
       </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
       <c r="H286">
         <v>33</v>
       </c>
@@ -21062,6 +21305,9 @@
       <c r="D287">
         <v>0</v>
       </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
       <c r="H287">
         <v>33</v>
       </c>
@@ -21127,6 +21373,9 @@
       <c r="D288">
         <v>0</v>
       </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
       <c r="H288">
         <v>33</v>
       </c>
@@ -21192,6 +21441,9 @@
       <c r="D289">
         <v>0</v>
       </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
       <c r="H289">
         <v>33</v>
       </c>
@@ -21257,6 +21509,9 @@
       <c r="D290">
         <v>0</v>
       </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
       <c r="H290">
         <v>26</v>
       </c>
@@ -21291,7 +21546,7 @@
         <v>128</v>
       </c>
       <c r="U290" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V290" s="1">
         <v>0</v>
@@ -21311,7 +21566,7 @@
         <v>29</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -21356,7 +21611,7 @@
         <v>128</v>
       </c>
       <c r="U291" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V291" s="1">
         <v>0</v>
@@ -21376,7 +21631,7 @@
         <v>29</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -21399,6 +21654,9 @@
       <c r="L292" t="s">
         <v>126</v>
       </c>
+      <c r="M292" t="s">
+        <v>70</v>
+      </c>
       <c r="N292">
         <v>7.8934081346423504E-2</v>
       </c>
@@ -21418,7 +21676,7 @@
         <v>128</v>
       </c>
       <c r="U292" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V292" s="1">
         <v>0</v>
@@ -21438,7 +21696,7 @@
         <v>29</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -21483,7 +21741,7 @@
         <v>128</v>
       </c>
       <c r="U293" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V293" s="1">
         <v>0</v>
@@ -21503,7 +21761,7 @@
         <v>29</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -21523,6 +21781,9 @@
       <c r="K294">
         <v>24</v>
       </c>
+      <c r="L294" t="s">
+        <v>126</v>
+      </c>
       <c r="M294" t="s">
         <v>70</v>
       </c>
@@ -21545,13 +21806,1818 @@
         <v>128</v>
       </c>
       <c r="U294" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V294" s="1">
         <v>0</v>
       </c>
       <c r="W294" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>46</v>
+      </c>
+      <c r="B295" t="s">
+        <v>129</v>
+      </c>
+      <c r="C295" t="s">
+        <v>46</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>25</v>
+      </c>
+      <c r="H295">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I295">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J295">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L295" t="s">
+        <v>79</v>
+      </c>
+      <c r="M295" t="s">
+        <v>31</v>
+      </c>
+      <c r="N295">
+        <v>67</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <v>84</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>11.4</v>
+      </c>
+      <c r="S295" t="s">
+        <v>100</v>
+      </c>
+      <c r="T295" t="s">
+        <v>135</v>
+      </c>
+      <c r="U295" s="1">
+        <v>1</v>
+      </c>
+      <c r="V295" s="1">
+        <v>1</v>
+      </c>
+      <c r="W295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>46</v>
+      </c>
+      <c r="B296" t="s">
+        <v>129</v>
+      </c>
+      <c r="C296" t="s">
+        <v>46</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>25</v>
+      </c>
+      <c r="H296">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I296">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J296">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L296" t="s">
+        <v>132</v>
+      </c>
+      <c r="M296" t="s">
+        <v>48</v>
+      </c>
+      <c r="N296">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>84</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>4.82</v>
+      </c>
+      <c r="S296" t="s">
+        <v>134</v>
+      </c>
+      <c r="T296" t="s">
+        <v>133</v>
+      </c>
+      <c r="U296" s="1">
+        <v>1</v>
+      </c>
+      <c r="V296" s="1">
+        <v>1</v>
+      </c>
+      <c r="W296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>46</v>
+      </c>
+      <c r="B297" t="s">
+        <v>129</v>
+      </c>
+      <c r="C297" t="s">
+        <v>46</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>25</v>
+      </c>
+      <c r="H297">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I297">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J297">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L297" t="s">
+        <v>131</v>
+      </c>
+      <c r="M297" t="s">
+        <v>31</v>
+      </c>
+      <c r="N297">
+        <v>70</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>84</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>14.4</v>
+      </c>
+      <c r="S297" t="s">
+        <v>100</v>
+      </c>
+      <c r="T297" t="s">
+        <v>135</v>
+      </c>
+      <c r="U297" s="1">
+        <v>1</v>
+      </c>
+      <c r="V297" s="1">
+        <v>1</v>
+      </c>
+      <c r="W297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>46</v>
+      </c>
+      <c r="B298" t="s">
+        <v>129</v>
+      </c>
+      <c r="C298" t="s">
+        <v>46</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>25</v>
+      </c>
+      <c r="H298">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I298">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J298">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L298" t="s">
+        <v>130</v>
+      </c>
+      <c r="M298" t="s">
+        <v>80</v>
+      </c>
+      <c r="N298">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>84</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>13.3</v>
+      </c>
+      <c r="S298" t="s">
+        <v>134</v>
+      </c>
+      <c r="T298" t="s">
+        <v>133</v>
+      </c>
+      <c r="U298" s="1">
+        <v>1</v>
+      </c>
+      <c r="V298" s="1">
+        <v>1</v>
+      </c>
+      <c r="W298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>47</v>
+      </c>
+      <c r="B299" t="s">
+        <v>129</v>
+      </c>
+      <c r="C299" t="s">
+        <v>46</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>25</v>
+      </c>
+      <c r="H299">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I299">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J299">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K299">
+        <v>24</v>
+      </c>
+      <c r="L299" t="s">
+        <v>79</v>
+      </c>
+      <c r="M299" t="s">
+        <v>31</v>
+      </c>
+      <c r="N299">
+        <v>65.2</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>84</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>13.18</v>
+      </c>
+      <c r="S299" t="s">
+        <v>100</v>
+      </c>
+      <c r="T299" t="s">
+        <v>135</v>
+      </c>
+      <c r="U299" s="1">
+        <v>1</v>
+      </c>
+      <c r="V299" s="1">
+        <v>1</v>
+      </c>
+      <c r="W299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>47</v>
+      </c>
+      <c r="B300" t="s">
+        <v>129</v>
+      </c>
+      <c r="C300" t="s">
+        <v>46</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>25</v>
+      </c>
+      <c r="H300">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I300">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J300">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K300">
+        <v>24</v>
+      </c>
+      <c r="L300" t="s">
+        <v>132</v>
+      </c>
+      <c r="M300" t="s">
+        <v>48</v>
+      </c>
+      <c r="N300">
+        <v>30.51</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>84</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>0.89</v>
+      </c>
+      <c r="S300" t="s">
+        <v>134</v>
+      </c>
+      <c r="T300" t="s">
+        <v>133</v>
+      </c>
+      <c r="U300" s="1">
+        <v>1</v>
+      </c>
+      <c r="V300" s="1">
+        <v>1</v>
+      </c>
+      <c r="W300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>47</v>
+      </c>
+      <c r="B301" t="s">
+        <v>129</v>
+      </c>
+      <c r="C301" t="s">
+        <v>46</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>25</v>
+      </c>
+      <c r="H301">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I301">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J301">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K301">
+        <v>24</v>
+      </c>
+      <c r="L301" t="s">
+        <v>131</v>
+      </c>
+      <c r="M301" t="s">
+        <v>31</v>
+      </c>
+      <c r="N301">
+        <v>61.25</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>84</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>10.84</v>
+      </c>
+      <c r="S301" t="s">
+        <v>100</v>
+      </c>
+      <c r="T301" t="s">
+        <v>135</v>
+      </c>
+      <c r="U301" s="1">
+        <v>1</v>
+      </c>
+      <c r="V301" s="1">
+        <v>1</v>
+      </c>
+      <c r="W301" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>47</v>
+      </c>
+      <c r="B302" t="s">
+        <v>129</v>
+      </c>
+      <c r="C302" t="s">
+        <v>46</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>25</v>
+      </c>
+      <c r="H302">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I302">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J302">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K302">
+        <v>24</v>
+      </c>
+      <c r="L302" t="s">
+        <v>130</v>
+      </c>
+      <c r="M302" t="s">
+        <v>80</v>
+      </c>
+      <c r="N302">
+        <v>60.19</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>84</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>15.35</v>
+      </c>
+      <c r="S302" t="s">
+        <v>134</v>
+      </c>
+      <c r="T302" t="s">
+        <v>133</v>
+      </c>
+      <c r="U302" s="1">
+        <v>1</v>
+      </c>
+      <c r="V302" s="1">
+        <v>1</v>
+      </c>
+      <c r="W302" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>48</v>
+      </c>
+      <c r="B303" t="s">
+        <v>136</v>
+      </c>
+      <c r="C303" t="s">
+        <v>66</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>19</v>
+      </c>
+      <c r="I303">
+        <v>19</v>
+      </c>
+      <c r="J303">
+        <v>19</v>
+      </c>
+      <c r="L303" t="s">
+        <v>140</v>
+      </c>
+      <c r="M303" t="s">
+        <v>48</v>
+      </c>
+      <c r="N303">
+        <v>76.055996307661601</v>
+      </c>
+      <c r="O303">
+        <v>1</v>
+      </c>
+      <c r="P303">
+        <v>28</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="S303" t="s">
+        <v>147</v>
+      </c>
+      <c r="T303" t="s">
+        <v>148</v>
+      </c>
+      <c r="U303" s="1">
+        <v>1</v>
+      </c>
+      <c r="V303" s="1">
+        <v>1</v>
+      </c>
+      <c r="W303" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>48</v>
+      </c>
+      <c r="B304" t="s">
+        <v>136</v>
+      </c>
+      <c r="C304" t="s">
+        <v>66</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>25</v>
+      </c>
+      <c r="I304">
+        <v>25</v>
+      </c>
+      <c r="J304">
+        <v>25</v>
+      </c>
+      <c r="L304" t="s">
+        <v>140</v>
+      </c>
+      <c r="M304" t="s">
+        <v>48</v>
+      </c>
+      <c r="N304">
+        <v>39.944677294613598</v>
+      </c>
+      <c r="O304">
+        <v>1</v>
+      </c>
+      <c r="P304">
+        <v>25</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>2.0161290322580996</v>
+      </c>
+      <c r="S304" t="s">
+        <v>147</v>
+      </c>
+      <c r="T304" t="s">
+        <v>148</v>
+      </c>
+      <c r="U304" s="1">
+        <v>1</v>
+      </c>
+      <c r="V304" s="1">
+        <v>1</v>
+      </c>
+      <c r="W304" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>48</v>
+      </c>
+      <c r="B305" t="s">
+        <v>136</v>
+      </c>
+      <c r="C305" t="s">
+        <v>66</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>25</v>
+      </c>
+      <c r="I305">
+        <v>19</v>
+      </c>
+      <c r="J305">
+        <v>31</v>
+      </c>
+      <c r="K305">
+        <v>24</v>
+      </c>
+      <c r="L305" t="s">
+        <v>140</v>
+      </c>
+      <c r="M305" t="s">
+        <v>48</v>
+      </c>
+      <c r="N305">
+        <v>41.199573385225598</v>
+      </c>
+      <c r="O305">
+        <v>1</v>
+      </c>
+      <c r="P305">
+        <v>29</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>2.4865591397849514</v>
+      </c>
+      <c r="S305" t="s">
+        <v>147</v>
+      </c>
+      <c r="T305" t="s">
+        <v>148</v>
+      </c>
+      <c r="U305" s="1">
+        <v>1</v>
+      </c>
+      <c r="V305" s="1">
+        <v>1</v>
+      </c>
+      <c r="W305" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>48</v>
+      </c>
+      <c r="B306" t="s">
+        <v>136</v>
+      </c>
+      <c r="C306" t="s">
+        <v>66</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>31</v>
+      </c>
+      <c r="I306">
+        <v>31</v>
+      </c>
+      <c r="J306">
+        <v>31</v>
+      </c>
+      <c r="L306" t="s">
+        <v>140</v>
+      </c>
+      <c r="M306" t="s">
+        <v>48</v>
+      </c>
+      <c r="N306">
+        <v>31.969974802285201</v>
+      </c>
+      <c r="O306">
+        <v>1</v>
+      </c>
+      <c r="P306">
+        <v>25</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>1.9492365840880002</v>
+      </c>
+      <c r="S306" t="s">
+        <v>147</v>
+      </c>
+      <c r="T306" t="s">
+        <v>148</v>
+      </c>
+      <c r="U306" s="1">
+        <v>1</v>
+      </c>
+      <c r="V306" s="1">
+        <v>1</v>
+      </c>
+      <c r="W306" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>49</v>
+      </c>
+      <c r="B307" t="s">
+        <v>136</v>
+      </c>
+      <c r="C307" t="s">
+        <v>67</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>19</v>
+      </c>
+      <c r="I307">
+        <v>19</v>
+      </c>
+      <c r="J307">
+        <v>19</v>
+      </c>
+      <c r="L307" t="s">
+        <v>141</v>
+      </c>
+      <c r="M307" t="s">
+        <v>48</v>
+      </c>
+      <c r="N307">
+        <v>13.494950000312601</v>
+      </c>
+      <c r="O307">
+        <v>1</v>
+      </c>
+      <c r="P307">
+        <v>28</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="S307" t="s">
+        <v>147</v>
+      </c>
+      <c r="T307" t="s">
+        <v>148</v>
+      </c>
+      <c r="U307" s="1">
+        <v>1</v>
+      </c>
+      <c r="V307" s="1">
+        <v>1</v>
+      </c>
+      <c r="W307" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>49</v>
+      </c>
+      <c r="B308" t="s">
+        <v>136</v>
+      </c>
+      <c r="C308" t="s">
+        <v>67</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>25</v>
+      </c>
+      <c r="I308">
+        <v>25</v>
+      </c>
+      <c r="J308">
+        <v>25</v>
+      </c>
+      <c r="L308" t="s">
+        <v>141</v>
+      </c>
+      <c r="M308" t="s">
+        <v>48</v>
+      </c>
+      <c r="N308">
+        <v>9.0026203713547801</v>
+      </c>
+      <c r="O308">
+        <v>1</v>
+      </c>
+      <c r="P308">
+        <v>25</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>0.87334037935972963</v>
+      </c>
+      <c r="S308" t="s">
+        <v>147</v>
+      </c>
+      <c r="T308" t="s">
+        <v>148</v>
+      </c>
+      <c r="U308" s="1">
+        <v>1</v>
+      </c>
+      <c r="V308" s="1">
+        <v>1</v>
+      </c>
+      <c r="W308" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>49</v>
+      </c>
+      <c r="B309" t="s">
+        <v>136</v>
+      </c>
+      <c r="C309" t="s">
+        <v>67</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>25</v>
+      </c>
+      <c r="I309">
+        <v>19</v>
+      </c>
+      <c r="J309">
+        <v>31</v>
+      </c>
+      <c r="K309">
+        <v>24</v>
+      </c>
+      <c r="L309" t="s">
+        <v>141</v>
+      </c>
+      <c r="M309" t="s">
+        <v>48</v>
+      </c>
+      <c r="N309">
+        <v>10.246039737087299</v>
+      </c>
+      <c r="O309">
+        <v>1</v>
+      </c>
+      <c r="P309">
+        <v>29</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>1.1644455006535095</v>
+      </c>
+      <c r="S309" t="s">
+        <v>147</v>
+      </c>
+      <c r="T309" t="s">
+        <v>148</v>
+      </c>
+      <c r="U309" s="1">
+        <v>1</v>
+      </c>
+      <c r="V309" s="1">
+        <v>1</v>
+      </c>
+      <c r="W309" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>49</v>
+      </c>
+      <c r="B310" t="s">
+        <v>136</v>
+      </c>
+      <c r="C310" t="s">
+        <v>67</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>31</v>
+      </c>
+      <c r="I310">
+        <v>31</v>
+      </c>
+      <c r="J310">
+        <v>31</v>
+      </c>
+      <c r="L310" t="s">
+        <v>141</v>
+      </c>
+      <c r="M310" t="s">
+        <v>48</v>
+      </c>
+      <c r="N310">
+        <v>13.343956573129599</v>
+      </c>
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310">
+        <v>25</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>1.3800539083558014</v>
+      </c>
+      <c r="S310" t="s">
+        <v>147</v>
+      </c>
+      <c r="T310" t="s">
+        <v>148</v>
+      </c>
+      <c r="U310" s="1">
+        <v>1</v>
+      </c>
+      <c r="V310" s="1">
+        <v>1</v>
+      </c>
+      <c r="W310" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>50</v>
+      </c>
+      <c r="B311" t="s">
+        <v>136</v>
+      </c>
+      <c r="C311" t="s">
+        <v>137</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>19</v>
+      </c>
+      <c r="I311">
+        <v>19</v>
+      </c>
+      <c r="J311">
+        <v>19</v>
+      </c>
+      <c r="L311" t="s">
+        <v>142</v>
+      </c>
+      <c r="M311" t="s">
+        <v>143</v>
+      </c>
+      <c r="N311">
+        <v>0.20204081632653001</v>
+      </c>
+      <c r="O311">
+        <v>1</v>
+      </c>
+      <c r="P311">
+        <v>28</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="S311" t="s">
+        <v>147</v>
+      </c>
+      <c r="T311" t="s">
+        <v>148</v>
+      </c>
+      <c r="U311" s="1">
+        <v>1</v>
+      </c>
+      <c r="V311" s="1">
+        <v>1</v>
+      </c>
+      <c r="W311" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>50</v>
+      </c>
+      <c r="B312" t="s">
+        <v>136</v>
+      </c>
+      <c r="C312" t="s">
+        <v>137</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>25</v>
+      </c>
+      <c r="I312">
+        <v>25</v>
+      </c>
+      <c r="J312">
+        <v>25</v>
+      </c>
+      <c r="L312" t="s">
+        <v>142</v>
+      </c>
+      <c r="M312" t="s">
+        <v>143</v>
+      </c>
+      <c r="N312">
+        <v>0.24693877551020399</v>
+      </c>
+      <c r="O312">
+        <v>1</v>
+      </c>
+      <c r="P312">
+        <v>25</v>
+      </c>
+      <c r="Q312">
+        <v>0</v>
+      </c>
+      <c r="R312">
+        <v>5.2380952380952486E-2</v>
+      </c>
+      <c r="S312" t="s">
+        <v>147</v>
+      </c>
+      <c r="T312" t="s">
+        <v>148</v>
+      </c>
+      <c r="U312" s="1">
+        <v>1</v>
+      </c>
+      <c r="V312" s="1">
+        <v>1</v>
+      </c>
+      <c r="W312" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>50</v>
+      </c>
+      <c r="B313" t="s">
+        <v>136</v>
+      </c>
+      <c r="C313" t="s">
+        <v>137</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>25</v>
+      </c>
+      <c r="I313">
+        <v>19</v>
+      </c>
+      <c r="J313">
+        <v>31</v>
+      </c>
+      <c r="K313">
+        <v>24</v>
+      </c>
+      <c r="L313" t="s">
+        <v>142</v>
+      </c>
+      <c r="M313" t="s">
+        <v>143</v>
+      </c>
+      <c r="N313">
+        <v>0.27278911564625802</v>
+      </c>
+      <c r="O313">
+        <v>1</v>
+      </c>
+      <c r="P313">
+        <v>29</v>
+      </c>
+      <c r="Q313">
+        <v>0</v>
+      </c>
+      <c r="R313">
+        <v>4.7619047619047492E-2</v>
+      </c>
+      <c r="S313" t="s">
+        <v>147</v>
+      </c>
+      <c r="T313" t="s">
+        <v>148</v>
+      </c>
+      <c r="U313" s="1">
+        <v>1</v>
+      </c>
+      <c r="V313" s="1">
+        <v>1</v>
+      </c>
+      <c r="W313" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>50</v>
+      </c>
+      <c r="B314" t="s">
+        <v>136</v>
+      </c>
+      <c r="C314" t="s">
+        <v>137</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>31</v>
+      </c>
+      <c r="I314">
+        <v>31</v>
+      </c>
+      <c r="J314">
+        <v>31</v>
+      </c>
+      <c r="L314" t="s">
+        <v>142</v>
+      </c>
+      <c r="M314" t="s">
+        <v>143</v>
+      </c>
+      <c r="N314">
+        <v>0.25714285714285701</v>
+      </c>
+      <c r="O314">
+        <v>1</v>
+      </c>
+      <c r="P314">
+        <v>25</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>5.7142857142857009E-2</v>
+      </c>
+      <c r="S314" t="s">
+        <v>147</v>
+      </c>
+      <c r="T314" t="s">
+        <v>148</v>
+      </c>
+      <c r="U314" s="1">
+        <v>1</v>
+      </c>
+      <c r="V314" s="1">
+        <v>1</v>
+      </c>
+      <c r="W314" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>51</v>
+      </c>
+      <c r="B315" t="s">
+        <v>136</v>
+      </c>
+      <c r="C315" t="s">
+        <v>138</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>19</v>
+      </c>
+      <c r="I315">
+        <v>19</v>
+      </c>
+      <c r="J315">
+        <v>19</v>
+      </c>
+      <c r="L315" t="s">
+        <v>144</v>
+      </c>
+      <c r="M315" t="s">
+        <v>143</v>
+      </c>
+      <c r="N315">
+        <v>6.8296257078838601E-2</v>
+      </c>
+      <c r="O315">
+        <v>1</v>
+      </c>
+      <c r="P315">
+        <v>28</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>4.7866894197951398E-2</v>
+      </c>
+      <c r="S315" t="s">
+        <v>147</v>
+      </c>
+      <c r="T315" t="s">
+        <v>148</v>
+      </c>
+      <c r="U315" s="1">
+        <v>1</v>
+      </c>
+      <c r="V315" s="1">
+        <v>1</v>
+      </c>
+      <c r="W315" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>51</v>
+      </c>
+      <c r="B316" t="s">
+        <v>136</v>
+      </c>
+      <c r="C316" t="s">
+        <v>138</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>25</v>
+      </c>
+      <c r="I316">
+        <v>25</v>
+      </c>
+      <c r="J316">
+        <v>25</v>
+      </c>
+      <c r="L316" t="s">
+        <v>144</v>
+      </c>
+      <c r="M316" t="s">
+        <v>143</v>
+      </c>
+      <c r="N316">
+        <v>0.15308183562913</v>
+      </c>
+      <c r="O316">
+        <v>1</v>
+      </c>
+      <c r="P316">
+        <v>25</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>4.0827645051195009E-2</v>
+      </c>
+      <c r="S316" t="s">
+        <v>147</v>
+      </c>
+      <c r="T316" t="s">
+        <v>148</v>
+      </c>
+      <c r="U316" s="1">
+        <v>1</v>
+      </c>
+      <c r="V316" s="1">
+        <v>1</v>
+      </c>
+      <c r="W316" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>51</v>
+      </c>
+      <c r="B317" t="s">
+        <v>136</v>
+      </c>
+      <c r="C317" t="s">
+        <v>138</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>25</v>
+      </c>
+      <c r="I317">
+        <v>19</v>
+      </c>
+      <c r="J317">
+        <v>31</v>
+      </c>
+      <c r="K317">
+        <v>24</v>
+      </c>
+      <c r="L317" t="s">
+        <v>144</v>
+      </c>
+      <c r="M317" t="s">
+        <v>143</v>
+      </c>
+      <c r="N317">
+        <v>0.149642158206725</v>
+      </c>
+      <c r="O317">
+        <v>1</v>
+      </c>
+      <c r="P317">
+        <v>29</v>
+      </c>
+      <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <v>4.9274744027303308E-2</v>
+      </c>
+      <c r="S317" t="s">
+        <v>147</v>
+      </c>
+      <c r="T317" t="s">
+        <v>148</v>
+      </c>
+      <c r="U317" s="1">
+        <v>1</v>
+      </c>
+      <c r="V317" s="1">
+        <v>1</v>
+      </c>
+      <c r="W317" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>51</v>
+      </c>
+      <c r="B318" t="s">
+        <v>136</v>
+      </c>
+      <c r="C318" t="s">
+        <v>138</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>31</v>
+      </c>
+      <c r="I318">
+        <v>31</v>
+      </c>
+      <c r="J318">
+        <v>31</v>
+      </c>
+      <c r="L318" t="s">
+        <v>144</v>
+      </c>
+      <c r="M318" t="s">
+        <v>143</v>
+      </c>
+      <c r="N318">
+        <v>0.153711013207529</v>
+      </c>
+      <c r="O318">
+        <v>1</v>
+      </c>
+      <c r="P318">
+        <v>25</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <v>5.2090443686006654E-2</v>
+      </c>
+      <c r="S318" t="s">
+        <v>147</v>
+      </c>
+      <c r="T318" t="s">
+        <v>148</v>
+      </c>
+      <c r="U318" s="1">
+        <v>1</v>
+      </c>
+      <c r="V318" s="1">
+        <v>1</v>
+      </c>
+      <c r="W318" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>52</v>
+      </c>
+      <c r="B319" t="s">
+        <v>136</v>
+      </c>
+      <c r="C319" t="s">
+        <v>139</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>19</v>
+      </c>
+      <c r="I319">
+        <v>19</v>
+      </c>
+      <c r="J319">
+        <v>19</v>
+      </c>
+      <c r="L319" t="s">
+        <v>145</v>
+      </c>
+      <c r="M319" t="s">
+        <v>146</v>
+      </c>
+      <c r="N319">
+        <v>1.7421602787456401</v>
+      </c>
+      <c r="O319">
+        <v>1</v>
+      </c>
+      <c r="P319">
+        <v>28</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <v>0.8710801393728298</v>
+      </c>
+      <c r="S319" t="s">
+        <v>147</v>
+      </c>
+      <c r="T319" t="s">
+        <v>148</v>
+      </c>
+      <c r="U319" s="1">
+        <v>1</v>
+      </c>
+      <c r="V319" s="1">
+        <v>1</v>
+      </c>
+      <c r="W319" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>52</v>
+      </c>
+      <c r="B320" t="s">
+        <v>136</v>
+      </c>
+      <c r="C320" t="s">
+        <v>139</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>25</v>
+      </c>
+      <c r="I320">
+        <v>25</v>
+      </c>
+      <c r="J320">
+        <v>25</v>
+      </c>
+      <c r="L320" t="s">
+        <v>145</v>
+      </c>
+      <c r="M320" t="s">
+        <v>146</v>
+      </c>
+      <c r="N320">
+        <v>2.8222996515679499</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+      <c r="P320">
+        <v>25</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>2.5958188153310111</v>
+      </c>
+      <c r="S320" t="s">
+        <v>147</v>
+      </c>
+      <c r="T320" t="s">
+        <v>148</v>
+      </c>
+      <c r="U320" s="1">
+        <v>1</v>
+      </c>
+      <c r="V320" s="1">
+        <v>1</v>
+      </c>
+      <c r="W320" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>52</v>
+      </c>
+      <c r="B321" t="s">
+        <v>136</v>
+      </c>
+      <c r="C321" t="s">
+        <v>139</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>25</v>
+      </c>
+      <c r="I321">
+        <v>19</v>
+      </c>
+      <c r="J321">
+        <v>31</v>
+      </c>
+      <c r="K321">
+        <v>24</v>
+      </c>
+      <c r="L321" t="s">
+        <v>145</v>
+      </c>
+      <c r="M321" t="s">
+        <v>146</v>
+      </c>
+      <c r="N321">
+        <v>3.1358885017421598</v>
+      </c>
+      <c r="O321">
+        <v>1</v>
+      </c>
+      <c r="P321">
+        <v>29</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>2.822299651567941</v>
+      </c>
+      <c r="S321" t="s">
+        <v>147</v>
+      </c>
+      <c r="T321" t="s">
+        <v>148</v>
+      </c>
+      <c r="U321" s="1">
+        <v>1</v>
+      </c>
+      <c r="V321" s="1">
+        <v>1</v>
+      </c>
+      <c r="W321" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>52</v>
+      </c>
+      <c r="B322" t="s">
+        <v>136</v>
+      </c>
+      <c r="C322" t="s">
+        <v>139</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>31</v>
+      </c>
+      <c r="I322">
+        <v>31</v>
+      </c>
+      <c r="J322">
+        <v>31</v>
+      </c>
+      <c r="L322" t="s">
+        <v>145</v>
+      </c>
+      <c r="M322" t="s">
+        <v>146</v>
+      </c>
+      <c r="N322">
+        <v>5.6445993031358901</v>
+      </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
+      <c r="P322">
+        <v>25</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>4.5470383275261259</v>
+      </c>
+      <c r="S322" t="s">
+        <v>147</v>
+      </c>
+      <c r="T322" t="s">
+        <v>148</v>
+      </c>
+      <c r="U322" s="1">
+        <v>1</v>
+      </c>
+      <c r="V322" s="1">
+        <v>1</v>
+      </c>
+      <c r="W322" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -21561,10 +23627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C63C9F3-EFBE-D44D-B609-615DB2D2DDEC}">
-  <dimension ref="B1:T6"/>
+  <dimension ref="B1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B1" sqref="B1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21589,10 +23655,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="L1" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O1">
         <v>0</v>
@@ -21604,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
@@ -21630,10 +23696,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -21645,10 +23711,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
@@ -21671,10 +23737,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -21700,31 +23766,22 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
       <c r="H4">
         <v>20.100000000000001</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J4">
-        <v>23</v>
-      </c>
-      <c r="K4">
-        <v>24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -21752,26 +23809,17 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>20.100000000000001</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J5">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -21802,29 +23850,20 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>20.100000000000001</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J6">
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -21839,6 +23878,88 @@
         <v>134</v>
       </c>
       <c r="T6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>84</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>84</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" t="s">
         <v>133</v>
       </c>
     </row>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C518245-1126-A44D-B2F8-3E3A693AB18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{422FD1BC-AAA0-614B-A97B-1FB874C823B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="2080" yWindow="460" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="165">
   <si>
     <t>study_id</t>
   </si>
@@ -474,6 +474,54 @@
   <si>
     <t>natrix</t>
   </si>
+  <si>
+    <t>qu2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">body mass </t>
+  </si>
+  <si>
+    <t>snout-vent length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>abdomen length</t>
+  </si>
+  <si>
+    <t>head length</t>
+  </si>
+  <si>
+    <t>fore-limb length</t>
+  </si>
+  <si>
+    <t>hind-limb length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximal length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprint speed </t>
+  </si>
+  <si>
+    <t>head width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plestiodon </t>
+  </si>
+  <si>
+    <t>chinensis</t>
+  </si>
+  <si>
+    <t>kern2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
 </sst>
 </file>
 
@@ -839,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG322"/>
+  <dimension ref="A1:AG380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D325" sqref="D325"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G387" sqref="G387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23617,6 +23665,3770 @@
         <v>1</v>
       </c>
       <c r="W322" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>53</v>
+      </c>
+      <c r="B323" t="s">
+        <v>149</v>
+      </c>
+      <c r="C323" t="s">
+        <v>150</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>27</v>
+      </c>
+      <c r="I323">
+        <v>27</v>
+      </c>
+      <c r="J323">
+        <v>27</v>
+      </c>
+      <c r="L323" t="s">
+        <v>151</v>
+      </c>
+      <c r="M323" t="s">
+        <v>70</v>
+      </c>
+      <c r="N323">
+        <v>0.71</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>20</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0.02</v>
+      </c>
+      <c r="S323" t="s">
+        <v>161</v>
+      </c>
+      <c r="T323" t="s">
+        <v>162</v>
+      </c>
+      <c r="U323" s="1">
+        <v>1</v>
+      </c>
+      <c r="V323" s="1">
+        <v>1</v>
+      </c>
+      <c r="W323" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>53</v>
+      </c>
+      <c r="B324" t="s">
+        <v>149</v>
+      </c>
+      <c r="C324" t="s">
+        <v>150</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>27</v>
+      </c>
+      <c r="I324">
+        <v>27</v>
+      </c>
+      <c r="J324">
+        <v>27</v>
+      </c>
+      <c r="L324" t="s">
+        <v>152</v>
+      </c>
+      <c r="M324" t="s">
+        <v>35</v>
+      </c>
+      <c r="N324">
+        <v>31.3</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324">
+        <v>20</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0.2</v>
+      </c>
+      <c r="S324" t="s">
+        <v>161</v>
+      </c>
+      <c r="T324" t="s">
+        <v>162</v>
+      </c>
+      <c r="U324" s="1">
+        <v>1</v>
+      </c>
+      <c r="V324" s="1">
+        <v>1</v>
+      </c>
+      <c r="W324" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>53</v>
+      </c>
+      <c r="B325" t="s">
+        <v>149</v>
+      </c>
+      <c r="C325" t="s">
+        <v>150</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>27</v>
+      </c>
+      <c r="I325">
+        <v>27</v>
+      </c>
+      <c r="J325">
+        <v>27</v>
+      </c>
+      <c r="L325" t="s">
+        <v>154</v>
+      </c>
+      <c r="M325" t="s">
+        <v>35</v>
+      </c>
+      <c r="N325">
+        <v>14</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <v>20</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>0.2</v>
+      </c>
+      <c r="S325" t="s">
+        <v>161</v>
+      </c>
+      <c r="T325" t="s">
+        <v>162</v>
+      </c>
+      <c r="U325" s="1">
+        <v>1</v>
+      </c>
+      <c r="V325" s="1">
+        <v>1</v>
+      </c>
+      <c r="W325" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>53</v>
+      </c>
+      <c r="B326" t="s">
+        <v>149</v>
+      </c>
+      <c r="C326" t="s">
+        <v>150</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>27</v>
+      </c>
+      <c r="I326">
+        <v>27</v>
+      </c>
+      <c r="J326">
+        <v>27</v>
+      </c>
+      <c r="L326" t="s">
+        <v>72</v>
+      </c>
+      <c r="M326" t="s">
+        <v>35</v>
+      </c>
+      <c r="N326">
+        <v>37.6</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <v>20</v>
+      </c>
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>0.5</v>
+      </c>
+      <c r="S326" t="s">
+        <v>161</v>
+      </c>
+      <c r="T326" t="s">
+        <v>162</v>
+      </c>
+      <c r="U326" s="1">
+        <v>1</v>
+      </c>
+      <c r="V326" s="1">
+        <v>1</v>
+      </c>
+      <c r="W326" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>53</v>
+      </c>
+      <c r="B327" t="s">
+        <v>149</v>
+      </c>
+      <c r="C327" t="s">
+        <v>150</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>27</v>
+      </c>
+      <c r="I327">
+        <v>27</v>
+      </c>
+      <c r="J327">
+        <v>27</v>
+      </c>
+      <c r="L327" t="s">
+        <v>155</v>
+      </c>
+      <c r="M327" t="s">
+        <v>35</v>
+      </c>
+      <c r="N327">
+        <v>7.2</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+      <c r="P327">
+        <v>20</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>0.03</v>
+      </c>
+      <c r="S327" t="s">
+        <v>161</v>
+      </c>
+      <c r="T327" t="s">
+        <v>162</v>
+      </c>
+      <c r="U327" s="1">
+        <v>1</v>
+      </c>
+      <c r="V327" s="1">
+        <v>1</v>
+      </c>
+      <c r="W327" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>53</v>
+      </c>
+      <c r="B328" t="s">
+        <v>149</v>
+      </c>
+      <c r="C328" t="s">
+        <v>150</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>27</v>
+      </c>
+      <c r="I328">
+        <v>27</v>
+      </c>
+      <c r="J328">
+        <v>27</v>
+      </c>
+      <c r="L328" t="s">
+        <v>160</v>
+      </c>
+      <c r="M328" t="s">
+        <v>35</v>
+      </c>
+      <c r="N328">
+        <v>5.2</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <v>20</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>0.04</v>
+      </c>
+      <c r="S328" t="s">
+        <v>161</v>
+      </c>
+      <c r="T328" t="s">
+        <v>162</v>
+      </c>
+      <c r="U328" s="1">
+        <v>1</v>
+      </c>
+      <c r="V328" s="1">
+        <v>1</v>
+      </c>
+      <c r="W328" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>53</v>
+      </c>
+      <c r="B329" t="s">
+        <v>149</v>
+      </c>
+      <c r="C329" t="s">
+        <v>150</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>27</v>
+      </c>
+      <c r="I329">
+        <v>27</v>
+      </c>
+      <c r="J329">
+        <v>27</v>
+      </c>
+      <c r="L329" t="s">
+        <v>156</v>
+      </c>
+      <c r="M329" t="s">
+        <v>35</v>
+      </c>
+      <c r="N329">
+        <v>6.2</v>
+      </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
+      <c r="P329">
+        <v>20</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>0.04</v>
+      </c>
+      <c r="S329" t="s">
+        <v>161</v>
+      </c>
+      <c r="T329" t="s">
+        <v>162</v>
+      </c>
+      <c r="U329" s="1">
+        <v>1</v>
+      </c>
+      <c r="V329" s="1">
+        <v>1</v>
+      </c>
+      <c r="W329" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>53</v>
+      </c>
+      <c r="B330" t="s">
+        <v>149</v>
+      </c>
+      <c r="C330" t="s">
+        <v>150</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>27</v>
+      </c>
+      <c r="I330">
+        <v>27</v>
+      </c>
+      <c r="J330">
+        <v>27</v>
+      </c>
+      <c r="L330" t="s">
+        <v>157</v>
+      </c>
+      <c r="M330" t="s">
+        <v>35</v>
+      </c>
+      <c r="N330">
+        <v>7.2</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+      <c r="P330">
+        <v>20</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>0.05</v>
+      </c>
+      <c r="S330" t="s">
+        <v>161</v>
+      </c>
+      <c r="T330" t="s">
+        <v>162</v>
+      </c>
+      <c r="U330" s="1">
+        <v>1</v>
+      </c>
+      <c r="V330" s="1">
+        <v>1</v>
+      </c>
+      <c r="W330" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>53</v>
+      </c>
+      <c r="B331" t="s">
+        <v>149</v>
+      </c>
+      <c r="C331" t="s">
+        <v>150</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>27</v>
+      </c>
+      <c r="I331">
+        <v>27</v>
+      </c>
+      <c r="J331">
+        <v>27</v>
+      </c>
+      <c r="L331" t="s">
+        <v>158</v>
+      </c>
+      <c r="M331" t="s">
+        <v>153</v>
+      </c>
+      <c r="N331">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
+      <c r="P331">
+        <v>20</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>0.03</v>
+      </c>
+      <c r="S331" t="s">
+        <v>161</v>
+      </c>
+      <c r="T331" t="s">
+        <v>162</v>
+      </c>
+      <c r="U331" s="1">
+        <v>1</v>
+      </c>
+      <c r="V331" s="1">
+        <v>1</v>
+      </c>
+      <c r="W331" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>53</v>
+      </c>
+      <c r="B332" t="s">
+        <v>149</v>
+      </c>
+      <c r="C332" t="s">
+        <v>150</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>27</v>
+      </c>
+      <c r="I332">
+        <v>27</v>
+      </c>
+      <c r="J332">
+        <v>27</v>
+      </c>
+      <c r="L332" t="s">
+        <v>159</v>
+      </c>
+      <c r="M332" t="s">
+        <v>143</v>
+      </c>
+      <c r="N332">
+        <v>0.43</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+      <c r="P332">
+        <v>20</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>0.01</v>
+      </c>
+      <c r="S332" t="s">
+        <v>161</v>
+      </c>
+      <c r="T332" t="s">
+        <v>162</v>
+      </c>
+      <c r="U332" s="1">
+        <v>1</v>
+      </c>
+      <c r="V332" s="1">
+        <v>1</v>
+      </c>
+      <c r="W332" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>54</v>
+      </c>
+      <c r="B333" t="s">
+        <v>149</v>
+      </c>
+      <c r="C333" t="s">
+        <v>150</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>27</v>
+      </c>
+      <c r="I333">
+        <v>24</v>
+      </c>
+      <c r="J333">
+        <v>30</v>
+      </c>
+      <c r="K333">
+        <v>24</v>
+      </c>
+      <c r="L333" t="s">
+        <v>151</v>
+      </c>
+      <c r="M333" t="s">
+        <v>70</v>
+      </c>
+      <c r="N333">
+        <v>0.7</v>
+      </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
+      <c r="P333">
+        <v>20</v>
+      </c>
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <v>0.01</v>
+      </c>
+      <c r="S333" t="s">
+        <v>161</v>
+      </c>
+      <c r="T333" t="s">
+        <v>162</v>
+      </c>
+      <c r="U333" s="1">
+        <v>1</v>
+      </c>
+      <c r="V333" s="1">
+        <v>1</v>
+      </c>
+      <c r="W333" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>54</v>
+      </c>
+      <c r="B334" t="s">
+        <v>149</v>
+      </c>
+      <c r="C334" t="s">
+        <v>150</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>27</v>
+      </c>
+      <c r="I334">
+        <v>24</v>
+      </c>
+      <c r="J334">
+        <v>30</v>
+      </c>
+      <c r="K334">
+        <v>24</v>
+      </c>
+      <c r="L334" t="s">
+        <v>152</v>
+      </c>
+      <c r="M334" t="s">
+        <v>35</v>
+      </c>
+      <c r="N334">
+        <v>30.7</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+      <c r="P334">
+        <v>20</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>0.3</v>
+      </c>
+      <c r="S334" t="s">
+        <v>161</v>
+      </c>
+      <c r="T334" t="s">
+        <v>162</v>
+      </c>
+      <c r="U334" s="1">
+        <v>1</v>
+      </c>
+      <c r="V334" s="1">
+        <v>1</v>
+      </c>
+      <c r="W334" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>54</v>
+      </c>
+      <c r="B335" t="s">
+        <v>149</v>
+      </c>
+      <c r="C335" t="s">
+        <v>150</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>27</v>
+      </c>
+      <c r="I335">
+        <v>24</v>
+      </c>
+      <c r="J335">
+        <v>30</v>
+      </c>
+      <c r="K335">
+        <v>24</v>
+      </c>
+      <c r="L335" t="s">
+        <v>154</v>
+      </c>
+      <c r="M335" t="s">
+        <v>35</v>
+      </c>
+      <c r="N335">
+        <v>13.9</v>
+      </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
+      <c r="P335">
+        <v>20</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>0.2</v>
+      </c>
+      <c r="S335" t="s">
+        <v>161</v>
+      </c>
+      <c r="T335" t="s">
+        <v>162</v>
+      </c>
+      <c r="U335" s="1">
+        <v>1</v>
+      </c>
+      <c r="V335" s="1">
+        <v>1</v>
+      </c>
+      <c r="W335" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>54</v>
+      </c>
+      <c r="B336" t="s">
+        <v>149</v>
+      </c>
+      <c r="C336" t="s">
+        <v>150</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>27</v>
+      </c>
+      <c r="I336">
+        <v>24</v>
+      </c>
+      <c r="J336">
+        <v>30</v>
+      </c>
+      <c r="K336">
+        <v>24</v>
+      </c>
+      <c r="L336" t="s">
+        <v>72</v>
+      </c>
+      <c r="M336" t="s">
+        <v>35</v>
+      </c>
+      <c r="N336">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+      <c r="P336">
+        <v>20</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336">
+        <v>0.5</v>
+      </c>
+      <c r="S336" t="s">
+        <v>161</v>
+      </c>
+      <c r="T336" t="s">
+        <v>162</v>
+      </c>
+      <c r="U336" s="1">
+        <v>1</v>
+      </c>
+      <c r="V336" s="1">
+        <v>1</v>
+      </c>
+      <c r="W336" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>54</v>
+      </c>
+      <c r="B337" t="s">
+        <v>149</v>
+      </c>
+      <c r="C337" t="s">
+        <v>150</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>27</v>
+      </c>
+      <c r="I337">
+        <v>24</v>
+      </c>
+      <c r="J337">
+        <v>30</v>
+      </c>
+      <c r="K337">
+        <v>24</v>
+      </c>
+      <c r="L337" t="s">
+        <v>155</v>
+      </c>
+      <c r="M337" t="s">
+        <v>35</v>
+      </c>
+      <c r="N337">
+        <v>7.2</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+      <c r="P337">
+        <v>20</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>0.05</v>
+      </c>
+      <c r="S337" t="s">
+        <v>161</v>
+      </c>
+      <c r="T337" t="s">
+        <v>162</v>
+      </c>
+      <c r="U337" s="1">
+        <v>1</v>
+      </c>
+      <c r="V337" s="1">
+        <v>1</v>
+      </c>
+      <c r="W337" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>54</v>
+      </c>
+      <c r="B338" t="s">
+        <v>149</v>
+      </c>
+      <c r="C338" t="s">
+        <v>150</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>27</v>
+      </c>
+      <c r="I338">
+        <v>24</v>
+      </c>
+      <c r="J338">
+        <v>30</v>
+      </c>
+      <c r="K338">
+        <v>24</v>
+      </c>
+      <c r="L338" t="s">
+        <v>160</v>
+      </c>
+      <c r="M338" t="s">
+        <v>35</v>
+      </c>
+      <c r="N338">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <v>20</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>0.03</v>
+      </c>
+      <c r="S338" t="s">
+        <v>161</v>
+      </c>
+      <c r="T338" t="s">
+        <v>162</v>
+      </c>
+      <c r="U338" s="1">
+        <v>1</v>
+      </c>
+      <c r="V338" s="1">
+        <v>1</v>
+      </c>
+      <c r="W338" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>54</v>
+      </c>
+      <c r="B339" t="s">
+        <v>149</v>
+      </c>
+      <c r="C339" t="s">
+        <v>150</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>27</v>
+      </c>
+      <c r="I339">
+        <v>24</v>
+      </c>
+      <c r="J339">
+        <v>30</v>
+      </c>
+      <c r="K339">
+        <v>24</v>
+      </c>
+      <c r="L339" t="s">
+        <v>156</v>
+      </c>
+      <c r="M339" t="s">
+        <v>35</v>
+      </c>
+      <c r="N339">
+        <v>6.1</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <v>20</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>0.06</v>
+      </c>
+      <c r="S339" t="s">
+        <v>161</v>
+      </c>
+      <c r="T339" t="s">
+        <v>162</v>
+      </c>
+      <c r="U339" s="1">
+        <v>1</v>
+      </c>
+      <c r="V339" s="1">
+        <v>1</v>
+      </c>
+      <c r="W339" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>54</v>
+      </c>
+      <c r="B340" t="s">
+        <v>149</v>
+      </c>
+      <c r="C340" t="s">
+        <v>150</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>27</v>
+      </c>
+      <c r="I340">
+        <v>24</v>
+      </c>
+      <c r="J340">
+        <v>30</v>
+      </c>
+      <c r="K340">
+        <v>24</v>
+      </c>
+      <c r="L340" t="s">
+        <v>157</v>
+      </c>
+      <c r="M340" t="s">
+        <v>35</v>
+      </c>
+      <c r="N340">
+        <v>7.1</v>
+      </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
+      <c r="P340">
+        <v>20</v>
+      </c>
+      <c r="Q340">
+        <v>0</v>
+      </c>
+      <c r="R340">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S340" t="s">
+        <v>161</v>
+      </c>
+      <c r="T340" t="s">
+        <v>162</v>
+      </c>
+      <c r="U340" s="1">
+        <v>1</v>
+      </c>
+      <c r="V340" s="1">
+        <v>1</v>
+      </c>
+      <c r="W340" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>54</v>
+      </c>
+      <c r="B341" t="s">
+        <v>149</v>
+      </c>
+      <c r="C341" t="s">
+        <v>150</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>27</v>
+      </c>
+      <c r="I341">
+        <v>24</v>
+      </c>
+      <c r="J341">
+        <v>30</v>
+      </c>
+      <c r="K341">
+        <v>24</v>
+      </c>
+      <c r="L341" t="s">
+        <v>158</v>
+      </c>
+      <c r="M341" t="s">
+        <v>153</v>
+      </c>
+      <c r="N341">
+        <v>0.67</v>
+      </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
+      <c r="P341">
+        <v>20</v>
+      </c>
+      <c r="Q341">
+        <v>0</v>
+      </c>
+      <c r="R341">
+        <v>0.08</v>
+      </c>
+      <c r="S341" t="s">
+        <v>161</v>
+      </c>
+      <c r="T341" t="s">
+        <v>162</v>
+      </c>
+      <c r="U341" s="1">
+        <v>1</v>
+      </c>
+      <c r="V341" s="1">
+        <v>1</v>
+      </c>
+      <c r="W341" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>54</v>
+      </c>
+      <c r="B342" t="s">
+        <v>149</v>
+      </c>
+      <c r="C342" t="s">
+        <v>150</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>27</v>
+      </c>
+      <c r="I342">
+        <v>24</v>
+      </c>
+      <c r="J342">
+        <v>30</v>
+      </c>
+      <c r="K342">
+        <v>24</v>
+      </c>
+      <c r="L342" t="s">
+        <v>159</v>
+      </c>
+      <c r="M342" t="s">
+        <v>143</v>
+      </c>
+      <c r="N342">
+        <v>0.43</v>
+      </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
+      <c r="P342">
+        <v>20</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
+        <v>0.02</v>
+      </c>
+      <c r="S342" t="s">
+        <v>161</v>
+      </c>
+      <c r="T342" t="s">
+        <v>162</v>
+      </c>
+      <c r="U342" s="1">
+        <v>1</v>
+      </c>
+      <c r="V342" s="1">
+        <v>1</v>
+      </c>
+      <c r="W342" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>55</v>
+      </c>
+      <c r="B343" t="s">
+        <v>149</v>
+      </c>
+      <c r="C343" t="s">
+        <v>150</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>27</v>
+      </c>
+      <c r="I343">
+        <v>22</v>
+      </c>
+      <c r="J343">
+        <v>32</v>
+      </c>
+      <c r="K343">
+        <v>24</v>
+      </c>
+      <c r="L343" t="s">
+        <v>151</v>
+      </c>
+      <c r="M343" t="s">
+        <v>70</v>
+      </c>
+      <c r="N343">
+        <v>0.67</v>
+      </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
+      <c r="P343">
+        <v>20</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
+        <v>0.01</v>
+      </c>
+      <c r="S343" t="s">
+        <v>161</v>
+      </c>
+      <c r="T343" t="s">
+        <v>162</v>
+      </c>
+      <c r="U343" s="1">
+        <v>1</v>
+      </c>
+      <c r="V343" s="1">
+        <v>1</v>
+      </c>
+      <c r="W343" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>55</v>
+      </c>
+      <c r="B344" t="s">
+        <v>149</v>
+      </c>
+      <c r="C344" t="s">
+        <v>150</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>27</v>
+      </c>
+      <c r="I344">
+        <v>22</v>
+      </c>
+      <c r="J344">
+        <v>32</v>
+      </c>
+      <c r="K344">
+        <v>24</v>
+      </c>
+      <c r="L344" t="s">
+        <v>152</v>
+      </c>
+      <c r="M344" t="s">
+        <v>35</v>
+      </c>
+      <c r="N344">
+        <v>30.8</v>
+      </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
+      <c r="P344">
+        <v>20</v>
+      </c>
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344">
+        <v>0.3</v>
+      </c>
+      <c r="S344" t="s">
+        <v>161</v>
+      </c>
+      <c r="T344" t="s">
+        <v>162</v>
+      </c>
+      <c r="U344" s="1">
+        <v>1</v>
+      </c>
+      <c r="V344" s="1">
+        <v>1</v>
+      </c>
+      <c r="W344" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>55</v>
+      </c>
+      <c r="B345" t="s">
+        <v>149</v>
+      </c>
+      <c r="C345" t="s">
+        <v>150</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>27</v>
+      </c>
+      <c r="I345">
+        <v>22</v>
+      </c>
+      <c r="J345">
+        <v>32</v>
+      </c>
+      <c r="K345">
+        <v>24</v>
+      </c>
+      <c r="L345" t="s">
+        <v>154</v>
+      </c>
+      <c r="M345" t="s">
+        <v>35</v>
+      </c>
+      <c r="N345">
+        <v>13.8</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+      <c r="P345">
+        <v>20</v>
+      </c>
+      <c r="Q345">
+        <v>0</v>
+      </c>
+      <c r="R345">
+        <v>0.2</v>
+      </c>
+      <c r="S345" t="s">
+        <v>161</v>
+      </c>
+      <c r="T345" t="s">
+        <v>162</v>
+      </c>
+      <c r="U345" s="1">
+        <v>1</v>
+      </c>
+      <c r="V345" s="1">
+        <v>1</v>
+      </c>
+      <c r="W345" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>55</v>
+      </c>
+      <c r="B346" t="s">
+        <v>149</v>
+      </c>
+      <c r="C346" t="s">
+        <v>150</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>27</v>
+      </c>
+      <c r="I346">
+        <v>22</v>
+      </c>
+      <c r="J346">
+        <v>32</v>
+      </c>
+      <c r="K346">
+        <v>24</v>
+      </c>
+      <c r="L346" t="s">
+        <v>72</v>
+      </c>
+      <c r="M346" t="s">
+        <v>35</v>
+      </c>
+      <c r="N346">
+        <v>36.9</v>
+      </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
+      <c r="P346">
+        <v>20</v>
+      </c>
+      <c r="Q346">
+        <v>0</v>
+      </c>
+      <c r="R346">
+        <v>0.6</v>
+      </c>
+      <c r="S346" t="s">
+        <v>161</v>
+      </c>
+      <c r="T346" t="s">
+        <v>162</v>
+      </c>
+      <c r="U346" s="1">
+        <v>1</v>
+      </c>
+      <c r="V346" s="1">
+        <v>1</v>
+      </c>
+      <c r="W346" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>55</v>
+      </c>
+      <c r="B347" t="s">
+        <v>149</v>
+      </c>
+      <c r="C347" t="s">
+        <v>150</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>27</v>
+      </c>
+      <c r="I347">
+        <v>22</v>
+      </c>
+      <c r="J347">
+        <v>32</v>
+      </c>
+      <c r="K347">
+        <v>24</v>
+      </c>
+      <c r="L347" t="s">
+        <v>155</v>
+      </c>
+      <c r="M347" t="s">
+        <v>35</v>
+      </c>
+      <c r="N347">
+        <v>7.1</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+      <c r="P347">
+        <v>20</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <v>0.05</v>
+      </c>
+      <c r="S347" t="s">
+        <v>161</v>
+      </c>
+      <c r="T347" t="s">
+        <v>162</v>
+      </c>
+      <c r="U347" s="1">
+        <v>1</v>
+      </c>
+      <c r="V347" s="1">
+        <v>1</v>
+      </c>
+      <c r="W347" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>55</v>
+      </c>
+      <c r="B348" t="s">
+        <v>149</v>
+      </c>
+      <c r="C348" t="s">
+        <v>150</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>27</v>
+      </c>
+      <c r="I348">
+        <v>22</v>
+      </c>
+      <c r="J348">
+        <v>32</v>
+      </c>
+      <c r="K348">
+        <v>24</v>
+      </c>
+      <c r="L348" t="s">
+        <v>160</v>
+      </c>
+      <c r="M348" t="s">
+        <v>35</v>
+      </c>
+      <c r="N348">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+      <c r="P348">
+        <v>20</v>
+      </c>
+      <c r="Q348">
+        <v>0</v>
+      </c>
+      <c r="R348">
+        <v>0.04</v>
+      </c>
+      <c r="S348" t="s">
+        <v>161</v>
+      </c>
+      <c r="T348" t="s">
+        <v>162</v>
+      </c>
+      <c r="U348" s="1">
+        <v>1</v>
+      </c>
+      <c r="V348" s="1">
+        <v>1</v>
+      </c>
+      <c r="W348" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>55</v>
+      </c>
+      <c r="B349" t="s">
+        <v>149</v>
+      </c>
+      <c r="C349" t="s">
+        <v>150</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>27</v>
+      </c>
+      <c r="I349">
+        <v>22</v>
+      </c>
+      <c r="J349">
+        <v>32</v>
+      </c>
+      <c r="K349">
+        <v>24</v>
+      </c>
+      <c r="L349" t="s">
+        <v>156</v>
+      </c>
+      <c r="M349" t="s">
+        <v>35</v>
+      </c>
+      <c r="N349">
+        <v>6</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+      <c r="P349">
+        <v>20</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>0.06</v>
+      </c>
+      <c r="S349" t="s">
+        <v>161</v>
+      </c>
+      <c r="T349" t="s">
+        <v>162</v>
+      </c>
+      <c r="U349" s="1">
+        <v>1</v>
+      </c>
+      <c r="V349" s="1">
+        <v>1</v>
+      </c>
+      <c r="W349" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>55</v>
+      </c>
+      <c r="B350" t="s">
+        <v>149</v>
+      </c>
+      <c r="C350" t="s">
+        <v>150</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>27</v>
+      </c>
+      <c r="I350">
+        <v>22</v>
+      </c>
+      <c r="J350">
+        <v>32</v>
+      </c>
+      <c r="K350">
+        <v>24</v>
+      </c>
+      <c r="L350" t="s">
+        <v>157</v>
+      </c>
+      <c r="M350" t="s">
+        <v>35</v>
+      </c>
+      <c r="N350">
+        <v>7.1</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+      <c r="P350">
+        <v>20</v>
+      </c>
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <v>0.06</v>
+      </c>
+      <c r="S350" t="s">
+        <v>161</v>
+      </c>
+      <c r="T350" t="s">
+        <v>162</v>
+      </c>
+      <c r="U350" s="1">
+        <v>1</v>
+      </c>
+      <c r="V350" s="1">
+        <v>1</v>
+      </c>
+      <c r="W350" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>55</v>
+      </c>
+      <c r="B351" t="s">
+        <v>149</v>
+      </c>
+      <c r="C351" t="s">
+        <v>150</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>27</v>
+      </c>
+      <c r="I351">
+        <v>22</v>
+      </c>
+      <c r="J351">
+        <v>32</v>
+      </c>
+      <c r="K351">
+        <v>24</v>
+      </c>
+      <c r="L351" t="s">
+        <v>158</v>
+      </c>
+      <c r="M351" t="s">
+        <v>153</v>
+      </c>
+      <c r="N351">
+        <v>0.67</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+      <c r="P351">
+        <v>20</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>0.06</v>
+      </c>
+      <c r="S351" t="s">
+        <v>161</v>
+      </c>
+      <c r="T351" t="s">
+        <v>162</v>
+      </c>
+      <c r="U351" s="1">
+        <v>1</v>
+      </c>
+      <c r="V351" s="1">
+        <v>1</v>
+      </c>
+      <c r="W351" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>55</v>
+      </c>
+      <c r="B352" t="s">
+        <v>149</v>
+      </c>
+      <c r="C352" t="s">
+        <v>150</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>27</v>
+      </c>
+      <c r="I352">
+        <v>22</v>
+      </c>
+      <c r="J352">
+        <v>32</v>
+      </c>
+      <c r="K352">
+        <v>24</v>
+      </c>
+      <c r="L352" t="s">
+        <v>159</v>
+      </c>
+      <c r="M352" t="s">
+        <v>143</v>
+      </c>
+      <c r="N352">
+        <v>0.46</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352">
+        <v>20</v>
+      </c>
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <v>0.03</v>
+      </c>
+      <c r="S352" t="s">
+        <v>161</v>
+      </c>
+      <c r="T352" t="s">
+        <v>162</v>
+      </c>
+      <c r="U352" s="1">
+        <v>1</v>
+      </c>
+      <c r="V352" s="1">
+        <v>1</v>
+      </c>
+      <c r="W352" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>56</v>
+      </c>
+      <c r="B353" t="s">
+        <v>149</v>
+      </c>
+      <c r="C353" t="s">
+        <v>150</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+      <c r="H353">
+        <v>27</v>
+      </c>
+      <c r="I353">
+        <v>26.2</v>
+      </c>
+      <c r="J353">
+        <v>28.3</v>
+      </c>
+      <c r="L353" t="s">
+        <v>151</v>
+      </c>
+      <c r="M353" t="s">
+        <v>70</v>
+      </c>
+      <c r="N353">
+        <v>0.67</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <v>20</v>
+      </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
+      <c r="R353">
+        <v>0.01</v>
+      </c>
+      <c r="S353" t="s">
+        <v>161</v>
+      </c>
+      <c r="T353" t="s">
+        <v>162</v>
+      </c>
+      <c r="U353" s="1">
+        <v>1</v>
+      </c>
+      <c r="V353" s="1">
+        <v>1</v>
+      </c>
+      <c r="W353" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>56</v>
+      </c>
+      <c r="B354" t="s">
+        <v>149</v>
+      </c>
+      <c r="C354" t="s">
+        <v>150</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>2</v>
+      </c>
+      <c r="H354">
+        <v>27</v>
+      </c>
+      <c r="I354">
+        <v>26.2</v>
+      </c>
+      <c r="J354">
+        <v>28.3</v>
+      </c>
+      <c r="L354" t="s">
+        <v>152</v>
+      </c>
+      <c r="M354" t="s">
+        <v>35</v>
+      </c>
+      <c r="N354">
+        <v>30.8</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+      <c r="P354">
+        <v>20</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>0.2</v>
+      </c>
+      <c r="S354" t="s">
+        <v>161</v>
+      </c>
+      <c r="T354" t="s">
+        <v>162</v>
+      </c>
+      <c r="U354" s="1">
+        <v>1</v>
+      </c>
+      <c r="V354" s="1">
+        <v>1</v>
+      </c>
+      <c r="W354" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>56</v>
+      </c>
+      <c r="B355" t="s">
+        <v>149</v>
+      </c>
+      <c r="C355" t="s">
+        <v>150</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>2</v>
+      </c>
+      <c r="H355">
+        <v>27</v>
+      </c>
+      <c r="I355">
+        <v>26.2</v>
+      </c>
+      <c r="J355">
+        <v>28.3</v>
+      </c>
+      <c r="L355" t="s">
+        <v>154</v>
+      </c>
+      <c r="M355" t="s">
+        <v>35</v>
+      </c>
+      <c r="N355">
+        <v>14.1</v>
+      </c>
+      <c r="O355">
+        <v>0</v>
+      </c>
+      <c r="P355">
+        <v>20</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <v>0.1</v>
+      </c>
+      <c r="S355" t="s">
+        <v>161</v>
+      </c>
+      <c r="T355" t="s">
+        <v>162</v>
+      </c>
+      <c r="U355" s="1">
+        <v>1</v>
+      </c>
+      <c r="V355" s="1">
+        <v>1</v>
+      </c>
+      <c r="W355" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>56</v>
+      </c>
+      <c r="B356" t="s">
+        <v>149</v>
+      </c>
+      <c r="C356" t="s">
+        <v>150</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>2</v>
+      </c>
+      <c r="H356">
+        <v>27</v>
+      </c>
+      <c r="I356">
+        <v>26.2</v>
+      </c>
+      <c r="J356">
+        <v>28.3</v>
+      </c>
+      <c r="L356" t="s">
+        <v>72</v>
+      </c>
+      <c r="M356" t="s">
+        <v>35</v>
+      </c>
+      <c r="N356">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
+      <c r="P356">
+        <v>20</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>0.5</v>
+      </c>
+      <c r="S356" t="s">
+        <v>161</v>
+      </c>
+      <c r="T356" t="s">
+        <v>162</v>
+      </c>
+      <c r="U356" s="1">
+        <v>1</v>
+      </c>
+      <c r="V356" s="1">
+        <v>1</v>
+      </c>
+      <c r="W356" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>56</v>
+      </c>
+      <c r="B357" t="s">
+        <v>149</v>
+      </c>
+      <c r="C357" t="s">
+        <v>150</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>2</v>
+      </c>
+      <c r="H357">
+        <v>27</v>
+      </c>
+      <c r="I357">
+        <v>26.2</v>
+      </c>
+      <c r="J357">
+        <v>28.3</v>
+      </c>
+      <c r="L357" t="s">
+        <v>155</v>
+      </c>
+      <c r="M357" t="s">
+        <v>35</v>
+      </c>
+      <c r="N357">
+        <v>7.1</v>
+      </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
+      <c r="P357">
+        <v>20</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0.03</v>
+      </c>
+      <c r="S357" t="s">
+        <v>161</v>
+      </c>
+      <c r="T357" t="s">
+        <v>162</v>
+      </c>
+      <c r="U357" s="1">
+        <v>1</v>
+      </c>
+      <c r="V357" s="1">
+        <v>1</v>
+      </c>
+      <c r="W357" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>56</v>
+      </c>
+      <c r="B358" t="s">
+        <v>149</v>
+      </c>
+      <c r="C358" t="s">
+        <v>150</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>2</v>
+      </c>
+      <c r="H358">
+        <v>27</v>
+      </c>
+      <c r="I358">
+        <v>26.2</v>
+      </c>
+      <c r="J358">
+        <v>28.3</v>
+      </c>
+      <c r="L358" t="s">
+        <v>160</v>
+      </c>
+      <c r="M358" t="s">
+        <v>35</v>
+      </c>
+      <c r="N358">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <v>20</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>0.03</v>
+      </c>
+      <c r="S358" t="s">
+        <v>161</v>
+      </c>
+      <c r="T358" t="s">
+        <v>162</v>
+      </c>
+      <c r="U358" s="1">
+        <v>1</v>
+      </c>
+      <c r="V358" s="1">
+        <v>1</v>
+      </c>
+      <c r="W358" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>56</v>
+      </c>
+      <c r="B359" t="s">
+        <v>149</v>
+      </c>
+      <c r="C359" t="s">
+        <v>150</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>2</v>
+      </c>
+      <c r="H359">
+        <v>27</v>
+      </c>
+      <c r="I359">
+        <v>26.2</v>
+      </c>
+      <c r="J359">
+        <v>28.3</v>
+      </c>
+      <c r="L359" t="s">
+        <v>156</v>
+      </c>
+      <c r="M359" t="s">
+        <v>35</v>
+      </c>
+      <c r="N359">
+        <v>6.1</v>
+      </c>
+      <c r="O359">
+        <v>0</v>
+      </c>
+      <c r="P359">
+        <v>20</v>
+      </c>
+      <c r="Q359">
+        <v>0</v>
+      </c>
+      <c r="R359">
+        <v>0.05</v>
+      </c>
+      <c r="S359" t="s">
+        <v>161</v>
+      </c>
+      <c r="T359" t="s">
+        <v>162</v>
+      </c>
+      <c r="U359" s="1">
+        <v>1</v>
+      </c>
+      <c r="V359" s="1">
+        <v>1</v>
+      </c>
+      <c r="W359" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>56</v>
+      </c>
+      <c r="B360" t="s">
+        <v>149</v>
+      </c>
+      <c r="C360" t="s">
+        <v>150</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>2</v>
+      </c>
+      <c r="H360">
+        <v>27</v>
+      </c>
+      <c r="I360">
+        <v>26.2</v>
+      </c>
+      <c r="J360">
+        <v>28.3</v>
+      </c>
+      <c r="L360" t="s">
+        <v>157</v>
+      </c>
+      <c r="M360" t="s">
+        <v>35</v>
+      </c>
+      <c r="N360">
+        <v>7.2</v>
+      </c>
+      <c r="O360">
+        <v>0</v>
+      </c>
+      <c r="P360">
+        <v>20</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>0.05</v>
+      </c>
+      <c r="S360" t="s">
+        <v>161</v>
+      </c>
+      <c r="T360" t="s">
+        <v>162</v>
+      </c>
+      <c r="U360" s="1">
+        <v>1</v>
+      </c>
+      <c r="V360" s="1">
+        <v>1</v>
+      </c>
+      <c r="W360" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>56</v>
+      </c>
+      <c r="B361" t="s">
+        <v>149</v>
+      </c>
+      <c r="C361" t="s">
+        <v>150</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>2</v>
+      </c>
+      <c r="H361">
+        <v>27</v>
+      </c>
+      <c r="I361">
+        <v>26.2</v>
+      </c>
+      <c r="J361">
+        <v>28.3</v>
+      </c>
+      <c r="L361" t="s">
+        <v>158</v>
+      </c>
+      <c r="M361" t="s">
+        <v>153</v>
+      </c>
+      <c r="N361">
+        <v>0.67</v>
+      </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
+      <c r="P361">
+        <v>20</v>
+      </c>
+      <c r="Q361">
+        <v>0</v>
+      </c>
+      <c r="R361">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S361" t="s">
+        <v>161</v>
+      </c>
+      <c r="T361" t="s">
+        <v>162</v>
+      </c>
+      <c r="U361" s="1">
+        <v>1</v>
+      </c>
+      <c r="V361" s="1">
+        <v>1</v>
+      </c>
+      <c r="W361" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>56</v>
+      </c>
+      <c r="B362" t="s">
+        <v>149</v>
+      </c>
+      <c r="C362" t="s">
+        <v>150</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+      <c r="H362">
+        <v>27</v>
+      </c>
+      <c r="I362">
+        <v>26.2</v>
+      </c>
+      <c r="J362">
+        <v>28.3</v>
+      </c>
+      <c r="L362" t="s">
+        <v>159</v>
+      </c>
+      <c r="M362" t="s">
+        <v>143</v>
+      </c>
+      <c r="N362">
+        <v>0.44</v>
+      </c>
+      <c r="O362">
+        <v>0</v>
+      </c>
+      <c r="P362">
+        <v>20</v>
+      </c>
+      <c r="Q362">
+        <v>0</v>
+      </c>
+      <c r="R362">
+        <v>0.02</v>
+      </c>
+      <c r="S362" t="s">
+        <v>161</v>
+      </c>
+      <c r="T362" t="s">
+        <v>162</v>
+      </c>
+      <c r="U362" s="1">
+        <v>1</v>
+      </c>
+      <c r="V362" s="1">
+        <v>1</v>
+      </c>
+      <c r="W362" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>57</v>
+      </c>
+      <c r="B363" t="s">
+        <v>149</v>
+      </c>
+      <c r="C363" t="s">
+        <v>150</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="H363">
+        <v>26.1</v>
+      </c>
+      <c r="I363">
+        <v>24.7</v>
+      </c>
+      <c r="J363">
+        <v>28.2</v>
+      </c>
+      <c r="L363" t="s">
+        <v>151</v>
+      </c>
+      <c r="M363" t="s">
+        <v>70</v>
+      </c>
+      <c r="N363">
+        <v>0.69</v>
+      </c>
+      <c r="O363">
+        <v>0</v>
+      </c>
+      <c r="P363">
+        <v>20</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0.01</v>
+      </c>
+      <c r="S363" t="s">
+        <v>161</v>
+      </c>
+      <c r="T363" t="s">
+        <v>162</v>
+      </c>
+      <c r="U363" s="1">
+        <v>1</v>
+      </c>
+      <c r="V363" s="1">
+        <v>1</v>
+      </c>
+      <c r="W363" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>57</v>
+      </c>
+      <c r="B364" t="s">
+        <v>149</v>
+      </c>
+      <c r="C364" t="s">
+        <v>150</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>2</v>
+      </c>
+      <c r="H364">
+        <v>26.1</v>
+      </c>
+      <c r="I364">
+        <v>24.7</v>
+      </c>
+      <c r="J364">
+        <v>28.2</v>
+      </c>
+      <c r="L364" t="s">
+        <v>152</v>
+      </c>
+      <c r="M364" t="s">
+        <v>35</v>
+      </c>
+      <c r="N364">
+        <v>30.9</v>
+      </c>
+      <c r="O364">
+        <v>0</v>
+      </c>
+      <c r="P364">
+        <v>20</v>
+      </c>
+      <c r="Q364">
+        <v>0</v>
+      </c>
+      <c r="R364">
+        <v>0.2</v>
+      </c>
+      <c r="S364" t="s">
+        <v>161</v>
+      </c>
+      <c r="T364" t="s">
+        <v>162</v>
+      </c>
+      <c r="U364" s="1">
+        <v>1</v>
+      </c>
+      <c r="V364" s="1">
+        <v>1</v>
+      </c>
+      <c r="W364" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>57</v>
+      </c>
+      <c r="B365" t="s">
+        <v>149</v>
+      </c>
+      <c r="C365" t="s">
+        <v>150</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="H365">
+        <v>26.1</v>
+      </c>
+      <c r="I365">
+        <v>24.7</v>
+      </c>
+      <c r="J365">
+        <v>28.2</v>
+      </c>
+      <c r="L365" t="s">
+        <v>154</v>
+      </c>
+      <c r="M365" t="s">
+        <v>35</v>
+      </c>
+      <c r="N365">
+        <v>13.9</v>
+      </c>
+      <c r="O365">
+        <v>0</v>
+      </c>
+      <c r="P365">
+        <v>20</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <v>0.1</v>
+      </c>
+      <c r="S365" t="s">
+        <v>161</v>
+      </c>
+      <c r="T365" t="s">
+        <v>162</v>
+      </c>
+      <c r="U365" s="1">
+        <v>1</v>
+      </c>
+      <c r="V365" s="1">
+        <v>1</v>
+      </c>
+      <c r="W365" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>57</v>
+      </c>
+      <c r="B366" t="s">
+        <v>149</v>
+      </c>
+      <c r="C366" t="s">
+        <v>150</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>2</v>
+      </c>
+      <c r="H366">
+        <v>26.1</v>
+      </c>
+      <c r="I366">
+        <v>24.7</v>
+      </c>
+      <c r="J366">
+        <v>28.2</v>
+      </c>
+      <c r="L366" t="s">
+        <v>72</v>
+      </c>
+      <c r="M366" t="s">
+        <v>35</v>
+      </c>
+      <c r="N366">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O366">
+        <v>0</v>
+      </c>
+      <c r="P366">
+        <v>20</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <v>0.5</v>
+      </c>
+      <c r="S366" t="s">
+        <v>161</v>
+      </c>
+      <c r="T366" t="s">
+        <v>162</v>
+      </c>
+      <c r="U366" s="1">
+        <v>1</v>
+      </c>
+      <c r="V366" s="1">
+        <v>1</v>
+      </c>
+      <c r="W366" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>57</v>
+      </c>
+      <c r="B367" t="s">
+        <v>149</v>
+      </c>
+      <c r="C367" t="s">
+        <v>150</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="H367">
+        <v>26.1</v>
+      </c>
+      <c r="I367">
+        <v>24.7</v>
+      </c>
+      <c r="J367">
+        <v>28.2</v>
+      </c>
+      <c r="L367" t="s">
+        <v>155</v>
+      </c>
+      <c r="M367" t="s">
+        <v>35</v>
+      </c>
+      <c r="N367">
+        <v>7.2</v>
+      </c>
+      <c r="O367">
+        <v>0</v>
+      </c>
+      <c r="P367">
+        <v>20</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>0.02</v>
+      </c>
+      <c r="S367" t="s">
+        <v>161</v>
+      </c>
+      <c r="T367" t="s">
+        <v>162</v>
+      </c>
+      <c r="U367" s="1">
+        <v>1</v>
+      </c>
+      <c r="V367" s="1">
+        <v>1</v>
+      </c>
+      <c r="W367" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>57</v>
+      </c>
+      <c r="B368" t="s">
+        <v>149</v>
+      </c>
+      <c r="C368" t="s">
+        <v>150</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>2</v>
+      </c>
+      <c r="H368">
+        <v>26.1</v>
+      </c>
+      <c r="I368">
+        <v>24.7</v>
+      </c>
+      <c r="J368">
+        <v>28.2</v>
+      </c>
+      <c r="L368" t="s">
+        <v>160</v>
+      </c>
+      <c r="M368" t="s">
+        <v>35</v>
+      </c>
+      <c r="N368">
+        <v>5.2</v>
+      </c>
+      <c r="O368">
+        <v>0</v>
+      </c>
+      <c r="P368">
+        <v>20</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>0.02</v>
+      </c>
+      <c r="S368" t="s">
+        <v>161</v>
+      </c>
+      <c r="T368" t="s">
+        <v>162</v>
+      </c>
+      <c r="U368" s="1">
+        <v>1</v>
+      </c>
+      <c r="V368" s="1">
+        <v>1</v>
+      </c>
+      <c r="W368" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>57</v>
+      </c>
+      <c r="B369" t="s">
+        <v>149</v>
+      </c>
+      <c r="C369" t="s">
+        <v>150</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>2</v>
+      </c>
+      <c r="H369">
+        <v>26.1</v>
+      </c>
+      <c r="I369">
+        <v>24.7</v>
+      </c>
+      <c r="J369">
+        <v>28.2</v>
+      </c>
+      <c r="L369" t="s">
+        <v>156</v>
+      </c>
+      <c r="M369" t="s">
+        <v>35</v>
+      </c>
+      <c r="N369">
+        <v>6.1</v>
+      </c>
+      <c r="O369">
+        <v>0</v>
+      </c>
+      <c r="P369">
+        <v>20</v>
+      </c>
+      <c r="Q369">
+        <v>0</v>
+      </c>
+      <c r="R369">
+        <v>0.04</v>
+      </c>
+      <c r="S369" t="s">
+        <v>161</v>
+      </c>
+      <c r="T369" t="s">
+        <v>162</v>
+      </c>
+      <c r="U369" s="1">
+        <v>1</v>
+      </c>
+      <c r="V369" s="1">
+        <v>1</v>
+      </c>
+      <c r="W369" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>57</v>
+      </c>
+      <c r="B370" t="s">
+        <v>149</v>
+      </c>
+      <c r="C370" t="s">
+        <v>150</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>2</v>
+      </c>
+      <c r="H370">
+        <v>26.1</v>
+      </c>
+      <c r="I370">
+        <v>24.7</v>
+      </c>
+      <c r="J370">
+        <v>28.2</v>
+      </c>
+      <c r="L370" t="s">
+        <v>157</v>
+      </c>
+      <c r="M370" t="s">
+        <v>35</v>
+      </c>
+      <c r="N370">
+        <v>7.2</v>
+      </c>
+      <c r="O370">
+        <v>0</v>
+      </c>
+      <c r="P370">
+        <v>20</v>
+      </c>
+      <c r="Q370">
+        <v>0</v>
+      </c>
+      <c r="R370">
+        <v>0.04</v>
+      </c>
+      <c r="S370" t="s">
+        <v>161</v>
+      </c>
+      <c r="T370" t="s">
+        <v>162</v>
+      </c>
+      <c r="U370" s="1">
+        <v>1</v>
+      </c>
+      <c r="V370" s="1">
+        <v>1</v>
+      </c>
+      <c r="W370" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>57</v>
+      </c>
+      <c r="B371" t="s">
+        <v>149</v>
+      </c>
+      <c r="C371" t="s">
+        <v>150</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+      <c r="H371">
+        <v>26.1</v>
+      </c>
+      <c r="I371">
+        <v>24.7</v>
+      </c>
+      <c r="J371">
+        <v>28.2</v>
+      </c>
+      <c r="L371" t="s">
+        <v>158</v>
+      </c>
+      <c r="M371" t="s">
+        <v>153</v>
+      </c>
+      <c r="N371">
+        <v>0.64</v>
+      </c>
+      <c r="O371">
+        <v>0</v>
+      </c>
+      <c r="P371">
+        <v>20</v>
+      </c>
+      <c r="Q371">
+        <v>0</v>
+      </c>
+      <c r="R371">
+        <v>0.04</v>
+      </c>
+      <c r="S371" t="s">
+        <v>161</v>
+      </c>
+      <c r="T371" t="s">
+        <v>162</v>
+      </c>
+      <c r="U371" s="1">
+        <v>1</v>
+      </c>
+      <c r="V371" s="1">
+        <v>1</v>
+      </c>
+      <c r="W371" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>57</v>
+      </c>
+      <c r="B372" t="s">
+        <v>149</v>
+      </c>
+      <c r="C372" t="s">
+        <v>150</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="H372">
+        <v>26.1</v>
+      </c>
+      <c r="I372">
+        <v>24.7</v>
+      </c>
+      <c r="J372">
+        <v>28.2</v>
+      </c>
+      <c r="L372" t="s">
+        <v>159</v>
+      </c>
+      <c r="M372" t="s">
+        <v>143</v>
+      </c>
+      <c r="N372">
+        <v>0.45</v>
+      </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <v>20</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <v>0.02</v>
+      </c>
+      <c r="S372" t="s">
+        <v>161</v>
+      </c>
+      <c r="T372" t="s">
+        <v>162</v>
+      </c>
+      <c r="U372" s="1">
+        <v>1</v>
+      </c>
+      <c r="V372" s="1">
+        <v>1</v>
+      </c>
+      <c r="W372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>58</v>
+      </c>
+      <c r="B373" t="s">
+        <v>163</v>
+      </c>
+      <c r="C373" t="s">
+        <v>52</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>24</v>
+      </c>
+      <c r="H373">
+        <v>24</v>
+      </c>
+      <c r="I373">
+        <v>24</v>
+      </c>
+      <c r="J373">
+        <v>24</v>
+      </c>
+      <c r="L373" t="s">
+        <v>151</v>
+      </c>
+      <c r="M373" t="s">
+        <v>70</v>
+      </c>
+      <c r="N373">
+        <v>0.28354430379746798</v>
+      </c>
+      <c r="O373">
+        <v>1</v>
+      </c>
+      <c r="P373">
+        <v>91</v>
+      </c>
+      <c r="Q373">
+        <v>0</v>
+      </c>
+      <c r="R373">
+        <v>5.9071729957805019E-3</v>
+      </c>
+      <c r="S373" t="s">
+        <v>76</v>
+      </c>
+      <c r="T373" t="s">
+        <v>77</v>
+      </c>
+      <c r="U373" s="1">
+        <v>1</v>
+      </c>
+      <c r="V373" s="1">
+        <v>1</v>
+      </c>
+      <c r="W373" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>58</v>
+      </c>
+      <c r="B374" t="s">
+        <v>163</v>
+      </c>
+      <c r="C374" t="s">
+        <v>52</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>24</v>
+      </c>
+      <c r="H374">
+        <v>24</v>
+      </c>
+      <c r="I374">
+        <v>24</v>
+      </c>
+      <c r="J374">
+        <v>24</v>
+      </c>
+      <c r="L374" t="s">
+        <v>151</v>
+      </c>
+      <c r="M374" t="s">
+        <v>70</v>
+      </c>
+      <c r="N374">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="O374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>94</v>
+      </c>
+      <c r="Q374">
+        <v>0</v>
+      </c>
+      <c r="R374">
+        <v>6.4697609001405088E-3</v>
+      </c>
+      <c r="S374" t="s">
+        <v>76</v>
+      </c>
+      <c r="T374" t="s">
+        <v>77</v>
+      </c>
+      <c r="U374" s="1">
+        <v>1</v>
+      </c>
+      <c r="V374" s="1">
+        <v>1</v>
+      </c>
+      <c r="W374" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>58</v>
+      </c>
+      <c r="B375" t="s">
+        <v>163</v>
+      </c>
+      <c r="C375" t="s">
+        <v>52</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>24</v>
+      </c>
+      <c r="H375">
+        <v>24</v>
+      </c>
+      <c r="I375">
+        <v>18</v>
+      </c>
+      <c r="J375">
+        <v>32</v>
+      </c>
+      <c r="K375">
+        <v>24</v>
+      </c>
+      <c r="L375" t="s">
+        <v>151</v>
+      </c>
+      <c r="M375" t="s">
+        <v>70</v>
+      </c>
+      <c r="N375">
+        <v>0.25147679324894501</v>
+      </c>
+      <c r="O375">
+        <v>1</v>
+      </c>
+      <c r="P375">
+        <v>107</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375">
+        <v>5.9071729957805158E-3</v>
+      </c>
+      <c r="S375" t="s">
+        <v>76</v>
+      </c>
+      <c r="T375" t="s">
+        <v>77</v>
+      </c>
+      <c r="U375" s="1">
+        <v>1</v>
+      </c>
+      <c r="V375" s="1">
+        <v>1</v>
+      </c>
+      <c r="W375" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>58</v>
+      </c>
+      <c r="B376" t="s">
+        <v>163</v>
+      </c>
+      <c r="C376" t="s">
+        <v>52</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+      <c r="G376">
+        <v>24</v>
+      </c>
+      <c r="H376">
+        <v>24</v>
+      </c>
+      <c r="I376">
+        <v>18</v>
+      </c>
+      <c r="J376">
+        <v>32</v>
+      </c>
+      <c r="K376">
+        <v>24</v>
+      </c>
+      <c r="L376" t="s">
+        <v>151</v>
+      </c>
+      <c r="M376" t="s">
+        <v>70</v>
+      </c>
+      <c r="N376">
+        <v>0.241912798874824</v>
+      </c>
+      <c r="O376">
+        <v>1</v>
+      </c>
+      <c r="P376">
+        <v>84</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376">
+        <v>6.1884669479604915E-3</v>
+      </c>
+      <c r="S376" t="s">
+        <v>76</v>
+      </c>
+      <c r="T376" t="s">
+        <v>77</v>
+      </c>
+      <c r="U376" s="1">
+        <v>1</v>
+      </c>
+      <c r="V376" s="1">
+        <v>1</v>
+      </c>
+      <c r="W376" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>59</v>
+      </c>
+      <c r="B377" t="s">
+        <v>163</v>
+      </c>
+      <c r="C377" t="s">
+        <v>33</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>24</v>
+      </c>
+      <c r="H377">
+        <v>24</v>
+      </c>
+      <c r="I377">
+        <v>24</v>
+      </c>
+      <c r="J377">
+        <v>24</v>
+      </c>
+      <c r="L377" t="s">
+        <v>84</v>
+      </c>
+      <c r="M377" t="s">
+        <v>164</v>
+      </c>
+      <c r="N377">
+        <v>42.153846153846096</v>
+      </c>
+      <c r="O377">
+        <v>1</v>
+      </c>
+      <c r="P377">
+        <v>8</v>
+      </c>
+      <c r="Q377">
+        <v>0</v>
+      </c>
+      <c r="R377">
+        <v>0.12587412587410185</v>
+      </c>
+      <c r="S377" t="s">
+        <v>76</v>
+      </c>
+      <c r="T377" t="s">
+        <v>77</v>
+      </c>
+      <c r="U377" s="1">
+        <v>1</v>
+      </c>
+      <c r="V377" s="1">
+        <v>1</v>
+      </c>
+      <c r="W377" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>59</v>
+      </c>
+      <c r="B378" t="s">
+        <v>163</v>
+      </c>
+      <c r="C378" t="s">
+        <v>33</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>24</v>
+      </c>
+      <c r="H378">
+        <v>24</v>
+      </c>
+      <c r="I378">
+        <v>24</v>
+      </c>
+      <c r="J378">
+        <v>24</v>
+      </c>
+      <c r="L378" t="s">
+        <v>84</v>
+      </c>
+      <c r="M378" t="s">
+        <v>164</v>
+      </c>
+      <c r="N378">
+        <v>41.398601398601301</v>
+      </c>
+      <c r="O378">
+        <v>1</v>
+      </c>
+      <c r="P378">
+        <v>8</v>
+      </c>
+      <c r="Q378">
+        <v>0</v>
+      </c>
+      <c r="R378">
+        <v>0.12237762237764827</v>
+      </c>
+      <c r="S378" t="s">
+        <v>76</v>
+      </c>
+      <c r="T378" t="s">
+        <v>77</v>
+      </c>
+      <c r="U378" s="1">
+        <v>1</v>
+      </c>
+      <c r="V378" s="1">
+        <v>1</v>
+      </c>
+      <c r="W378" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>59</v>
+      </c>
+      <c r="B379" t="s">
+        <v>163</v>
+      </c>
+      <c r="C379" t="s">
+        <v>33</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>24</v>
+      </c>
+      <c r="H379">
+        <v>24</v>
+      </c>
+      <c r="I379">
+        <v>18</v>
+      </c>
+      <c r="J379">
+        <v>32</v>
+      </c>
+      <c r="K379">
+        <v>24</v>
+      </c>
+      <c r="L379" t="s">
+        <v>84</v>
+      </c>
+      <c r="M379" t="s">
+        <v>164</v>
+      </c>
+      <c r="N379">
+        <v>42.335664335664298</v>
+      </c>
+      <c r="O379">
+        <v>1</v>
+      </c>
+      <c r="P379">
+        <v>8</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>0.12937062937060162</v>
+      </c>
+      <c r="S379" t="s">
+        <v>76</v>
+      </c>
+      <c r="T379" t="s">
+        <v>77</v>
+      </c>
+      <c r="U379" s="1">
+        <v>1</v>
+      </c>
+      <c r="V379" s="1">
+        <v>1</v>
+      </c>
+      <c r="W379" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>59</v>
+      </c>
+      <c r="B380" t="s">
+        <v>163</v>
+      </c>
+      <c r="C380" t="s">
+        <v>33</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>24</v>
+      </c>
+      <c r="H380">
+        <v>24</v>
+      </c>
+      <c r="I380">
+        <v>18</v>
+      </c>
+      <c r="J380">
+        <v>32</v>
+      </c>
+      <c r="K380">
+        <v>24</v>
+      </c>
+      <c r="L380" t="s">
+        <v>84</v>
+      </c>
+      <c r="M380" t="s">
+        <v>164</v>
+      </c>
+      <c r="N380">
+        <v>43.006993006993</v>
+      </c>
+      <c r="O380">
+        <v>1</v>
+      </c>
+      <c r="P380">
+        <v>8</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <v>0.19580419580420028</v>
+      </c>
+      <c r="S380" t="s">
+        <v>76</v>
+      </c>
+      <c r="T380" t="s">
+        <v>77</v>
+      </c>
+      <c r="U380" s="1">
+        <v>1</v>
+      </c>
+      <c r="V380" s="1">
+        <v>1</v>
+      </c>
+      <c r="W380" s="1">
         <v>2</v>
       </c>
     </row>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9ABEB69D-C6EA-4D4D-8726-D50E4D851676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06CAEDC-440B-0249-ADE6-A9E1DB8E534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="460" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="183">
   <si>
     <t>study_id</t>
   </si>
@@ -555,6 +555,27 @@
   <si>
     <t>high food</t>
   </si>
+  <si>
+    <t>piccau2017</t>
+  </si>
+  <si>
+    <t>germination</t>
+  </si>
+  <si>
+    <t>Clematis</t>
+  </si>
+  <si>
+    <t>vitalba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">irradiance per day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 hours </t>
+  </si>
 </sst>
 </file>
 
@@ -920,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG372"/>
+  <dimension ref="A1:AG375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R303" sqref="R303:R322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22472,7 +22493,7 @@
         <v>48</v>
       </c>
       <c r="N303">
-        <v>76.055996307661601</v>
+        <v>75.8333333333333</v>
       </c>
       <c r="O303">
         <v>1</v>
@@ -22481,7 +22502,10 @@
         <v>28</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R303">
+        <v>13.341298287534817</v>
       </c>
       <c r="S303" t="s">
         <v>148</v>
@@ -22531,7 +22555,7 @@
         <v>48</v>
       </c>
       <c r="N304">
-        <v>39.944677294613598</v>
+        <v>40.080645161290299</v>
       </c>
       <c r="O304">
         <v>1</v>
@@ -22540,10 +22564,10 @@
         <v>25</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R304">
-        <v>2.0161290322580996</v>
+        <v>0.39824771007562587</v>
       </c>
       <c r="S304" t="s">
         <v>148</v>
@@ -22599,7 +22623,7 @@
         <v>48</v>
       </c>
       <c r="N305">
-        <v>41.199573385225598</v>
+        <v>41.693548387096698</v>
       </c>
       <c r="O305">
         <v>1</v>
@@ -22608,10 +22632,10 @@
         <v>29</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R305">
-        <v>2.4865591397849514</v>
+        <v>1.3938669852648142</v>
       </c>
       <c r="S305" t="s">
         <v>148</v>
@@ -22661,7 +22685,7 @@
         <v>48</v>
       </c>
       <c r="N306">
-        <v>31.969974802285201</v>
+        <v>32.016129032258</v>
       </c>
       <c r="O306">
         <v>1</v>
@@ -22670,10 +22694,10 @@
         <v>25</v>
       </c>
       <c r="Q306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R306">
-        <v>1.9492365840880002</v>
+        <v>1.3938669852648142</v>
       </c>
       <c r="S306" t="s">
         <v>148</v>
@@ -22723,7 +22747,7 @@
         <v>48</v>
       </c>
       <c r="N307">
-        <v>13.494950000312601</v>
+        <v>13.505376344086001</v>
       </c>
       <c r="O307">
         <v>1</v>
@@ -22732,7 +22756,10 @@
         <v>28</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R307">
+        <v>14.723217841497405</v>
       </c>
       <c r="S307" t="s">
         <v>148</v>
@@ -22782,7 +22809,7 @@
         <v>48</v>
       </c>
       <c r="N308">
-        <v>9.0026203713547801</v>
+        <v>9.0752688172043001</v>
       </c>
       <c r="O308">
         <v>1</v>
@@ -22791,10 +22818,10 @@
         <v>25</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R308">
-        <v>0.87334037935972963</v>
+        <v>0.4938271604938293</v>
       </c>
       <c r="S308" t="s">
         <v>148</v>
@@ -22850,7 +22877,7 @@
         <v>48</v>
       </c>
       <c r="N309">
-        <v>10.246039737087299</v>
+        <v>10.2795698924731</v>
       </c>
       <c r="O309">
         <v>1</v>
@@ -22859,10 +22886,10 @@
         <v>29</v>
       </c>
       <c r="Q309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R309">
-        <v>1.1644455006535095</v>
+        <v>0.54161688570287381</v>
       </c>
       <c r="S309" t="s">
         <v>148</v>
@@ -22912,7 +22939,7 @@
         <v>48</v>
       </c>
       <c r="N310">
-        <v>13.343956573129599</v>
+        <v>13.3978494623655</v>
       </c>
       <c r="O310">
         <v>1</v>
@@ -22921,10 +22948,10 @@
         <v>25</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R310">
-        <v>1.3800539083558014</v>
+        <v>0.86021505376348084</v>
       </c>
       <c r="S310" t="s">
         <v>148</v>
@@ -22974,7 +23001,7 @@
         <v>144</v>
       </c>
       <c r="N311">
-        <v>0.20204081632653001</v>
+        <v>0.20170648464163801</v>
       </c>
       <c r="O311">
         <v>1</v>
@@ -22983,7 +23010,10 @@
         <v>28</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R311">
+        <v>1.8202502844140753E-2</v>
       </c>
       <c r="S311" t="s">
         <v>148</v>
@@ -23033,7 +23063,7 @@
         <v>144</v>
       </c>
       <c r="N312">
-        <v>0.24693877551020399</v>
+        <v>0.24675767918088701</v>
       </c>
       <c r="O312">
         <v>1</v>
@@ -23042,10 +23072,10 @@
         <v>25</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R312">
-        <v>5.2380952380952486E-2</v>
+        <v>2.5281253950196304E-2</v>
       </c>
       <c r="S312" t="s">
         <v>148</v>
@@ -23101,7 +23131,7 @@
         <v>144</v>
       </c>
       <c r="N313">
-        <v>0.27278911564625802</v>
+        <v>0.27269624573378798</v>
       </c>
       <c r="O313">
         <v>1</v>
@@ -23110,10 +23140,10 @@
         <v>29</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R313">
-        <v>4.7619047619047492E-2</v>
+        <v>2.2247503476172575E-2</v>
       </c>
       <c r="S313" t="s">
         <v>148</v>
@@ -23163,7 +23193,7 @@
         <v>144</v>
       </c>
       <c r="N314">
-        <v>0.25714285714285701</v>
+        <v>0.25631399317406101</v>
       </c>
       <c r="O314">
         <v>1</v>
@@ -23172,10 +23202,10 @@
         <v>25</v>
       </c>
       <c r="Q314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R314">
-        <v>5.7142857142857009E-2</v>
+        <v>3.1348754898242959E-2</v>
       </c>
       <c r="S314" t="s">
         <v>148</v>
@@ -23225,7 +23255,7 @@
         <v>144</v>
       </c>
       <c r="N315">
-        <v>6.8296257078838601E-2</v>
+        <v>6.7091836734693905E-2</v>
       </c>
       <c r="O315">
         <v>1</v>
@@ -23234,10 +23264,10 @@
         <v>28</v>
       </c>
       <c r="Q315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R315">
-        <v>4.7866894197951398E-2</v>
+        <v>7.136558327034459E-2</v>
       </c>
       <c r="S315" t="s">
         <v>148</v>
@@ -23287,7 +23317,7 @@
         <v>144</v>
       </c>
       <c r="N316">
-        <v>0.15308183562913</v>
+        <v>0.152210884353741</v>
       </c>
       <c r="O316">
         <v>1</v>
@@ -23296,10 +23326,10 @@
         <v>25</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R316">
-        <v>4.0827645051195009E-2</v>
+        <v>2.9100529100528891E-2</v>
       </c>
       <c r="S316" t="s">
         <v>148</v>
@@ -23355,7 +23385,7 @@
         <v>144</v>
       </c>
       <c r="N317">
-        <v>0.149642158206725</v>
+        <v>0.14940476190476101</v>
       </c>
       <c r="O317">
         <v>1</v>
@@ -23364,10 +23394,10 @@
         <v>29</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R317">
-        <v>4.9274744027303308E-2</v>
+        <v>4.2957923910304431E-2</v>
       </c>
       <c r="S317" t="s">
         <v>148</v>
@@ -23417,7 +23447,7 @@
         <v>144</v>
       </c>
       <c r="N318">
-        <v>0.153711013207529</v>
+        <v>0.15314625850340099</v>
       </c>
       <c r="O318">
         <v>1</v>
@@ -23426,10 +23456,10 @@
         <v>25</v>
       </c>
       <c r="Q318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R318">
-        <v>5.2090443686006654E-2</v>
+        <v>3.1872008062484455E-2</v>
       </c>
       <c r="S318" t="s">
         <v>148</v>
@@ -23479,7 +23509,7 @@
         <v>147</v>
       </c>
       <c r="N319">
-        <v>1.7421602787456401</v>
+        <v>1.70138888888888</v>
       </c>
       <c r="O319">
         <v>1</v>
@@ -23488,10 +23518,10 @@
         <v>28</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R319">
-        <v>0.8710801393728298</v>
+        <v>1.2860082304526761</v>
       </c>
       <c r="S319" t="s">
         <v>148</v>
@@ -23541,7 +23571,7 @@
         <v>147</v>
       </c>
       <c r="N320">
-        <v>2.8222996515679499</v>
+        <v>2.8125</v>
       </c>
       <c r="O320">
         <v>1</v>
@@ -23550,10 +23580,10 @@
         <v>25</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R320">
-        <v>2.5958188153310111</v>
+        <v>1.7746913580246884</v>
       </c>
       <c r="S320" t="s">
         <v>148</v>
@@ -23609,7 +23639,7 @@
         <v>147</v>
       </c>
       <c r="N321">
-        <v>3.1358885017421598</v>
+        <v>3.125</v>
       </c>
       <c r="O321">
         <v>1</v>
@@ -23618,10 +23648,10 @@
         <v>29</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R321">
-        <v>2.822299651567941</v>
+        <v>1.8004115226337407</v>
       </c>
       <c r="S321" t="s">
         <v>148</v>
@@ -23671,7 +23701,7 @@
         <v>147</v>
       </c>
       <c r="N322">
-        <v>5.6445993031358901</v>
+        <v>5.625</v>
       </c>
       <c r="O322">
         <v>1</v>
@@ -23680,10 +23710,10 @@
         <v>25</v>
       </c>
       <c r="Q322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R322">
-        <v>4.5470383275261259</v>
+        <v>3.8580246913580223</v>
       </c>
       <c r="S322" t="s">
         <v>148</v>
@@ -27123,6 +27153,222 @@
       </c>
       <c r="AB372" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="373" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>60</v>
+      </c>
+      <c r="B373" t="s">
+        <v>176</v>
+      </c>
+      <c r="C373" t="s">
+        <v>29</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>17.5</v>
+      </c>
+      <c r="I373">
+        <v>10</v>
+      </c>
+      <c r="J373">
+        <v>25</v>
+      </c>
+      <c r="K373">
+        <v>24</v>
+      </c>
+      <c r="L373" t="s">
+        <v>177</v>
+      </c>
+      <c r="M373" t="s">
+        <v>81</v>
+      </c>
+      <c r="N373" s="2">
+        <v>86.871961099999993</v>
+      </c>
+      <c r="O373">
+        <v>1</v>
+      </c>
+      <c r="P373">
+        <v>120</v>
+      </c>
+      <c r="Q373">
+        <v>1</v>
+      </c>
+      <c r="R373">
+        <v>6.8881685600000004</v>
+      </c>
+      <c r="S373" t="s">
+        <v>178</v>
+      </c>
+      <c r="T373" t="s">
+        <v>179</v>
+      </c>
+      <c r="U373" s="1">
+        <v>0</v>
+      </c>
+      <c r="V373" s="1">
+        <v>0</v>
+      </c>
+      <c r="W373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>60</v>
+      </c>
+      <c r="B374" t="s">
+        <v>176</v>
+      </c>
+      <c r="C374" t="s">
+        <v>29</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>10</v>
+      </c>
+      <c r="I374">
+        <v>10</v>
+      </c>
+      <c r="J374">
+        <v>10</v>
+      </c>
+      <c r="L374" t="s">
+        <v>177</v>
+      </c>
+      <c r="M374" t="s">
+        <v>81</v>
+      </c>
+      <c r="N374" s="2">
+        <v>0.81037276999999996</v>
+      </c>
+      <c r="O374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>120</v>
+      </c>
+      <c r="Q374">
+        <v>1</v>
+      </c>
+      <c r="R374">
+        <v>1.6207455399999999</v>
+      </c>
+      <c r="S374" t="s">
+        <v>178</v>
+      </c>
+      <c r="T374" t="s">
+        <v>179</v>
+      </c>
+      <c r="U374" s="1">
+        <v>0</v>
+      </c>
+      <c r="V374" s="1">
+        <v>0</v>
+      </c>
+      <c r="W374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="375" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>60</v>
+      </c>
+      <c r="B375" t="s">
+        <v>176</v>
+      </c>
+      <c r="C375" t="s">
+        <v>29</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>17.5</v>
+      </c>
+      <c r="I375">
+        <v>10</v>
+      </c>
+      <c r="J375">
+        <v>25</v>
+      </c>
+      <c r="K375">
+        <v>24</v>
+      </c>
+      <c r="L375" t="s">
+        <v>177</v>
+      </c>
+      <c r="M375" t="s">
+        <v>81</v>
+      </c>
+      <c r="N375" s="2">
+        <v>87.520259300000006</v>
+      </c>
+      <c r="O375">
+        <v>1</v>
+      </c>
+      <c r="P375">
+        <v>120</v>
+      </c>
+      <c r="Q375">
+        <v>1</v>
+      </c>
+      <c r="R375">
+        <v>7.3743922199999998</v>
+      </c>
+      <c r="S375" t="s">
+        <v>178</v>
+      </c>
+      <c r="T375" t="s">
+        <v>179</v>
+      </c>
+      <c r="U375" s="1">
+        <v>0</v>
+      </c>
+      <c r="V375" s="1">
+        <v>0</v>
+      </c>
+      <c r="W375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -27132,343 +27378,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C63C9F3-EFBE-D44D-B609-615DB2D2DDEC}">
-  <dimension ref="B1:T8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>84</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J2">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>84</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>84</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>84</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I5">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J5">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>84</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I6">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J6">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>84</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>135</v>
-      </c>
-      <c r="T6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>84</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="L8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>84</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>135</v>
-      </c>
-      <c r="T8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06CAEDC-440B-0249-ADE6-A9E1DB8E534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440C264F-DC98-0F4C-94B5-859FE8D0C8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="460" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="28820" yWindow="-8760" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
   <dimension ref="A1:AG375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R303" sqref="R303:R322"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S305" sqref="S305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="P295">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q295">
         <v>0</v>
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="P296">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q296">
         <v>0</v>
@@ -22058,7 +22058,7 @@
         <v>46</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="P297">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -22097,10 +22097,10 @@
         <v>14.4</v>
       </c>
       <c r="S297" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="T297" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U297" s="1">
         <v>1</v>
@@ -22123,7 +22123,7 @@
         <v>46</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -22153,7 +22153,7 @@
         <v>0</v>
       </c>
       <c r="P298">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q298">
         <v>0</v>
@@ -22224,7 +22224,7 @@
         <v>0</v>
       </c>
       <c r="P299">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q299">
         <v>0</v>
@@ -22295,7 +22295,7 @@
         <v>0</v>
       </c>
       <c r="P300">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q300">
         <v>0</v>
@@ -22330,7 +22330,7 @@
         <v>46</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -22366,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="P301">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q301">
         <v>0</v>
@@ -22375,10 +22375,10 @@
         <v>10.84</v>
       </c>
       <c r="S301" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="T301" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U301" s="1">
         <v>1</v>
@@ -22401,7 +22401,7 @@
         <v>46</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="P302">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Q302">
         <v>0</v>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440C264F-DC98-0F4C-94B5-859FE8D0C8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F35053-0F4E-0C4A-AE2F-106495CBDEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-8760" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="28820" yWindow="-16820" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
-    <sheet name="holding " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -944,8 +943,8 @@
   <dimension ref="A1:AG375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S305" sqref="S305"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27374,18 +27373,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C63C9F3-EFBE-D44D-B609-615DB2D2DDEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F35053-0F4E-0C4A-AE2F-106495CBDEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA060938-1527-EA40-8ADC-9E7F0EF07D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28820" yWindow="-16820" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA060938-1527-EA40-8ADC-9E7F0EF07D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF933726-06AA-F142-A12D-FDB5B4C7E2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-16820" windowWidth="24460" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="27500" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="199">
   <si>
     <t>study_id</t>
   </si>
@@ -575,6 +575,54 @@
   <si>
     <t xml:space="preserve">0 hours </t>
   </si>
+  <si>
+    <t>semenov2007</t>
+  </si>
+  <si>
+    <t>figure 1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 1d </t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 2c </t>
+  </si>
+  <si>
+    <t>figure 2d</t>
+  </si>
+  <si>
+    <t>CFU * g dry weight manure^-1</t>
+  </si>
+  <si>
+    <t>rate of change</t>
+  </si>
+  <si>
+    <t>1 day ^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escherichia </t>
+  </si>
+  <si>
+    <t>coli</t>
+  </si>
+  <si>
+    <t>Salmonella</t>
+  </si>
+  <si>
+    <t>enetrica</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>manure type</t>
+  </si>
+  <si>
+    <t>untreated</t>
+  </si>
+  <si>
+    <t>sterilized</t>
+  </si>
 </sst>
 </file>
 
@@ -622,10 +670,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG375"/>
+  <dimension ref="A1:AG493"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A487" sqref="A487:A493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26846,7 +26895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>59</v>
       </c>
@@ -26923,7 +26972,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>59</v>
       </c>
@@ -27000,7 +27049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>59</v>
       </c>
@@ -27077,7 +27126,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>59</v>
       </c>
@@ -27154,7 +27203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>60</v>
       </c>
@@ -27228,7 +27277,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>60</v>
       </c>
@@ -27296,7 +27345,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>60</v>
       </c>
@@ -27368,6 +27417,8888 @@
       </c>
       <c r="AB375" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="376" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>61</v>
+      </c>
+      <c r="B376" t="s">
+        <v>183</v>
+      </c>
+      <c r="C376" t="s">
+        <v>167</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>37</v>
+      </c>
+      <c r="H376">
+        <v>7</v>
+      </c>
+      <c r="I376">
+        <v>7</v>
+      </c>
+      <c r="J376">
+        <v>7</v>
+      </c>
+      <c r="L376" t="s">
+        <v>80</v>
+      </c>
+      <c r="M376" t="s">
+        <v>188</v>
+      </c>
+      <c r="N376">
+        <v>26366508.987303499</v>
+      </c>
+      <c r="O376">
+        <v>1</v>
+      </c>
+      <c r="P376">
+        <v>3</v>
+      </c>
+      <c r="Q376">
+        <v>1</v>
+      </c>
+      <c r="R376">
+        <v>4587583.9365558513</v>
+      </c>
+      <c r="S376" t="s">
+        <v>191</v>
+      </c>
+      <c r="T376" t="s">
+        <v>192</v>
+      </c>
+      <c r="U376" s="1">
+        <v>3</v>
+      </c>
+      <c r="V376" s="1">
+        <v>1</v>
+      </c>
+      <c r="W376" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF376" s="3">
+        <v>13.979591836734601</v>
+      </c>
+      <c r="AG376" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="377" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>61</v>
+      </c>
+      <c r="B377" t="s">
+        <v>183</v>
+      </c>
+      <c r="C377" t="s">
+        <v>167</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>37</v>
+      </c>
+      <c r="H377">
+        <v>7</v>
+      </c>
+      <c r="I377">
+        <v>7</v>
+      </c>
+      <c r="J377">
+        <v>7</v>
+      </c>
+      <c r="L377" t="s">
+        <v>80</v>
+      </c>
+      <c r="M377" t="s">
+        <v>188</v>
+      </c>
+      <c r="N377">
+        <v>57464349.687159598</v>
+      </c>
+      <c r="O377">
+        <v>1</v>
+      </c>
+      <c r="P377">
+        <v>3</v>
+      </c>
+      <c r="Q377">
+        <v>1</v>
+      </c>
+      <c r="R377">
+        <v>8929535.2021069005</v>
+      </c>
+      <c r="S377" t="s">
+        <v>191</v>
+      </c>
+      <c r="T377" t="s">
+        <v>192</v>
+      </c>
+      <c r="U377" s="1">
+        <v>3</v>
+      </c>
+      <c r="V377" s="1">
+        <v>1</v>
+      </c>
+      <c r="W377" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF377" s="3">
+        <v>6.9897959183673404</v>
+      </c>
+      <c r="AG377" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="378" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>61</v>
+      </c>
+      <c r="B378" t="s">
+        <v>183</v>
+      </c>
+      <c r="C378" t="s">
+        <v>167</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>37</v>
+      </c>
+      <c r="H378">
+        <v>7</v>
+      </c>
+      <c r="I378">
+        <v>7</v>
+      </c>
+      <c r="J378">
+        <v>7</v>
+      </c>
+      <c r="L378" t="s">
+        <v>80</v>
+      </c>
+      <c r="M378" t="s">
+        <v>188</v>
+      </c>
+      <c r="N378">
+        <v>44321713.424760699</v>
+      </c>
+      <c r="O378">
+        <v>1</v>
+      </c>
+      <c r="P378">
+        <v>3</v>
+      </c>
+      <c r="Q378">
+        <v>1</v>
+      </c>
+      <c r="S378" t="s">
+        <v>191</v>
+      </c>
+      <c r="T378" t="s">
+        <v>192</v>
+      </c>
+      <c r="U378" s="1">
+        <v>3</v>
+      </c>
+      <c r="V378" s="1">
+        <v>1</v>
+      </c>
+      <c r="W378" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF378" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="379" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>61</v>
+      </c>
+      <c r="B379" t="s">
+        <v>183</v>
+      </c>
+      <c r="C379" t="s">
+        <v>167</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>37</v>
+      </c>
+      <c r="H379">
+        <v>16</v>
+      </c>
+      <c r="I379">
+        <v>16</v>
+      </c>
+      <c r="J379">
+        <v>16</v>
+      </c>
+      <c r="L379" t="s">
+        <v>80</v>
+      </c>
+      <c r="M379" t="s">
+        <v>188</v>
+      </c>
+      <c r="N379">
+        <v>8557183.1449399795</v>
+      </c>
+      <c r="O379">
+        <v>1</v>
+      </c>
+      <c r="P379">
+        <v>3</v>
+      </c>
+      <c r="Q379">
+        <v>1</v>
+      </c>
+      <c r="R379">
+        <v>1948886.1066318047</v>
+      </c>
+      <c r="S379" t="s">
+        <v>191</v>
+      </c>
+      <c r="T379" t="s">
+        <v>192</v>
+      </c>
+      <c r="U379" s="1">
+        <v>3</v>
+      </c>
+      <c r="V379" s="1">
+        <v>1</v>
+      </c>
+      <c r="W379" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF379" s="3">
+        <v>14.081632653061201</v>
+      </c>
+      <c r="AG379" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="380" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>61</v>
+      </c>
+      <c r="B380" t="s">
+        <v>183</v>
+      </c>
+      <c r="C380" t="s">
+        <v>167</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>37</v>
+      </c>
+      <c r="H380">
+        <v>16</v>
+      </c>
+      <c r="I380">
+        <v>16</v>
+      </c>
+      <c r="J380">
+        <v>16</v>
+      </c>
+      <c r="L380" t="s">
+        <v>80</v>
+      </c>
+      <c r="M380" t="s">
+        <v>188</v>
+      </c>
+      <c r="N380">
+        <v>31350220.625650901</v>
+      </c>
+      <c r="O380">
+        <v>1</v>
+      </c>
+      <c r="P380">
+        <v>3</v>
+      </c>
+      <c r="Q380">
+        <v>1</v>
+      </c>
+      <c r="R380">
+        <v>6547903.1789460499</v>
+      </c>
+      <c r="S380" t="s">
+        <v>191</v>
+      </c>
+      <c r="T380" t="s">
+        <v>192</v>
+      </c>
+      <c r="U380" s="1">
+        <v>3</v>
+      </c>
+      <c r="V380" s="1">
+        <v>1</v>
+      </c>
+      <c r="W380" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF380" s="3">
+        <v>7.0408163265306101</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="381" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>61</v>
+      </c>
+      <c r="B381" t="s">
+        <v>183</v>
+      </c>
+      <c r="C381" t="s">
+        <v>167</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>37</v>
+      </c>
+      <c r="H381">
+        <v>16</v>
+      </c>
+      <c r="I381">
+        <v>16</v>
+      </c>
+      <c r="J381">
+        <v>16</v>
+      </c>
+      <c r="L381" t="s">
+        <v>80</v>
+      </c>
+      <c r="M381" t="s">
+        <v>188</v>
+      </c>
+      <c r="N381">
+        <v>44321713.424760699</v>
+      </c>
+      <c r="O381">
+        <v>1</v>
+      </c>
+      <c r="P381">
+        <v>3</v>
+      </c>
+      <c r="Q381">
+        <v>1</v>
+      </c>
+      <c r="S381" t="s">
+        <v>191</v>
+      </c>
+      <c r="T381" t="s">
+        <v>192</v>
+      </c>
+      <c r="U381" s="1">
+        <v>3</v>
+      </c>
+      <c r="V381" s="1">
+        <v>1</v>
+      </c>
+      <c r="W381" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA381" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB381" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF381" s="3">
+        <v>-0.102040816326532</v>
+      </c>
+      <c r="AG381" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="382" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>61</v>
+      </c>
+      <c r="B382" t="s">
+        <v>183</v>
+      </c>
+      <c r="C382" t="s">
+        <v>167</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>37</v>
+      </c>
+      <c r="H382">
+        <v>23</v>
+      </c>
+      <c r="I382">
+        <v>23</v>
+      </c>
+      <c r="J382">
+        <v>23</v>
+      </c>
+      <c r="L382" t="s">
+        <v>80</v>
+      </c>
+      <c r="M382" t="s">
+        <v>188</v>
+      </c>
+      <c r="N382">
+        <v>1168608.8553466401</v>
+      </c>
+      <c r="O382">
+        <v>1</v>
+      </c>
+      <c r="P382">
+        <v>3</v>
+      </c>
+      <c r="Q382">
+        <v>1</v>
+      </c>
+      <c r="R382">
+        <v>181593.17852061999</v>
+      </c>
+      <c r="S382" t="s">
+        <v>191</v>
+      </c>
+      <c r="T382" t="s">
+        <v>192</v>
+      </c>
+      <c r="U382" s="1">
+        <v>3</v>
+      </c>
+      <c r="V382" s="1">
+        <v>1</v>
+      </c>
+      <c r="W382" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF382" s="3">
+        <v>13.979591836734601</v>
+      </c>
+      <c r="AG382" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="383" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>61</v>
+      </c>
+      <c r="B383" t="s">
+        <v>183</v>
+      </c>
+      <c r="C383" t="s">
+        <v>167</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>37</v>
+      </c>
+      <c r="H383">
+        <v>23</v>
+      </c>
+      <c r="I383">
+        <v>23</v>
+      </c>
+      <c r="J383">
+        <v>23</v>
+      </c>
+      <c r="L383" t="s">
+        <v>80</v>
+      </c>
+      <c r="M383" t="s">
+        <v>188</v>
+      </c>
+      <c r="N383">
+        <v>10174634.027476</v>
+      </c>
+      <c r="O383">
+        <v>1</v>
+      </c>
+      <c r="P383">
+        <v>3</v>
+      </c>
+      <c r="Q383">
+        <v>1</v>
+      </c>
+      <c r="R383">
+        <v>1770313.5309744598</v>
+      </c>
+      <c r="S383" t="s">
+        <v>191</v>
+      </c>
+      <c r="T383" t="s">
+        <v>192</v>
+      </c>
+      <c r="U383" s="1">
+        <v>3</v>
+      </c>
+      <c r="V383" s="1">
+        <v>1</v>
+      </c>
+      <c r="W383" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF383" s="3">
+        <v>7.0408163265306101</v>
+      </c>
+      <c r="AG383" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="384" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>61</v>
+      </c>
+      <c r="B384" t="s">
+        <v>183</v>
+      </c>
+      <c r="C384" t="s">
+        <v>167</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>37</v>
+      </c>
+      <c r="H384">
+        <v>23</v>
+      </c>
+      <c r="I384">
+        <v>23</v>
+      </c>
+      <c r="J384">
+        <v>23</v>
+      </c>
+      <c r="L384" t="s">
+        <v>80</v>
+      </c>
+      <c r="M384" t="s">
+        <v>188</v>
+      </c>
+      <c r="N384">
+        <v>44321713.424760699</v>
+      </c>
+      <c r="O384">
+        <v>1</v>
+      </c>
+      <c r="P384">
+        <v>3</v>
+      </c>
+      <c r="Q384">
+        <v>1</v>
+      </c>
+      <c r="R384">
+        <v>22155856.71238035</v>
+      </c>
+      <c r="S384" t="s">
+        <v>191</v>
+      </c>
+      <c r="T384" t="s">
+        <v>192</v>
+      </c>
+      <c r="U384" s="1">
+        <v>3</v>
+      </c>
+      <c r="V384" s="1">
+        <v>1</v>
+      </c>
+      <c r="W384" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF384" s="3">
+        <v>-0.102040816326532</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="385" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>61</v>
+      </c>
+      <c r="B385" t="s">
+        <v>183</v>
+      </c>
+      <c r="C385" t="s">
+        <v>167</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>37</v>
+      </c>
+      <c r="H385">
+        <v>33</v>
+      </c>
+      <c r="I385">
+        <v>33</v>
+      </c>
+      <c r="J385">
+        <v>33</v>
+      </c>
+      <c r="L385" t="s">
+        <v>80</v>
+      </c>
+      <c r="M385" t="s">
+        <v>188</v>
+      </c>
+      <c r="N385">
+        <v>10000</v>
+      </c>
+      <c r="O385">
+        <v>1</v>
+      </c>
+      <c r="P385">
+        <v>3</v>
+      </c>
+      <c r="Q385">
+        <v>1</v>
+      </c>
+      <c r="S385" t="s">
+        <v>191</v>
+      </c>
+      <c r="T385" t="s">
+        <v>192</v>
+      </c>
+      <c r="U385" s="1">
+        <v>3</v>
+      </c>
+      <c r="V385" s="1">
+        <v>1</v>
+      </c>
+      <c r="W385" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF385" s="3">
+        <v>2.9591836734693899</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="386" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>61</v>
+      </c>
+      <c r="B386" t="s">
+        <v>183</v>
+      </c>
+      <c r="C386" t="s">
+        <v>167</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>37</v>
+      </c>
+      <c r="H386">
+        <v>7</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>14</v>
+      </c>
+      <c r="K386">
+        <v>24</v>
+      </c>
+      <c r="L386" t="s">
+        <v>80</v>
+      </c>
+      <c r="M386" t="s">
+        <v>188</v>
+      </c>
+      <c r="N386">
+        <v>18649907.912142899</v>
+      </c>
+      <c r="O386">
+        <v>1</v>
+      </c>
+      <c r="P386">
+        <v>3</v>
+      </c>
+      <c r="Q386">
+        <v>1</v>
+      </c>
+      <c r="S386" t="s">
+        <v>191</v>
+      </c>
+      <c r="T386" t="s">
+        <v>192</v>
+      </c>
+      <c r="U386" s="1">
+        <v>3</v>
+      </c>
+      <c r="V386" s="1">
+        <v>1</v>
+      </c>
+      <c r="W386" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF386" s="3">
+        <v>13.979591836734601</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="387" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>61</v>
+      </c>
+      <c r="B387" t="s">
+        <v>183</v>
+      </c>
+      <c r="C387" t="s">
+        <v>167</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387">
+        <v>37</v>
+      </c>
+      <c r="H387">
+        <v>7</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>14</v>
+      </c>
+      <c r="K387">
+        <v>24</v>
+      </c>
+      <c r="L387" t="s">
+        <v>80</v>
+      </c>
+      <c r="M387" t="s">
+        <v>188</v>
+      </c>
+      <c r="N387">
+        <v>44321713.424760699</v>
+      </c>
+      <c r="O387">
+        <v>1</v>
+      </c>
+      <c r="P387">
+        <v>3</v>
+      </c>
+      <c r="Q387">
+        <v>1</v>
+      </c>
+      <c r="S387" t="s">
+        <v>191</v>
+      </c>
+      <c r="T387" t="s">
+        <v>192</v>
+      </c>
+      <c r="U387" s="1">
+        <v>3</v>
+      </c>
+      <c r="V387" s="1">
+        <v>1</v>
+      </c>
+      <c r="W387" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB387" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF387" s="3">
+        <v>6.9387755102040796</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="388" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>61</v>
+      </c>
+      <c r="B388" t="s">
+        <v>183</v>
+      </c>
+      <c r="C388" t="s">
+        <v>167</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>37</v>
+      </c>
+      <c r="H388">
+        <v>7</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>14</v>
+      </c>
+      <c r="K388">
+        <v>24</v>
+      </c>
+      <c r="L388" t="s">
+        <v>80</v>
+      </c>
+      <c r="M388" t="s">
+        <v>188</v>
+      </c>
+      <c r="N388">
+        <v>48329302.385717399</v>
+      </c>
+      <c r="O388">
+        <v>1</v>
+      </c>
+      <c r="P388">
+        <v>3</v>
+      </c>
+      <c r="Q388">
+        <v>1</v>
+      </c>
+      <c r="S388" t="s">
+        <v>191</v>
+      </c>
+      <c r="T388" t="s">
+        <v>192</v>
+      </c>
+      <c r="U388" s="1">
+        <v>3</v>
+      </c>
+      <c r="V388" s="1">
+        <v>1</v>
+      </c>
+      <c r="W388" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB388" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF388" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG388" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="389" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>61</v>
+      </c>
+      <c r="B389" t="s">
+        <v>183</v>
+      </c>
+      <c r="C389" t="s">
+        <v>167</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>37</v>
+      </c>
+      <c r="H389">
+        <v>16</v>
+      </c>
+      <c r="I389">
+        <v>9</v>
+      </c>
+      <c r="J389">
+        <v>23</v>
+      </c>
+      <c r="K389">
+        <v>24</v>
+      </c>
+      <c r="L389" t="s">
+        <v>80</v>
+      </c>
+      <c r="M389" t="s">
+        <v>188</v>
+      </c>
+      <c r="N389">
+        <v>3926313.4017068301</v>
+      </c>
+      <c r="O389">
+        <v>1</v>
+      </c>
+      <c r="P389">
+        <v>3</v>
+      </c>
+      <c r="Q389">
+        <v>1</v>
+      </c>
+      <c r="R389">
+        <v>1031123.6182308651</v>
+      </c>
+      <c r="S389" t="s">
+        <v>191</v>
+      </c>
+      <c r="T389" t="s">
+        <v>192</v>
+      </c>
+      <c r="U389" s="1">
+        <v>3</v>
+      </c>
+      <c r="V389" s="1">
+        <v>1</v>
+      </c>
+      <c r="W389" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF389" s="3">
+        <v>13.979591836734601</v>
+      </c>
+      <c r="AG389" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="390" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>61</v>
+      </c>
+      <c r="B390" t="s">
+        <v>183</v>
+      </c>
+      <c r="C390" t="s">
+        <v>167</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>37</v>
+      </c>
+      <c r="H390">
+        <v>16</v>
+      </c>
+      <c r="I390">
+        <v>9</v>
+      </c>
+      <c r="J390">
+        <v>23</v>
+      </c>
+      <c r="K390">
+        <v>24</v>
+      </c>
+      <c r="L390" t="s">
+        <v>80</v>
+      </c>
+      <c r="M390" t="s">
+        <v>188</v>
+      </c>
+      <c r="N390">
+        <v>22175052.752539199</v>
+      </c>
+      <c r="O390">
+        <v>1</v>
+      </c>
+      <c r="P390">
+        <v>3</v>
+      </c>
+      <c r="Q390">
+        <v>1</v>
+      </c>
+      <c r="R390">
+        <v>4253290.5862970501</v>
+      </c>
+      <c r="S390" t="s">
+        <v>191</v>
+      </c>
+      <c r="T390" t="s">
+        <v>192</v>
+      </c>
+      <c r="U390" s="1">
+        <v>3</v>
+      </c>
+      <c r="V390" s="1">
+        <v>1</v>
+      </c>
+      <c r="W390" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF390" s="3">
+        <v>7.0408163265306101</v>
+      </c>
+      <c r="AG390" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="391" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>61</v>
+      </c>
+      <c r="B391" t="s">
+        <v>183</v>
+      </c>
+      <c r="C391" t="s">
+        <v>167</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391">
+        <v>37</v>
+      </c>
+      <c r="H391">
+        <v>16</v>
+      </c>
+      <c r="I391">
+        <v>9</v>
+      </c>
+      <c r="J391">
+        <v>23</v>
+      </c>
+      <c r="K391">
+        <v>24</v>
+      </c>
+      <c r="L391" t="s">
+        <v>80</v>
+      </c>
+      <c r="M391" t="s">
+        <v>188</v>
+      </c>
+      <c r="N391">
+        <v>48329302.385717399</v>
+      </c>
+      <c r="O391">
+        <v>1</v>
+      </c>
+      <c r="P391">
+        <v>3</v>
+      </c>
+      <c r="Q391">
+        <v>1</v>
+      </c>
+      <c r="S391" t="s">
+        <v>191</v>
+      </c>
+      <c r="T391" t="s">
+        <v>192</v>
+      </c>
+      <c r="U391" s="1">
+        <v>3</v>
+      </c>
+      <c r="V391" s="1">
+        <v>1</v>
+      </c>
+      <c r="W391" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF391" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="392" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>61</v>
+      </c>
+      <c r="B392" t="s">
+        <v>183</v>
+      </c>
+      <c r="C392" t="s">
+        <v>167</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+      <c r="G392">
+        <v>37</v>
+      </c>
+      <c r="H392">
+        <v>23</v>
+      </c>
+      <c r="I392">
+        <v>16</v>
+      </c>
+      <c r="J392">
+        <v>30</v>
+      </c>
+      <c r="K392">
+        <v>24</v>
+      </c>
+      <c r="L392" t="s">
+        <v>80</v>
+      </c>
+      <c r="M392" t="s">
+        <v>188</v>
+      </c>
+      <c r="N392">
+        <v>246023.98208697699</v>
+      </c>
+      <c r="O392">
+        <v>1</v>
+      </c>
+      <c r="P392">
+        <v>3</v>
+      </c>
+      <c r="Q392">
+        <v>1</v>
+      </c>
+      <c r="R392">
+        <v>94114.193745470009</v>
+      </c>
+      <c r="S392" t="s">
+        <v>191</v>
+      </c>
+      <c r="T392" t="s">
+        <v>192</v>
+      </c>
+      <c r="U392" s="1">
+        <v>3</v>
+      </c>
+      <c r="V392" s="1">
+        <v>1</v>
+      </c>
+      <c r="W392" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF392" s="3">
+        <v>13.979591836734601</v>
+      </c>
+      <c r="AG392" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="393" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>61</v>
+      </c>
+      <c r="B393" t="s">
+        <v>183</v>
+      </c>
+      <c r="C393" t="s">
+        <v>167</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
+      </c>
+      <c r="G393">
+        <v>37</v>
+      </c>
+      <c r="H393">
+        <v>23</v>
+      </c>
+      <c r="I393">
+        <v>16</v>
+      </c>
+      <c r="J393">
+        <v>30</v>
+      </c>
+      <c r="K393">
+        <v>24</v>
+      </c>
+      <c r="L393" t="s">
+        <v>80</v>
+      </c>
+      <c r="M393" t="s">
+        <v>188</v>
+      </c>
+      <c r="N393">
+        <v>7847599.7035145899</v>
+      </c>
+      <c r="O393">
+        <v>1</v>
+      </c>
+      <c r="P393">
+        <v>3</v>
+      </c>
+      <c r="Q393">
+        <v>1</v>
+      </c>
+      <c r="S393" t="s">
+        <v>191</v>
+      </c>
+      <c r="T393" t="s">
+        <v>192</v>
+      </c>
+      <c r="U393" s="1">
+        <v>3</v>
+      </c>
+      <c r="V393" s="1">
+        <v>1</v>
+      </c>
+      <c r="W393" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF393" s="3">
+        <v>7.0408163265306101</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="394" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>61</v>
+      </c>
+      <c r="B394" t="s">
+        <v>183</v>
+      </c>
+      <c r="C394" t="s">
+        <v>167</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>37</v>
+      </c>
+      <c r="H394">
+        <v>23</v>
+      </c>
+      <c r="I394">
+        <v>16</v>
+      </c>
+      <c r="J394">
+        <v>30</v>
+      </c>
+      <c r="K394">
+        <v>24</v>
+      </c>
+      <c r="L394" t="s">
+        <v>80</v>
+      </c>
+      <c r="M394" t="s">
+        <v>188</v>
+      </c>
+      <c r="N394">
+        <v>48329302.385717399</v>
+      </c>
+      <c r="O394">
+        <v>1</v>
+      </c>
+      <c r="P394">
+        <v>3</v>
+      </c>
+      <c r="Q394">
+        <v>1</v>
+      </c>
+      <c r="S394" t="s">
+        <v>191</v>
+      </c>
+      <c r="T394" t="s">
+        <v>192</v>
+      </c>
+      <c r="U394" s="1">
+        <v>3</v>
+      </c>
+      <c r="V394" s="1">
+        <v>1</v>
+      </c>
+      <c r="W394" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF394" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="395" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>62</v>
+      </c>
+      <c r="B395" t="s">
+        <v>183</v>
+      </c>
+      <c r="C395" t="s">
+        <v>168</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>37</v>
+      </c>
+      <c r="H395">
+        <v>7</v>
+      </c>
+      <c r="I395">
+        <v>7</v>
+      </c>
+      <c r="J395">
+        <v>7</v>
+      </c>
+      <c r="L395" t="s">
+        <v>80</v>
+      </c>
+      <c r="M395" t="s">
+        <v>188</v>
+      </c>
+      <c r="N395">
+        <v>84048177.741373897</v>
+      </c>
+      <c r="O395">
+        <v>1</v>
+      </c>
+      <c r="P395">
+        <v>3</v>
+      </c>
+      <c r="Q395">
+        <v>1</v>
+      </c>
+      <c r="S395" t="s">
+        <v>193</v>
+      </c>
+      <c r="T395" t="s">
+        <v>194</v>
+      </c>
+      <c r="U395" s="1">
+        <v>3</v>
+      </c>
+      <c r="V395" s="1">
+        <v>1</v>
+      </c>
+      <c r="W395" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF395" s="3">
+        <v>20.941558441558399</v>
+      </c>
+      <c r="AG395" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="396" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>62</v>
+      </c>
+      <c r="B396" t="s">
+        <v>183</v>
+      </c>
+      <c r="C396" t="s">
+        <v>168</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>37</v>
+      </c>
+      <c r="H396">
+        <v>7</v>
+      </c>
+      <c r="I396">
+        <v>7</v>
+      </c>
+      <c r="J396">
+        <v>7</v>
+      </c>
+      <c r="L396" t="s">
+        <v>80</v>
+      </c>
+      <c r="M396" t="s">
+        <v>188</v>
+      </c>
+      <c r="N396">
+        <v>70640961.816455901</v>
+      </c>
+      <c r="O396">
+        <v>1</v>
+      </c>
+      <c r="P396">
+        <v>3</v>
+      </c>
+      <c r="Q396">
+        <v>1</v>
+      </c>
+      <c r="S396" t="s">
+        <v>193</v>
+      </c>
+      <c r="T396" t="s">
+        <v>194</v>
+      </c>
+      <c r="U396" s="1">
+        <v>3</v>
+      </c>
+      <c r="V396" s="1">
+        <v>1</v>
+      </c>
+      <c r="W396" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB396" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF396" s="3">
+        <v>13.9610389610389</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="397" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>62</v>
+      </c>
+      <c r="B397" t="s">
+        <v>183</v>
+      </c>
+      <c r="C397" t="s">
+        <v>168</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>37</v>
+      </c>
+      <c r="H397">
+        <v>7</v>
+      </c>
+      <c r="I397">
+        <v>7</v>
+      </c>
+      <c r="J397">
+        <v>7</v>
+      </c>
+      <c r="L397" t="s">
+        <v>80</v>
+      </c>
+      <c r="M397" t="s">
+        <v>188</v>
+      </c>
+      <c r="N397">
+        <v>154411358.99948299</v>
+      </c>
+      <c r="O397">
+        <v>1</v>
+      </c>
+      <c r="P397">
+        <v>3</v>
+      </c>
+      <c r="Q397">
+        <v>1</v>
+      </c>
+      <c r="S397" t="s">
+        <v>193</v>
+      </c>
+      <c r="T397" t="s">
+        <v>194</v>
+      </c>
+      <c r="U397" s="1">
+        <v>3</v>
+      </c>
+      <c r="V397" s="1">
+        <v>1</v>
+      </c>
+      <c r="W397" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF397" s="3">
+        <v>-0.162337662337662</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="398" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>62</v>
+      </c>
+      <c r="B398" t="s">
+        <v>183</v>
+      </c>
+      <c r="C398" t="s">
+        <v>168</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>37</v>
+      </c>
+      <c r="H398">
+        <v>16</v>
+      </c>
+      <c r="I398">
+        <v>16</v>
+      </c>
+      <c r="J398">
+        <v>16</v>
+      </c>
+      <c r="L398" t="s">
+        <v>80</v>
+      </c>
+      <c r="M398" t="s">
+        <v>188</v>
+      </c>
+      <c r="N398">
+        <v>6763767.63466</v>
+      </c>
+      <c r="O398">
+        <v>1</v>
+      </c>
+      <c r="P398">
+        <v>3</v>
+      </c>
+      <c r="Q398">
+        <v>1</v>
+      </c>
+      <c r="R398">
+        <v>1417884.0254164198</v>
+      </c>
+      <c r="S398" t="s">
+        <v>193</v>
+      </c>
+      <c r="T398" t="s">
+        <v>194</v>
+      </c>
+      <c r="U398" s="1">
+        <v>3</v>
+      </c>
+      <c r="V398" s="1">
+        <v>1</v>
+      </c>
+      <c r="W398" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF398" s="3">
+        <v>20.941558441558399</v>
+      </c>
+      <c r="AG398" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="399" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>62</v>
+      </c>
+      <c r="B399" t="s">
+        <v>183</v>
+      </c>
+      <c r="C399" t="s">
+        <v>168</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>37</v>
+      </c>
+      <c r="H399">
+        <v>16</v>
+      </c>
+      <c r="I399">
+        <v>16</v>
+      </c>
+      <c r="J399">
+        <v>16</v>
+      </c>
+      <c r="L399" t="s">
+        <v>80</v>
+      </c>
+      <c r="M399" t="s">
+        <v>188</v>
+      </c>
+      <c r="N399">
+        <v>10444025.524245599</v>
+      </c>
+      <c r="O399">
+        <v>1</v>
+      </c>
+      <c r="P399">
+        <v>3</v>
+      </c>
+      <c r="Q399">
+        <v>1</v>
+      </c>
+      <c r="R399">
+        <v>2753380.3213286605</v>
+      </c>
+      <c r="S399" t="s">
+        <v>193</v>
+      </c>
+      <c r="T399" t="s">
+        <v>194</v>
+      </c>
+      <c r="U399" s="1">
+        <v>3</v>
+      </c>
+      <c r="V399" s="1">
+        <v>1</v>
+      </c>
+      <c r="W399" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF399" s="3">
+        <v>14.1233766233766</v>
+      </c>
+      <c r="AG399" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="400" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>62</v>
+      </c>
+      <c r="B400" t="s">
+        <v>183</v>
+      </c>
+      <c r="C400" t="s">
+        <v>168</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>37</v>
+      </c>
+      <c r="H400">
+        <v>16</v>
+      </c>
+      <c r="I400">
+        <v>16</v>
+      </c>
+      <c r="J400">
+        <v>16</v>
+      </c>
+      <c r="L400" t="s">
+        <v>80</v>
+      </c>
+      <c r="M400" t="s">
+        <v>188</v>
+      </c>
+      <c r="N400">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O400">
+        <v>1</v>
+      </c>
+      <c r="P400">
+        <v>3</v>
+      </c>
+      <c r="Q400">
+        <v>1</v>
+      </c>
+      <c r="S400" t="s">
+        <v>193</v>
+      </c>
+      <c r="T400" t="s">
+        <v>194</v>
+      </c>
+      <c r="U400" s="1">
+        <v>3</v>
+      </c>
+      <c r="V400" s="1">
+        <v>1</v>
+      </c>
+      <c r="W400" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB400" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF400" s="3">
+        <v>-0.162337662337662</v>
+      </c>
+      <c r="AG400" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="401" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>62</v>
+      </c>
+      <c r="B401" t="s">
+        <v>183</v>
+      </c>
+      <c r="C401" t="s">
+        <v>168</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>37</v>
+      </c>
+      <c r="H401">
+        <v>23</v>
+      </c>
+      <c r="I401">
+        <v>23</v>
+      </c>
+      <c r="J401">
+        <v>23</v>
+      </c>
+      <c r="L401" t="s">
+        <v>80</v>
+      </c>
+      <c r="M401" t="s">
+        <v>188</v>
+      </c>
+      <c r="N401">
+        <v>457485.52615674102</v>
+      </c>
+      <c r="O401">
+        <v>1</v>
+      </c>
+      <c r="P401">
+        <v>3</v>
+      </c>
+      <c r="Q401">
+        <v>1</v>
+      </c>
+      <c r="R401">
+        <v>346317.59225330455</v>
+      </c>
+      <c r="S401" t="s">
+        <v>193</v>
+      </c>
+      <c r="T401" t="s">
+        <v>194</v>
+      </c>
+      <c r="U401" s="1">
+        <v>3</v>
+      </c>
+      <c r="V401" s="1">
+        <v>1</v>
+      </c>
+      <c r="W401" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB401" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF401" s="3">
+        <v>20.941558441558399</v>
+      </c>
+      <c r="AG401" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="402" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>62</v>
+      </c>
+      <c r="B402" t="s">
+        <v>183</v>
+      </c>
+      <c r="C402" t="s">
+        <v>168</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>37</v>
+      </c>
+      <c r="H402">
+        <v>23</v>
+      </c>
+      <c r="I402">
+        <v>23</v>
+      </c>
+      <c r="J402">
+        <v>23</v>
+      </c>
+      <c r="L402" t="s">
+        <v>80</v>
+      </c>
+      <c r="M402" t="s">
+        <v>188</v>
+      </c>
+      <c r="N402">
+        <v>1684283.1130116601</v>
+      </c>
+      <c r="O402">
+        <v>1</v>
+      </c>
+      <c r="P402">
+        <v>3</v>
+      </c>
+      <c r="Q402">
+        <v>1</v>
+      </c>
+      <c r="R402">
+        <v>597246.49403157504</v>
+      </c>
+      <c r="S402" t="s">
+        <v>193</v>
+      </c>
+      <c r="T402" t="s">
+        <v>194</v>
+      </c>
+      <c r="U402" s="1">
+        <v>3</v>
+      </c>
+      <c r="V402" s="1">
+        <v>1</v>
+      </c>
+      <c r="W402" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF402" s="3">
+        <v>13.9610389610389</v>
+      </c>
+      <c r="AG402" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="403" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>62</v>
+      </c>
+      <c r="B403" t="s">
+        <v>183</v>
+      </c>
+      <c r="C403" t="s">
+        <v>168</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>37</v>
+      </c>
+      <c r="H403">
+        <v>23</v>
+      </c>
+      <c r="I403">
+        <v>23</v>
+      </c>
+      <c r="J403">
+        <v>23</v>
+      </c>
+      <c r="L403" t="s">
+        <v>80</v>
+      </c>
+      <c r="M403" t="s">
+        <v>188</v>
+      </c>
+      <c r="N403">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O403">
+        <v>1</v>
+      </c>
+      <c r="P403">
+        <v>3</v>
+      </c>
+      <c r="Q403">
+        <v>1</v>
+      </c>
+      <c r="S403" t="s">
+        <v>193</v>
+      </c>
+      <c r="T403" t="s">
+        <v>194</v>
+      </c>
+      <c r="U403" s="1">
+        <v>3</v>
+      </c>
+      <c r="V403" s="1">
+        <v>1</v>
+      </c>
+      <c r="W403" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF403" s="3">
+        <v>-8.1168831168824299E-2</v>
+      </c>
+      <c r="AG403" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="404" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>62</v>
+      </c>
+      <c r="B404" t="s">
+        <v>183</v>
+      </c>
+      <c r="C404" t="s">
+        <v>168</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>37</v>
+      </c>
+      <c r="H404">
+        <v>33</v>
+      </c>
+      <c r="I404">
+        <v>33</v>
+      </c>
+      <c r="J404">
+        <v>33</v>
+      </c>
+      <c r="L404" t="s">
+        <v>80</v>
+      </c>
+      <c r="M404" t="s">
+        <v>188</v>
+      </c>
+      <c r="N404">
+        <v>10907.7669151095</v>
+      </c>
+      <c r="O404">
+        <v>1</v>
+      </c>
+      <c r="P404">
+        <v>3</v>
+      </c>
+      <c r="Q404">
+        <v>1</v>
+      </c>
+      <c r="S404" t="s">
+        <v>193</v>
+      </c>
+      <c r="T404" t="s">
+        <v>194</v>
+      </c>
+      <c r="U404" s="1">
+        <v>3</v>
+      </c>
+      <c r="V404" s="1">
+        <v>1</v>
+      </c>
+      <c r="W404" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF404" s="3">
+        <v>16.883116883116799</v>
+      </c>
+      <c r="AG404" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="405" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>62</v>
+      </c>
+      <c r="B405" t="s">
+        <v>183</v>
+      </c>
+      <c r="C405" t="s">
+        <v>168</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>37</v>
+      </c>
+      <c r="H405">
+        <v>33</v>
+      </c>
+      <c r="I405">
+        <v>33</v>
+      </c>
+      <c r="J405">
+        <v>33</v>
+      </c>
+      <c r="L405" t="s">
+        <v>80</v>
+      </c>
+      <c r="M405" t="s">
+        <v>188</v>
+      </c>
+      <c r="N405">
+        <v>56848.234435925602</v>
+      </c>
+      <c r="O405">
+        <v>1</v>
+      </c>
+      <c r="P405">
+        <v>3</v>
+      </c>
+      <c r="Q405">
+        <v>1</v>
+      </c>
+      <c r="R405">
+        <v>20012.708146993704</v>
+      </c>
+      <c r="S405" t="s">
+        <v>193</v>
+      </c>
+      <c r="T405" t="s">
+        <v>194</v>
+      </c>
+      <c r="U405" s="1">
+        <v>3</v>
+      </c>
+      <c r="V405" s="1">
+        <v>1</v>
+      </c>
+      <c r="W405" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB405" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF405" s="3">
+        <v>13.9610389610389</v>
+      </c>
+      <c r="AG405" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="406" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>62</v>
+      </c>
+      <c r="B406" t="s">
+        <v>183</v>
+      </c>
+      <c r="C406" t="s">
+        <v>168</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>37</v>
+      </c>
+      <c r="H406">
+        <v>33</v>
+      </c>
+      <c r="I406">
+        <v>33</v>
+      </c>
+      <c r="J406">
+        <v>33</v>
+      </c>
+      <c r="L406" t="s">
+        <v>80</v>
+      </c>
+      <c r="M406" t="s">
+        <v>188</v>
+      </c>
+      <c r="N406">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O406">
+        <v>1</v>
+      </c>
+      <c r="P406">
+        <v>3</v>
+      </c>
+      <c r="Q406">
+        <v>1</v>
+      </c>
+      <c r="S406" t="s">
+        <v>193</v>
+      </c>
+      <c r="T406" t="s">
+        <v>194</v>
+      </c>
+      <c r="U406" s="1">
+        <v>3</v>
+      </c>
+      <c r="V406" s="1">
+        <v>1</v>
+      </c>
+      <c r="W406" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF406" s="3">
+        <v>-8.1168831168824299E-2</v>
+      </c>
+      <c r="AG406" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="407" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>62</v>
+      </c>
+      <c r="B407" t="s">
+        <v>183</v>
+      </c>
+      <c r="C407" t="s">
+        <v>168</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>1</v>
+      </c>
+      <c r="G407">
+        <v>37</v>
+      </c>
+      <c r="H407">
+        <v>7</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>14</v>
+      </c>
+      <c r="K407">
+        <v>24</v>
+      </c>
+      <c r="L407" t="s">
+        <v>80</v>
+      </c>
+      <c r="M407" t="s">
+        <v>188</v>
+      </c>
+      <c r="N407">
+        <v>41941263.4792393</v>
+      </c>
+      <c r="O407">
+        <v>1</v>
+      </c>
+      <c r="P407">
+        <v>3</v>
+      </c>
+      <c r="Q407">
+        <v>1</v>
+      </c>
+      <c r="R407">
+        <v>7013860.2943469994</v>
+      </c>
+      <c r="S407" t="s">
+        <v>193</v>
+      </c>
+      <c r="T407" t="s">
+        <v>194</v>
+      </c>
+      <c r="U407" s="1">
+        <v>3</v>
+      </c>
+      <c r="V407" s="1">
+        <v>1</v>
+      </c>
+      <c r="W407" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB407" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF407" s="3">
+        <v>20.779220779220701</v>
+      </c>
+      <c r="AG407" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="408" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>62</v>
+      </c>
+      <c r="B408" t="s">
+        <v>183</v>
+      </c>
+      <c r="C408" t="s">
+        <v>168</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+      <c r="G408">
+        <v>37</v>
+      </c>
+      <c r="H408">
+        <v>7</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>14</v>
+      </c>
+      <c r="K408">
+        <v>24</v>
+      </c>
+      <c r="L408" t="s">
+        <v>80</v>
+      </c>
+      <c r="M408" t="s">
+        <v>188</v>
+      </c>
+      <c r="N408">
+        <v>38450824.816527598</v>
+      </c>
+      <c r="O408">
+        <v>1</v>
+      </c>
+      <c r="P408">
+        <v>3</v>
+      </c>
+      <c r="Q408">
+        <v>1</v>
+      </c>
+      <c r="R408">
+        <v>33960707.997566648</v>
+      </c>
+      <c r="S408" t="s">
+        <v>193</v>
+      </c>
+      <c r="T408" t="s">
+        <v>194</v>
+      </c>
+      <c r="U408" s="1">
+        <v>3</v>
+      </c>
+      <c r="V408" s="1">
+        <v>1</v>
+      </c>
+      <c r="W408" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB408" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF408" s="3">
+        <v>13.9610389610389</v>
+      </c>
+      <c r="AG408" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="409" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>62</v>
+      </c>
+      <c r="B409" t="s">
+        <v>183</v>
+      </c>
+      <c r="C409" t="s">
+        <v>168</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+      <c r="G409">
+        <v>37</v>
+      </c>
+      <c r="H409">
+        <v>7</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>14</v>
+      </c>
+      <c r="K409">
+        <v>24</v>
+      </c>
+      <c r="L409" t="s">
+        <v>80</v>
+      </c>
+      <c r="M409" t="s">
+        <v>188</v>
+      </c>
+      <c r="N409">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O409">
+        <v>1</v>
+      </c>
+      <c r="P409">
+        <v>3</v>
+      </c>
+      <c r="Q409">
+        <v>1</v>
+      </c>
+      <c r="S409" t="s">
+        <v>193</v>
+      </c>
+      <c r="T409" t="s">
+        <v>194</v>
+      </c>
+      <c r="U409" s="1">
+        <v>3</v>
+      </c>
+      <c r="V409" s="1">
+        <v>1</v>
+      </c>
+      <c r="W409" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB409" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF409" s="3">
+        <v>-0.162337662337662</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="410" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>62</v>
+      </c>
+      <c r="B410" t="s">
+        <v>183</v>
+      </c>
+      <c r="C410" t="s">
+        <v>168</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
+      <c r="G410">
+        <v>37</v>
+      </c>
+      <c r="H410">
+        <v>16</v>
+      </c>
+      <c r="I410">
+        <v>9</v>
+      </c>
+      <c r="J410">
+        <v>23</v>
+      </c>
+      <c r="K410">
+        <v>24</v>
+      </c>
+      <c r="L410" t="s">
+        <v>80</v>
+      </c>
+      <c r="M410" t="s">
+        <v>188</v>
+      </c>
+      <c r="N410">
+        <v>2600724.4442001102</v>
+      </c>
+      <c r="O410">
+        <v>1</v>
+      </c>
+      <c r="P410">
+        <v>3</v>
+      </c>
+      <c r="Q410">
+        <v>1</v>
+      </c>
+      <c r="R410">
+        <v>545188.10271440505</v>
+      </c>
+      <c r="S410" t="s">
+        <v>193</v>
+      </c>
+      <c r="T410" t="s">
+        <v>194</v>
+      </c>
+      <c r="U410" s="1">
+        <v>3</v>
+      </c>
+      <c r="V410" s="1">
+        <v>1</v>
+      </c>
+      <c r="W410" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB410" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF410" s="3">
+        <v>20.941558441558399</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="411" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>62</v>
+      </c>
+      <c r="B411" t="s">
+        <v>183</v>
+      </c>
+      <c r="C411" t="s">
+        <v>168</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411">
+        <v>37</v>
+      </c>
+      <c r="H411">
+        <v>16</v>
+      </c>
+      <c r="I411">
+        <v>9</v>
+      </c>
+      <c r="J411">
+        <v>23</v>
+      </c>
+      <c r="K411">
+        <v>24</v>
+      </c>
+      <c r="L411" t="s">
+        <v>80</v>
+      </c>
+      <c r="M411" t="s">
+        <v>188</v>
+      </c>
+      <c r="N411">
+        <v>6200872.9076258</v>
+      </c>
+      <c r="O411">
+        <v>1</v>
+      </c>
+      <c r="P411">
+        <v>3</v>
+      </c>
+      <c r="Q411">
+        <v>1</v>
+      </c>
+      <c r="R411">
+        <v>1083019.6998826349</v>
+      </c>
+      <c r="S411" t="s">
+        <v>193</v>
+      </c>
+      <c r="T411" t="s">
+        <v>194</v>
+      </c>
+      <c r="U411" s="1">
+        <v>3</v>
+      </c>
+      <c r="V411" s="1">
+        <v>1</v>
+      </c>
+      <c r="W411" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF411" s="3">
+        <v>13.9610389610389</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="412" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>62</v>
+      </c>
+      <c r="B412" t="s">
+        <v>183</v>
+      </c>
+      <c r="C412" t="s">
+        <v>168</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412">
+        <v>37</v>
+      </c>
+      <c r="H412">
+        <v>16</v>
+      </c>
+      <c r="I412">
+        <v>9</v>
+      </c>
+      <c r="J412">
+        <v>23</v>
+      </c>
+      <c r="K412">
+        <v>24</v>
+      </c>
+      <c r="L412" t="s">
+        <v>80</v>
+      </c>
+      <c r="M412" t="s">
+        <v>188</v>
+      </c>
+      <c r="N412">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O412">
+        <v>1</v>
+      </c>
+      <c r="P412">
+        <v>3</v>
+      </c>
+      <c r="Q412">
+        <v>1</v>
+      </c>
+      <c r="S412" t="s">
+        <v>193</v>
+      </c>
+      <c r="T412" t="s">
+        <v>194</v>
+      </c>
+      <c r="U412" s="1">
+        <v>3</v>
+      </c>
+      <c r="V412" s="1">
+        <v>1</v>
+      </c>
+      <c r="W412" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB412" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF412" s="3">
+        <v>-0.162337662337662</v>
+      </c>
+      <c r="AG412" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="413" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>62</v>
+      </c>
+      <c r="B413" t="s">
+        <v>183</v>
+      </c>
+      <c r="C413" t="s">
+        <v>168</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>37</v>
+      </c>
+      <c r="H413">
+        <v>23</v>
+      </c>
+      <c r="I413">
+        <v>16</v>
+      </c>
+      <c r="J413">
+        <v>30</v>
+      </c>
+      <c r="K413">
+        <v>24</v>
+      </c>
+      <c r="L413" t="s">
+        <v>80</v>
+      </c>
+      <c r="M413" t="s">
+        <v>188</v>
+      </c>
+      <c r="N413">
+        <v>80474.887337509004</v>
+      </c>
+      <c r="O413">
+        <v>1</v>
+      </c>
+      <c r="P413">
+        <v>3</v>
+      </c>
+      <c r="Q413">
+        <v>1</v>
+      </c>
+      <c r="R413">
+        <v>43881.294321271154</v>
+      </c>
+      <c r="S413" t="s">
+        <v>193</v>
+      </c>
+      <c r="T413" t="s">
+        <v>194</v>
+      </c>
+      <c r="U413" s="1">
+        <v>3</v>
+      </c>
+      <c r="V413" s="1">
+        <v>1</v>
+      </c>
+      <c r="W413" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF413" s="3">
+        <v>20.941558441558399</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="414" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>62</v>
+      </c>
+      <c r="B414" t="s">
+        <v>183</v>
+      </c>
+      <c r="C414" t="s">
+        <v>168</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+      <c r="G414">
+        <v>37</v>
+      </c>
+      <c r="H414">
+        <v>23</v>
+      </c>
+      <c r="I414">
+        <v>16</v>
+      </c>
+      <c r="J414">
+        <v>30</v>
+      </c>
+      <c r="K414">
+        <v>24</v>
+      </c>
+      <c r="L414" t="s">
+        <v>80</v>
+      </c>
+      <c r="M414" t="s">
+        <v>188</v>
+      </c>
+      <c r="N414">
+        <v>1415609.26449199</v>
+      </c>
+      <c r="O414">
+        <v>1</v>
+      </c>
+      <c r="P414">
+        <v>3</v>
+      </c>
+      <c r="Q414">
+        <v>1</v>
+      </c>
+      <c r="R414">
+        <v>456586.44910229999</v>
+      </c>
+      <c r="S414" t="s">
+        <v>193</v>
+      </c>
+      <c r="T414" t="s">
+        <v>194</v>
+      </c>
+      <c r="U414" s="1">
+        <v>3</v>
+      </c>
+      <c r="V414" s="1">
+        <v>1</v>
+      </c>
+      <c r="W414" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB414" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF414" s="3">
+        <v>13.9610389610389</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="415" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>62</v>
+      </c>
+      <c r="B415" t="s">
+        <v>183</v>
+      </c>
+      <c r="C415" t="s">
+        <v>168</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415">
+        <v>37</v>
+      </c>
+      <c r="H415">
+        <v>23</v>
+      </c>
+      <c r="I415">
+        <v>16</v>
+      </c>
+      <c r="J415">
+        <v>30</v>
+      </c>
+      <c r="K415">
+        <v>24</v>
+      </c>
+      <c r="L415" t="s">
+        <v>80</v>
+      </c>
+      <c r="M415" t="s">
+        <v>188</v>
+      </c>
+      <c r="N415">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O415">
+        <v>1</v>
+      </c>
+      <c r="P415">
+        <v>3</v>
+      </c>
+      <c r="Q415">
+        <v>1</v>
+      </c>
+      <c r="S415" t="s">
+        <v>193</v>
+      </c>
+      <c r="T415" t="s">
+        <v>194</v>
+      </c>
+      <c r="U415" s="1">
+        <v>3</v>
+      </c>
+      <c r="V415" s="1">
+        <v>1</v>
+      </c>
+      <c r="W415" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB415" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF415" s="3">
+        <v>-0.162337662337662</v>
+      </c>
+      <c r="AG415" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="416" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>62</v>
+      </c>
+      <c r="B416" t="s">
+        <v>183</v>
+      </c>
+      <c r="C416" t="s">
+        <v>168</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="G416">
+        <v>37</v>
+      </c>
+      <c r="H416">
+        <v>33</v>
+      </c>
+      <c r="I416">
+        <v>26</v>
+      </c>
+      <c r="J416">
+        <v>40</v>
+      </c>
+      <c r="K416">
+        <v>24</v>
+      </c>
+      <c r="L416" t="s">
+        <v>80</v>
+      </c>
+      <c r="M416" t="s">
+        <v>188</v>
+      </c>
+      <c r="N416">
+        <v>10000</v>
+      </c>
+      <c r="O416">
+        <v>1</v>
+      </c>
+      <c r="P416">
+        <v>3</v>
+      </c>
+      <c r="Q416">
+        <v>1</v>
+      </c>
+      <c r="S416" t="s">
+        <v>193</v>
+      </c>
+      <c r="T416" t="s">
+        <v>194</v>
+      </c>
+      <c r="U416" s="1">
+        <v>3</v>
+      </c>
+      <c r="V416" s="1">
+        <v>1</v>
+      </c>
+      <c r="W416" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB416" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF416" s="3">
+        <v>7.4675324675324699</v>
+      </c>
+      <c r="AG416" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="417" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>62</v>
+      </c>
+      <c r="B417" t="s">
+        <v>183</v>
+      </c>
+      <c r="C417" t="s">
+        <v>168</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>37</v>
+      </c>
+      <c r="H417">
+        <v>33</v>
+      </c>
+      <c r="I417">
+        <v>26</v>
+      </c>
+      <c r="J417">
+        <v>40</v>
+      </c>
+      <c r="K417">
+        <v>24</v>
+      </c>
+      <c r="L417" t="s">
+        <v>80</v>
+      </c>
+      <c r="M417" t="s">
+        <v>188</v>
+      </c>
+      <c r="N417">
+        <v>168428311.301166</v>
+      </c>
+      <c r="O417">
+        <v>1</v>
+      </c>
+      <c r="P417">
+        <v>3</v>
+      </c>
+      <c r="Q417">
+        <v>1</v>
+      </c>
+      <c r="S417" t="s">
+        <v>193</v>
+      </c>
+      <c r="T417" t="s">
+        <v>194</v>
+      </c>
+      <c r="U417" s="1">
+        <v>3</v>
+      </c>
+      <c r="V417" s="1">
+        <v>1</v>
+      </c>
+      <c r="W417" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA417" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB417" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF417" s="3">
+        <v>-0.162337662337662</v>
+      </c>
+      <c r="AG417" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="418" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>63</v>
+      </c>
+      <c r="B418" t="s">
+        <v>183</v>
+      </c>
+      <c r="C418" t="s">
+        <v>184</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>37</v>
+      </c>
+      <c r="H418">
+        <v>16</v>
+      </c>
+      <c r="I418">
+        <v>7</v>
+      </c>
+      <c r="J418">
+        <v>7</v>
+      </c>
+      <c r="L418" t="s">
+        <v>80</v>
+      </c>
+      <c r="M418" t="s">
+        <v>188</v>
+      </c>
+      <c r="N418">
+        <v>1857022664.81109</v>
+      </c>
+      <c r="O418">
+        <v>1</v>
+      </c>
+      <c r="P418">
+        <v>3</v>
+      </c>
+      <c r="Q418">
+        <v>1</v>
+      </c>
+      <c r="R418">
+        <v>418897865.88952506</v>
+      </c>
+      <c r="S418" t="s">
+        <v>191</v>
+      </c>
+      <c r="T418" t="s">
+        <v>192</v>
+      </c>
+      <c r="U418" s="1">
+        <v>3</v>
+      </c>
+      <c r="V418" s="1">
+        <v>1</v>
+      </c>
+      <c r="W418" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB418" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF418">
+        <v>14</v>
+      </c>
+      <c r="AG418" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="419" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>63</v>
+      </c>
+      <c r="B419" t="s">
+        <v>183</v>
+      </c>
+      <c r="C419" t="s">
+        <v>184</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>37</v>
+      </c>
+      <c r="H419">
+        <v>16</v>
+      </c>
+      <c r="I419">
+        <v>7</v>
+      </c>
+      <c r="J419">
+        <v>7</v>
+      </c>
+      <c r="L419" t="s">
+        <v>80</v>
+      </c>
+      <c r="M419" t="s">
+        <v>188</v>
+      </c>
+      <c r="N419">
+        <v>959574841.72155499</v>
+      </c>
+      <c r="O419">
+        <v>1</v>
+      </c>
+      <c r="P419">
+        <v>3</v>
+      </c>
+      <c r="Q419">
+        <v>1</v>
+      </c>
+      <c r="R419">
+        <v>153940775.52241498</v>
+      </c>
+      <c r="S419" t="s">
+        <v>191</v>
+      </c>
+      <c r="T419" t="s">
+        <v>192</v>
+      </c>
+      <c r="U419" s="1">
+        <v>3</v>
+      </c>
+      <c r="V419" s="1">
+        <v>1</v>
+      </c>
+      <c r="W419" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB419" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF419">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG419" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="420" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>63</v>
+      </c>
+      <c r="B420" t="s">
+        <v>183</v>
+      </c>
+      <c r="C420" t="s">
+        <v>184</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>37</v>
+      </c>
+      <c r="H420">
+        <v>16</v>
+      </c>
+      <c r="I420">
+        <v>7</v>
+      </c>
+      <c r="J420">
+        <v>7</v>
+      </c>
+      <c r="L420" t="s">
+        <v>80</v>
+      </c>
+      <c r="M420" t="s">
+        <v>188</v>
+      </c>
+      <c r="N420">
+        <v>172408685.151292</v>
+      </c>
+      <c r="O420">
+        <v>1</v>
+      </c>
+      <c r="P420">
+        <v>3</v>
+      </c>
+      <c r="Q420">
+        <v>1</v>
+      </c>
+      <c r="R420">
+        <v>29546618.996544987</v>
+      </c>
+      <c r="S420" t="s">
+        <v>191</v>
+      </c>
+      <c r="T420" t="s">
+        <v>192</v>
+      </c>
+      <c r="U420" s="1">
+        <v>3</v>
+      </c>
+      <c r="V420" s="1">
+        <v>1</v>
+      </c>
+      <c r="W420" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF420">
+        <v>0</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="421" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>63</v>
+      </c>
+      <c r="B421" t="s">
+        <v>183</v>
+      </c>
+      <c r="C421" t="s">
+        <v>184</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>37</v>
+      </c>
+      <c r="H421">
+        <v>23</v>
+      </c>
+      <c r="I421">
+        <v>16</v>
+      </c>
+      <c r="J421">
+        <v>16</v>
+      </c>
+      <c r="L421" t="s">
+        <v>80</v>
+      </c>
+      <c r="M421" t="s">
+        <v>188</v>
+      </c>
+      <c r="N421">
+        <v>1095031275.33831</v>
+      </c>
+      <c r="O421">
+        <v>1</v>
+      </c>
+      <c r="P421">
+        <v>3</v>
+      </c>
+      <c r="Q421">
+        <v>1</v>
+      </c>
+      <c r="R421">
+        <v>247011667.12370849</v>
+      </c>
+      <c r="S421" t="s">
+        <v>191</v>
+      </c>
+      <c r="T421" t="s">
+        <v>192</v>
+      </c>
+      <c r="U421" s="1">
+        <v>3</v>
+      </c>
+      <c r="V421" s="1">
+        <v>1</v>
+      </c>
+      <c r="W421" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB421" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF421">
+        <v>14</v>
+      </c>
+      <c r="AG421" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="422" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>63</v>
+      </c>
+      <c r="B422" t="s">
+        <v>183</v>
+      </c>
+      <c r="C422" t="s">
+        <v>184</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>37</v>
+      </c>
+      <c r="H422">
+        <v>23</v>
+      </c>
+      <c r="I422">
+        <v>16</v>
+      </c>
+      <c r="J422">
+        <v>16</v>
+      </c>
+      <c r="L422" t="s">
+        <v>80</v>
+      </c>
+      <c r="M422" t="s">
+        <v>188</v>
+      </c>
+      <c r="N422">
+        <v>689778537.93876398</v>
+      </c>
+      <c r="O422">
+        <v>1</v>
+      </c>
+      <c r="P422">
+        <v>3</v>
+      </c>
+      <c r="Q422">
+        <v>1</v>
+      </c>
+      <c r="R422">
+        <v>184292593.49591148</v>
+      </c>
+      <c r="S422" t="s">
+        <v>191</v>
+      </c>
+      <c r="T422" t="s">
+        <v>192</v>
+      </c>
+      <c r="U422" s="1">
+        <v>3</v>
+      </c>
+      <c r="V422" s="1">
+        <v>1</v>
+      </c>
+      <c r="W422" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB422" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF422">
+        <v>7.0999999999999899</v>
+      </c>
+      <c r="AG422" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="423" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>63</v>
+      </c>
+      <c r="B423" t="s">
+        <v>183</v>
+      </c>
+      <c r="C423" t="s">
+        <v>184</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>37</v>
+      </c>
+      <c r="H423">
+        <v>23</v>
+      </c>
+      <c r="I423">
+        <v>16</v>
+      </c>
+      <c r="J423">
+        <v>16</v>
+      </c>
+      <c r="L423" t="s">
+        <v>80</v>
+      </c>
+      <c r="M423" t="s">
+        <v>188</v>
+      </c>
+      <c r="N423">
+        <v>172408685.151292</v>
+      </c>
+      <c r="O423">
+        <v>1</v>
+      </c>
+      <c r="P423">
+        <v>3</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="S423" t="s">
+        <v>191</v>
+      </c>
+      <c r="T423" t="s">
+        <v>192</v>
+      </c>
+      <c r="U423" s="1">
+        <v>3</v>
+      </c>
+      <c r="V423" s="1">
+        <v>1</v>
+      </c>
+      <c r="W423" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB423" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF423">
+        <v>0</v>
+      </c>
+      <c r="AG423" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="424" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>63</v>
+      </c>
+      <c r="B424" t="s">
+        <v>183</v>
+      </c>
+      <c r="C424" t="s">
+        <v>184</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>37</v>
+      </c>
+      <c r="H424">
+        <v>7</v>
+      </c>
+      <c r="I424">
+        <v>23</v>
+      </c>
+      <c r="J424">
+        <v>23</v>
+      </c>
+      <c r="L424" t="s">
+        <v>80</v>
+      </c>
+      <c r="M424" t="s">
+        <v>188</v>
+      </c>
+      <c r="N424">
+        <v>73080125.274856299</v>
+      </c>
+      <c r="O424">
+        <v>1</v>
+      </c>
+      <c r="P424">
+        <v>3</v>
+      </c>
+      <c r="Q424">
+        <v>1</v>
+      </c>
+      <c r="R424">
+        <v>14569949.464516353</v>
+      </c>
+      <c r="S424" t="s">
+        <v>191</v>
+      </c>
+      <c r="T424" t="s">
+        <v>192</v>
+      </c>
+      <c r="U424" s="1">
+        <v>3</v>
+      </c>
+      <c r="V424" s="1">
+        <v>1</v>
+      </c>
+      <c r="W424" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB424" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF424">
+        <v>14</v>
+      </c>
+      <c r="AG424" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="425" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>63</v>
+      </c>
+      <c r="B425" t="s">
+        <v>183</v>
+      </c>
+      <c r="C425" t="s">
+        <v>184</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>37</v>
+      </c>
+      <c r="H425">
+        <v>7</v>
+      </c>
+      <c r="I425">
+        <v>23</v>
+      </c>
+      <c r="J425">
+        <v>23</v>
+      </c>
+      <c r="L425" t="s">
+        <v>80</v>
+      </c>
+      <c r="M425" t="s">
+        <v>188</v>
+      </c>
+      <c r="N425">
+        <v>89088323.960926607</v>
+      </c>
+      <c r="O425">
+        <v>1</v>
+      </c>
+      <c r="P425">
+        <v>3</v>
+      </c>
+      <c r="Q425">
+        <v>1</v>
+      </c>
+      <c r="R425">
+        <v>29946906.913122851</v>
+      </c>
+      <c r="S425" t="s">
+        <v>191</v>
+      </c>
+      <c r="T425" t="s">
+        <v>192</v>
+      </c>
+      <c r="U425" s="1">
+        <v>3</v>
+      </c>
+      <c r="V425" s="1">
+        <v>1</v>
+      </c>
+      <c r="W425" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB425" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF425">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG425" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="426" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>63</v>
+      </c>
+      <c r="B426" t="s">
+        <v>183</v>
+      </c>
+      <c r="C426" t="s">
+        <v>184</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>37</v>
+      </c>
+      <c r="H426">
+        <v>7</v>
+      </c>
+      <c r="I426">
+        <v>23</v>
+      </c>
+      <c r="J426">
+        <v>23</v>
+      </c>
+      <c r="L426" t="s">
+        <v>80</v>
+      </c>
+      <c r="M426" t="s">
+        <v>188</v>
+      </c>
+      <c r="N426">
+        <v>184175973.849684</v>
+      </c>
+      <c r="O426">
+        <v>1</v>
+      </c>
+      <c r="P426">
+        <v>3</v>
+      </c>
+      <c r="Q426">
+        <v>1</v>
+      </c>
+      <c r="S426" t="s">
+        <v>191</v>
+      </c>
+      <c r="T426" t="s">
+        <v>192</v>
+      </c>
+      <c r="U426" s="1">
+        <v>3</v>
+      </c>
+      <c r="V426" s="1">
+        <v>1</v>
+      </c>
+      <c r="W426" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB426" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF426">
+        <v>0</v>
+      </c>
+      <c r="AG426" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="427" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>63</v>
+      </c>
+      <c r="B427" t="s">
+        <v>183</v>
+      </c>
+      <c r="C427" t="s">
+        <v>184</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>37</v>
+      </c>
+      <c r="H427">
+        <v>33</v>
+      </c>
+      <c r="I427">
+        <v>33</v>
+      </c>
+      <c r="J427">
+        <v>33</v>
+      </c>
+      <c r="L427" t="s">
+        <v>80</v>
+      </c>
+      <c r="M427" t="s">
+        <v>188</v>
+      </c>
+      <c r="N427">
+        <v>46034394.724385902</v>
+      </c>
+      <c r="O427">
+        <v>1</v>
+      </c>
+      <c r="P427">
+        <v>3</v>
+      </c>
+      <c r="Q427">
+        <v>1</v>
+      </c>
+      <c r="R427">
+        <v>17521103.287151851</v>
+      </c>
+      <c r="S427" t="s">
+        <v>191</v>
+      </c>
+      <c r="T427" t="s">
+        <v>192</v>
+      </c>
+      <c r="U427" s="1">
+        <v>3</v>
+      </c>
+      <c r="V427" s="1">
+        <v>1</v>
+      </c>
+      <c r="W427" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB427" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF427">
+        <v>13.9</v>
+      </c>
+      <c r="AG427" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="428" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>63</v>
+      </c>
+      <c r="B428" t="s">
+        <v>183</v>
+      </c>
+      <c r="C428" t="s">
+        <v>184</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>37</v>
+      </c>
+      <c r="H428">
+        <v>33</v>
+      </c>
+      <c r="I428">
+        <v>33</v>
+      </c>
+      <c r="J428">
+        <v>33</v>
+      </c>
+      <c r="L428" t="s">
+        <v>80</v>
+      </c>
+      <c r="M428" t="s">
+        <v>188</v>
+      </c>
+      <c r="N428">
+        <v>35349811.050300904</v>
+      </c>
+      <c r="O428">
+        <v>1</v>
+      </c>
+      <c r="P428">
+        <v>3</v>
+      </c>
+      <c r="Q428">
+        <v>1</v>
+      </c>
+      <c r="R428">
+        <v>43340157.179752551</v>
+      </c>
+      <c r="S428" t="s">
+        <v>191</v>
+      </c>
+      <c r="T428" t="s">
+        <v>192</v>
+      </c>
+      <c r="U428" s="1">
+        <v>3</v>
+      </c>
+      <c r="V428" s="1">
+        <v>1</v>
+      </c>
+      <c r="W428" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA428" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB428" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF428">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG428" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="429" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>63</v>
+      </c>
+      <c r="B429" t="s">
+        <v>183</v>
+      </c>
+      <c r="C429" t="s">
+        <v>184</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>37</v>
+      </c>
+      <c r="H429">
+        <v>33</v>
+      </c>
+      <c r="I429">
+        <v>33</v>
+      </c>
+      <c r="J429">
+        <v>33</v>
+      </c>
+      <c r="L429" t="s">
+        <v>80</v>
+      </c>
+      <c r="M429" t="s">
+        <v>188</v>
+      </c>
+      <c r="N429">
+        <v>184175973.849684</v>
+      </c>
+      <c r="O429">
+        <v>1</v>
+      </c>
+      <c r="P429">
+        <v>3</v>
+      </c>
+      <c r="Q429">
+        <v>1</v>
+      </c>
+      <c r="S429" t="s">
+        <v>191</v>
+      </c>
+      <c r="T429" t="s">
+        <v>192</v>
+      </c>
+      <c r="U429" s="1">
+        <v>3</v>
+      </c>
+      <c r="V429" s="1">
+        <v>1</v>
+      </c>
+      <c r="W429" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB429" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF429">
+        <v>0</v>
+      </c>
+      <c r="AG429" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="430" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>63</v>
+      </c>
+      <c r="B430" t="s">
+        <v>183</v>
+      </c>
+      <c r="C430" t="s">
+        <v>184</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+      <c r="G430">
+        <v>37</v>
+      </c>
+      <c r="H430">
+        <v>7</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>14</v>
+      </c>
+      <c r="K430">
+        <v>24</v>
+      </c>
+      <c r="L430" t="s">
+        <v>80</v>
+      </c>
+      <c r="M430" t="s">
+        <v>188</v>
+      </c>
+      <c r="N430">
+        <v>64040042.711972304</v>
+      </c>
+      <c r="O430">
+        <v>1</v>
+      </c>
+      <c r="P430">
+        <v>3</v>
+      </c>
+      <c r="Q430">
+        <v>1</v>
+      </c>
+      <c r="S430" t="s">
+        <v>191</v>
+      </c>
+      <c r="T430" t="s">
+        <v>192</v>
+      </c>
+      <c r="U430" s="1">
+        <v>3</v>
+      </c>
+      <c r="V430" s="1">
+        <v>1</v>
+      </c>
+      <c r="W430" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA430" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB430" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF430">
+        <v>14</v>
+      </c>
+      <c r="AG430" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="431" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>63</v>
+      </c>
+      <c r="B431" t="s">
+        <v>183</v>
+      </c>
+      <c r="C431" t="s">
+        <v>184</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431">
+        <v>37</v>
+      </c>
+      <c r="H431">
+        <v>7</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>14</v>
+      </c>
+      <c r="K431">
+        <v>24</v>
+      </c>
+      <c r="L431" t="s">
+        <v>80</v>
+      </c>
+      <c r="M431" t="s">
+        <v>188</v>
+      </c>
+      <c r="N431">
+        <v>78068011.653486893</v>
+      </c>
+      <c r="O431">
+        <v>1</v>
+      </c>
+      <c r="P431">
+        <v>3</v>
+      </c>
+      <c r="Q431">
+        <v>1</v>
+      </c>
+      <c r="S431" t="s">
+        <v>191</v>
+      </c>
+      <c r="T431" t="s">
+        <v>192</v>
+      </c>
+      <c r="U431" s="1">
+        <v>3</v>
+      </c>
+      <c r="V431" s="1">
+        <v>1</v>
+      </c>
+      <c r="W431" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB431" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF431">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG431" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="432" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>63</v>
+      </c>
+      <c r="B432" t="s">
+        <v>183</v>
+      </c>
+      <c r="C432" t="s">
+        <v>184</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>37</v>
+      </c>
+      <c r="H432">
+        <v>7</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>14</v>
+      </c>
+      <c r="K432">
+        <v>24</v>
+      </c>
+      <c r="L432" t="s">
+        <v>80</v>
+      </c>
+      <c r="M432" t="s">
+        <v>188</v>
+      </c>
+      <c r="N432">
+        <v>172408685.151292</v>
+      </c>
+      <c r="O432">
+        <v>1</v>
+      </c>
+      <c r="P432">
+        <v>3</v>
+      </c>
+      <c r="Q432">
+        <v>1</v>
+      </c>
+      <c r="S432" t="s">
+        <v>191</v>
+      </c>
+      <c r="T432" t="s">
+        <v>192</v>
+      </c>
+      <c r="U432" s="1">
+        <v>3</v>
+      </c>
+      <c r="V432" s="1">
+        <v>1</v>
+      </c>
+      <c r="W432" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA432" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB432" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF432">
+        <v>0</v>
+      </c>
+      <c r="AG432" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="433" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>63</v>
+      </c>
+      <c r="B433" t="s">
+        <v>183</v>
+      </c>
+      <c r="C433" t="s">
+        <v>184</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>37</v>
+      </c>
+      <c r="H433">
+        <v>16</v>
+      </c>
+      <c r="I433">
+        <v>9</v>
+      </c>
+      <c r="J433">
+        <v>23</v>
+      </c>
+      <c r="K433">
+        <v>24</v>
+      </c>
+      <c r="L433" t="s">
+        <v>80</v>
+      </c>
+      <c r="M433" t="s">
+        <v>188</v>
+      </c>
+      <c r="N433">
+        <v>1169769674.6211901</v>
+      </c>
+      <c r="O433">
+        <v>1</v>
+      </c>
+      <c r="P433">
+        <v>3</v>
+      </c>
+      <c r="Q433">
+        <v>1</v>
+      </c>
+      <c r="R433">
+        <v>263870780.66758448</v>
+      </c>
+      <c r="S433" t="s">
+        <v>191</v>
+      </c>
+      <c r="T433" t="s">
+        <v>192</v>
+      </c>
+      <c r="U433" s="1">
+        <v>3</v>
+      </c>
+      <c r="V433" s="1">
+        <v>1</v>
+      </c>
+      <c r="W433" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA433" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB433" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF433">
+        <v>14</v>
+      </c>
+      <c r="AG433" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="434" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>63</v>
+      </c>
+      <c r="B434" t="s">
+        <v>183</v>
+      </c>
+      <c r="C434" t="s">
+        <v>184</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+      <c r="G434">
+        <v>37</v>
+      </c>
+      <c r="H434">
+        <v>16</v>
+      </c>
+      <c r="I434">
+        <v>9</v>
+      </c>
+      <c r="J434">
+        <v>23</v>
+      </c>
+      <c r="K434">
+        <v>24</v>
+      </c>
+      <c r="L434" t="s">
+        <v>80</v>
+      </c>
+      <c r="M434" t="s">
+        <v>188</v>
+      </c>
+      <c r="N434">
+        <v>736857507.23057604</v>
+      </c>
+      <c r="O434">
+        <v>1</v>
+      </c>
+      <c r="P434">
+        <v>3</v>
+      </c>
+      <c r="Q434">
+        <v>1</v>
+      </c>
+      <c r="R434">
+        <v>146906927.19150048</v>
+      </c>
+      <c r="S434" t="s">
+        <v>191</v>
+      </c>
+      <c r="T434" t="s">
+        <v>192</v>
+      </c>
+      <c r="U434" s="1">
+        <v>3</v>
+      </c>
+      <c r="V434" s="1">
+        <v>1</v>
+      </c>
+      <c r="W434" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA434" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB434" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF434">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG434" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="435" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>63</v>
+      </c>
+      <c r="B435" t="s">
+        <v>183</v>
+      </c>
+      <c r="C435" t="s">
+        <v>184</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>37</v>
+      </c>
+      <c r="H435">
+        <v>16</v>
+      </c>
+      <c r="I435">
+        <v>9</v>
+      </c>
+      <c r="J435">
+        <v>23</v>
+      </c>
+      <c r="K435">
+        <v>24</v>
+      </c>
+      <c r="L435" t="s">
+        <v>80</v>
+      </c>
+      <c r="M435" t="s">
+        <v>188</v>
+      </c>
+      <c r="N435">
+        <v>172408685.151292</v>
+      </c>
+      <c r="O435">
+        <v>1</v>
+      </c>
+      <c r="P435">
+        <v>3</v>
+      </c>
+      <c r="Q435">
+        <v>1</v>
+      </c>
+      <c r="S435" t="s">
+        <v>191</v>
+      </c>
+      <c r="T435" t="s">
+        <v>192</v>
+      </c>
+      <c r="U435" s="1">
+        <v>3</v>
+      </c>
+      <c r="V435" s="1">
+        <v>1</v>
+      </c>
+      <c r="W435" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA435" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB435" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF435">
+        <v>0</v>
+      </c>
+      <c r="AG435" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="436" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>63</v>
+      </c>
+      <c r="B436" t="s">
+        <v>183</v>
+      </c>
+      <c r="C436" t="s">
+        <v>184</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+      <c r="G436">
+        <v>37</v>
+      </c>
+      <c r="H436">
+        <v>23</v>
+      </c>
+      <c r="I436">
+        <v>16</v>
+      </c>
+      <c r="J436">
+        <v>30</v>
+      </c>
+      <c r="K436">
+        <v>24</v>
+      </c>
+      <c r="L436" t="s">
+        <v>80</v>
+      </c>
+      <c r="M436" t="s">
+        <v>188</v>
+      </c>
+      <c r="N436">
+        <v>196746407.025336</v>
+      </c>
+      <c r="O436">
+        <v>1</v>
+      </c>
+      <c r="P436">
+        <v>3</v>
+      </c>
+      <c r="Q436">
+        <v>1</v>
+      </c>
+      <c r="R436">
+        <v>20171870.063833997</v>
+      </c>
+      <c r="S436" t="s">
+        <v>191</v>
+      </c>
+      <c r="T436" t="s">
+        <v>192</v>
+      </c>
+      <c r="U436" s="1">
+        <v>3</v>
+      </c>
+      <c r="V436" s="1">
+        <v>1</v>
+      </c>
+      <c r="W436" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB436" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF436">
+        <v>14</v>
+      </c>
+      <c r="AG436" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="437" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>63</v>
+      </c>
+      <c r="B437" t="s">
+        <v>183</v>
+      </c>
+      <c r="C437" t="s">
+        <v>184</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437">
+        <v>37</v>
+      </c>
+      <c r="H437">
+        <v>23</v>
+      </c>
+      <c r="I437">
+        <v>16</v>
+      </c>
+      <c r="J437">
+        <v>30</v>
+      </c>
+      <c r="K437">
+        <v>24</v>
+      </c>
+      <c r="L437" t="s">
+        <v>80</v>
+      </c>
+      <c r="M437" t="s">
+        <v>188</v>
+      </c>
+      <c r="N437">
+        <v>101664296.27278</v>
+      </c>
+      <c r="O437">
+        <v>1</v>
+      </c>
+      <c r="P437">
+        <v>3</v>
+      </c>
+      <c r="Q437">
+        <v>1</v>
+      </c>
+      <c r="R437">
+        <v>13463603.106534697</v>
+      </c>
+      <c r="S437" t="s">
+        <v>191</v>
+      </c>
+      <c r="T437" t="s">
+        <v>192</v>
+      </c>
+      <c r="U437" s="1">
+        <v>3</v>
+      </c>
+      <c r="V437" s="1">
+        <v>1</v>
+      </c>
+      <c r="W437" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA437" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB437" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF437">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG437" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="438" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>63</v>
+      </c>
+      <c r="B438" t="s">
+        <v>183</v>
+      </c>
+      <c r="C438" t="s">
+        <v>184</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>37</v>
+      </c>
+      <c r="H438">
+        <v>23</v>
+      </c>
+      <c r="I438">
+        <v>16</v>
+      </c>
+      <c r="J438">
+        <v>30</v>
+      </c>
+      <c r="K438">
+        <v>24</v>
+      </c>
+      <c r="L438" t="s">
+        <v>80</v>
+      </c>
+      <c r="M438" t="s">
+        <v>188</v>
+      </c>
+      <c r="N438">
+        <v>161393226.783519</v>
+      </c>
+      <c r="O438">
+        <v>1</v>
+      </c>
+      <c r="P438">
+        <v>3</v>
+      </c>
+      <c r="Q438">
+        <v>1</v>
+      </c>
+      <c r="S438" t="s">
+        <v>191</v>
+      </c>
+      <c r="T438" t="s">
+        <v>192</v>
+      </c>
+      <c r="U438" s="1">
+        <v>3</v>
+      </c>
+      <c r="V438" s="1">
+        <v>1</v>
+      </c>
+      <c r="W438" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA438" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB438" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF438">
+        <v>0</v>
+      </c>
+      <c r="AG438" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="439" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>63</v>
+      </c>
+      <c r="B439" t="s">
+        <v>183</v>
+      </c>
+      <c r="C439" t="s">
+        <v>184</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+      <c r="G439">
+        <v>37</v>
+      </c>
+      <c r="H439">
+        <v>33</v>
+      </c>
+      <c r="I439">
+        <v>26</v>
+      </c>
+      <c r="J439">
+        <v>40</v>
+      </c>
+      <c r="K439">
+        <v>24</v>
+      </c>
+      <c r="L439" t="s">
+        <v>80</v>
+      </c>
+      <c r="M439" t="s">
+        <v>188</v>
+      </c>
+      <c r="N439">
+        <v>2875950.2031882601</v>
+      </c>
+      <c r="O439">
+        <v>1</v>
+      </c>
+      <c r="P439">
+        <v>3</v>
+      </c>
+      <c r="Q439">
+        <v>1</v>
+      </c>
+      <c r="R439">
+        <v>380867.75308011496</v>
+      </c>
+      <c r="S439" t="s">
+        <v>191</v>
+      </c>
+      <c r="T439" t="s">
+        <v>192</v>
+      </c>
+      <c r="U439" s="1">
+        <v>3</v>
+      </c>
+      <c r="V439" s="1">
+        <v>1</v>
+      </c>
+      <c r="W439" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA439" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB439" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF439">
+        <v>13.9</v>
+      </c>
+      <c r="AG439" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="440" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>63</v>
+      </c>
+      <c r="B440" t="s">
+        <v>183</v>
+      </c>
+      <c r="C440" t="s">
+        <v>184</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440">
+        <v>1</v>
+      </c>
+      <c r="G440">
+        <v>37</v>
+      </c>
+      <c r="H440">
+        <v>33</v>
+      </c>
+      <c r="I440">
+        <v>26</v>
+      </c>
+      <c r="J440">
+        <v>40</v>
+      </c>
+      <c r="K440">
+        <v>24</v>
+      </c>
+      <c r="L440" t="s">
+        <v>80</v>
+      </c>
+      <c r="M440" t="s">
+        <v>188</v>
+      </c>
+      <c r="N440">
+        <v>4000834.0492444499</v>
+      </c>
+      <c r="O440">
+        <v>1</v>
+      </c>
+      <c r="P440">
+        <v>3</v>
+      </c>
+      <c r="Q440">
+        <v>1</v>
+      </c>
+      <c r="R440">
+        <v>529838.33763634996</v>
+      </c>
+      <c r="S440" t="s">
+        <v>191</v>
+      </c>
+      <c r="T440" t="s">
+        <v>192</v>
+      </c>
+      <c r="U440" s="1">
+        <v>3</v>
+      </c>
+      <c r="V440" s="1">
+        <v>1</v>
+      </c>
+      <c r="W440" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA440" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB440" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF440">
+        <v>6.9999999999999902</v>
+      </c>
+      <c r="AG440" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="441" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>63</v>
+      </c>
+      <c r="B441" t="s">
+        <v>183</v>
+      </c>
+      <c r="C441" t="s">
+        <v>184</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>37</v>
+      </c>
+      <c r="H441">
+        <v>33</v>
+      </c>
+      <c r="I441">
+        <v>26</v>
+      </c>
+      <c r="J441">
+        <v>40</v>
+      </c>
+      <c r="K441">
+        <v>24</v>
+      </c>
+      <c r="L441" t="s">
+        <v>80</v>
+      </c>
+      <c r="M441" t="s">
+        <v>188</v>
+      </c>
+      <c r="N441">
+        <v>172408685.151292</v>
+      </c>
+      <c r="O441">
+        <v>1</v>
+      </c>
+      <c r="P441">
+        <v>3</v>
+      </c>
+      <c r="Q441">
+        <v>1</v>
+      </c>
+      <c r="S441" t="s">
+        <v>191</v>
+      </c>
+      <c r="T441" t="s">
+        <v>192</v>
+      </c>
+      <c r="U441" s="1">
+        <v>3</v>
+      </c>
+      <c r="V441" s="1">
+        <v>1</v>
+      </c>
+      <c r="W441" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA441" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB441" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF441">
+        <v>0</v>
+      </c>
+      <c r="AG441" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="442" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>64</v>
+      </c>
+      <c r="B442" t="s">
+        <v>183</v>
+      </c>
+      <c r="C442" t="s">
+        <v>185</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>37</v>
+      </c>
+      <c r="H442">
+        <v>7</v>
+      </c>
+      <c r="I442">
+        <v>7</v>
+      </c>
+      <c r="J442">
+        <v>7</v>
+      </c>
+      <c r="L442" t="s">
+        <v>80</v>
+      </c>
+      <c r="M442" t="s">
+        <v>188</v>
+      </c>
+      <c r="N442">
+        <v>68326073.871573702</v>
+      </c>
+      <c r="O442">
+        <v>1</v>
+      </c>
+      <c r="P442">
+        <v>3</v>
+      </c>
+      <c r="Q442">
+        <v>1</v>
+      </c>
+      <c r="R442">
+        <v>22489985.984449551</v>
+      </c>
+      <c r="S442" t="s">
+        <v>193</v>
+      </c>
+      <c r="T442" t="s">
+        <v>194</v>
+      </c>
+      <c r="U442" s="1">
+        <v>3</v>
+      </c>
+      <c r="V442" s="1">
+        <v>1</v>
+      </c>
+      <c r="W442" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA442" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB442" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="443" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>64</v>
+      </c>
+      <c r="B443" t="s">
+        <v>183</v>
+      </c>
+      <c r="C443" t="s">
+        <v>185</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>37</v>
+      </c>
+      <c r="H443">
+        <v>7</v>
+      </c>
+      <c r="I443">
+        <v>7</v>
+      </c>
+      <c r="J443">
+        <v>7</v>
+      </c>
+      <c r="L443" t="s">
+        <v>80</v>
+      </c>
+      <c r="M443" t="s">
+        <v>188</v>
+      </c>
+      <c r="N443">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O443">
+        <v>1</v>
+      </c>
+      <c r="P443">
+        <v>3</v>
+      </c>
+      <c r="Q443">
+        <v>1</v>
+      </c>
+      <c r="S443" t="s">
+        <v>193</v>
+      </c>
+      <c r="T443" t="s">
+        <v>194</v>
+      </c>
+      <c r="U443" s="1">
+        <v>3</v>
+      </c>
+      <c r="V443" s="1">
+        <v>1</v>
+      </c>
+      <c r="W443" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA443" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB443" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="444" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>64</v>
+      </c>
+      <c r="B444" t="s">
+        <v>183</v>
+      </c>
+      <c r="C444" t="s">
+        <v>185</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>37</v>
+      </c>
+      <c r="H444">
+        <v>7</v>
+      </c>
+      <c r="I444">
+        <v>7</v>
+      </c>
+      <c r="J444">
+        <v>7</v>
+      </c>
+      <c r="L444" t="s">
+        <v>80</v>
+      </c>
+      <c r="M444" t="s">
+        <v>188</v>
+      </c>
+      <c r="N444">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O444">
+        <v>1</v>
+      </c>
+      <c r="P444">
+        <v>3</v>
+      </c>
+      <c r="Q444">
+        <v>1</v>
+      </c>
+      <c r="S444" t="s">
+        <v>193</v>
+      </c>
+      <c r="T444" t="s">
+        <v>194</v>
+      </c>
+      <c r="U444" s="1">
+        <v>3</v>
+      </c>
+      <c r="V444" s="1">
+        <v>1</v>
+      </c>
+      <c r="W444" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA444" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB444" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="445" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>64</v>
+      </c>
+      <c r="B445" t="s">
+        <v>183</v>
+      </c>
+      <c r="C445" t="s">
+        <v>185</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>37</v>
+      </c>
+      <c r="H445">
+        <v>16</v>
+      </c>
+      <c r="I445">
+        <v>16</v>
+      </c>
+      <c r="J445">
+        <v>16</v>
+      </c>
+      <c r="L445" t="s">
+        <v>80</v>
+      </c>
+      <c r="M445" t="s">
+        <v>188</v>
+      </c>
+      <c r="N445">
+        <v>2335721469.0901198</v>
+      </c>
+      <c r="O445">
+        <v>1</v>
+      </c>
+      <c r="P445">
+        <v>3</v>
+      </c>
+      <c r="Q445">
+        <v>1</v>
+      </c>
+      <c r="R445">
+        <v>488749082.21150994</v>
+      </c>
+      <c r="S445" t="s">
+        <v>193</v>
+      </c>
+      <c r="T445" t="s">
+        <v>194</v>
+      </c>
+      <c r="U445" s="1">
+        <v>3</v>
+      </c>
+      <c r="V445" s="1">
+        <v>1</v>
+      </c>
+      <c r="W445" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB445" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="446" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>64</v>
+      </c>
+      <c r="B446" t="s">
+        <v>183</v>
+      </c>
+      <c r="C446" t="s">
+        <v>185</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>37</v>
+      </c>
+      <c r="H446">
+        <v>16</v>
+      </c>
+      <c r="I446">
+        <v>16</v>
+      </c>
+      <c r="J446">
+        <v>16</v>
+      </c>
+      <c r="L446" t="s">
+        <v>80</v>
+      </c>
+      <c r="M446" t="s">
+        <v>188</v>
+      </c>
+      <c r="N446">
+        <v>413562691.78176898</v>
+      </c>
+      <c r="O446">
+        <v>1</v>
+      </c>
+      <c r="P446">
+        <v>3</v>
+      </c>
+      <c r="Q446">
+        <v>1</v>
+      </c>
+      <c r="R446">
+        <v>135588260.71862304</v>
+      </c>
+      <c r="S446" t="s">
+        <v>193</v>
+      </c>
+      <c r="T446" t="s">
+        <v>194</v>
+      </c>
+      <c r="U446" s="1">
+        <v>3</v>
+      </c>
+      <c r="V446" s="1">
+        <v>1</v>
+      </c>
+      <c r="W446" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA446" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB446" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="447" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>64</v>
+      </c>
+      <c r="B447" t="s">
+        <v>183</v>
+      </c>
+      <c r="C447" t="s">
+        <v>185</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>37</v>
+      </c>
+      <c r="H447">
+        <v>16</v>
+      </c>
+      <c r="I447">
+        <v>16</v>
+      </c>
+      <c r="J447">
+        <v>16</v>
+      </c>
+      <c r="L447" t="s">
+        <v>80</v>
+      </c>
+      <c r="M447" t="s">
+        <v>188</v>
+      </c>
+      <c r="N447">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O447">
+        <v>1</v>
+      </c>
+      <c r="P447">
+        <v>3</v>
+      </c>
+      <c r="Q447">
+        <v>1</v>
+      </c>
+      <c r="S447" t="s">
+        <v>193</v>
+      </c>
+      <c r="T447" t="s">
+        <v>194</v>
+      </c>
+      <c r="U447" s="1">
+        <v>3</v>
+      </c>
+      <c r="V447" s="1">
+        <v>1</v>
+      </c>
+      <c r="W447" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA447" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB447" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="448" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>64</v>
+      </c>
+      <c r="B448" t="s">
+        <v>183</v>
+      </c>
+      <c r="C448" t="s">
+        <v>185</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>37</v>
+      </c>
+      <c r="H448">
+        <v>23</v>
+      </c>
+      <c r="I448">
+        <v>23</v>
+      </c>
+      <c r="J448">
+        <v>23</v>
+      </c>
+      <c r="L448" t="s">
+        <v>80</v>
+      </c>
+      <c r="M448" t="s">
+        <v>188</v>
+      </c>
+      <c r="N448">
+        <v>1489129032.4394</v>
+      </c>
+      <c r="O448">
+        <v>1</v>
+      </c>
+      <c r="P448">
+        <v>3</v>
+      </c>
+      <c r="Q448">
+        <v>1</v>
+      </c>
+      <c r="S448" t="s">
+        <v>193</v>
+      </c>
+      <c r="T448" t="s">
+        <v>194</v>
+      </c>
+      <c r="U448" s="1">
+        <v>3</v>
+      </c>
+      <c r="V448" s="1">
+        <v>1</v>
+      </c>
+      <c r="W448" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA448" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB448" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="449" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>64</v>
+      </c>
+      <c r="B449" t="s">
+        <v>183</v>
+      </c>
+      <c r="C449" t="s">
+        <v>185</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>37</v>
+      </c>
+      <c r="H449">
+        <v>23</v>
+      </c>
+      <c r="I449">
+        <v>23</v>
+      </c>
+      <c r="J449">
+        <v>23</v>
+      </c>
+      <c r="L449" t="s">
+        <v>80</v>
+      </c>
+      <c r="M449" t="s">
+        <v>188</v>
+      </c>
+      <c r="N449">
+        <v>826595873.88017905</v>
+      </c>
+      <c r="O449">
+        <v>1</v>
+      </c>
+      <c r="P449">
+        <v>3</v>
+      </c>
+      <c r="Q449">
+        <v>1</v>
+      </c>
+      <c r="R449">
+        <v>213353714.48183346</v>
+      </c>
+      <c r="S449" t="s">
+        <v>193</v>
+      </c>
+      <c r="T449" t="s">
+        <v>194</v>
+      </c>
+      <c r="U449" s="1">
+        <v>3</v>
+      </c>
+      <c r="V449" s="1">
+        <v>1</v>
+      </c>
+      <c r="W449" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA449" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB449" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>64</v>
+      </c>
+      <c r="B450" t="s">
+        <v>183</v>
+      </c>
+      <c r="C450" t="s">
+        <v>185</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>37</v>
+      </c>
+      <c r="H450">
+        <v>23</v>
+      </c>
+      <c r="I450">
+        <v>23</v>
+      </c>
+      <c r="J450">
+        <v>23</v>
+      </c>
+      <c r="L450" t="s">
+        <v>80</v>
+      </c>
+      <c r="M450" t="s">
+        <v>188</v>
+      </c>
+      <c r="N450">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O450">
+        <v>1</v>
+      </c>
+      <c r="P450">
+        <v>3</v>
+      </c>
+      <c r="Q450">
+        <v>1</v>
+      </c>
+      <c r="S450" t="s">
+        <v>193</v>
+      </c>
+      <c r="T450" t="s">
+        <v>194</v>
+      </c>
+      <c r="U450" s="1">
+        <v>3</v>
+      </c>
+      <c r="V450" s="1">
+        <v>1</v>
+      </c>
+      <c r="W450" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA450" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB450" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="451" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>64</v>
+      </c>
+      <c r="B451" t="s">
+        <v>183</v>
+      </c>
+      <c r="C451" t="s">
+        <v>185</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>37</v>
+      </c>
+      <c r="H451">
+        <v>33</v>
+      </c>
+      <c r="I451">
+        <v>33</v>
+      </c>
+      <c r="J451">
+        <v>33</v>
+      </c>
+      <c r="L451" t="s">
+        <v>80</v>
+      </c>
+      <c r="M451" t="s">
+        <v>188</v>
+      </c>
+      <c r="N451">
+        <v>1652133406.3573599</v>
+      </c>
+      <c r="O451">
+        <v>1</v>
+      </c>
+      <c r="P451">
+        <v>3</v>
+      </c>
+      <c r="Q451">
+        <v>1</v>
+      </c>
+      <c r="S451" t="s">
+        <v>193</v>
+      </c>
+      <c r="T451" t="s">
+        <v>194</v>
+      </c>
+      <c r="U451" s="1">
+        <v>3</v>
+      </c>
+      <c r="V451" s="1">
+        <v>1</v>
+      </c>
+      <c r="W451" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA451" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB451" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>64</v>
+      </c>
+      <c r="B452" t="s">
+        <v>183</v>
+      </c>
+      <c r="C452" t="s">
+        <v>185</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>37</v>
+      </c>
+      <c r="H452">
+        <v>33</v>
+      </c>
+      <c r="I452">
+        <v>33</v>
+      </c>
+      <c r="J452">
+        <v>33</v>
+      </c>
+      <c r="L452" t="s">
+        <v>80</v>
+      </c>
+      <c r="M452" t="s">
+        <v>188</v>
+      </c>
+      <c r="N452">
+        <v>1541593692.8422599</v>
+      </c>
+      <c r="O452">
+        <v>1</v>
+      </c>
+      <c r="P452">
+        <v>3</v>
+      </c>
+      <c r="Q452">
+        <v>1</v>
+      </c>
+      <c r="R452">
+        <v>492030391.84441018</v>
+      </c>
+      <c r="S452" t="s">
+        <v>193</v>
+      </c>
+      <c r="T452" t="s">
+        <v>194</v>
+      </c>
+      <c r="U452" s="1">
+        <v>3</v>
+      </c>
+      <c r="V452" s="1">
+        <v>1</v>
+      </c>
+      <c r="W452" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA452" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB452" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="453" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>64</v>
+      </c>
+      <c r="B453" t="s">
+        <v>183</v>
+      </c>
+      <c r="C453" t="s">
+        <v>185</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>37</v>
+      </c>
+      <c r="H453">
+        <v>33</v>
+      </c>
+      <c r="I453">
+        <v>33</v>
+      </c>
+      <c r="J453">
+        <v>33</v>
+      </c>
+      <c r="L453" t="s">
+        <v>80</v>
+      </c>
+      <c r="M453" t="s">
+        <v>188</v>
+      </c>
+      <c r="N453">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O453">
+        <v>1</v>
+      </c>
+      <c r="P453">
+        <v>3</v>
+      </c>
+      <c r="Q453">
+        <v>1</v>
+      </c>
+      <c r="S453" t="s">
+        <v>193</v>
+      </c>
+      <c r="T453" t="s">
+        <v>194</v>
+      </c>
+      <c r="U453" s="1">
+        <v>3</v>
+      </c>
+      <c r="V453" s="1">
+        <v>1</v>
+      </c>
+      <c r="W453" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA453" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB453" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>64</v>
+      </c>
+      <c r="B454" t="s">
+        <v>183</v>
+      </c>
+      <c r="C454" t="s">
+        <v>185</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>37</v>
+      </c>
+      <c r="H454">
+        <v>7</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>14</v>
+      </c>
+      <c r="K454">
+        <v>24</v>
+      </c>
+      <c r="L454" t="s">
+        <v>80</v>
+      </c>
+      <c r="M454" t="s">
+        <v>188</v>
+      </c>
+      <c r="N454">
+        <v>90133703.895174205</v>
+      </c>
+      <c r="O454">
+        <v>1</v>
+      </c>
+      <c r="P454">
+        <v>3</v>
+      </c>
+      <c r="Q454">
+        <v>1</v>
+      </c>
+      <c r="R454">
+        <v>18860453.028353401</v>
+      </c>
+      <c r="S454" t="s">
+        <v>193</v>
+      </c>
+      <c r="T454" t="s">
+        <v>194</v>
+      </c>
+      <c r="U454" s="1">
+        <v>3</v>
+      </c>
+      <c r="V454" s="1">
+        <v>1</v>
+      </c>
+      <c r="W454" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA454" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB454" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="455" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>64</v>
+      </c>
+      <c r="B455" t="s">
+        <v>183</v>
+      </c>
+      <c r="C455" t="s">
+        <v>185</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455">
+        <v>37</v>
+      </c>
+      <c r="H455">
+        <v>7</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>14</v>
+      </c>
+      <c r="K455">
+        <v>24</v>
+      </c>
+      <c r="L455" t="s">
+        <v>80</v>
+      </c>
+      <c r="M455" t="s">
+        <v>188</v>
+      </c>
+      <c r="N455">
+        <v>90133703.895174205</v>
+      </c>
+      <c r="O455">
+        <v>1</v>
+      </c>
+      <c r="P455">
+        <v>3</v>
+      </c>
+      <c r="Q455">
+        <v>1</v>
+      </c>
+      <c r="S455" t="s">
+        <v>193</v>
+      </c>
+      <c r="T455" t="s">
+        <v>194</v>
+      </c>
+      <c r="U455" s="1">
+        <v>3</v>
+      </c>
+      <c r="V455" s="1">
+        <v>1</v>
+      </c>
+      <c r="W455" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA455" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB455" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="456" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>64</v>
+      </c>
+      <c r="B456" t="s">
+        <v>183</v>
+      </c>
+      <c r="C456" t="s">
+        <v>185</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>37</v>
+      </c>
+      <c r="H456">
+        <v>7</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>14</v>
+      </c>
+      <c r="K456">
+        <v>24</v>
+      </c>
+      <c r="L456" t="s">
+        <v>80</v>
+      </c>
+      <c r="M456" t="s">
+        <v>188</v>
+      </c>
+      <c r="N456">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O456">
+        <v>1</v>
+      </c>
+      <c r="P456">
+        <v>3</v>
+      </c>
+      <c r="Q456">
+        <v>1</v>
+      </c>
+      <c r="S456" t="s">
+        <v>193</v>
+      </c>
+      <c r="T456" t="s">
+        <v>194</v>
+      </c>
+      <c r="U456" s="1">
+        <v>3</v>
+      </c>
+      <c r="V456" s="1">
+        <v>1</v>
+      </c>
+      <c r="W456" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA456" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB456" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="457" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>64</v>
+      </c>
+      <c r="B457" t="s">
+        <v>183</v>
+      </c>
+      <c r="C457" t="s">
+        <v>185</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>37</v>
+      </c>
+      <c r="H457">
+        <v>16</v>
+      </c>
+      <c r="I457">
+        <v>9</v>
+      </c>
+      <c r="J457">
+        <v>23</v>
+      </c>
+      <c r="K457">
+        <v>24</v>
+      </c>
+      <c r="L457" t="s">
+        <v>80</v>
+      </c>
+      <c r="M457" t="s">
+        <v>188</v>
+      </c>
+      <c r="N457">
+        <v>2179444753.7529802</v>
+      </c>
+      <c r="O457">
+        <v>1</v>
+      </c>
+      <c r="P457">
+        <v>3</v>
+      </c>
+      <c r="Q457">
+        <v>1</v>
+      </c>
+      <c r="S457" t="s">
+        <v>193</v>
+      </c>
+      <c r="T457" t="s">
+        <v>194</v>
+      </c>
+      <c r="U457" s="1">
+        <v>3</v>
+      </c>
+      <c r="V457" s="1">
+        <v>1</v>
+      </c>
+      <c r="W457" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA457" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB457" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="458" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>64</v>
+      </c>
+      <c r="B458" t="s">
+        <v>183</v>
+      </c>
+      <c r="C458" t="s">
+        <v>185</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>37</v>
+      </c>
+      <c r="H458">
+        <v>16</v>
+      </c>
+      <c r="I458">
+        <v>9</v>
+      </c>
+      <c r="J458">
+        <v>23</v>
+      </c>
+      <c r="K458">
+        <v>24</v>
+      </c>
+      <c r="L458" t="s">
+        <v>80</v>
+      </c>
+      <c r="M458" t="s">
+        <v>188</v>
+      </c>
+      <c r="N458">
+        <v>360073348.49856001</v>
+      </c>
+      <c r="O458">
+        <v>1</v>
+      </c>
+      <c r="P458">
+        <v>3</v>
+      </c>
+      <c r="Q458">
+        <v>1</v>
+      </c>
+      <c r="S458" t="s">
+        <v>193</v>
+      </c>
+      <c r="T458" t="s">
+        <v>194</v>
+      </c>
+      <c r="U458" s="1">
+        <v>3</v>
+      </c>
+      <c r="V458" s="1">
+        <v>1</v>
+      </c>
+      <c r="W458" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA458" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB458" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="459" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>64</v>
+      </c>
+      <c r="B459" t="s">
+        <v>183</v>
+      </c>
+      <c r="C459" t="s">
+        <v>185</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459">
+        <v>37</v>
+      </c>
+      <c r="H459">
+        <v>16</v>
+      </c>
+      <c r="I459">
+        <v>9</v>
+      </c>
+      <c r="J459">
+        <v>23</v>
+      </c>
+      <c r="K459">
+        <v>24</v>
+      </c>
+      <c r="L459" t="s">
+        <v>80</v>
+      </c>
+      <c r="M459" t="s">
+        <v>188</v>
+      </c>
+      <c r="N459">
+        <v>127427498.57031301</v>
+      </c>
+      <c r="O459">
+        <v>1</v>
+      </c>
+      <c r="P459">
+        <v>3</v>
+      </c>
+      <c r="Q459">
+        <v>1</v>
+      </c>
+      <c r="S459" t="s">
+        <v>193</v>
+      </c>
+      <c r="T459" t="s">
+        <v>194</v>
+      </c>
+      <c r="U459" s="1">
+        <v>3</v>
+      </c>
+      <c r="V459" s="1">
+        <v>1</v>
+      </c>
+      <c r="W459" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA459" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB459" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="460" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>64</v>
+      </c>
+      <c r="B460" t="s">
+        <v>183</v>
+      </c>
+      <c r="C460" t="s">
+        <v>185</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460">
+        <v>37</v>
+      </c>
+      <c r="H460">
+        <v>23</v>
+      </c>
+      <c r="I460">
+        <v>16</v>
+      </c>
+      <c r="J460">
+        <v>30</v>
+      </c>
+      <c r="K460">
+        <v>24</v>
+      </c>
+      <c r="L460" t="s">
+        <v>80</v>
+      </c>
+      <c r="M460" t="s">
+        <v>188</v>
+      </c>
+      <c r="N460">
+        <v>443217134.24760801</v>
+      </c>
+      <c r="O460">
+        <v>1</v>
+      </c>
+      <c r="P460">
+        <v>3</v>
+      </c>
+      <c r="Q460">
+        <v>1</v>
+      </c>
+      <c r="R460">
+        <v>179015636.42749953</v>
+      </c>
+      <c r="S460" t="s">
+        <v>193</v>
+      </c>
+      <c r="T460" t="s">
+        <v>194</v>
+      </c>
+      <c r="U460" s="1">
+        <v>3</v>
+      </c>
+      <c r="V460" s="1">
+        <v>1</v>
+      </c>
+      <c r="W460" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA460" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB460" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="461" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>64</v>
+      </c>
+      <c r="B461" t="s">
+        <v>183</v>
+      </c>
+      <c r="C461" t="s">
+        <v>185</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461">
+        <v>37</v>
+      </c>
+      <c r="H461">
+        <v>23</v>
+      </c>
+      <c r="I461">
+        <v>16</v>
+      </c>
+      <c r="J461">
+        <v>30</v>
+      </c>
+      <c r="K461">
+        <v>24</v>
+      </c>
+      <c r="L461" t="s">
+        <v>80</v>
+      </c>
+      <c r="M461" t="s">
+        <v>188</v>
+      </c>
+      <c r="N461">
+        <v>313502206.25651097</v>
+      </c>
+      <c r="O461">
+        <v>1</v>
+      </c>
+      <c r="P461">
+        <v>3</v>
+      </c>
+      <c r="Q461">
+        <v>1</v>
+      </c>
+      <c r="S461" t="s">
+        <v>193</v>
+      </c>
+      <c r="T461" t="s">
+        <v>194</v>
+      </c>
+      <c r="U461" s="1">
+        <v>3</v>
+      </c>
+      <c r="V461" s="1">
+        <v>1</v>
+      </c>
+      <c r="W461" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA461" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB461" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="462" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>64</v>
+      </c>
+      <c r="B462" t="s">
+        <v>183</v>
+      </c>
+      <c r="C462" t="s">
+        <v>185</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>37</v>
+      </c>
+      <c r="H462">
+        <v>23</v>
+      </c>
+      <c r="I462">
+        <v>16</v>
+      </c>
+      <c r="J462">
+        <v>30</v>
+      </c>
+      <c r="K462">
+        <v>24</v>
+      </c>
+      <c r="L462" t="s">
+        <v>80</v>
+      </c>
+      <c r="M462" t="s">
+        <v>188</v>
+      </c>
+      <c r="N462">
+        <v>118901674.24419799</v>
+      </c>
+      <c r="O462">
+        <v>1</v>
+      </c>
+      <c r="P462">
+        <v>3</v>
+      </c>
+      <c r="Q462">
+        <v>1</v>
+      </c>
+      <c r="S462" t="s">
+        <v>193</v>
+      </c>
+      <c r="T462" t="s">
+        <v>194</v>
+      </c>
+      <c r="U462" s="1">
+        <v>3</v>
+      </c>
+      <c r="V462" s="1">
+        <v>1</v>
+      </c>
+      <c r="W462" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA462" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB462" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="463" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>64</v>
+      </c>
+      <c r="B463" t="s">
+        <v>183</v>
+      </c>
+      <c r="C463" t="s">
+        <v>185</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <v>37</v>
+      </c>
+      <c r="H463">
+        <v>33</v>
+      </c>
+      <c r="I463">
+        <v>26</v>
+      </c>
+      <c r="J463">
+        <v>40</v>
+      </c>
+      <c r="K463">
+        <v>24</v>
+      </c>
+      <c r="L463" t="s">
+        <v>80</v>
+      </c>
+      <c r="M463" t="s">
+        <v>188</v>
+      </c>
+      <c r="N463">
+        <v>335981828.62837702</v>
+      </c>
+      <c r="O463">
+        <v>1</v>
+      </c>
+      <c r="P463">
+        <v>3</v>
+      </c>
+      <c r="Q463">
+        <v>1</v>
+      </c>
+      <c r="R463">
+        <v>79435423.942157492</v>
+      </c>
+      <c r="S463" t="s">
+        <v>193</v>
+      </c>
+      <c r="T463" t="s">
+        <v>194</v>
+      </c>
+      <c r="U463" s="1">
+        <v>3</v>
+      </c>
+      <c r="V463" s="1">
+        <v>1</v>
+      </c>
+      <c r="W463" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA463" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB463" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="464" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>64</v>
+      </c>
+      <c r="B464" t="s">
+        <v>183</v>
+      </c>
+      <c r="C464" t="s">
+        <v>185</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>37</v>
+      </c>
+      <c r="H464">
+        <v>33</v>
+      </c>
+      <c r="I464">
+        <v>26</v>
+      </c>
+      <c r="J464">
+        <v>40</v>
+      </c>
+      <c r="K464">
+        <v>24</v>
+      </c>
+      <c r="L464" t="s">
+        <v>80</v>
+      </c>
+      <c r="M464" t="s">
+        <v>188</v>
+      </c>
+      <c r="N464">
+        <v>254691843.89745399</v>
+      </c>
+      <c r="O464">
+        <v>1</v>
+      </c>
+      <c r="P464">
+        <v>3</v>
+      </c>
+      <c r="Q464">
+        <v>1</v>
+      </c>
+      <c r="S464" t="s">
+        <v>193</v>
+      </c>
+      <c r="T464" t="s">
+        <v>194</v>
+      </c>
+      <c r="U464" s="1">
+        <v>3</v>
+      </c>
+      <c r="V464" s="1">
+        <v>1</v>
+      </c>
+      <c r="W464" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA464" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB464" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="465" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>64</v>
+      </c>
+      <c r="B465" t="s">
+        <v>183</v>
+      </c>
+      <c r="C465" t="s">
+        <v>185</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <v>37</v>
+      </c>
+      <c r="H465">
+        <v>33</v>
+      </c>
+      <c r="I465">
+        <v>26</v>
+      </c>
+      <c r="J465">
+        <v>40</v>
+      </c>
+      <c r="K465">
+        <v>24</v>
+      </c>
+      <c r="L465" t="s">
+        <v>80</v>
+      </c>
+      <c r="M465" t="s">
+        <v>188</v>
+      </c>
+      <c r="N465">
+        <v>118901674.24419799</v>
+      </c>
+      <c r="O465">
+        <v>1</v>
+      </c>
+      <c r="P465">
+        <v>3</v>
+      </c>
+      <c r="Q465">
+        <v>1</v>
+      </c>
+      <c r="S465" t="s">
+        <v>193</v>
+      </c>
+      <c r="T465" t="s">
+        <v>194</v>
+      </c>
+      <c r="U465" s="1">
+        <v>3</v>
+      </c>
+      <c r="V465" s="1">
+        <v>1</v>
+      </c>
+      <c r="W465" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA465" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB465" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="466" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>65</v>
+      </c>
+      <c r="B466" t="s">
+        <v>183</v>
+      </c>
+      <c r="C466" t="s">
+        <v>67</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>37</v>
+      </c>
+      <c r="H466" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="I466" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="J466" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="L466" t="s">
+        <v>189</v>
+      </c>
+      <c r="M466" t="s">
+        <v>190</v>
+      </c>
+      <c r="N466">
+        <v>-5.0359712230215799E-2</v>
+      </c>
+      <c r="O466">
+        <v>1</v>
+      </c>
+      <c r="P466">
+        <v>3</v>
+      </c>
+      <c r="R466">
+        <v>1.366906474820145E-2</v>
+      </c>
+      <c r="S466" t="s">
+        <v>191</v>
+      </c>
+      <c r="T466" t="s">
+        <v>192</v>
+      </c>
+      <c r="U466" s="1">
+        <v>3</v>
+      </c>
+      <c r="V466" s="1">
+        <v>1</v>
+      </c>
+      <c r="W466" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA466" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB466" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="467" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>65</v>
+      </c>
+      <c r="B467" t="s">
+        <v>183</v>
+      </c>
+      <c r="C467" t="s">
+        <v>67</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>37</v>
+      </c>
+      <c r="H467" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="I467" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="J467" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="L467" t="s">
+        <v>189</v>
+      </c>
+      <c r="M467" t="s">
+        <v>190</v>
+      </c>
+      <c r="N467">
+        <v>-0.106474820143884</v>
+      </c>
+      <c r="O467">
+        <v>1</v>
+      </c>
+      <c r="P467">
+        <v>3</v>
+      </c>
+      <c r="R467">
+        <v>2.8776978417264995E-3</v>
+      </c>
+      <c r="S467" t="s">
+        <v>191</v>
+      </c>
+      <c r="T467" t="s">
+        <v>192</v>
+      </c>
+      <c r="U467" s="1">
+        <v>3</v>
+      </c>
+      <c r="V467" s="1">
+        <v>1</v>
+      </c>
+      <c r="W467" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA467" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB467" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="468" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>65</v>
+      </c>
+      <c r="B468" t="s">
+        <v>183</v>
+      </c>
+      <c r="C468" t="s">
+        <v>67</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>37</v>
+      </c>
+      <c r="H468" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="I468" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="J468" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="L468" t="s">
+        <v>189</v>
+      </c>
+      <c r="M468" t="s">
+        <v>190</v>
+      </c>
+      <c r="N468">
+        <v>-0.16115107913669</v>
+      </c>
+      <c r="O468">
+        <v>1</v>
+      </c>
+      <c r="P468">
+        <v>3</v>
+      </c>
+      <c r="S468" t="s">
+        <v>191</v>
+      </c>
+      <c r="T468" t="s">
+        <v>192</v>
+      </c>
+      <c r="U468" s="1">
+        <v>3</v>
+      </c>
+      <c r="V468" s="1">
+        <v>1</v>
+      </c>
+      <c r="W468" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA468" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB468" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="469" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>65</v>
+      </c>
+      <c r="B469" t="s">
+        <v>183</v>
+      </c>
+      <c r="C469" t="s">
+        <v>67</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469">
+        <v>1</v>
+      </c>
+      <c r="G469">
+        <v>37</v>
+      </c>
+      <c r="H469" s="3">
+        <v>6.9829551743220799</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>14</v>
+      </c>
+      <c r="K469">
+        <v>24</v>
+      </c>
+      <c r="L469" t="s">
+        <v>189</v>
+      </c>
+      <c r="M469" t="s">
+        <v>190</v>
+      </c>
+      <c r="N469">
+        <v>-7.7697841726618699E-2</v>
+      </c>
+      <c r="O469">
+        <v>1</v>
+      </c>
+      <c r="P469">
+        <v>3</v>
+      </c>
+      <c r="R469">
+        <v>1.9424460431654696E-2</v>
+      </c>
+      <c r="S469" t="s">
+        <v>191</v>
+      </c>
+      <c r="T469" t="s">
+        <v>192</v>
+      </c>
+      <c r="U469" s="1">
+        <v>3</v>
+      </c>
+      <c r="V469" s="1">
+        <v>1</v>
+      </c>
+      <c r="W469" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA469" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB469" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="470" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>65</v>
+      </c>
+      <c r="B470" t="s">
+        <v>183</v>
+      </c>
+      <c r="C470" t="s">
+        <v>67</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470">
+        <v>1</v>
+      </c>
+      <c r="G470">
+        <v>37</v>
+      </c>
+      <c r="H470" s="3">
+        <v>15.9365799667957</v>
+      </c>
+      <c r="I470">
+        <v>9</v>
+      </c>
+      <c r="J470">
+        <v>23</v>
+      </c>
+      <c r="K470">
+        <v>24</v>
+      </c>
+      <c r="L470" t="s">
+        <v>189</v>
+      </c>
+      <c r="M470" t="s">
+        <v>190</v>
+      </c>
+      <c r="N470">
+        <v>-0.12805755395683399</v>
+      </c>
+      <c r="O470">
+        <v>1</v>
+      </c>
+      <c r="P470">
+        <v>3</v>
+      </c>
+      <c r="R470">
+        <v>3.5971223021585008E-3</v>
+      </c>
+      <c r="S470" t="s">
+        <v>191</v>
+      </c>
+      <c r="T470" t="s">
+        <v>192</v>
+      </c>
+      <c r="U470" s="1">
+        <v>3</v>
+      </c>
+      <c r="V470" s="1">
+        <v>1</v>
+      </c>
+      <c r="W470" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA470" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB470" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="471" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>65</v>
+      </c>
+      <c r="B471" t="s">
+        <v>183</v>
+      </c>
+      <c r="C471" t="s">
+        <v>67</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471">
+        <v>1</v>
+      </c>
+      <c r="G471">
+        <v>37</v>
+      </c>
+      <c r="H471" s="3">
+        <v>22.914333148865499</v>
+      </c>
+      <c r="I471">
+        <v>16</v>
+      </c>
+      <c r="J471">
+        <v>30</v>
+      </c>
+      <c r="K471">
+        <v>24</v>
+      </c>
+      <c r="L471" t="s">
+        <v>189</v>
+      </c>
+      <c r="M471" t="s">
+        <v>190</v>
+      </c>
+      <c r="N471">
+        <v>-0.18920863309352501</v>
+      </c>
+      <c r="O471">
+        <v>1</v>
+      </c>
+      <c r="P471">
+        <v>3</v>
+      </c>
+      <c r="S471" t="s">
+        <v>193</v>
+      </c>
+      <c r="T471" t="s">
+        <v>194</v>
+      </c>
+      <c r="U471" s="1">
+        <v>3</v>
+      </c>
+      <c r="V471" s="1">
+        <v>1</v>
+      </c>
+      <c r="W471" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA471" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB471" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="472" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>66</v>
+      </c>
+      <c r="B472" t="s">
+        <v>183</v>
+      </c>
+      <c r="C472" t="s">
+        <v>68</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>37</v>
+      </c>
+      <c r="H472" s="3">
+        <v>7.0313001973472904</v>
+      </c>
+      <c r="I472" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="J472" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="L472" t="s">
+        <v>189</v>
+      </c>
+      <c r="M472" t="s">
+        <v>190</v>
+      </c>
+      <c r="N472">
+        <v>-1.8587360594795502E-2</v>
+      </c>
+      <c r="O472">
+        <v>1</v>
+      </c>
+      <c r="P472">
+        <v>3</v>
+      </c>
+      <c r="R472">
+        <v>2.9739776951672996E-3</v>
+      </c>
+      <c r="S472" t="s">
+        <v>193</v>
+      </c>
+      <c r="T472" t="s">
+        <v>194</v>
+      </c>
+      <c r="U472" s="1">
+        <v>3</v>
+      </c>
+      <c r="V472" s="1">
+        <v>1</v>
+      </c>
+      <c r="W472" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA472" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB472" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="473" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>66</v>
+      </c>
+      <c r="B473" t="s">
+        <v>183</v>
+      </c>
+      <c r="C473" t="s">
+        <v>68</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>37</v>
+      </c>
+      <c r="H473" s="3">
+        <v>16.031713249804898</v>
+      </c>
+      <c r="I473" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="J473" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="L473" t="s">
+        <v>189</v>
+      </c>
+      <c r="M473" t="s">
+        <v>190</v>
+      </c>
+      <c r="N473">
+        <v>-5.7249070631970198E-2</v>
+      </c>
+      <c r="O473">
+        <v>1</v>
+      </c>
+      <c r="P473">
+        <v>3</v>
+      </c>
+      <c r="R473">
+        <v>2.9739776951672493E-3</v>
+      </c>
+      <c r="S473" t="s">
+        <v>193</v>
+      </c>
+      <c r="T473" t="s">
+        <v>194</v>
+      </c>
+      <c r="U473" s="1">
+        <v>3</v>
+      </c>
+      <c r="V473" s="1">
+        <v>1</v>
+      </c>
+      <c r="W473" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA473" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB473" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="474" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>66</v>
+      </c>
+      <c r="B474" t="s">
+        <v>183</v>
+      </c>
+      <c r="C474" t="s">
+        <v>68</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>37</v>
+      </c>
+      <c r="H474" s="3">
+        <v>22.934737711689301</v>
+      </c>
+      <c r="I474" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="J474" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="L474" t="s">
+        <v>189</v>
+      </c>
+      <c r="M474" t="s">
+        <v>190</v>
+      </c>
+      <c r="N474">
+        <v>-9.1449814126393997E-2</v>
+      </c>
+      <c r="O474">
+        <v>1</v>
+      </c>
+      <c r="P474">
+        <v>3</v>
+      </c>
+      <c r="R474">
+        <v>7.4349442379181979E-3</v>
+      </c>
+      <c r="S474" t="s">
+        <v>193</v>
+      </c>
+      <c r="T474" t="s">
+        <v>194</v>
+      </c>
+      <c r="U474" s="1">
+        <v>3</v>
+      </c>
+      <c r="V474" s="1">
+        <v>1</v>
+      </c>
+      <c r="W474" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA474" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB474" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="475" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>66</v>
+      </c>
+      <c r="B475" t="s">
+        <v>183</v>
+      </c>
+      <c r="C475" t="s">
+        <v>68</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <v>37</v>
+      </c>
+      <c r="H475" s="3">
+        <v>7.0267107255954899</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>14</v>
+      </c>
+      <c r="K475">
+        <v>24</v>
+      </c>
+      <c r="L475" t="s">
+        <v>189</v>
+      </c>
+      <c r="M475" t="s">
+        <v>190</v>
+      </c>
+      <c r="N475">
+        <v>-3.3457249070632002E-2</v>
+      </c>
+      <c r="O475">
+        <v>1</v>
+      </c>
+      <c r="P475">
+        <v>3</v>
+      </c>
+      <c r="R475">
+        <v>3.717472118959099E-3</v>
+      </c>
+      <c r="S475" t="s">
+        <v>193</v>
+      </c>
+      <c r="T475" t="s">
+        <v>194</v>
+      </c>
+      <c r="U475" s="1">
+        <v>3</v>
+      </c>
+      <c r="V475" s="1">
+        <v>1</v>
+      </c>
+      <c r="W475" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA475" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB475" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="476" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>66</v>
+      </c>
+      <c r="B476" t="s">
+        <v>183</v>
+      </c>
+      <c r="C476" t="s">
+        <v>68</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>37</v>
+      </c>
+      <c r="H476" s="3">
+        <v>16.028500619578601</v>
+      </c>
+      <c r="I476">
+        <v>9</v>
+      </c>
+      <c r="J476">
+        <v>23</v>
+      </c>
+      <c r="K476">
+        <v>24</v>
+      </c>
+      <c r="L476" t="s">
+        <v>189</v>
+      </c>
+      <c r="M476" t="s">
+        <v>190</v>
+      </c>
+      <c r="N476">
+        <v>-6.7657992565055794E-2</v>
+      </c>
+      <c r="O476">
+        <v>1</v>
+      </c>
+      <c r="P476">
+        <v>3</v>
+      </c>
+      <c r="S476" t="s">
+        <v>193</v>
+      </c>
+      <c r="T476" t="s">
+        <v>194</v>
+      </c>
+      <c r="U476" s="1">
+        <v>3</v>
+      </c>
+      <c r="V476" s="1">
+        <v>1</v>
+      </c>
+      <c r="W476" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA476" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB476" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="477" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>66</v>
+      </c>
+      <c r="B477" t="s">
+        <v>183</v>
+      </c>
+      <c r="C477" t="s">
+        <v>68</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+      <c r="G477">
+        <v>37</v>
+      </c>
+      <c r="H477" s="3">
+        <v>22.932442975813402</v>
+      </c>
+      <c r="I477">
+        <v>16</v>
+      </c>
+      <c r="J477">
+        <v>30</v>
+      </c>
+      <c r="K477">
+        <v>24</v>
+      </c>
+      <c r="L477" t="s">
+        <v>189</v>
+      </c>
+      <c r="M477" t="s">
+        <v>190</v>
+      </c>
+      <c r="N477">
+        <v>-9.8884758364312195E-2</v>
+      </c>
+      <c r="O477">
+        <v>1</v>
+      </c>
+      <c r="P477">
+        <v>3</v>
+      </c>
+      <c r="R477">
+        <v>6.6914498141260048E-3</v>
+      </c>
+      <c r="S477" t="s">
+        <v>193</v>
+      </c>
+      <c r="T477" t="s">
+        <v>194</v>
+      </c>
+      <c r="U477" s="1">
+        <v>3</v>
+      </c>
+      <c r="V477" s="1">
+        <v>1</v>
+      </c>
+      <c r="W477" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA477" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB477" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="478" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>67</v>
+      </c>
+      <c r="B478" t="s">
+        <v>183</v>
+      </c>
+      <c r="C478" t="s">
+        <v>186</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>37</v>
+      </c>
+      <c r="H478" s="3">
+        <v>6.8603243766642397</v>
+      </c>
+      <c r="I478" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="J478" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="L478" t="s">
+        <v>189</v>
+      </c>
+      <c r="M478" t="s">
+        <v>190</v>
+      </c>
+      <c r="N478">
+        <v>-5.4901960784313503E-2</v>
+      </c>
+      <c r="O478">
+        <v>1</v>
+      </c>
+      <c r="P478">
+        <v>3</v>
+      </c>
+      <c r="R478">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="S478" t="s">
+        <v>191</v>
+      </c>
+      <c r="T478" t="s">
+        <v>192</v>
+      </c>
+      <c r="U478" s="1">
+        <v>3</v>
+      </c>
+      <c r="V478" s="1">
+        <v>1</v>
+      </c>
+      <c r="W478" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA478" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB478" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="479" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>67</v>
+      </c>
+      <c r="B479" t="s">
+        <v>183</v>
+      </c>
+      <c r="C479" t="s">
+        <v>186</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>37</v>
+      </c>
+      <c r="H479" s="3">
+        <v>15.8838658920358</v>
+      </c>
+      <c r="I479" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="J479" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="L479" t="s">
+        <v>189</v>
+      </c>
+      <c r="M479" t="s">
+        <v>190</v>
+      </c>
+      <c r="N479">
+        <v>0.272549019607843</v>
+      </c>
+      <c r="O479">
+        <v>1</v>
+      </c>
+      <c r="P479">
+        <v>3</v>
+      </c>
+      <c r="R479">
+        <v>5.8823529411764511E-2</v>
+      </c>
+      <c r="S479" t="s">
+        <v>191</v>
+      </c>
+      <c r="T479" t="s">
+        <v>192</v>
+      </c>
+      <c r="U479" s="1">
+        <v>3</v>
+      </c>
+      <c r="V479" s="1">
+        <v>1</v>
+      </c>
+      <c r="W479" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA479" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB479" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="480" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>67</v>
+      </c>
+      <c r="B480" t="s">
+        <v>183</v>
+      </c>
+      <c r="C480" t="s">
+        <v>186</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>37</v>
+      </c>
+      <c r="H480" s="3">
+        <v>22.938150568869499</v>
+      </c>
+      <c r="I480" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="J480" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="L480" t="s">
+        <v>189</v>
+      </c>
+      <c r="M480" t="s">
+        <v>190</v>
+      </c>
+      <c r="N480">
+        <v>0.16078431372549001</v>
+      </c>
+      <c r="O480">
+        <v>1</v>
+      </c>
+      <c r="P480">
+        <v>3</v>
+      </c>
+      <c r="R480">
+        <v>4.9019607843137497E-2</v>
+      </c>
+      <c r="S480" t="s">
+        <v>191</v>
+      </c>
+      <c r="T480" t="s">
+        <v>192</v>
+      </c>
+      <c r="U480" s="1">
+        <v>3</v>
+      </c>
+      <c r="V480" s="1">
+        <v>1</v>
+      </c>
+      <c r="W480" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA480" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB480" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="481" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>67</v>
+      </c>
+      <c r="B481" t="s">
+        <v>183</v>
+      </c>
+      <c r="C481" t="s">
+        <v>186</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>37</v>
+      </c>
+      <c r="H481" s="3">
+        <v>33.062817719680403</v>
+      </c>
+      <c r="I481" s="3">
+        <v>33.062817719680403</v>
+      </c>
+      <c r="J481" s="3">
+        <v>33.062817719680403</v>
+      </c>
+      <c r="L481" t="s">
+        <v>189</v>
+      </c>
+      <c r="M481" t="s">
+        <v>190</v>
+      </c>
+      <c r="N481">
+        <v>-4.7058823529411598E-2</v>
+      </c>
+      <c r="O481">
+        <v>1</v>
+      </c>
+      <c r="P481">
+        <v>3</v>
+      </c>
+      <c r="R481">
+        <v>8.8235294117646988E-3</v>
+      </c>
+      <c r="S481" t="s">
+        <v>191</v>
+      </c>
+      <c r="T481" t="s">
+        <v>192</v>
+      </c>
+      <c r="U481" s="1">
+        <v>3</v>
+      </c>
+      <c r="V481" s="1">
+        <v>1</v>
+      </c>
+      <c r="W481" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA481" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB481" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="482" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>67</v>
+      </c>
+      <c r="B482" t="s">
+        <v>183</v>
+      </c>
+      <c r="C482" t="s">
+        <v>186</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>37</v>
+      </c>
+      <c r="H482" s="3">
+        <v>6.85669329460179</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>14</v>
+      </c>
+      <c r="K482">
+        <v>24</v>
+      </c>
+      <c r="L482" t="s">
+        <v>189</v>
+      </c>
+      <c r="M482" t="s">
+        <v>190</v>
+      </c>
+      <c r="N482">
+        <v>-3.1372549019607697E-2</v>
+      </c>
+      <c r="O482">
+        <v>1</v>
+      </c>
+      <c r="P482">
+        <v>3</v>
+      </c>
+      <c r="S482" t="s">
+        <v>191</v>
+      </c>
+      <c r="T482" t="s">
+        <v>192</v>
+      </c>
+      <c r="U482" s="1">
+        <v>3</v>
+      </c>
+      <c r="V482" s="1">
+        <v>1</v>
+      </c>
+      <c r="W482" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA482" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB482" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="483" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>67</v>
+      </c>
+      <c r="B483" t="s">
+        <v>183</v>
+      </c>
+      <c r="C483" t="s">
+        <v>186</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+      <c r="G483">
+        <v>37</v>
+      </c>
+      <c r="H483" s="3">
+        <v>15.9943113047688</v>
+      </c>
+      <c r="I483">
+        <v>9</v>
+      </c>
+      <c r="J483">
+        <v>23</v>
+      </c>
+      <c r="K483">
+        <v>24</v>
+      </c>
+      <c r="L483" t="s">
+        <v>189</v>
+      </c>
+      <c r="M483" t="s">
+        <v>190</v>
+      </c>
+      <c r="N483">
+        <v>0.15686274509803899</v>
+      </c>
+      <c r="O483">
+        <v>1</v>
+      </c>
+      <c r="P483">
+        <v>3</v>
+      </c>
+      <c r="R483">
+        <v>3.2352941176470494E-2</v>
+      </c>
+      <c r="S483" t="s">
+        <v>191</v>
+      </c>
+      <c r="T483" t="s">
+        <v>192</v>
+      </c>
+      <c r="U483" s="1">
+        <v>3</v>
+      </c>
+      <c r="V483" s="1">
+        <v>1</v>
+      </c>
+      <c r="W483" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA483" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB483" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="484" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>67</v>
+      </c>
+      <c r="B484" t="s">
+        <v>183</v>
+      </c>
+      <c r="C484" t="s">
+        <v>186</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="G484">
+        <v>37</v>
+      </c>
+      <c r="H484" s="3">
+        <v>22.962962962962902</v>
+      </c>
+      <c r="I484">
+        <v>16</v>
+      </c>
+      <c r="J484">
+        <v>30</v>
+      </c>
+      <c r="K484">
+        <v>24</v>
+      </c>
+      <c r="L484" t="s">
+        <v>189</v>
+      </c>
+      <c r="M484" t="s">
+        <v>190</v>
+      </c>
+      <c r="N484">
+        <v>0</v>
+      </c>
+      <c r="O484">
+        <v>1</v>
+      </c>
+      <c r="P484">
+        <v>3</v>
+      </c>
+      <c r="S484" t="s">
+        <v>191</v>
+      </c>
+      <c r="T484" t="s">
+        <v>192</v>
+      </c>
+      <c r="U484" s="1">
+        <v>3</v>
+      </c>
+      <c r="V484" s="1">
+        <v>1</v>
+      </c>
+      <c r="W484" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA484" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB484" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="485" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>67</v>
+      </c>
+      <c r="B485" t="s">
+        <v>183</v>
+      </c>
+      <c r="C485" t="s">
+        <v>186</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485">
+        <v>1</v>
+      </c>
+      <c r="G485">
+        <v>37</v>
+      </c>
+      <c r="H485" s="3">
+        <v>32.978697651900198</v>
+      </c>
+      <c r="I485">
+        <v>26</v>
+      </c>
+      <c r="J485">
+        <v>40</v>
+      </c>
+      <c r="K485">
+        <v>24</v>
+      </c>
+      <c r="L485" t="s">
+        <v>189</v>
+      </c>
+      <c r="M485" t="s">
+        <v>190</v>
+      </c>
+      <c r="N485">
+        <v>-0.101960784313725</v>
+      </c>
+      <c r="O485">
+        <v>1</v>
+      </c>
+      <c r="P485">
+        <v>3</v>
+      </c>
+      <c r="S485" t="s">
+        <v>191</v>
+      </c>
+      <c r="T485" t="s">
+        <v>192</v>
+      </c>
+      <c r="U485" s="1">
+        <v>3</v>
+      </c>
+      <c r="V485" s="1">
+        <v>1</v>
+      </c>
+      <c r="W485" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA485" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB485" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="486" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>68</v>
+      </c>
+      <c r="B486" t="s">
+        <v>183</v>
+      </c>
+      <c r="C486" t="s">
+        <v>187</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>37</v>
+      </c>
+      <c r="H486" s="3">
+        <v>6.2962962962963003</v>
+      </c>
+      <c r="I486" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="J486" s="3">
+        <v>6.9997786386275598</v>
+      </c>
+      <c r="L486" t="s">
+        <v>189</v>
+      </c>
+      <c r="M486" t="s">
+        <v>190</v>
+      </c>
+      <c r="N486">
+        <v>-0.16052631578947299</v>
+      </c>
+      <c r="O486">
+        <v>1</v>
+      </c>
+      <c r="P486">
+        <v>3</v>
+      </c>
+      <c r="R486">
+        <v>9.6710526315788845E-2</v>
+      </c>
+      <c r="S486" t="s">
+        <v>193</v>
+      </c>
+      <c r="T486" t="s">
+        <v>194</v>
+      </c>
+      <c r="U486" s="1">
+        <v>3</v>
+      </c>
+      <c r="V486" s="1">
+        <v>1</v>
+      </c>
+      <c r="W486" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA486" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB486" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="487" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>68</v>
+      </c>
+      <c r="B487" t="s">
+        <v>183</v>
+      </c>
+      <c r="C487" t="s">
+        <v>187</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>37</v>
+      </c>
+      <c r="H487" s="3">
+        <v>15.7407407407407</v>
+      </c>
+      <c r="I487" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="J487" s="3">
+        <v>15.9498616491422</v>
+      </c>
+      <c r="L487" t="s">
+        <v>189</v>
+      </c>
+      <c r="M487" t="s">
+        <v>190</v>
+      </c>
+      <c r="N487">
+        <v>0.71447368421052604</v>
+      </c>
+      <c r="O487">
+        <v>1</v>
+      </c>
+      <c r="P487">
+        <v>3</v>
+      </c>
+      <c r="R487">
+        <v>4.1447368421052011E-2</v>
+      </c>
+      <c r="S487" t="s">
+        <v>193</v>
+      </c>
+      <c r="T487" t="s">
+        <v>194</v>
+      </c>
+      <c r="U487" s="1">
+        <v>3</v>
+      </c>
+      <c r="V487" s="1">
+        <v>1</v>
+      </c>
+      <c r="W487" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA487" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB487" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="488" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>68</v>
+      </c>
+      <c r="B488" t="s">
+        <v>183</v>
+      </c>
+      <c r="C488" t="s">
+        <v>187</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>37</v>
+      </c>
+      <c r="H488" s="3">
+        <v>22.962962962962902</v>
+      </c>
+      <c r="I488" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="J488" s="3">
+        <v>23.054676258992799</v>
+      </c>
+      <c r="L488" t="s">
+        <v>189</v>
+      </c>
+      <c r="M488" t="s">
+        <v>190</v>
+      </c>
+      <c r="N488">
+        <v>0.74210526315789405</v>
+      </c>
+      <c r="O488">
+        <v>1</v>
+      </c>
+      <c r="P488">
+        <v>3</v>
+      </c>
+      <c r="R488">
+        <v>3.914473684210501E-2</v>
+      </c>
+      <c r="S488" t="s">
+        <v>193</v>
+      </c>
+      <c r="T488" t="s">
+        <v>194</v>
+      </c>
+      <c r="U488" s="1">
+        <v>3</v>
+      </c>
+      <c r="V488" s="1">
+        <v>1</v>
+      </c>
+      <c r="W488" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA488" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB488" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="489" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>68</v>
+      </c>
+      <c r="B489" t="s">
+        <v>183</v>
+      </c>
+      <c r="C489" t="s">
+        <v>187</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>37</v>
+      </c>
+      <c r="H489" s="3">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I489" s="3">
+        <v>33.062817719680403</v>
+      </c>
+      <c r="J489" s="3">
+        <v>33.062817719680403</v>
+      </c>
+      <c r="L489" t="s">
+        <v>189</v>
+      </c>
+      <c r="M489" t="s">
+        <v>190</v>
+      </c>
+      <c r="N489">
+        <v>0.79736842105263195</v>
+      </c>
+      <c r="O489">
+        <v>1</v>
+      </c>
+      <c r="P489">
+        <v>3</v>
+      </c>
+      <c r="R489">
+        <v>5.986842105263146E-2</v>
+      </c>
+      <c r="S489" t="s">
+        <v>193</v>
+      </c>
+      <c r="T489" t="s">
+        <v>194</v>
+      </c>
+      <c r="U489" s="1">
+        <v>3</v>
+      </c>
+      <c r="V489" s="1">
+        <v>1</v>
+      </c>
+      <c r="W489" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA489" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB489" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="490" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>68</v>
+      </c>
+      <c r="B490" t="s">
+        <v>183</v>
+      </c>
+      <c r="C490" t="s">
+        <v>187</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="G490">
+        <v>37</v>
+      </c>
+      <c r="H490" s="3">
+        <v>6.2962962962963003</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>14</v>
+      </c>
+      <c r="K490">
+        <v>24</v>
+      </c>
+      <c r="L490" t="s">
+        <v>189</v>
+      </c>
+      <c r="M490" t="s">
+        <v>190</v>
+      </c>
+      <c r="N490">
+        <v>-0.11447368421052501</v>
+      </c>
+      <c r="O490">
+        <v>1</v>
+      </c>
+      <c r="P490">
+        <v>3</v>
+      </c>
+      <c r="R490">
+        <v>5.9868421052631252E-2</v>
+      </c>
+      <c r="S490" t="s">
+        <v>193</v>
+      </c>
+      <c r="T490" t="s">
+        <v>194</v>
+      </c>
+      <c r="U490" s="1">
+        <v>3</v>
+      </c>
+      <c r="V490" s="1">
+        <v>1</v>
+      </c>
+      <c r="W490" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA490" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB490" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="491" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>68</v>
+      </c>
+      <c r="B491" t="s">
+        <v>183</v>
+      </c>
+      <c r="C491" t="s">
+        <v>187</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>37</v>
+      </c>
+      <c r="H491" s="3">
+        <v>15.5555555555555</v>
+      </c>
+      <c r="I491">
+        <v>9</v>
+      </c>
+      <c r="J491">
+        <v>23</v>
+      </c>
+      <c r="K491">
+        <v>24</v>
+      </c>
+      <c r="L491" t="s">
+        <v>189</v>
+      </c>
+      <c r="M491" t="s">
+        <v>190</v>
+      </c>
+      <c r="N491">
+        <v>0.66842105263157903</v>
+      </c>
+      <c r="O491">
+        <v>1</v>
+      </c>
+      <c r="P491">
+        <v>3</v>
+      </c>
+      <c r="R491">
+        <v>5.9868421052632015E-2</v>
+      </c>
+      <c r="S491" t="s">
+        <v>193</v>
+      </c>
+      <c r="T491" t="s">
+        <v>194</v>
+      </c>
+      <c r="U491" s="1">
+        <v>3</v>
+      </c>
+      <c r="V491" s="1">
+        <v>1</v>
+      </c>
+      <c r="W491" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA491" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB491" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="492" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>68</v>
+      </c>
+      <c r="B492" t="s">
+        <v>183</v>
+      </c>
+      <c r="C492" t="s">
+        <v>187</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>37</v>
+      </c>
+      <c r="H492" s="3">
+        <v>22.7777777777777</v>
+      </c>
+      <c r="I492">
+        <v>16</v>
+      </c>
+      <c r="J492">
+        <v>30</v>
+      </c>
+      <c r="K492">
+        <v>24</v>
+      </c>
+      <c r="L492" t="s">
+        <v>189</v>
+      </c>
+      <c r="M492" t="s">
+        <v>190</v>
+      </c>
+      <c r="N492">
+        <v>0.346052631578947</v>
+      </c>
+      <c r="O492">
+        <v>1</v>
+      </c>
+      <c r="P492">
+        <v>3</v>
+      </c>
+      <c r="R492">
+        <v>0.1151315789473685</v>
+      </c>
+      <c r="S492" t="s">
+        <v>193</v>
+      </c>
+      <c r="T492" t="s">
+        <v>194</v>
+      </c>
+      <c r="U492" s="1">
+        <v>3</v>
+      </c>
+      <c r="V492" s="1">
+        <v>1</v>
+      </c>
+      <c r="W492" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA492" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB492" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="493" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>68</v>
+      </c>
+      <c r="B493" t="s">
+        <v>183</v>
+      </c>
+      <c r="C493" t="s">
+        <v>187</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <v>37</v>
+      </c>
+      <c r="H493" s="3">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="I493">
+        <v>26</v>
+      </c>
+      <c r="J493">
+        <v>40</v>
+      </c>
+      <c r="K493">
+        <v>24</v>
+      </c>
+      <c r="L493" t="s">
+        <v>189</v>
+      </c>
+      <c r="M493" t="s">
+        <v>190</v>
+      </c>
+      <c r="N493">
+        <v>0.27236842105263198</v>
+      </c>
+      <c r="O493">
+        <v>1</v>
+      </c>
+      <c r="P493">
+        <v>3</v>
+      </c>
+      <c r="R493">
+        <v>0.15427631578947401</v>
+      </c>
+      <c r="S493" t="s">
+        <v>193</v>
+      </c>
+      <c r="T493" t="s">
+        <v>194</v>
+      </c>
+      <c r="U493" s="1">
+        <v>3</v>
+      </c>
+      <c r="V493" s="1">
+        <v>1</v>
+      </c>
+      <c r="W493" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA493" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB493" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF933726-06AA-F142-A12D-FDB5B4C7E2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5A3AE-CFC9-F749-BD10-DF40830A0374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="27500" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
@@ -991,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
   <dimension ref="A1:AG493"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A487" sqref="A487:A493"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73951C34-8200-A442-8740-EEB27F5E27A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588EF591-C0B7-244A-8132-C6763BABB014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-9540" windowWidth="23540" windowHeight="11100" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="28840" yWindow="-7060" windowWidth="23540" windowHeight="11100" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="211">
   <si>
     <t>study_id</t>
   </si>
@@ -644,6 +644,21 @@
   <si>
     <t>scripta</t>
   </si>
+  <si>
+    <t>saxon2017</t>
+  </si>
+  <si>
+    <t>total offspring</t>
+  </si>
+  <si>
+    <t>offspring per mating</t>
+  </si>
+  <si>
+    <t>wing centroid</t>
+  </si>
+  <si>
+    <t>birchii</t>
+  </si>
 </sst>
 </file>
 
@@ -691,12 +706,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,11 +1027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG501"/>
+  <dimension ref="A1:AG517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q497" sqref="Q497"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D520" sqref="D520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36951,6 +36967,1028 @@
         <v>2</v>
       </c>
     </row>
+    <row r="502" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>78</v>
+      </c>
+      <c r="B502" t="s">
+        <v>206</v>
+      </c>
+      <c r="C502" t="s">
+        <v>29</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>20.5</v>
+      </c>
+      <c r="H502">
+        <v>24</v>
+      </c>
+      <c r="I502">
+        <v>24</v>
+      </c>
+      <c r="J502">
+        <v>24</v>
+      </c>
+      <c r="L502" t="s">
+        <v>207</v>
+      </c>
+      <c r="M502" t="s">
+        <v>207</v>
+      </c>
+      <c r="N502">
+        <v>175</v>
+      </c>
+      <c r="O502">
+        <v>1</v>
+      </c>
+      <c r="P502">
+        <v>1600</v>
+      </c>
+      <c r="Q502">
+        <v>1</v>
+      </c>
+      <c r="R502">
+        <v>74.190542744002229</v>
+      </c>
+      <c r="S502" t="s">
+        <v>101</v>
+      </c>
+      <c r="T502" t="s">
+        <v>210</v>
+      </c>
+      <c r="U502" s="1">
+        <v>1</v>
+      </c>
+      <c r="V502" s="1">
+        <v>2</v>
+      </c>
+      <c r="W502" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>78</v>
+      </c>
+      <c r="B503" t="s">
+        <v>206</v>
+      </c>
+      <c r="C503" t="s">
+        <v>29</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <v>20.5</v>
+      </c>
+      <c r="H503">
+        <v>24</v>
+      </c>
+      <c r="I503" s="5">
+        <v>21</v>
+      </c>
+      <c r="J503" s="5">
+        <v>27</v>
+      </c>
+      <c r="K503">
+        <v>24</v>
+      </c>
+      <c r="L503" t="s">
+        <v>207</v>
+      </c>
+      <c r="M503" t="s">
+        <v>207</v>
+      </c>
+      <c r="N503">
+        <v>108.962264150943</v>
+      </c>
+      <c r="O503">
+        <v>1</v>
+      </c>
+      <c r="P503">
+        <v>1600</v>
+      </c>
+      <c r="Q503">
+        <v>1</v>
+      </c>
+      <c r="R503">
+        <v>94.572559981364364</v>
+      </c>
+      <c r="S503" t="s">
+        <v>101</v>
+      </c>
+      <c r="T503" t="s">
+        <v>210</v>
+      </c>
+      <c r="U503" s="1">
+        <v>1</v>
+      </c>
+      <c r="V503" s="1">
+        <v>2</v>
+      </c>
+      <c r="W503" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>78</v>
+      </c>
+      <c r="B504" t="s">
+        <v>206</v>
+      </c>
+      <c r="C504" t="s">
+        <v>29</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="G504">
+        <v>20.5</v>
+      </c>
+      <c r="H504">
+        <v>24</v>
+      </c>
+      <c r="I504">
+        <v>24</v>
+      </c>
+      <c r="J504">
+        <v>24</v>
+      </c>
+      <c r="L504" t="s">
+        <v>208</v>
+      </c>
+      <c r="M504" t="s">
+        <v>208</v>
+      </c>
+      <c r="N504">
+        <v>66.164162549157993</v>
+      </c>
+      <c r="O504">
+        <v>1</v>
+      </c>
+      <c r="P504">
+        <v>1600</v>
+      </c>
+      <c r="Q504">
+        <v>1</v>
+      </c>
+      <c r="R504">
+        <v>22.064617809298735</v>
+      </c>
+      <c r="S504" t="s">
+        <v>101</v>
+      </c>
+      <c r="T504" t="s">
+        <v>210</v>
+      </c>
+      <c r="U504" s="1">
+        <v>1</v>
+      </c>
+      <c r="V504" s="1">
+        <v>2</v>
+      </c>
+      <c r="W504" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>78</v>
+      </c>
+      <c r="B505" t="s">
+        <v>206</v>
+      </c>
+      <c r="C505" t="s">
+        <v>29</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="G505">
+        <v>20.5</v>
+      </c>
+      <c r="H505">
+        <v>24</v>
+      </c>
+      <c r="I505" s="5">
+        <v>21</v>
+      </c>
+      <c r="J505" s="5">
+        <v>27</v>
+      </c>
+      <c r="K505">
+        <v>24</v>
+      </c>
+      <c r="L505" t="s">
+        <v>208</v>
+      </c>
+      <c r="M505" t="s">
+        <v>208</v>
+      </c>
+      <c r="N505">
+        <v>48.076535242512797</v>
+      </c>
+      <c r="O505">
+        <v>1</v>
+      </c>
+      <c r="P505">
+        <v>1600</v>
+      </c>
+      <c r="Q505">
+        <v>1</v>
+      </c>
+      <c r="R505">
+        <v>30.33884948778563</v>
+      </c>
+      <c r="S505" t="s">
+        <v>101</v>
+      </c>
+      <c r="T505" t="s">
+        <v>210</v>
+      </c>
+      <c r="U505" s="1">
+        <v>1</v>
+      </c>
+      <c r="V505" s="1">
+        <v>2</v>
+      </c>
+      <c r="W505" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>78</v>
+      </c>
+      <c r="B506" t="s">
+        <v>206</v>
+      </c>
+      <c r="C506" t="s">
+        <v>29</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>20.5</v>
+      </c>
+      <c r="H506">
+        <v>24</v>
+      </c>
+      <c r="I506">
+        <v>24</v>
+      </c>
+      <c r="J506">
+        <v>24</v>
+      </c>
+      <c r="L506" t="s">
+        <v>209</v>
+      </c>
+      <c r="M506" t="s">
+        <v>209</v>
+      </c>
+      <c r="N506">
+        <v>1972.5</v>
+      </c>
+      <c r="O506">
+        <v>1</v>
+      </c>
+      <c r="P506">
+        <v>1600</v>
+      </c>
+      <c r="Q506">
+        <v>1</v>
+      </c>
+      <c r="R506">
+        <v>61.111111111111107</v>
+      </c>
+      <c r="S506" t="s">
+        <v>101</v>
+      </c>
+      <c r="T506" t="s">
+        <v>210</v>
+      </c>
+      <c r="U506" s="1">
+        <v>1</v>
+      </c>
+      <c r="V506" s="1">
+        <v>2</v>
+      </c>
+      <c r="W506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>78</v>
+      </c>
+      <c r="B507" t="s">
+        <v>206</v>
+      </c>
+      <c r="C507" t="s">
+        <v>29</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+      <c r="G507">
+        <v>20.5</v>
+      </c>
+      <c r="H507">
+        <v>24</v>
+      </c>
+      <c r="I507" s="5">
+        <v>21</v>
+      </c>
+      <c r="J507" s="5">
+        <v>27</v>
+      </c>
+      <c r="K507">
+        <v>24</v>
+      </c>
+      <c r="L507" t="s">
+        <v>209</v>
+      </c>
+      <c r="M507" t="s">
+        <v>209</v>
+      </c>
+      <c r="N507">
+        <v>1925</v>
+      </c>
+      <c r="O507">
+        <v>1</v>
+      </c>
+      <c r="P507">
+        <v>1600</v>
+      </c>
+      <c r="Q507">
+        <v>1</v>
+      </c>
+      <c r="R507">
+        <v>59.259259259259252</v>
+      </c>
+      <c r="S507" t="s">
+        <v>101</v>
+      </c>
+      <c r="T507" t="s">
+        <v>210</v>
+      </c>
+      <c r="U507" s="1">
+        <v>1</v>
+      </c>
+      <c r="V507" s="1">
+        <v>2</v>
+      </c>
+      <c r="W507" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>78</v>
+      </c>
+      <c r="B508" t="s">
+        <v>206</v>
+      </c>
+      <c r="C508" t="s">
+        <v>29</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>20.5</v>
+      </c>
+      <c r="H508">
+        <v>17</v>
+      </c>
+      <c r="I508">
+        <v>17</v>
+      </c>
+      <c r="J508">
+        <v>17</v>
+      </c>
+      <c r="L508" t="s">
+        <v>207</v>
+      </c>
+      <c r="M508" t="s">
+        <v>207</v>
+      </c>
+      <c r="N508">
+        <v>83.807526384141099</v>
+      </c>
+      <c r="O508">
+        <v>1</v>
+      </c>
+      <c r="P508">
+        <v>1600</v>
+      </c>
+      <c r="Q508">
+        <v>1</v>
+      </c>
+      <c r="R508">
+        <v>65.825868262015703</v>
+      </c>
+      <c r="S508" t="s">
+        <v>101</v>
+      </c>
+      <c r="T508" t="s">
+        <v>210</v>
+      </c>
+      <c r="U508" s="1">
+        <v>1</v>
+      </c>
+      <c r="V508" s="1">
+        <v>2</v>
+      </c>
+      <c r="W508" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>78</v>
+      </c>
+      <c r="B509" t="s">
+        <v>206</v>
+      </c>
+      <c r="C509" t="s">
+        <v>29</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>20.5</v>
+      </c>
+      <c r="H509">
+        <v>17</v>
+      </c>
+      <c r="I509" s="5">
+        <v>14</v>
+      </c>
+      <c r="J509" s="5">
+        <v>20</v>
+      </c>
+      <c r="K509">
+        <v>24</v>
+      </c>
+      <c r="L509" t="s">
+        <v>207</v>
+      </c>
+      <c r="M509" t="s">
+        <v>207</v>
+      </c>
+      <c r="N509">
+        <v>81.6027526085593</v>
+      </c>
+      <c r="O509">
+        <v>1</v>
+      </c>
+      <c r="P509">
+        <v>1600</v>
+      </c>
+      <c r="Q509">
+        <v>1</v>
+      </c>
+      <c r="R509">
+        <v>72.331440873483203</v>
+      </c>
+      <c r="S509" t="s">
+        <v>101</v>
+      </c>
+      <c r="T509" t="s">
+        <v>210</v>
+      </c>
+      <c r="U509" s="1">
+        <v>1</v>
+      </c>
+      <c r="V509" s="1">
+        <v>2</v>
+      </c>
+      <c r="W509" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>78</v>
+      </c>
+      <c r="B510" t="s">
+        <v>206</v>
+      </c>
+      <c r="C510" t="s">
+        <v>29</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>20.5</v>
+      </c>
+      <c r="H510">
+        <v>17</v>
+      </c>
+      <c r="I510">
+        <v>17</v>
+      </c>
+      <c r="J510">
+        <v>17</v>
+      </c>
+      <c r="L510" t="s">
+        <v>208</v>
+      </c>
+      <c r="M510" t="s">
+        <v>208</v>
+      </c>
+      <c r="N510">
+        <v>54.993025561736303</v>
+      </c>
+      <c r="O510">
+        <v>1</v>
+      </c>
+      <c r="P510">
+        <v>1600</v>
+      </c>
+      <c r="Q510">
+        <v>1</v>
+      </c>
+      <c r="R510">
+        <v>32.306494350424884</v>
+      </c>
+      <c r="S510" t="s">
+        <v>101</v>
+      </c>
+      <c r="T510" t="s">
+        <v>210</v>
+      </c>
+      <c r="U510" s="1">
+        <v>1</v>
+      </c>
+      <c r="V510" s="1">
+        <v>2</v>
+      </c>
+      <c r="W510" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>78</v>
+      </c>
+      <c r="B511" t="s">
+        <v>206</v>
+      </c>
+      <c r="C511" t="s">
+        <v>29</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <v>20.5</v>
+      </c>
+      <c r="H511">
+        <v>17</v>
+      </c>
+      <c r="I511" s="5">
+        <v>14</v>
+      </c>
+      <c r="J511" s="5">
+        <v>20</v>
+      </c>
+      <c r="K511">
+        <v>24</v>
+      </c>
+      <c r="L511" t="s">
+        <v>208</v>
+      </c>
+      <c r="M511" t="s">
+        <v>208</v>
+      </c>
+      <c r="N511">
+        <v>54.995546443036403</v>
+      </c>
+      <c r="O511">
+        <v>1</v>
+      </c>
+      <c r="P511">
+        <v>1600</v>
+      </c>
+      <c r="Q511">
+        <v>1</v>
+      </c>
+      <c r="R511">
+        <v>37.036414597209856</v>
+      </c>
+      <c r="S511" t="s">
+        <v>101</v>
+      </c>
+      <c r="T511" t="s">
+        <v>210</v>
+      </c>
+      <c r="U511" s="1">
+        <v>1</v>
+      </c>
+      <c r="V511" s="1">
+        <v>2</v>
+      </c>
+      <c r="W511" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>78</v>
+      </c>
+      <c r="B512" t="s">
+        <v>206</v>
+      </c>
+      <c r="C512" t="s">
+        <v>29</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+      <c r="G512">
+        <v>20.5</v>
+      </c>
+      <c r="H512">
+        <v>17</v>
+      </c>
+      <c r="I512">
+        <v>17</v>
+      </c>
+      <c r="J512">
+        <v>17</v>
+      </c>
+      <c r="L512" t="s">
+        <v>209</v>
+      </c>
+      <c r="M512" t="s">
+        <v>209</v>
+      </c>
+      <c r="N512">
+        <v>2252.5</v>
+      </c>
+      <c r="O512">
+        <v>1</v>
+      </c>
+      <c r="P512">
+        <v>1600</v>
+      </c>
+      <c r="Q512">
+        <v>1</v>
+      </c>
+      <c r="R512">
+        <v>70.370370370370367</v>
+      </c>
+      <c r="S512" t="s">
+        <v>101</v>
+      </c>
+      <c r="T512" t="s">
+        <v>210</v>
+      </c>
+      <c r="U512" s="1">
+        <v>1</v>
+      </c>
+      <c r="V512" s="1">
+        <v>2</v>
+      </c>
+      <c r="W512" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>78</v>
+      </c>
+      <c r="B513" t="s">
+        <v>206</v>
+      </c>
+      <c r="C513" t="s">
+        <v>29</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513">
+        <v>20.5</v>
+      </c>
+      <c r="H513">
+        <v>17</v>
+      </c>
+      <c r="I513" s="5">
+        <v>14</v>
+      </c>
+      <c r="J513" s="5">
+        <v>20</v>
+      </c>
+      <c r="K513">
+        <v>24</v>
+      </c>
+      <c r="L513" t="s">
+        <v>209</v>
+      </c>
+      <c r="M513" t="s">
+        <v>209</v>
+      </c>
+      <c r="N513">
+        <v>2207.5</v>
+      </c>
+      <c r="O513">
+        <v>1</v>
+      </c>
+      <c r="P513">
+        <v>1600</v>
+      </c>
+      <c r="Q513">
+        <v>1</v>
+      </c>
+      <c r="R513">
+        <v>79.629629629629619</v>
+      </c>
+      <c r="S513" t="s">
+        <v>101</v>
+      </c>
+      <c r="T513" t="s">
+        <v>210</v>
+      </c>
+      <c r="U513" s="1">
+        <v>1</v>
+      </c>
+      <c r="V513" s="1">
+        <v>2</v>
+      </c>
+      <c r="W513" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>79</v>
+      </c>
+      <c r="B514" t="s">
+        <v>206</v>
+      </c>
+      <c r="C514" t="s">
+        <v>52</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
+        <v>0</v>
+      </c>
+      <c r="G514">
+        <v>20.5</v>
+      </c>
+      <c r="H514">
+        <v>21</v>
+      </c>
+      <c r="I514">
+        <v>21</v>
+      </c>
+      <c r="J514">
+        <v>21</v>
+      </c>
+      <c r="L514" t="s">
+        <v>209</v>
+      </c>
+      <c r="M514" t="s">
+        <v>209</v>
+      </c>
+      <c r="N514">
+        <v>2242.07650273224</v>
+      </c>
+      <c r="O514">
+        <v>1</v>
+      </c>
+      <c r="P514">
+        <v>480</v>
+      </c>
+      <c r="Q514">
+        <v>1</v>
+      </c>
+      <c r="R514">
+        <v>64.764217769681494</v>
+      </c>
+      <c r="S514" t="s">
+        <v>101</v>
+      </c>
+      <c r="T514" t="s">
+        <v>210</v>
+      </c>
+      <c r="U514" s="1">
+        <v>1</v>
+      </c>
+      <c r="V514" s="1">
+        <v>2</v>
+      </c>
+      <c r="W514" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>79</v>
+      </c>
+      <c r="B515" t="s">
+        <v>206</v>
+      </c>
+      <c r="C515" t="s">
+        <v>52</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>20.5</v>
+      </c>
+      <c r="H515">
+        <v>24</v>
+      </c>
+      <c r="I515" s="5">
+        <v>21</v>
+      </c>
+      <c r="J515" s="5">
+        <v>27</v>
+      </c>
+      <c r="K515">
+        <v>24</v>
+      </c>
+      <c r="L515" t="s">
+        <v>209</v>
+      </c>
+      <c r="M515" t="s">
+        <v>209</v>
+      </c>
+      <c r="N515">
+        <v>2006.0109289617401</v>
+      </c>
+      <c r="O515">
+        <v>1</v>
+      </c>
+      <c r="P515">
+        <v>480</v>
+      </c>
+      <c r="Q515">
+        <v>1</v>
+      </c>
+      <c r="R515">
+        <v>74.478850435133509</v>
+      </c>
+      <c r="S515" t="s">
+        <v>101</v>
+      </c>
+      <c r="T515" t="s">
+        <v>210</v>
+      </c>
+      <c r="U515" s="1">
+        <v>1</v>
+      </c>
+      <c r="V515" s="1">
+        <v>2</v>
+      </c>
+      <c r="W515" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>79</v>
+      </c>
+      <c r="B516" t="s">
+        <v>206</v>
+      </c>
+      <c r="C516" t="s">
+        <v>52</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>20.5</v>
+      </c>
+      <c r="H516">
+        <v>27</v>
+      </c>
+      <c r="I516">
+        <v>27</v>
+      </c>
+      <c r="J516">
+        <v>27</v>
+      </c>
+      <c r="L516" t="s">
+        <v>209</v>
+      </c>
+      <c r="M516" t="s">
+        <v>209</v>
+      </c>
+      <c r="N516">
+        <v>1936.0655737704899</v>
+      </c>
+      <c r="O516">
+        <v>1</v>
+      </c>
+      <c r="P516">
+        <v>480</v>
+      </c>
+      <c r="Q516">
+        <v>1</v>
+      </c>
+      <c r="R516">
+        <v>84.193483100592587</v>
+      </c>
+      <c r="S516" t="s">
+        <v>101</v>
+      </c>
+      <c r="T516" t="s">
+        <v>210</v>
+      </c>
+      <c r="U516" s="1">
+        <v>1</v>
+      </c>
+      <c r="V516" s="1">
+        <v>2</v>
+      </c>
+      <c r="W516" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B517" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /extraction /data/metanaly_fulldataset.xlsx
+++ b/data extraction /extraction /data/metanaly_fulldataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588EF591-C0B7-244A-8132-C6763BABB014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D07183-EA0D-0346-A4B4-816AF2C6BC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="-7060" windowWidth="23540" windowHeight="11100" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="27400" windowHeight="15160" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
   <sheets>
     <sheet name="metanaly_fulldataset" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="219">
   <si>
     <t>study_id</t>
   </si>
@@ -659,12 +659,36 @@
   <si>
     <t>birchii</t>
   </si>
+  <si>
+    <t>figure 5a</t>
+  </si>
+  <si>
+    <t>figure 5b</t>
+  </si>
+  <si>
+    <t>figure 5c</t>
+  </si>
+  <si>
+    <t>duncan2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phage density </t>
+  </si>
+  <si>
+    <t>ml^-1</t>
+  </si>
+  <si>
+    <t>lytic phage</t>
+  </si>
+  <si>
+    <t>SBWΦ2.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,6 +708,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -706,13 +736,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBDD29-FB0D-9242-849C-099DCE2463A5}">
-  <dimension ref="A1:AG517"/>
+  <dimension ref="A1:AG527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D520" sqref="D520"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C531" sqref="C531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7560,6 +7591,9 @@
       <c r="O90">
         <v>0</v>
       </c>
+      <c r="P90">
+        <v>7</v>
+      </c>
       <c r="Q90">
         <v>0</v>
       </c>
@@ -7625,6 +7659,9 @@
       <c r="O91">
         <v>0</v>
       </c>
+      <c r="P91">
+        <v>7</v>
+      </c>
       <c r="Q91">
         <v>0</v>
       </c>
@@ -7684,6 +7721,9 @@
       <c r="O92">
         <v>0</v>
       </c>
+      <c r="P92">
+        <v>7</v>
+      </c>
       <c r="Q92">
         <v>0</v>
       </c>
@@ -7749,6 +7789,9 @@
       <c r="O93">
         <v>0</v>
       </c>
+      <c r="P93">
+        <v>7</v>
+      </c>
       <c r="Q93">
         <v>0</v>
       </c>
@@ -7808,6 +7851,9 @@
       <c r="O94">
         <v>0</v>
       </c>
+      <c r="P94">
+        <v>7</v>
+      </c>
       <c r="Q94">
         <v>0</v>
       </c>
@@ -7873,6 +7919,9 @@
       <c r="O95">
         <v>0</v>
       </c>
+      <c r="P95">
+        <v>7</v>
+      </c>
       <c r="Q95">
         <v>0</v>
       </c>
@@ -7932,6 +7981,9 @@
       <c r="O96">
         <v>0</v>
       </c>
+      <c r="P96">
+        <v>7</v>
+      </c>
       <c r="Q96">
         <v>0</v>
       </c>
@@ -7997,6 +8049,9 @@
       <c r="O97">
         <v>0</v>
       </c>
+      <c r="P97">
+        <v>7</v>
+      </c>
       <c r="Q97">
         <v>0</v>
       </c>
@@ -8056,6 +8111,9 @@
       <c r="O98">
         <v>0</v>
       </c>
+      <c r="P98">
+        <v>7</v>
+      </c>
       <c r="Q98">
         <v>0</v>
       </c>
@@ -8121,6 +8179,9 @@
       <c r="O99">
         <v>0</v>
       </c>
+      <c r="P99">
+        <v>7</v>
+      </c>
       <c r="Q99">
         <v>0</v>
       </c>
@@ -8180,6 +8241,9 @@
       <c r="O100">
         <v>0</v>
       </c>
+      <c r="P100">
+        <v>7</v>
+      </c>
       <c r="Q100">
         <v>0</v>
       </c>
@@ -8245,6 +8309,9 @@
       <c r="O101">
         <v>0</v>
       </c>
+      <c r="P101">
+        <v>7</v>
+      </c>
       <c r="Q101">
         <v>0</v>
       </c>
@@ -8304,6 +8371,9 @@
       <c r="O102">
         <v>0</v>
       </c>
+      <c r="P102">
+        <v>7</v>
+      </c>
       <c r="Q102">
         <v>0</v>
       </c>
@@ -8369,6 +8439,9 @@
       <c r="O103">
         <v>0</v>
       </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
       <c r="Q103">
         <v>0</v>
       </c>
@@ -8428,6 +8501,9 @@
       <c r="O104">
         <v>0</v>
       </c>
+      <c r="P104">
+        <v>7</v>
+      </c>
       <c r="Q104">
         <v>0</v>
       </c>
@@ -8493,6 +8569,9 @@
       <c r="O105">
         <v>0</v>
       </c>
+      <c r="P105">
+        <v>7</v>
+      </c>
       <c r="Q105">
         <v>0</v>
       </c>
@@ -8552,6 +8631,9 @@
       <c r="O106">
         <v>0</v>
       </c>
+      <c r="P106">
+        <v>7</v>
+      </c>
       <c r="Q106">
         <v>0</v>
       </c>
@@ -8617,6 +8699,9 @@
       <c r="O107">
         <v>0</v>
       </c>
+      <c r="P107">
+        <v>7</v>
+      </c>
       <c r="Q107">
         <v>0</v>
       </c>
@@ -8682,6 +8767,9 @@
       <c r="O108">
         <v>0</v>
       </c>
+      <c r="P108">
+        <v>7</v>
+      </c>
       <c r="Q108">
         <v>0</v>
       </c>
@@ -8741,6 +8829,9 @@
       <c r="O109">
         <v>0</v>
       </c>
+      <c r="P109">
+        <v>7</v>
+      </c>
       <c r="Q109">
         <v>0</v>
       </c>
@@ -8806,6 +8897,9 @@
       <c r="O110">
         <v>0</v>
       </c>
+      <c r="P110">
+        <v>7</v>
+      </c>
       <c r="Q110">
         <v>0</v>
       </c>
@@ -8871,6 +8965,9 @@
       <c r="O111">
         <v>0</v>
       </c>
+      <c r="P111">
+        <v>7</v>
+      </c>
       <c r="Q111">
         <v>0</v>
       </c>
@@ -8930,6 +9027,9 @@
       <c r="O112">
         <v>0</v>
       </c>
+      <c r="P112">
+        <v>7</v>
+      </c>
       <c r="Q112">
         <v>0</v>
       </c>
@@ -8995,6 +9095,9 @@
       <c r="O113">
         <v>0</v>
       </c>
+      <c r="P113">
+        <v>7</v>
+      </c>
       <c r="Q113">
         <v>0</v>
       </c>
@@ -9060,6 +9163,9 @@
       <c r="O114">
         <v>0</v>
       </c>
+      <c r="P114">
+        <v>7</v>
+      </c>
       <c r="Q114">
         <v>0</v>
       </c>
@@ -9119,6 +9225,9 @@
       <c r="O115">
         <v>0</v>
       </c>
+      <c r="P115">
+        <v>7</v>
+      </c>
       <c r="Q115">
         <v>0</v>
       </c>
@@ -9184,6 +9293,9 @@
       <c r="O116">
         <v>0</v>
       </c>
+      <c r="P116">
+        <v>7</v>
+      </c>
       <c r="Q116">
         <v>0</v>
       </c>
@@ -9249,6 +9361,9 @@
       <c r="O117">
         <v>0</v>
       </c>
+      <c r="P117">
+        <v>7</v>
+      </c>
       <c r="Q117">
         <v>0</v>
       </c>
@@ -37985,8 +38100,715 @@
       </c>
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>80</v>
+      </c>
       <c r="B517" t="s">
         <v>69</v>
+      </c>
+      <c r="C517" t="s">
+        <v>211</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>24</v>
+      </c>
+      <c r="I517">
+        <v>24</v>
+      </c>
+      <c r="J517">
+        <v>24</v>
+      </c>
+      <c r="L517" t="s">
+        <v>85</v>
+      </c>
+      <c r="M517" t="s">
+        <v>86</v>
+      </c>
+      <c r="N517">
+        <v>39.721402927368104</v>
+      </c>
+      <c r="O517">
+        <v>1</v>
+      </c>
+      <c r="P517">
+        <v>7</v>
+      </c>
+      <c r="Q517">
+        <v>0</v>
+      </c>
+      <c r="R517">
+        <v>7.5117370891998547E-2</v>
+      </c>
+      <c r="S517" t="s">
+        <v>74</v>
+      </c>
+      <c r="T517" t="s">
+        <v>75</v>
+      </c>
+      <c r="U517" s="6">
+        <v>1</v>
+      </c>
+      <c r="V517" s="6">
+        <v>1</v>
+      </c>
+      <c r="W517" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>80</v>
+      </c>
+      <c r="B518" t="s">
+        <v>69</v>
+      </c>
+      <c r="C518" t="s">
+        <v>211</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>25</v>
+      </c>
+      <c r="I518">
+        <v>20</v>
+      </c>
+      <c r="J518">
+        <v>30</v>
+      </c>
+      <c r="K518">
+        <v>24</v>
+      </c>
+      <c r="L518" t="s">
+        <v>85</v>
+      </c>
+      <c r="M518" t="s">
+        <v>86</v>
+      </c>
+      <c r="N518">
+        <v>40.514995857497901</v>
+      </c>
+      <c r="O518">
+        <v>1</v>
+      </c>
+      <c r="P518">
+        <v>7</v>
+      </c>
+      <c r="Q518">
+        <v>0</v>
+      </c>
+      <c r="R518">
+        <v>0.16901408450705091</v>
+      </c>
+      <c r="S518" t="s">
+        <v>74</v>
+      </c>
+      <c r="T518" t="s">
+        <v>75</v>
+      </c>
+      <c r="U518" s="6">
+        <v>1</v>
+      </c>
+      <c r="V518" s="6">
+        <v>1</v>
+      </c>
+      <c r="W518" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>80</v>
+      </c>
+      <c r="B519" t="s">
+        <v>69</v>
+      </c>
+      <c r="C519" t="s">
+        <v>212</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>24</v>
+      </c>
+      <c r="I519">
+        <v>24</v>
+      </c>
+      <c r="J519">
+        <v>24</v>
+      </c>
+      <c r="L519" t="s">
+        <v>85</v>
+      </c>
+      <c r="M519" t="s">
+        <v>86</v>
+      </c>
+      <c r="N519">
+        <v>40.488262910798099</v>
+      </c>
+      <c r="O519">
+        <v>1</v>
+      </c>
+      <c r="P519">
+        <v>7</v>
+      </c>
+      <c r="Q519">
+        <v>0</v>
+      </c>
+      <c r="R519">
+        <v>0.11267605633804934</v>
+      </c>
+      <c r="S519" t="s">
+        <v>74</v>
+      </c>
+      <c r="T519" t="s">
+        <v>76</v>
+      </c>
+      <c r="U519" s="6">
+        <v>1</v>
+      </c>
+      <c r="V519" s="6">
+        <v>1</v>
+      </c>
+      <c r="W519" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>80</v>
+      </c>
+      <c r="B520" t="s">
+        <v>69</v>
+      </c>
+      <c r="C520" t="s">
+        <v>212</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>25</v>
+      </c>
+      <c r="I520">
+        <v>20</v>
+      </c>
+      <c r="J520">
+        <v>30</v>
+      </c>
+      <c r="K520">
+        <v>24</v>
+      </c>
+      <c r="L520" t="s">
+        <v>85</v>
+      </c>
+      <c r="M520" t="s">
+        <v>86</v>
+      </c>
+      <c r="N520">
+        <v>41.577227075533301</v>
+      </c>
+      <c r="O520">
+        <v>1</v>
+      </c>
+      <c r="P520">
+        <v>7</v>
+      </c>
+      <c r="Q520">
+        <v>0</v>
+      </c>
+      <c r="R520">
+        <v>9.389671361504881E-2</v>
+      </c>
+      <c r="S520" t="s">
+        <v>74</v>
+      </c>
+      <c r="T520" t="s">
+        <v>76</v>
+      </c>
+      <c r="U520" s="6">
+        <v>1</v>
+      </c>
+      <c r="V520" s="6">
+        <v>1</v>
+      </c>
+      <c r="W520" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>80</v>
+      </c>
+      <c r="B521" t="s">
+        <v>69</v>
+      </c>
+      <c r="C521" t="s">
+        <v>213</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>24</v>
+      </c>
+      <c r="I521">
+        <v>24</v>
+      </c>
+      <c r="J521">
+        <v>24</v>
+      </c>
+      <c r="L521" t="s">
+        <v>85</v>
+      </c>
+      <c r="M521" t="s">
+        <v>86</v>
+      </c>
+      <c r="N521">
+        <v>41.735849056603698</v>
+      </c>
+      <c r="O521">
+        <v>1</v>
+      </c>
+      <c r="P521">
+        <v>7</v>
+      </c>
+      <c r="Q521">
+        <v>0</v>
+      </c>
+      <c r="R521">
+        <v>0.15094339622639907</v>
+      </c>
+      <c r="S521" t="s">
+        <v>77</v>
+      </c>
+      <c r="T521" t="s">
+        <v>78</v>
+      </c>
+      <c r="U521" s="6">
+        <v>1</v>
+      </c>
+      <c r="V521" s="6">
+        <v>1</v>
+      </c>
+      <c r="W521" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>80</v>
+      </c>
+      <c r="B522" t="s">
+        <v>69</v>
+      </c>
+      <c r="C522" t="s">
+        <v>213</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>25</v>
+      </c>
+      <c r="I522">
+        <v>20</v>
+      </c>
+      <c r="J522">
+        <v>30</v>
+      </c>
+      <c r="K522">
+        <v>24</v>
+      </c>
+      <c r="L522" t="s">
+        <v>85</v>
+      </c>
+      <c r="M522" t="s">
+        <v>86</v>
+      </c>
+      <c r="N522">
+        <v>42.905660377358402</v>
+      </c>
+      <c r="O522">
+        <v>1</v>
+      </c>
+      <c r="P522">
+        <v>7</v>
+      </c>
+      <c r="Q522">
+        <v>0</v>
+      </c>
+      <c r="R522">
+        <v>0.1320754716981476</v>
+      </c>
+      <c r="S522" t="s">
+        <v>77</v>
+      </c>
+      <c r="T522" t="s">
+        <v>78</v>
+      </c>
+      <c r="U522" s="6">
+        <v>1</v>
+      </c>
+      <c r="V522" s="6">
+        <v>1</v>
+      </c>
+      <c r="W522" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>80</v>
+      </c>
+      <c r="B523" t="s">
+        <v>69</v>
+      </c>
+      <c r="C523" t="s">
+        <v>213</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>28</v>
+      </c>
+      <c r="I523">
+        <v>18</v>
+      </c>
+      <c r="J523">
+        <v>38</v>
+      </c>
+      <c r="K523">
+        <v>24</v>
+      </c>
+      <c r="L523" t="s">
+        <v>85</v>
+      </c>
+      <c r="M523" t="s">
+        <v>86</v>
+      </c>
+      <c r="N523">
+        <v>43.358490566037702</v>
+      </c>
+      <c r="O523">
+        <v>1</v>
+      </c>
+      <c r="P523">
+        <v>7</v>
+      </c>
+      <c r="Q523">
+        <v>0</v>
+      </c>
+      <c r="R523">
+        <v>0.13207547169809786</v>
+      </c>
+      <c r="S523" t="s">
+        <v>77</v>
+      </c>
+      <c r="T523" t="s">
+        <v>78</v>
+      </c>
+      <c r="U523" s="6">
+        <v>1</v>
+      </c>
+      <c r="V523" s="6">
+        <v>1</v>
+      </c>
+      <c r="W523" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>81</v>
+      </c>
+      <c r="B524" t="s">
+        <v>214</v>
+      </c>
+      <c r="C524" t="s">
+        <v>52</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>28</v>
+      </c>
+      <c r="I524">
+        <v>28</v>
+      </c>
+      <c r="J524">
+        <v>28</v>
+      </c>
+      <c r="K524">
+        <v>48</v>
+      </c>
+      <c r="L524" t="s">
+        <v>215</v>
+      </c>
+      <c r="M524" t="s">
+        <v>216</v>
+      </c>
+      <c r="N524">
+        <v>0.548371234564345</v>
+      </c>
+      <c r="O524">
+        <v>1</v>
+      </c>
+      <c r="Q524">
+        <v>0</v>
+      </c>
+      <c r="R524">
+        <v>0.1222824233956695</v>
+      </c>
+      <c r="S524" t="s">
+        <v>217</v>
+      </c>
+      <c r="T524" t="s">
+        <v>218</v>
+      </c>
+      <c r="U524" s="6">
+        <v>3</v>
+      </c>
+      <c r="V524" s="6">
+        <v>1</v>
+      </c>
+      <c r="W524" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>81</v>
+      </c>
+      <c r="B525" t="s">
+        <v>214</v>
+      </c>
+      <c r="C525" t="s">
+        <v>52</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+      <c r="E525">
+        <v>4</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>30</v>
+      </c>
+      <c r="I525">
+        <v>28</v>
+      </c>
+      <c r="J525">
+        <v>32</v>
+      </c>
+      <c r="K525">
+        <v>48</v>
+      </c>
+      <c r="L525" t="s">
+        <v>215</v>
+      </c>
+      <c r="M525" t="s">
+        <v>216</v>
+      </c>
+      <c r="N525">
+        <v>-0.845099459477481</v>
+      </c>
+      <c r="O525">
+        <v>1</v>
+      </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
+      <c r="R525">
+        <v>0.11956503620909947</v>
+      </c>
+      <c r="S525" t="s">
+        <v>217</v>
+      </c>
+      <c r="T525" t="s">
+        <v>218</v>
+      </c>
+      <c r="U525" s="6">
+        <v>3</v>
+      </c>
+      <c r="V525" s="6">
+        <v>1</v>
+      </c>
+      <c r="W525" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>81</v>
+      </c>
+      <c r="B526" t="s">
+        <v>214</v>
+      </c>
+      <c r="C526" t="s">
+        <v>52</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>32</v>
+      </c>
+      <c r="I526">
+        <v>32</v>
+      </c>
+      <c r="J526">
+        <v>32</v>
+      </c>
+      <c r="K526">
+        <v>48</v>
+      </c>
+      <c r="L526" t="s">
+        <v>215</v>
+      </c>
+      <c r="M526" t="s">
+        <v>216</v>
+      </c>
+      <c r="N526">
+        <v>-0.59619088461124703</v>
+      </c>
+      <c r="O526">
+        <v>1</v>
+      </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
+      <c r="R526">
+        <v>0.11413026183595801</v>
+      </c>
+      <c r="S526" t="s">
+        <v>217</v>
+      </c>
+      <c r="T526" t="s">
+        <v>218</v>
+      </c>
+      <c r="U526" s="6">
+        <v>3</v>
+      </c>
+      <c r="V526" s="6">
+        <v>1</v>
+      </c>
+      <c r="W526" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>81</v>
+      </c>
+      <c r="B527" t="s">
+        <v>214</v>
+      </c>
+      <c r="C527" t="s">
+        <v>52</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>4</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>30</v>
+      </c>
+      <c r="I527">
+        <v>28</v>
+      </c>
+      <c r="J527">
+        <v>32</v>
+      </c>
+      <c r="K527">
+        <v>48</v>
+      </c>
+      <c r="L527" t="s">
+        <v>215</v>
+      </c>
+      <c r="M527" t="s">
+        <v>216</v>
+      </c>
+      <c r="N527">
+        <v>2.4135967098892701</v>
+      </c>
+      <c r="O527">
+        <v>1</v>
+      </c>
+      <c r="Q527">
+        <v>0</v>
+      </c>
+      <c r="R527">
+        <v>0.28260826740332501</v>
+      </c>
+      <c r="S527" t="s">
+        <v>217</v>
+      </c>
+      <c r="T527" t="s">
+        <v>218</v>
+      </c>
+      <c r="U527" s="6">
+        <v>3</v>
+      </c>
+      <c r="V527" s="6">
+        <v>1</v>
+      </c>
+      <c r="W527" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
